--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
   <si>
     <t>McuSTUDIO_F470VET6</t>
   </si>
@@ -74,15 +74,15 @@
     <t>btod.o</t>
   </si>
   <si>
+    <t>system_function.o</t>
+  </si>
+  <si>
     <t>gd25qxx.o</t>
   </si>
   <si>
     <t>fz_wm.l</t>
   </si>
   <si>
-    <t>system_function.o</t>
-  </si>
-  <si>
     <t>scanf_fp.o</t>
   </si>
   <si>
@@ -338,9 +338,6 @@
     <t>libinit2.o</t>
   </si>
   <si>
-    <t>strstr.o</t>
-  </si>
-  <si>
     <t>init_aeabi.o</t>
   </si>
   <si>
@@ -359,10 +356,10 @@
     <t>dcmpi.o</t>
   </si>
   <si>
-    <t>strcat.o</t>
-  </si>
-  <si>
     <t>_rserrno.o</t>
+  </si>
+  <si>
+    <t>strchr.o</t>
   </si>
   <si>
     <t>adc_app.o</t>
@@ -650,9 +647,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$174</c:f>
+              <c:f>ram_percent!$A$3:$A$173</c:f>
               <c:strCache>
-                <c:ptCount val="172"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>startup_gd32f450_470.o</c:v>
                 </c:pt>
@@ -704,7 +701,7 @@
                 <c:pt idx="16">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="170">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -712,10 +709,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$174</c:f>
+              <c:f>ram_percent!$B$3:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>46.26157760620117</c:v>
                 </c:pt>
@@ -767,7 +764,7 @@
                 <c:pt idx="16">
                   <c:v>0.09035464376211166</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -835,9 +832,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$174</c:f>
+              <c:f>flash_percent!$A$3:$A$173</c:f>
               <c:strCache>
-                <c:ptCount val="172"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -857,19 +854,19 @@
                   <c:v>btod.o</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>system_function.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>ebtn.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>gd25qxx.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>system_function.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>scanf_fp.o</c:v>
@@ -1154,204 +1151,201 @@
                   <c:v>libinit2.o</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>strstr.o</c:v>
+                  <c:v>init_aeabi.o</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>init_aeabi.o</c:v>
+                  <c:v>_printf_truncate.o</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>_printf_truncate.o</c:v>
+                  <c:v>systick_wrapper_ual.o</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>systick_wrapper_ual.o</c:v>
+                  <c:v>_chval.o</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>_chval.o</c:v>
+                  <c:v>__scatter_zi.o</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>__scatter_zi.o</c:v>
+                  <c:v>dcmpi.o</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>dcmpi.o</c:v>
+                  <c:v>_rserrno.o</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>strcat.o</c:v>
+                  <c:v>strchr.o</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>_rserrno.o</c:v>
+                  <c:v>adc_app.o</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>adc_app.o</c:v>
+                  <c:v>isspace.o</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>isspace.o</c:v>
+                  <c:v>exit.o</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>exit.o</c:v>
+                  <c:v>fpconst.o</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>fpconst.o</c:v>
+                  <c:v>dcheck1.o</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>dcheck1.o</c:v>
+                  <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>rt_ctype_table.o</c:v>
+                  <c:v>_snputc.o</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>_snputc.o</c:v>
+                  <c:v>gd32f4xx_pmu.o</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>gd32f4xx_pmu.o</c:v>
+                  <c:v>__printf_wp.o</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>__printf_wp.o</c:v>
+                  <c:v>dretinf.o</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>dretinf.o</c:v>
+                  <c:v>sys_exit.o</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>sys_exit.o</c:v>
+                  <c:v>__rtentry2.o</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>__rtentry2.o</c:v>
+                  <c:v>rtc_app.o</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>rtc_app.o</c:v>
+                  <c:v>fretinf.o</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>fretinf.o</c:v>
+                  <c:v>fpinit.o</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>fpinit.o</c:v>
+                  <c:v>rtexit2.o</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>rtexit2.o</c:v>
+                  <c:v>_sputc.o</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>_sputc.o</c:v>
+                  <c:v>_printf_ll.o</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>_printf_ll.o</c:v>
+                  <c:v>_printf_l.o</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>_printf_l.o</c:v>
+                  <c:v>sd_app.o</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>sd_app.o</c:v>
+                  <c:v>scanf2.o</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>scanf2.o</c:v>
+                  <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>rt_locale_intlibspace.o</c:v>
+                  <c:v>rt_errno_addr_intlibspace.o</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>rt_errno_addr_intlibspace.o</c:v>
+                  <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>libspace.o</c:v>
+                  <c:v>__main.o</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>__main.o</c:v>
+                  <c:v>istatus.o</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>istatus.o</c:v>
+                  <c:v>heapauxi.o</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>heapauxi.o</c:v>
+                  <c:v>_printf_x.o</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>_printf_x.o</c:v>
+                  <c:v>_printf_u.o</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>_printf_u.o</c:v>
+                  <c:v>_printf_s.o</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>_printf_s.o</c:v>
+                  <c:v>_printf_p.o</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>_printf_p.o</c:v>
+                  <c:v>_printf_o.o</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>_printf_o.o</c:v>
+                  <c:v>_printf_n.o</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>_printf_n.o</c:v>
+                  <c:v>_printf_ls.o</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>_printf_ls.o</c:v>
+                  <c:v>_printf_llx.o</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>_printf_llx.o</c:v>
+                  <c:v>_printf_llu.o</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>_printf_llu.o</c:v>
+                  <c:v>_printf_llo.o</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>_printf_llo.o</c:v>
+                  <c:v>_printf_lli.o</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>_printf_lli.o</c:v>
+                  <c:v>_printf_lld.o</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>_printf_lld.o</c:v>
+                  <c:v>_printf_lc.o</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>_printf_lc.o</c:v>
+                  <c:v>_printf_i.o</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>_printf_i.o</c:v>
+                  <c:v>_printf_g.o</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>_printf_g.o</c:v>
+                  <c:v>_printf_f.o</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>_printf_f.o</c:v>
+                  <c:v>_printf_e.o</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>_printf_e.o</c:v>
+                  <c:v>_printf_d.o</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>_printf_d.o</c:v>
+                  <c:v>_printf_c.o</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>_printf_c.o</c:v>
+                  <c:v>_printf_a.o</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>_printf_a.o</c:v>
+                  <c:v>__rtentry4.o</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>__rtentry4.o</c:v>
+                  <c:v>scanf1.o</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>scanf1.o</c:v>
+                  <c:v>printf2.o</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>printf2.o</c:v>
+                  <c:v>printf1.o</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>printf1.o</c:v>
+                  <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>_printf_percent_end.o</c:v>
+                  <c:v>use_no_semi.o</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>use_no_semi.o</c:v>
+                  <c:v>rtexit.o</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>rtexit.o</c:v>
+                  <c:v>libshutdown2.o</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>libshutdown2.o</c:v>
+                  <c:v>libshutdown.o</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>libshutdown.o</c:v>
+                  <c:v>libinit.o</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>libinit.o</c:v>
-                </c:pt>
-                <c:pt idx="171">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1359,524 +1353,521 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$174</c:f>
+              <c:f>flash_percent!$B$3:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
-                  <c:v>20.04913139343262</c:v>
+                  <c:v>20.08499526977539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.453177452087402</c:v>
+                  <c:v>9.499554634094238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.934402942657471</c:v>
+                  <c:v>6.277830600738525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.017071723937988</c:v>
+                  <c:v>6.046591758728027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.798109531402588</c:v>
+                  <c:v>4.496664047241211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.345927238464356</c:v>
+                  <c:v>3.362342357635498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.646267652511597</c:v>
+                  <c:v>2.662375211715698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.531212568283081</c:v>
+                  <c:v>2.659250259399414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.45347261428833</c:v>
+                  <c:v>2.543630838394165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.366403818130493</c:v>
+                  <c:v>2.465509414672852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.002580881118774</c:v>
+                  <c:v>2.378013610839844</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.977704167366028</c:v>
+                  <c:v>1.987406849861145</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.638758063316345</c:v>
+                  <c:v>1.646797776222229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.374442219734192</c:v>
+                  <c:v>1.381185293197632</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.246948719024658</c:v>
+                  <c:v>1.253066301345825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.246948719024658</c:v>
+                  <c:v>1.253066301345825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.243839144706726</c:v>
+                  <c:v>1.249941468238831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231400728225708</c:v>
+                  <c:v>1.237442016601563</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.156770348548889</c:v>
+                  <c:v>1.162445545196533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.150551199913025</c:v>
+                  <c:v>1.156195759773254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.091468811035156</c:v>
+                  <c:v>1.096823573112488</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9111121296882629</c:v>
+                  <c:v>0.9155820608139038</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8924545645713806</c:v>
+                  <c:v>0.8968329429626465</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8489201664924622</c:v>
+                  <c:v>0.8530850410461426</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.833372175693512</c:v>
+                  <c:v>0.8374607563018799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8116050362586975</c:v>
+                  <c:v>0.8155867457389832</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8053858280181885</c:v>
+                  <c:v>0.8093370795249939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7649610638618469</c:v>
+                  <c:v>0.7687139511108398</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7369746565818787</c:v>
+                  <c:v>0.7405902743339539</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6810019016265869</c:v>
+                  <c:v>0.6843429207801819</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6359127163887024</c:v>
+                  <c:v>0.6390325427055359</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6343579292297363</c:v>
+                  <c:v>0.6374701261520386</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5846043825149536</c:v>
+                  <c:v>0.5874724388122559</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5286316275596619</c:v>
+                  <c:v>0.5312250852584839</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5161932110786438</c:v>
+                  <c:v>0.5187256932258606</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4913164377212524</c:v>
+                  <c:v>0.4937268495559692</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4788780510425568</c:v>
+                  <c:v>0.4812274277210236</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4135765135288239</c:v>
+                  <c:v>0.4156055152416229</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4104669094085693</c:v>
+                  <c:v>0.4124806523323059</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3918093144893646</c:v>
+                  <c:v>0.3937315344810486</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3700421452522278</c:v>
+                  <c:v>0.3718575835227966</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3544941544532776</c:v>
+                  <c:v>0.3562332987785339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3171789646148682</c:v>
+                  <c:v>0.3187350630760193</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3047405779361725</c:v>
+                  <c:v>0.3062356412410736</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2923021912574768</c:v>
+                  <c:v>0.2937362194061279</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2798638045787811</c:v>
+                  <c:v>0.2812368273735046</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2767542004585266</c:v>
+                  <c:v>0.2781119644641876</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2736445963382721</c:v>
+                  <c:v>0.2749871015548706</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2549870312213898</c:v>
+                  <c:v>0.2562379837036133</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2425486296415329</c:v>
+                  <c:v>0.2437385767698288</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2332198321819305</c:v>
+                  <c:v>0.2343640178442001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.230110228061676</c:v>
+                  <c:v>0.2312391549348831</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.230110228061676</c:v>
+                  <c:v>0.2312391549348831</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.230110228061676</c:v>
+                  <c:v>0.2312391549348831</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2176718413829804</c:v>
+                  <c:v>0.2187397480010986</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2176718413829804</c:v>
+                  <c:v>0.2187397480010986</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2161170393228531</c:v>
+                  <c:v>0.2171773165464401</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.214562252163887</c:v>
+                  <c:v>0.2156148999929428</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.214562252163887</c:v>
+                  <c:v>0.2156148999929428</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1990142613649368</c:v>
+                  <c:v>0.1999906301498413</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1990142613649368</c:v>
+                  <c:v>0.1999906301498413</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.192795068025589</c:v>
+                  <c:v>0.1937409192323685</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1896854639053345</c:v>
+                  <c:v>0.1906160712242127</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.18657585978508</c:v>
+                  <c:v>0.1874912083148956</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.18657585978508</c:v>
+                  <c:v>0.1874912083148956</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.18657585978508</c:v>
+                  <c:v>0.1874912083148956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1741374731063843</c:v>
+                  <c:v>0.1749918013811112</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1679182797670364</c:v>
+                  <c:v>0.1687420904636383</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1616990864276886</c:v>
+                  <c:v>0.1624923795461655</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1554798930883408</c:v>
+                  <c:v>0.1562426835298538</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1554798930883408</c:v>
+                  <c:v>0.1562426835298538</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1523702889680862</c:v>
+                  <c:v>0.1531178206205368</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1430414915084839</c:v>
+                  <c:v>0.1437432616949081</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1399319022893906</c:v>
+                  <c:v>0.1406184136867523</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1368222981691361</c:v>
+                  <c:v>0.1374935507774353</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1337127089500427</c:v>
+                  <c:v>0.1343687027692795</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1337127089500427</c:v>
+                  <c:v>0.1343687027692795</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1337127089500427</c:v>
+                  <c:v>0.1343687027692795</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1274935156106949</c:v>
+                  <c:v>0.1281189918518066</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1212743148207665</c:v>
+                  <c:v>0.1218692883849144</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1212743148207665</c:v>
+                  <c:v>0.1218692883849144</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.115055114030838</c:v>
+                  <c:v>0.1156195774674416</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1119455173611641</c:v>
+                  <c:v>0.1124947294592857</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1119455173611641</c:v>
+                  <c:v>0.1124947294592857</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1119455173611641</c:v>
+                  <c:v>0.1124947294592857</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1057263240218163</c:v>
+                  <c:v>0.1062450185418129</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09950713068246841</c:v>
+                  <c:v>0.09999531507492065</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.09950713068246841</c:v>
+                  <c:v>0.09999531507492065</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.09950713068246841</c:v>
+                  <c:v>0.09999531507492065</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0963975340127945</c:v>
+                  <c:v>0.09687045961618424</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.09328792989253998</c:v>
+                  <c:v>0.09374560415744782</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.08706873655319214</c:v>
+                  <c:v>0.08749590069055557</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.08395913988351822</c:v>
+                  <c:v>0.08437104523181915</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0808495432138443</c:v>
+                  <c:v>0.08124618977308273</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0808495432138443</c:v>
+                  <c:v>0.08124618977308273</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07463034987449646</c:v>
+                  <c:v>0.07499648630619049</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07463034987449646</c:v>
+                  <c:v>0.07499648630619049</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.07463034987449646</c:v>
+                  <c:v>0.07499648630619049</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06841114908456802</c:v>
+                  <c:v>0.06874677538871765</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06841114908456802</c:v>
+                  <c:v>0.06874677538871765</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06841114908456802</c:v>
+                  <c:v>0.06874677538871765</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06841114908456802</c:v>
+                  <c:v>0.06874677538871765</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.06219195574522018</c:v>
+                  <c:v>0.06249707192182541</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05908235907554627</c:v>
+                  <c:v>0.05937221646308899</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05908235907554627</c:v>
+                  <c:v>0.05937221646308899</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05597275868058205</c:v>
+                  <c:v>0.05624736472964287</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05597275868058205</c:v>
+                  <c:v>0.05624736472964287</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.05597275868058205</c:v>
+                  <c:v>0.04999765753746033</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.04975356534123421</c:v>
+                  <c:v>0.04374795034527779</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.04353436827659607</c:v>
+                  <c:v>0.04374795034527779</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.04353436827659607</c:v>
+                  <c:v>0.03749824315309525</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03731517493724823</c:v>
+                  <c:v>0.03437338769435883</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.03731517493724823</c:v>
+                  <c:v>0.0312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.03420557454228401</c:v>
+                  <c:v>0.0312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.03109597787261009</c:v>
+                  <c:v>0.02812368236482143</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02798637934029102</c:v>
+                  <c:v>0.02812368236482143</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02798637934029102</c:v>
+                  <c:v>0.02499882876873016</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0248767826706171</c:v>
+                  <c:v>0.02499882876873016</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0248767826706171</c:v>
+                  <c:v>0.02499882876873016</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0248767826706171</c:v>
+                  <c:v>0.02499882876873016</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0248767826706171</c:v>
+                  <c:v>0.02499882876873016</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0248767826706171</c:v>
+                  <c:v>0.02187397517263889</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02176718413829804</c:v>
+                  <c:v>0.01874912157654762</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01865758746862412</c:v>
+                  <c:v>0.01874912157654762</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01865758746862412</c:v>
+                  <c:v>0.01874912157654762</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01865758746862412</c:v>
+                  <c:v>0.01874912157654762</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01865758746862412</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01562426798045635</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01554798893630505</c:v>
+                  <c:v>0.01249941438436508</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01243839133530855</c:v>
+                  <c:v>0.01249941438436508</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01243839133530855</c:v>
+                  <c:v>0.01249941438436508</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01243839133530855</c:v>
+                  <c:v>0.01249941438436508</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01243839133530855</c:v>
+                  <c:v>0.01249941438436508</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01243839133530855</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.009374560788273811</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.009328793734312058</c:v>
+                  <c:v>0.006249707192182541</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.006219195667654276</c:v>
+                  <c:v>0.006249707192182541</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.006219195667654276</c:v>
+                  <c:v>0.006249707192182541</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.006219195667654276</c:v>
+                  <c:v>0.006249707192182541</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.006219195667654276</c:v>
+                  <c:v>0.00312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.003109597833827138</c:v>
+                  <c:v>0.00312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.003109597833827138</c:v>
+                  <c:v>0.00312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.003109597833827138</c:v>
+                  <c:v>0.00312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.003109597833827138</c:v>
+                  <c:v>0.00312485359609127</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.003109597833827138</c:v>
-                </c:pt>
-                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1981,8 +1972,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H174" totalsRowCount="1">
-  <autoFilter ref="A2:H173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H173" totalsRowCount="1">
+  <autoFilter ref="A2:H172"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1998,8 +1989,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H174" totalsRowCount="1">
-  <autoFilter ref="A2:H173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H173" totalsRowCount="1">
+  <autoFilter ref="A2:H172"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2299,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2315,28 +2306,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
         <v>174</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>176</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>179</v>
-      </c>
-      <c r="H2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2402,10 +2393,10 @@
         <v>560</v>
       </c>
       <c r="D5" s="1">
-        <v>3086</v>
+        <v>2878</v>
       </c>
       <c r="E5" s="1">
-        <v>3054</v>
+        <v>2846</v>
       </c>
       <c r="F5" s="1">
         <v>32</v>
@@ -2480,10 +2471,10 @@
         <v>96</v>
       </c>
       <c r="D8" s="1">
-        <v>12895</v>
+        <v>12855</v>
       </c>
       <c r="E8" s="1">
-        <v>12344</v>
+        <v>12304</v>
       </c>
       <c r="F8" s="1">
         <v>551</v>
@@ -2688,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>4460</v>
+        <v>4018</v>
       </c>
       <c r="E16" s="1">
-        <v>4452</v>
+        <v>4010</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2781,35 +2772,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174">
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C173">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D174">
+      <c r="D173">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E174">
+      <c r="E173">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F174">
+      <c r="F173">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G174">
+      <c r="G173">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H174">
+      <c r="H173">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2825,7 +2816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2841,28 +2832,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
         <v>176</v>
       </c>
-      <c r="D2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>179</v>
-      </c>
-      <c r="H2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2870,16 +2861,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>20.04913139343262</v>
+        <v>20.08499526977539</v>
       </c>
       <c r="C3" s="1">
-        <v>12895</v>
+        <v>12855</v>
       </c>
       <c r="D3" s="1">
         <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>12344</v>
+        <v>12304</v>
       </c>
       <c r="F3" s="1">
         <v>551</v>
@@ -2896,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>9.453177452087402</v>
+        <v>9.499554634094238</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2922,16 +2913,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>6.934402942657471</v>
+        <v>6.277830600738525</v>
       </c>
       <c r="C5" s="1">
-        <v>4460</v>
+        <v>4018</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>4452</v>
+        <v>4010</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2948,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>6.017071723937988</v>
+        <v>6.046591758728027</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -2974,16 +2965,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>4.798109531402588</v>
+        <v>4.496664047241211</v>
       </c>
       <c r="C7" s="1">
-        <v>3086</v>
+        <v>2878</v>
       </c>
       <c r="D7" s="1">
         <v>560</v>
       </c>
       <c r="E7" s="1">
-        <v>3054</v>
+        <v>2846</v>
       </c>
       <c r="F7" s="1">
         <v>32</v>
@@ -3000,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>3.345927238464356</v>
+        <v>3.362342357635498</v>
       </c>
       <c r="C8" s="1">
         <v>2152</v>
@@ -3023,19 +3014,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>2.646267652511597</v>
+        <v>2.662375211715698</v>
       </c>
       <c r="C9" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3044,24 +3035,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>2.531212568283081</v>
+        <v>2.659250259399414</v>
       </c>
       <c r="C10" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3070,59 +3061,59 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>2.45347261428833</v>
+        <v>2.543630838394165</v>
       </c>
       <c r="C11" s="1">
-        <v>1578</v>
+        <v>1628</v>
       </c>
       <c r="D11" s="1">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1556</v>
+        <v>1628</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.366403818130493</v>
+        <v>2.465509414672852</v>
       </c>
       <c r="C12" s="1">
-        <v>1522</v>
+        <v>1578</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E12" s="1">
-        <v>1506</v>
+        <v>1556</v>
       </c>
       <c r="F12" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3130,19 +3121,19 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>2.002580881118774</v>
+        <v>2.378013610839844</v>
       </c>
       <c r="C13" s="1">
-        <v>1288</v>
+        <v>1522</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1288</v>
+        <v>1506</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -3156,7 +3147,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.977704167366028</v>
+        <v>1.987406849861145</v>
       </c>
       <c r="C14" s="1">
         <v>1272</v>
@@ -3182,7 +3173,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.638758063316345</v>
+        <v>1.646797776222229</v>
       </c>
       <c r="C15" s="1">
         <v>1054</v>
@@ -3208,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.374442219734192</v>
+        <v>1.381185293197632</v>
       </c>
       <c r="C16" s="1">
         <v>884</v>
@@ -3234,7 +3225,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.246948719024658</v>
+        <v>1.253066301345825</v>
       </c>
       <c r="C17" s="1">
         <v>802</v>
@@ -3260,7 +3251,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.246948719024658</v>
+        <v>1.253066301345825</v>
       </c>
       <c r="C18" s="1">
         <v>802</v>
@@ -3286,7 +3277,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.243839144706726</v>
+        <v>1.249941468238831</v>
       </c>
       <c r="C19" s="1">
         <v>800</v>
@@ -3312,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>1.231400728225708</v>
+        <v>1.237442016601563</v>
       </c>
       <c r="C20" s="1">
         <v>792</v>
@@ -3338,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>1.156770348548889</v>
+        <v>1.162445545196533</v>
       </c>
       <c r="C21" s="1">
         <v>744</v>
@@ -3364,7 +3355,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.150551199913025</v>
+        <v>1.156195759773254</v>
       </c>
       <c r="C22" s="1">
         <v>740</v>
@@ -3390,7 +3381,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.091468811035156</v>
+        <v>1.096823573112488</v>
       </c>
       <c r="C23" s="1">
         <v>702</v>
@@ -3416,7 +3407,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9111121296882629</v>
+        <v>0.9155820608139038</v>
       </c>
       <c r="C24" s="1">
         <v>586</v>
@@ -3442,7 +3433,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8924545645713806</v>
+        <v>0.8968329429626465</v>
       </c>
       <c r="C25" s="1">
         <v>574</v>
@@ -3468,7 +3459,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8489201664924622</v>
+        <v>0.8530850410461426</v>
       </c>
       <c r="C26" s="1">
         <v>546</v>
@@ -3494,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>0.833372175693512</v>
+        <v>0.8374607563018799</v>
       </c>
       <c r="C27" s="1">
         <v>536</v>
@@ -3520,7 +3511,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8116050362586975</v>
+        <v>0.8155867457389832</v>
       </c>
       <c r="C28" s="1">
         <v>522</v>
@@ -3546,7 +3537,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8053858280181885</v>
+        <v>0.8093370795249939</v>
       </c>
       <c r="C29" s="1">
         <v>518</v>
@@ -3572,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7649610638618469</v>
+        <v>0.7687139511108398</v>
       </c>
       <c r="C30" s="1">
         <v>492</v>
@@ -3598,7 +3589,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7369746565818787</v>
+        <v>0.7405902743339539</v>
       </c>
       <c r="C31" s="1">
         <v>474</v>
@@ -3624,7 +3615,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6810019016265869</v>
+        <v>0.6843429207801819</v>
       </c>
       <c r="C32" s="1">
         <v>438</v>
@@ -3650,7 +3641,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6359127163887024</v>
+        <v>0.6390325427055359</v>
       </c>
       <c r="C33" s="1">
         <v>409</v>
@@ -3676,7 +3667,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6343579292297363</v>
+        <v>0.6374701261520386</v>
       </c>
       <c r="C34" s="1">
         <v>408</v>
@@ -3702,7 +3693,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5846043825149536</v>
+        <v>0.5874724388122559</v>
       </c>
       <c r="C35" s="1">
         <v>376</v>
@@ -3728,7 +3719,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5286316275596619</v>
+        <v>0.5312250852584839</v>
       </c>
       <c r="C36" s="1">
         <v>340</v>
@@ -3754,7 +3745,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5161932110786438</v>
+        <v>0.5187256932258606</v>
       </c>
       <c r="C37" s="1">
         <v>332</v>
@@ -3780,7 +3771,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4913164377212524</v>
+        <v>0.4937268495559692</v>
       </c>
       <c r="C38" s="1">
         <v>316</v>
@@ -3806,7 +3797,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4788780510425568</v>
+        <v>0.4812274277210236</v>
       </c>
       <c r="C39" s="1">
         <v>308</v>
@@ -3832,7 +3823,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4135765135288239</v>
+        <v>0.4156055152416229</v>
       </c>
       <c r="C40" s="1">
         <v>266</v>
@@ -3858,7 +3849,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4104669094085693</v>
+        <v>0.4124806523323059</v>
       </c>
       <c r="C41" s="1">
         <v>264</v>
@@ -3884,7 +3875,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3918093144893646</v>
+        <v>0.3937315344810486</v>
       </c>
       <c r="C42" s="1">
         <v>252</v>
@@ -3910,7 +3901,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3700421452522278</v>
+        <v>0.3718575835227966</v>
       </c>
       <c r="C43" s="1">
         <v>238</v>
@@ -3936,7 +3927,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3544941544532776</v>
+        <v>0.3562332987785339</v>
       </c>
       <c r="C44" s="1">
         <v>228</v>
@@ -3962,7 +3953,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3171789646148682</v>
+        <v>0.3187350630760193</v>
       </c>
       <c r="C45" s="1">
         <v>204</v>
@@ -3988,7 +3979,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3047405779361725</v>
+        <v>0.3062356412410736</v>
       </c>
       <c r="C46" s="1">
         <v>196</v>
@@ -4014,7 +4005,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2923021912574768</v>
+        <v>0.2937362194061279</v>
       </c>
       <c r="C47" s="1">
         <v>188</v>
@@ -4040,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2798638045787811</v>
+        <v>0.2812368273735046</v>
       </c>
       <c r="C48" s="1">
         <v>180</v>
@@ -4066,7 +4057,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2767542004585266</v>
+        <v>0.2781119644641876</v>
       </c>
       <c r="C49" s="1">
         <v>178</v>
@@ -4092,7 +4083,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2736445963382721</v>
+        <v>0.2749871015548706</v>
       </c>
       <c r="C50" s="1">
         <v>176</v>
@@ -4118,7 +4109,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2549870312213898</v>
+        <v>0.2562379837036133</v>
       </c>
       <c r="C51" s="1">
         <v>164</v>
@@ -4144,7 +4135,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2425486296415329</v>
+        <v>0.2437385767698288</v>
       </c>
       <c r="C52" s="1">
         <v>156</v>
@@ -4170,7 +4161,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2332198321819305</v>
+        <v>0.2343640178442001</v>
       </c>
       <c r="C53" s="1">
         <v>150</v>
@@ -4196,7 +4187,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="2">
-        <v>0.230110228061676</v>
+        <v>0.2312391549348831</v>
       </c>
       <c r="C54" s="1">
         <v>148</v>
@@ -4222,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="2">
-        <v>0.230110228061676</v>
+        <v>0.2312391549348831</v>
       </c>
       <c r="C55" s="1">
         <v>148</v>
@@ -4248,7 +4239,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.230110228061676</v>
+        <v>0.2312391549348831</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
@@ -4274,7 +4265,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2176718413829804</v>
+        <v>0.2187397480010986</v>
       </c>
       <c r="C57" s="1">
         <v>140</v>
@@ -4300,7 +4291,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2176718413829804</v>
+        <v>0.2187397480010986</v>
       </c>
       <c r="C58" s="1">
         <v>140</v>
@@ -4326,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2161170393228531</v>
+        <v>0.2171773165464401</v>
       </c>
       <c r="C59" s="1">
         <v>139</v>
@@ -4352,7 +4343,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.214562252163887</v>
+        <v>0.2156148999929428</v>
       </c>
       <c r="C60" s="1">
         <v>138</v>
@@ -4378,7 +4369,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.214562252163887</v>
+        <v>0.2156148999929428</v>
       </c>
       <c r="C61" s="1">
         <v>138</v>
@@ -4404,7 +4395,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1990142613649368</v>
+        <v>0.1999906301498413</v>
       </c>
       <c r="C62" s="1">
         <v>128</v>
@@ -4430,7 +4421,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1990142613649368</v>
+        <v>0.1999906301498413</v>
       </c>
       <c r="C63" s="1">
         <v>128</v>
@@ -4456,7 +4447,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.192795068025589</v>
+        <v>0.1937409192323685</v>
       </c>
       <c r="C64" s="1">
         <v>124</v>
@@ -4482,7 +4473,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1896854639053345</v>
+        <v>0.1906160712242127</v>
       </c>
       <c r="C65" s="1">
         <v>122</v>
@@ -4508,7 +4499,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.18657585978508</v>
+        <v>0.1874912083148956</v>
       </c>
       <c r="C66" s="1">
         <v>120</v>
@@ -4534,7 +4525,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.18657585978508</v>
+        <v>0.1874912083148956</v>
       </c>
       <c r="C67" s="1">
         <v>120</v>
@@ -4560,7 +4551,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.18657585978508</v>
+        <v>0.1874912083148956</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -4586,7 +4577,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1741374731063843</v>
+        <v>0.1749918013811112</v>
       </c>
       <c r="C69" s="1">
         <v>112</v>
@@ -4612,7 +4603,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1679182797670364</v>
+        <v>0.1687420904636383</v>
       </c>
       <c r="C70" s="1">
         <v>108</v>
@@ -4638,7 +4629,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1616990864276886</v>
+        <v>0.1624923795461655</v>
       </c>
       <c r="C71" s="1">
         <v>104</v>
@@ -4664,7 +4655,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1554798930883408</v>
+        <v>0.1562426835298538</v>
       </c>
       <c r="C72" s="1">
         <v>100</v>
@@ -4690,7 +4681,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1554798930883408</v>
+        <v>0.1562426835298538</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4716,7 +4707,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1523702889680862</v>
+        <v>0.1531178206205368</v>
       </c>
       <c r="C74" s="1">
         <v>98</v>
@@ -4742,7 +4733,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1430414915084839</v>
+        <v>0.1437432616949081</v>
       </c>
       <c r="C75" s="1">
         <v>92</v>
@@ -4768,7 +4759,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1399319022893906</v>
+        <v>0.1406184136867523</v>
       </c>
       <c r="C76" s="1">
         <v>90</v>
@@ -4794,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1368222981691361</v>
+        <v>0.1374935507774353</v>
       </c>
       <c r="C77" s="1">
         <v>88</v>
@@ -4820,7 +4811,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1337127089500427</v>
+        <v>0.1343687027692795</v>
       </c>
       <c r="C78" s="1">
         <v>86</v>
@@ -4846,7 +4837,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1337127089500427</v>
+        <v>0.1343687027692795</v>
       </c>
       <c r="C79" s="1">
         <v>86</v>
@@ -4872,7 +4863,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1337127089500427</v>
+        <v>0.1343687027692795</v>
       </c>
       <c r="C80" s="1">
         <v>86</v>
@@ -4898,7 +4889,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1274935156106949</v>
+        <v>0.1281189918518066</v>
       </c>
       <c r="C81" s="1">
         <v>82</v>
@@ -4924,7 +4915,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1212743148207665</v>
+        <v>0.1218692883849144</v>
       </c>
       <c r="C82" s="1">
         <v>78</v>
@@ -4950,7 +4941,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1212743148207665</v>
+        <v>0.1218692883849144</v>
       </c>
       <c r="C83" s="1">
         <v>78</v>
@@ -4976,7 +4967,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.115055114030838</v>
+        <v>0.1156195774674416</v>
       </c>
       <c r="C84" s="1">
         <v>74</v>
@@ -5002,7 +4993,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1119455173611641</v>
+        <v>0.1124947294592857</v>
       </c>
       <c r="C85" s="1">
         <v>72</v>
@@ -5028,7 +5019,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1119455173611641</v>
+        <v>0.1124947294592857</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5054,7 +5045,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1119455173611641</v>
+        <v>0.1124947294592857</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5080,7 +5071,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1057263240218163</v>
+        <v>0.1062450185418129</v>
       </c>
       <c r="C88" s="1">
         <v>68</v>
@@ -5106,7 +5097,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.09950713068246841</v>
+        <v>0.09999531507492065</v>
       </c>
       <c r="C89" s="1">
         <v>64</v>
@@ -5132,7 +5123,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.09950713068246841</v>
+        <v>0.09999531507492065</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5158,7 +5149,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.09950713068246841</v>
+        <v>0.09999531507492065</v>
       </c>
       <c r="C91" s="1">
         <v>64</v>
@@ -5184,7 +5175,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.0963975340127945</v>
+        <v>0.09687045961618424</v>
       </c>
       <c r="C92" s="1">
         <v>62</v>
@@ -5210,7 +5201,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.09328792989253998</v>
+        <v>0.09374560415744782</v>
       </c>
       <c r="C93" s="1">
         <v>60</v>
@@ -5236,7 +5227,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.08706873655319214</v>
+        <v>0.08749590069055557</v>
       </c>
       <c r="C94" s="1">
         <v>56</v>
@@ -5262,7 +5253,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.08395913988351822</v>
+        <v>0.08437104523181915</v>
       </c>
       <c r="C95" s="1">
         <v>54</v>
@@ -5288,7 +5279,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.0808495432138443</v>
+        <v>0.08124618977308273</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5314,7 +5305,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.0808495432138443</v>
+        <v>0.08124618977308273</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5340,7 +5331,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07463034987449646</v>
+        <v>0.07499648630619049</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5366,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07463034987449646</v>
+        <v>0.07499648630619049</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5392,7 +5383,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.07463034987449646</v>
+        <v>0.07499648630619049</v>
       </c>
       <c r="C100" s="1">
         <v>48</v>
@@ -5418,7 +5409,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06841114908456802</v>
+        <v>0.06874677538871765</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5444,7 +5435,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06841114908456802</v>
+        <v>0.06874677538871765</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5470,7 +5461,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06841114908456802</v>
+        <v>0.06874677538871765</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5496,7 +5487,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06841114908456802</v>
+        <v>0.06874677538871765</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5522,7 +5513,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.06219195574522018</v>
+        <v>0.06249707192182541</v>
       </c>
       <c r="C105" s="1">
         <v>40</v>
@@ -5548,7 +5539,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05908235907554627</v>
+        <v>0.05937221646308899</v>
       </c>
       <c r="C106" s="1">
         <v>38</v>
@@ -5574,7 +5565,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05908235907554627</v>
+        <v>0.05937221646308899</v>
       </c>
       <c r="C107" s="1">
         <v>38</v>
@@ -5600,7 +5591,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05597275868058205</v>
+        <v>0.05624736472964287</v>
       </c>
       <c r="C108" s="1">
         <v>36</v>
@@ -5626,7 +5617,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05597275868058205</v>
+        <v>0.05624736472964287</v>
       </c>
       <c r="C109" s="1">
         <v>36</v>
@@ -5652,16 +5643,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.05597275868058205</v>
+        <v>0.04999765753746033</v>
       </c>
       <c r="C110" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5678,16 +5669,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.04975356534123421</v>
+        <v>0.04374795034527779</v>
       </c>
       <c r="C111" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5704,7 +5695,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.04353436827659607</v>
+        <v>0.04374795034527779</v>
       </c>
       <c r="C112" s="1">
         <v>28</v>
@@ -5730,16 +5721,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.04353436827659607</v>
+        <v>0.03749824315309525</v>
       </c>
       <c r="C113" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5756,16 +5747,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03731517493724823</v>
+        <v>0.03437338769435883</v>
       </c>
       <c r="C114" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5782,16 +5773,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.03731517493724823</v>
+        <v>0.0312485359609127</v>
       </c>
       <c r="C115" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -5808,16 +5799,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.03420557454228401</v>
+        <v>0.0312485359609127</v>
       </c>
       <c r="C116" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5834,16 +5825,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.03109597787261009</v>
+        <v>0.02812368236482143</v>
       </c>
       <c r="C117" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -5860,7 +5851,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02798637934029102</v>
+        <v>0.02812368236482143</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5886,19 +5877,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02798637934029102</v>
+        <v>0.02499882876873016</v>
       </c>
       <c r="C119" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G119" s="1">
         <v>0</v>
@@ -5912,7 +5903,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.0248767826706171</v>
+        <v>0.02499882876873016</v>
       </c>
       <c r="C120" s="1">
         <v>16</v>
@@ -5921,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
@@ -5938,7 +5929,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.0248767826706171</v>
+        <v>0.02499882876873016</v>
       </c>
       <c r="C121" s="1">
         <v>16</v>
@@ -5964,7 +5955,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.0248767826706171</v>
+        <v>0.02499882876873016</v>
       </c>
       <c r="C122" s="1">
         <v>16</v>
@@ -5990,7 +5981,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.0248767826706171</v>
+        <v>0.02499882876873016</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6016,16 +6007,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.0248767826706171</v>
+        <v>0.02187397517263889</v>
       </c>
       <c r="C124" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -6042,16 +6033,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02176718413829804</v>
+        <v>0.01874912157654762</v>
       </c>
       <c r="C125" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6068,7 +6059,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01865758746862412</v>
+        <v>0.01874912157654762</v>
       </c>
       <c r="C126" s="1">
         <v>12</v>
@@ -6094,7 +6085,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01865758746862412</v>
+        <v>0.01874912157654762</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6120,7 +6111,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01865758746862412</v>
+        <v>0.01874912157654762</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6146,16 +6137,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01865758746862412</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C129" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -6172,7 +6163,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
@@ -6198,7 +6189,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
@@ -6224,7 +6215,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6250,7 +6241,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6276,7 +6267,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6302,7 +6293,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01562426798045635</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6328,16 +6319,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01554798893630505</v>
+        <v>0.01249941438436508</v>
       </c>
       <c r="C136" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
@@ -6354,7 +6345,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01243839133530855</v>
+        <v>0.01249941438436508</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6380,7 +6371,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01243839133530855</v>
+        <v>0.01249941438436508</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6403,16 +6394,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01243839133530855</v>
+        <v>0.01249941438436508</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
       </c>
       <c r="D139" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E139" s="1">
         <v>8</v>
@@ -6424,21 +6415,21 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01243839133530855</v>
+        <v>0.01249941438436508</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
       </c>
       <c r="D140" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E140" s="1">
         <v>8</v>
@@ -6450,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6458,16 +6449,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01243839133530855</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C141" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -6484,7 +6475,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6510,7 +6501,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6536,7 +6527,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6562,7 +6553,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6588,7 +6579,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6614,7 +6605,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6640,7 +6631,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6666,7 +6657,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6692,7 +6683,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6718,7 +6709,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6744,7 +6735,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6770,7 +6761,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -6796,7 +6787,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -6822,7 +6813,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -6848,7 +6839,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -6874,7 +6865,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -6900,7 +6891,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -6926,7 +6917,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -6952,7 +6943,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -6978,7 +6969,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7004,7 +6995,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7030,7 +7021,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.009374560788273811</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7056,16 +7047,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.009328793734312058</v>
+        <v>0.006249707192182541</v>
       </c>
       <c r="C164" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
       </c>
       <c r="E164" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
@@ -7082,7 +7073,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.006219195667654276</v>
+        <v>0.006249707192182541</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7108,7 +7099,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.006219195667654276</v>
+        <v>0.006249707192182541</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7134,7 +7125,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.006219195667654276</v>
+        <v>0.006249707192182541</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7160,16 +7151,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.006219195667654276</v>
+        <v>0.00312485359609127</v>
       </c>
       <c r="C168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
       </c>
       <c r="E168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
@@ -7186,7 +7177,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.003109597833827138</v>
+        <v>0.00312485359609127</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7212,7 +7203,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.003109597833827138</v>
+        <v>0.00312485359609127</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7238,7 +7229,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.003109597833827138</v>
+        <v>0.00312485359609127</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7264,7 +7255,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.003109597833827138</v>
+        <v>0.00312485359609127</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7286,60 +7277,34 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
-        <v>0.003109597833827138</v>
-      </c>
-      <c r="C173" s="1">
-        <v>2</v>
-      </c>
-      <c r="D173" s="1">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1">
-        <v>2</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0</v>
-      </c>
-      <c r="G173" s="1">
-        <v>0</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C173">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D174">
+      <c r="D173">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E174">
+      <c r="E173">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F174">
+      <c r="F173">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G174">
+      <c r="G173">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H174">
+      <c r="H173">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>McuSTUDIO_F470VET6</t>
   </si>
@@ -80,240 +80,186 @@
     <t>gd25qxx.o</t>
   </si>
   <si>
+    <t>_printf_fp_dec.o</t>
+  </si>
+  <si>
+    <t>_scanf.o</t>
+  </si>
+  <si>
+    <t>_printf_fp_hex.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_rcu.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_dma.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_timer.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_usart.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_sdio.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_adc.o</t>
+  </si>
+  <si>
+    <t>data_dispose.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_i2c.o</t>
+  </si>
+  <si>
+    <t>__printf_flags_ss_wp.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_rtc.o</t>
+  </si>
+  <si>
+    <t>bigflt0.o</t>
+  </si>
+  <si>
+    <t>_scanf_int.o</t>
+  </si>
+  <si>
+    <t>lc_ctype_c.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_gpio.o</t>
+  </si>
+  <si>
     <t>fz_wm.l</t>
   </si>
   <si>
-    <t>scanf_fp.o</t>
-  </si>
-  <si>
-    <t>_printf_fp_dec.o</t>
-  </si>
-  <si>
-    <t>_scanf.o</t>
+    <t>diskio.o</t>
+  </si>
+  <si>
+    <t>lludivv7m.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_dac.o</t>
+  </si>
+  <si>
+    <t>_printf_wctomb.o</t>
+  </si>
+  <si>
+    <t>_printf_hex_int_ll_ptr.o</t>
+  </si>
+  <si>
+    <t>_printf_intcommon.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_misc.o</t>
+  </si>
+  <si>
+    <t>strncmp.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_it.o</t>
+  </si>
+  <si>
+    <t>fnaninf.o</t>
+  </si>
+  <si>
+    <t>rt_memcpy_v6.o</t>
+  </si>
+  <si>
+    <t>lludiv10.o</t>
+  </si>
+  <si>
+    <t>strcmpv7m.o</t>
+  </si>
+  <si>
+    <t>_printf_fp_infnan.o</t>
+  </si>
+  <si>
+    <t>_printf_longlong_dec.o</t>
+  </si>
+  <si>
+    <t>perfc_port_default.o</t>
+  </si>
+  <si>
+    <t>_printf_dec.o</t>
+  </si>
+  <si>
+    <t>_printf_oct_int_ll.o</t>
+  </si>
+  <si>
+    <t>gd32f4xx_spi.o</t>
+  </si>
+  <si>
+    <t>rt_memcpy_w.o</t>
+  </si>
+  <si>
+    <t>__dczerorl2.o</t>
+  </si>
+  <si>
+    <t>memcmp.o</t>
+  </si>
+  <si>
+    <t>f2d.o</t>
+  </si>
+  <si>
+    <t>strncpy.o</t>
+  </si>
+  <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>_printf_str.o</t>
+  </si>
+  <si>
+    <t>rt_memclr_w.o</t>
+  </si>
+  <si>
+    <t>_printf_pad.o</t>
+  </si>
+  <si>
+    <t>sys_stackheap_outer.o</t>
+  </si>
+  <si>
+    <t>strcpy.o</t>
+  </si>
+  <si>
+    <t>llsdiv.o</t>
+  </si>
+  <si>
+    <t>lc_numeric_c.o</t>
+  </si>
+  <si>
+    <t>rt_memclr.o</t>
+  </si>
+  <si>
+    <t>_wcrtomb.o</t>
+  </si>
+  <si>
+    <t>_sgetc.o</t>
+  </si>
+  <si>
+    <t>strlen.o</t>
+  </si>
+  <si>
+    <t>__0sscanf.o</t>
+  </si>
+  <si>
+    <t>oled_app.o</t>
+  </si>
+  <si>
+    <t>vsnprintf.o</t>
+  </si>
+  <si>
+    <t>__scatter.o</t>
   </si>
   <si>
     <t>m_wm.l</t>
   </si>
   <si>
-    <t>_printf_fp_hex.o</t>
-  </si>
-  <si>
-    <t>scanf_hexfp.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_rcu.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_dma.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_timer.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_usart.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_sdio.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_adc.o</t>
-  </si>
-  <si>
-    <t>data_dispose.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_i2c.o</t>
-  </si>
-  <si>
-    <t>__printf_flags_ss_wp.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_rtc.o</t>
-  </si>
-  <si>
-    <t>bigflt0.o</t>
-  </si>
-  <si>
-    <t>dmul.o</t>
-  </si>
-  <si>
-    <t>_scanf_int.o</t>
-  </si>
-  <si>
-    <t>lc_ctype_c.o</t>
-  </si>
-  <si>
-    <t>scanf_infnan.o</t>
-  </si>
-  <si>
-    <t>narrow.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_gpio.o</t>
-  </si>
-  <si>
-    <t>diskio.o</t>
-  </si>
-  <si>
-    <t>lludivv7m.o</t>
-  </si>
-  <si>
-    <t>ldexp.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_dac.o</t>
-  </si>
-  <si>
-    <t>_printf_wctomb.o</t>
-  </si>
-  <si>
-    <t>_printf_hex_int_ll_ptr.o</t>
-  </si>
-  <si>
-    <t>_printf_intcommon.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_misc.o</t>
-  </si>
-  <si>
-    <t>strtod.o</t>
-  </si>
-  <si>
-    <t>dnaninf.o</t>
-  </si>
-  <si>
-    <t>strncmp.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_it.o</t>
-  </si>
-  <si>
-    <t>frexp.o</t>
-  </si>
-  <si>
-    <t>fnaninf.o</t>
-  </si>
-  <si>
-    <t>rt_memcpy_v6.o</t>
-  </si>
-  <si>
-    <t>lludiv10.o</t>
-  </si>
-  <si>
-    <t>strcmpv7m.o</t>
-  </si>
-  <si>
-    <t>_printf_fp_infnan.o</t>
-  </si>
-  <si>
-    <t>_printf_longlong_dec.o</t>
-  </si>
-  <si>
-    <t>perfc_port_default.o</t>
-  </si>
-  <si>
-    <t>dleqf.o</t>
-  </si>
-  <si>
-    <t>deqf.o</t>
-  </si>
-  <si>
-    <t>_printf_dec.o</t>
-  </si>
-  <si>
-    <t>_printf_oct_int_ll.o</t>
-  </si>
-  <si>
-    <t>drleqf.o</t>
-  </si>
-  <si>
-    <t>gd32f4xx_spi.o</t>
-  </si>
-  <si>
-    <t>retnan.o</t>
-  </si>
-  <si>
-    <t>rt_memcpy_w.o</t>
-  </si>
-  <si>
-    <t>d2f.o</t>
-  </si>
-  <si>
-    <t>scalbn.o</t>
-  </si>
-  <si>
-    <t>__dczerorl2.o</t>
-  </si>
-  <si>
-    <t>memcmp.o</t>
-  </si>
-  <si>
-    <t>f2d.o</t>
-  </si>
-  <si>
-    <t>strncpy.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
-  </si>
-  <si>
-    <t>_printf_str.o</t>
-  </si>
-  <si>
-    <t>rt_memclr_w.o</t>
-  </si>
-  <si>
-    <t>_printf_pad.o</t>
-  </si>
-  <si>
-    <t>sys_stackheap_outer.o</t>
-  </si>
-  <si>
-    <t>strcpy.o</t>
-  </si>
-  <si>
-    <t>llsdiv.o</t>
-  </si>
-  <si>
-    <t>lc_numeric_c.o</t>
-  </si>
-  <si>
-    <t>rt_memclr.o</t>
-  </si>
-  <si>
-    <t>dunder.o</t>
-  </si>
-  <si>
-    <t>_wcrtomb.o</t>
-  </si>
-  <si>
-    <t>_sgetc.o</t>
-  </si>
-  <si>
-    <t>strlen.o</t>
-  </si>
-  <si>
-    <t>__0sscanf.o</t>
-  </si>
-  <si>
-    <t>atof.o</t>
-  </si>
-  <si>
-    <t>oled_app.o</t>
-  </si>
-  <si>
-    <t>vsnprintf.o</t>
-  </si>
-  <si>
-    <t>__scatter.o</t>
-  </si>
-  <si>
     <t>fpclassify.o</t>
   </si>
   <si>
-    <t>trapv.o</t>
-  </si>
-  <si>
     <t>_printf_char_common.o</t>
   </si>
   <si>
@@ -332,9 +278,6 @@
     <t>_printf_charcount.o</t>
   </si>
   <si>
-    <t>llshl.o</t>
-  </si>
-  <si>
     <t>libinit2.o</t>
   </si>
   <si>
@@ -353,12 +296,6 @@
     <t>__scatter_zi.o</t>
   </si>
   <si>
-    <t>dcmpi.o</t>
-  </si>
-  <si>
-    <t>_rserrno.o</t>
-  </si>
-  <si>
     <t>strchr.o</t>
   </si>
   <si>
@@ -371,12 +308,6 @@
     <t>exit.o</t>
   </si>
   <si>
-    <t>fpconst.o</t>
-  </si>
-  <si>
-    <t>dcheck1.o</t>
-  </si>
-  <si>
     <t>rt_ctype_table.o</t>
   </si>
   <si>
@@ -401,9 +332,6 @@
     <t>rtc_app.o</t>
   </si>
   <si>
-    <t>fretinf.o</t>
-  </si>
-  <si>
     <t>fpinit.o</t>
   </si>
   <si>
@@ -422,21 +350,12 @@
     <t>sd_app.o</t>
   </si>
   <si>
-    <t>scanf2.o</t>
-  </si>
-  <si>
     <t>rt_locale_intlibspace.o</t>
   </si>
   <si>
-    <t>rt_errno_addr_intlibspace.o</t>
-  </si>
-  <si>
     <t>__main.o</t>
   </si>
   <si>
-    <t>istatus.o</t>
-  </si>
-  <si>
     <t>heapauxi.o</t>
   </si>
   <si>
@@ -501,9 +420,6 @@
   </si>
   <si>
     <t>__rtentry4.o</t>
-  </si>
-  <si>
-    <t>scanf1.o</t>
   </si>
   <si>
     <t>printf2.o</t>
@@ -647,9 +563,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$173</c:f>
+              <c:f>ram_percent!$A$3:$A$145</c:f>
               <c:strCache>
-                <c:ptCount val="171"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
                   <c:v>startup_gd32f450_470.o</c:v>
                 </c:pt>
@@ -701,7 +617,7 @@
                 <c:pt idx="16">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="142">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -709,62 +625,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$173</c:f>
+              <c:f>ram_percent!$B$3:$B$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>46.26157760620117</c:v>
+                  <c:v>46.17812728881836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.05624580383301</c:v>
+                  <c:v>13.03269481658936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.64964962005615</c:v>
+                  <c:v>12.80721569061279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.65574836730957</c:v>
+                  <c:v>11.63472366333008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.427377223968506</c:v>
+                  <c:v>4.41939115524292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.168511390686035</c:v>
+                  <c:v>2.164599657058716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.168511390686035</c:v>
+                  <c:v>2.164599657058716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.807092785835266</c:v>
+                  <c:v>1.80383312702179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.716738224029541</c:v>
+                  <c:v>1.71364152431488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.445674300193787</c:v>
+                  <c:v>1.443066477775574</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.355319619178772</c:v>
+                  <c:v>1.352874875068665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4969505369663239</c:v>
+                  <c:v>0.4960541129112244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2710639238357544</c:v>
+                  <c:v>0.2705749571323395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1807092875242233</c:v>
+                  <c:v>0.1803833097219467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1581206172704697</c:v>
+                  <c:v>0.1578353941440582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09035464376211166</c:v>
+                  <c:v>0.09019165486097336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09035464376211166</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                  <c:v>0.09019165486097336</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -832,9 +748,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$173</c:f>
+              <c:f>flash_percent!$A$3:$A$145</c:f>
               <c:strCache>
-                <c:ptCount val="171"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -848,504 +764,420 @@
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>btod.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>system_function.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ebtn.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gd25qxx.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mcu_cmic_gd32f470vet6.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>config_manager.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>btod.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>system_function.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ebtn.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gd25qxx.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mcu_cmic_gd32f470vet6.o</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>_printf_fp_dec.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>_scanf.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>_printf_fp_hex.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>btn_app.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>perf_counter.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gd32f4xx_rcu.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>gd32f4xx_dma.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>gd32f4xx_timer.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>gd32f4xx_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>gd32f4xx_sdio.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>sampling_control.o</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>gd32f4xx_adc.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>system_gd32f4xx.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>startup_gd32f450_470.o</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>data_dispose.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>gd32f4xx_i2c.o</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>__printf_flags_ss_wp.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>gd32f4xx_rtc.o</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bigflt0.o</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>_scanf_int.o</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>lc_ctype_c.o</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>gd32f4xx_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>scanf_fp.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>_printf_fp_dec.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>_scanf.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="33">
+                  <c:v>diskio.o</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>lludivv7m.o</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>gd32f4xx_dac.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>_printf_wctomb.o</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>_printf_hex_int_ll_ptr.o</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>_printf_intcommon.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>gd32f4xx_misc.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>usart_app.o</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>strncmp.o</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>systick.o</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>scheduler.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>gd32f4xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>fnaninf.o</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>led_app.o</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>rt_memcpy_v6.o</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>lludiv10.o</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>strcmpv7m.o</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>_printf_fp_infnan.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>_printf_longlong_dec.o</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>perfc_port_default.o</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>_printf_dec.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>_printf_oct_int_ll.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>gd32f4xx_spi.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>rt_memcpy_w.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>__dczerorl2.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>memcmp.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>f2d.o</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>strncpy.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>_printf_str.o</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>rt_memclr_w.o</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>_printf_pad.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>sys_stackheap_outer.o</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>strcpy.o</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>llsdiv.o</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>lc_numeric_c.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>rt_memclr.o</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>_wcrtomb.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>_sgetc.o</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>strlen.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>__0sscanf.o</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>oled_app.o</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>vsnprintf.o</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>m_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>_printf_fp_hex.o</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>scanf_hexfp.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>btn_app.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>perf_counter.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>gd32f4xx_rcu.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>gd32f4xx_dma.o</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>gd32f4xx_timer.o</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>gd32f4xx_usart.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>gd32f4xx_sdio.o</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>sampling_control.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>gd32f4xx_adc.o</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>system_gd32f4xx.o</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>startup_gd32f450_470.o</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>data_dispose.o</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>gd32f4xx_i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>__printf_flags_ss_wp.o</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>gd32f4xx_rtc.o</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>bigflt0.o</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>dmul.o</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>_scanf_int.o</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>lc_ctype_c.o</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>scanf_infnan.o</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>narrow.o</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>gd32f4xx_gpio.o</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>diskio.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>lludivv7m.o</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ldexp.o</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>gd32f4xx_dac.o</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>_printf_wctomb.o</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>_printf_hex_int_ll_ptr.o</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>usart_app.o</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>_printf_intcommon.o</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>gd32f4xx_misc.o</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>strtod.o</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>dnaninf.o</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>strncmp.o</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>systick.o</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>scheduler.o</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>gd32f4xx_it.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>frexp.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>fnaninf.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>led_app.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>rt_memcpy_v6.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>lludiv10.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>strcmpv7m.o</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>_printf_fp_infnan.o</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>_printf_longlong_dec.o</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>perfc_port_default.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>dleqf.o</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>deqf.o</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>_printf_dec.o</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>_printf_oct_int_ll.o</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>drleqf.o</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>gd32f4xx_spi.o</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>retnan.o</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>rt_memcpy_w.o</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>d2f.o</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>scalbn.o</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>__dczerorl2.o</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>memcmp.o</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>f2d.o</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>strncpy.o</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>main.o</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>_printf_str.o</c:v>
+                  <c:v>fpclassify.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>rt_memclr_w.o</c:v>
+                  <c:v>_printf_char_common.o</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>_printf_pad.o</c:v>
+                  <c:v>scanf_char.o</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>sys_stackheap_outer.o</c:v>
+                  <c:v>_printf_wchar.o</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>strcpy.o</c:v>
+                  <c:v>_printf_char.o</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>llsdiv.o</c:v>
+                  <c:v>__2sprintf.o</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>lc_numeric_c.o</c:v>
+                  <c:v>_printf_charcount.o</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>rt_memclr.o</c:v>
+                  <c:v>libinit2.o</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>dunder.o</c:v>
+                  <c:v>init_aeabi.o</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>_wcrtomb.o</c:v>
+                  <c:v>_printf_truncate.o</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>_sgetc.o</c:v>
+                  <c:v>systick_wrapper_ual.o</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>strlen.o</c:v>
+                  <c:v>_chval.o</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>__0sscanf.o</c:v>
+                  <c:v>__scatter_zi.o</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>atof.o</c:v>
+                  <c:v>strchr.o</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>oled_app.o</c:v>
+                  <c:v>adc_app.o</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>vsnprintf.o</c:v>
+                  <c:v>isspace.o</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>__scatter.o</c:v>
+                  <c:v>exit.o</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>fpclassify.o</c:v>
+                  <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>trapv.o</c:v>
+                  <c:v>_snputc.o</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>_printf_char_common.o</c:v>
+                  <c:v>gd32f4xx_pmu.o</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>scanf_char.o</c:v>
+                  <c:v>__printf_wp.o</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>_printf_wchar.o</c:v>
+                  <c:v>dretinf.o</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>_printf_char.o</c:v>
+                  <c:v>sys_exit.o</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>__2sprintf.o</c:v>
+                  <c:v>__rtentry2.o</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>_printf_charcount.o</c:v>
+                  <c:v>rtc_app.o</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>llshl.o</c:v>
+                  <c:v>fpinit.o</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>libinit2.o</c:v>
+                  <c:v>rtexit2.o</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>init_aeabi.o</c:v>
+                  <c:v>_sputc.o</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>_printf_truncate.o</c:v>
+                  <c:v>_printf_ll.o</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>systick_wrapper_ual.o</c:v>
+                  <c:v>_printf_l.o</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>_chval.o</c:v>
+                  <c:v>sd_app.o</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>__scatter_zi.o</c:v>
+                  <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>dcmpi.o</c:v>
+                  <c:v>libspace.o</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>_rserrno.o</c:v>
+                  <c:v>__main.o</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>strchr.o</c:v>
+                  <c:v>heapauxi.o</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>adc_app.o</c:v>
+                  <c:v>_printf_x.o</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>isspace.o</c:v>
+                  <c:v>_printf_u.o</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>exit.o</c:v>
+                  <c:v>_printf_s.o</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>fpconst.o</c:v>
+                  <c:v>_printf_p.o</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>dcheck1.o</c:v>
+                  <c:v>_printf_o.o</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>rt_ctype_table.o</c:v>
+                  <c:v>_printf_n.o</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>_snputc.o</c:v>
+                  <c:v>_printf_ls.o</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>gd32f4xx_pmu.o</c:v>
+                  <c:v>_printf_llx.o</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>__printf_wp.o</c:v>
+                  <c:v>_printf_llu.o</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>dretinf.o</c:v>
+                  <c:v>_printf_llo.o</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>sys_exit.o</c:v>
+                  <c:v>_printf_lli.o</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>__rtentry2.o</c:v>
+                  <c:v>_printf_lld.o</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>rtc_app.o</c:v>
+                  <c:v>_printf_lc.o</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>fretinf.o</c:v>
+                  <c:v>_printf_i.o</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>fpinit.o</c:v>
+                  <c:v>_printf_g.o</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>rtexit2.o</c:v>
+                  <c:v>_printf_f.o</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>_sputc.o</c:v>
+                  <c:v>_printf_e.o</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>_printf_ll.o</c:v>
+                  <c:v>_printf_d.o</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>_printf_l.o</c:v>
+                  <c:v>_printf_c.o</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>sd_app.o</c:v>
+                  <c:v>_printf_a.o</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>scanf2.o</c:v>
+                  <c:v>__rtentry4.o</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>rt_locale_intlibspace.o</c:v>
+                  <c:v>printf2.o</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>rt_errno_addr_intlibspace.o</c:v>
+                  <c:v>printf1.o</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>libspace.o</c:v>
+                  <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>__main.o</c:v>
+                  <c:v>use_no_semi.o</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>istatus.o</c:v>
+                  <c:v>rtexit.o</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>heapauxi.o</c:v>
+                  <c:v>libshutdown2.o</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>_printf_x.o</c:v>
+                  <c:v>libshutdown.o</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>_printf_u.o</c:v>
+                  <c:v>libinit.o</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>_printf_s.o</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>_printf_p.o</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>_printf_o.o</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>_printf_n.o</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>_printf_ls.o</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>_printf_llx.o</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>_printf_llu.o</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>_printf_llo.o</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>_printf_lli.o</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>_printf_lld.o</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>_printf_lc.o</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>_printf_i.o</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>_printf_g.o</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>_printf_f.o</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>_printf_e.o</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>_printf_d.o</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>_printf_c.o</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>_printf_a.o</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>__rtentry4.o</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>scanf1.o</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>printf2.o</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>printf1.o</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>_printf_percent_end.o</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>use_no_semi.o</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>rtexit.o</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>libshutdown2.o</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>libshutdown.o</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>libinit.o</c:v>
-                </c:pt>
-                <c:pt idx="170">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1353,521 +1185,437 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$173</c:f>
+              <c:f>flash_percent!$B$3:$B$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>20.08499526977539</c:v>
+                  <c:v>18.93065452575684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.499554634094238</c:v>
+                  <c:v>11.47884559631348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.277830600738525</c:v>
+                  <c:v>7.585855484008789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.046591758728027</c:v>
+                  <c:v>7.306436061859131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.496664047241211</c:v>
+                  <c:v>3.655106067657471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.362342357635498</c:v>
+                  <c:v>3.217097520828247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.662375211715698</c:v>
+                  <c:v>3.213321447372437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.659250259399414</c:v>
+                  <c:v>3.073611974716187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.543630838394165</c:v>
+                  <c:v>2.97921347618103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.465509414672852</c:v>
+                  <c:v>2.926350355148315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.378013610839844</c:v>
+                  <c:v>1.989918231964111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.987406849861145</c:v>
+                  <c:v>1.668963670730591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.646797776222229</c:v>
+                  <c:v>1.514150261878967</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.381185293197632</c:v>
+                  <c:v>1.495270609855652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.253066301345825</c:v>
+                  <c:v>1.404648184776306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.253066301345825</c:v>
+                  <c:v>1.397096276283264</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.249941468238831</c:v>
+                  <c:v>1.325353503227234</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.237442016601563</c:v>
+                  <c:v>1.106349229812622</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.162445545196533</c:v>
+                  <c:v>1.083693623542786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.156195759773254</c:v>
+                  <c:v>1.030830502510071</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.096823573112488</c:v>
+                  <c:v>1.011950850486755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9155820608139038</c:v>
+                  <c:v>0.985519289970398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8968329429626465</c:v>
+                  <c:v>0.9779674410820007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8530850410461426</c:v>
+                  <c:v>0.9288802742958069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8374607563018799</c:v>
+                  <c:v>0.8948968052864075</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8155867457389832</c:v>
+                  <c:v>0.8269299864768982</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8093370795249939</c:v>
+                  <c:v>0.7721788883209229</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7687139511108398</c:v>
+                  <c:v>0.7702909111976624</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7405902743339539</c:v>
+                  <c:v>0.7098759412765503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6843429207801819</c:v>
+                  <c:v>0.6268053650856018</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6390325427055359</c:v>
+                  <c:v>0.5965979099273682</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6374701261520386</c:v>
+                  <c:v>0.4984235465526581</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5874724388122559</c:v>
+                  <c:v>0.4833197891712189</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5312250852584839</c:v>
+                  <c:v>0.4757679402828217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5187256932258606</c:v>
+                  <c:v>0.4493363797664642</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4937268495559692</c:v>
+                  <c:v>0.3851454555988312</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4812274277210236</c:v>
+                  <c:v>0.3700417280197144</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4156055152416229</c:v>
+                  <c:v>0.3549379706382752</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4124806523323059</c:v>
+                  <c:v>0.3360582888126373</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3937315344810486</c:v>
+                  <c:v>0.3322823643684387</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3718575835227966</c:v>
+                  <c:v>0.3171786069869995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3562332987785339</c:v>
+                  <c:v>0.2831951975822449</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3187350630760193</c:v>
+                  <c:v>0.2794192731380463</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3062356412410736</c:v>
+                  <c:v>0.2794192731380463</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2937362194061279</c:v>
+                  <c:v>0.2794192731380463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2812368273735046</c:v>
+                  <c:v>0.2643155157566071</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2781119644641876</c:v>
+                  <c:v>0.2624275386333466</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2749871015548706</c:v>
+                  <c:v>0.2605395913124085</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2562379837036133</c:v>
+                  <c:v>0.2605395913124085</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2437385767698288</c:v>
+                  <c:v>0.2416598945856094</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2343640178442001</c:v>
+                  <c:v>0.2416598945856094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2312391549348831</c:v>
+                  <c:v>0.234108030796051</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2312391549348831</c:v>
+                  <c:v>0.2303320914506912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2312391549348831</c:v>
+                  <c:v>0.2265561521053314</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2187397480010986</c:v>
+                  <c:v>0.2114524096250534</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2187397480010986</c:v>
+                  <c:v>0.1963486671447754</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2171773165464401</c:v>
+                  <c:v>0.188796803355217</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2156148999929428</c:v>
+                  <c:v>0.1699171215295792</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2156148999929428</c:v>
+                  <c:v>0.1661411821842194</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1999906301498413</c:v>
+                  <c:v>0.1623652428388596</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1999906301498413</c:v>
+                  <c:v>0.1623652428388596</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1937409192323685</c:v>
+                  <c:v>0.1623652428388596</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1906160712242127</c:v>
+                  <c:v>0.1548133790493012</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1874912083148956</c:v>
+                  <c:v>0.1472615003585815</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1874912083148956</c:v>
+                  <c:v>0.1472615003585815</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1874912083148956</c:v>
+                  <c:v>0.1397096365690231</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1749918013811112</c:v>
+                  <c:v>0.1359336972236633</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1687420904636383</c:v>
+                  <c:v>0.1359336972236633</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1624923795461655</c:v>
+                  <c:v>0.1359336972236633</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1562426835298538</c:v>
+                  <c:v>0.1283818185329437</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1562426835298538</c:v>
+                  <c:v>0.1208299472928047</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1531178206205368</c:v>
+                  <c:v>0.1208299472928047</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1437432616949081</c:v>
+                  <c:v>0.1170540153980255</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1406184136867523</c:v>
+                  <c:v>0.1132780760526657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1374935507774353</c:v>
+                  <c:v>0.1019502729177475</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1343687027692795</c:v>
+                  <c:v>0.0981743335723877</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1343687027692795</c:v>
+                  <c:v>0.0981743335723877</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1343687027692795</c:v>
+                  <c:v>0.09062246233224869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1281189918518066</c:v>
+                  <c:v>0.09062246233224869</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1218692883849144</c:v>
+                  <c:v>0.09062246233224869</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1218692883849144</c:v>
+                  <c:v>0.08307059109210968</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1156195774674416</c:v>
+                  <c:v>0.08307059109210968</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1124947294592857</c:v>
+                  <c:v>0.08307059109210968</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1124947294592857</c:v>
+                  <c:v>0.08307059109210968</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1124947294592857</c:v>
+                  <c:v>0.07551871985197067</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1062450185418129</c:v>
+                  <c:v>0.07174278050661087</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09999531507492065</c:v>
+                  <c:v>0.06796684861183167</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.09999531507492065</c:v>
+                  <c:v>0.06796684861183167</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.09999531507492065</c:v>
+                  <c:v>0.06041497364640236</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09687045961618424</c:v>
+                  <c:v>0.05286310240626335</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.09374560415744782</c:v>
+                  <c:v>0.05286310240626335</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.08749590069055557</c:v>
+                  <c:v>0.03775935992598534</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.08437104523181915</c:v>
+                  <c:v>0.03775935992598534</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.08124618977308273</c:v>
+                  <c:v>0.03398342430591583</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.08124618977308273</c:v>
+                  <c:v>0.03398342430591583</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07499648630619049</c:v>
+                  <c:v>0.03020748682320118</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07499648630619049</c:v>
+                  <c:v>0.03020748682320118</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.07499648630619049</c:v>
+                  <c:v>0.03020748682320118</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06874677538871765</c:v>
+                  <c:v>0.02643155120313168</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06874677538871765</c:v>
+                  <c:v>0.02265561558306217</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06874677538871765</c:v>
+                  <c:v>0.02265561558306217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06874677538871765</c:v>
+                  <c:v>0.02265561558306217</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.06249707192182541</c:v>
+                  <c:v>0.02265561558306217</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05937221646308899</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05937221646308899</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05624736472964287</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05624736472964287</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04999765753746033</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.04374795034527779</c:v>
+                  <c:v>0.01887967996299267</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.04374795034527779</c:v>
+                  <c:v>0.01510374341160059</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.03749824315309525</c:v>
+                  <c:v>0.01510374341160059</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03437338769435883</c:v>
+                  <c:v>0.01510374341160059</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.0312485359609127</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.0312485359609127</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02812368236482143</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02812368236482143</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02499882876873016</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.02499882876873016</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02499882876873016</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02499882876873016</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02499882876873016</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02187397517263889</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01874912157654762</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01874912157654762</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01874912157654762</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01874912157654762</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01562426798045635</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01249941438436508</c:v>
+                  <c:v>0.01132780779153109</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01249941438436508</c:v>
+                  <c:v>0.007551871705800295</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01249941438436508</c:v>
+                  <c:v>0.007551871705800295</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01249941438436508</c:v>
+                  <c:v>0.007551871705800295</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01249941438436508</c:v>
+                  <c:v>0.003775935852900147</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.009374560788273811</c:v>
+                  <c:v>0.003775935852900147</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.009374560788273811</c:v>
+                  <c:v>0.003775935852900147</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.009374560788273811</c:v>
+                  <c:v>0.003775935852900147</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.009374560788273811</c:v>
+                  <c:v>0.003775935852900147</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.009374560788273811</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.006249707192182541</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.006249707192182541</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.006249707192182541</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.006249707192182541</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.00312485359609127</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.00312485359609127</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.00312485359609127</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.00312485359609127</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.00312485359609127</c:v>
-                </c:pt>
-                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1972,8 +1720,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H173" totalsRowCount="1">
-  <autoFilter ref="A2:H172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H145" totalsRowCount="1">
+  <autoFilter ref="A2:H144"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1989,8 +1737,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H173" totalsRowCount="1">
-  <autoFilter ref="A2:H172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H145" totalsRowCount="1">
+  <autoFilter ref="A2:H144"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2290,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2306,28 +2054,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2335,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>46.26157760620117</v>
+        <v>46.17812728881836</v>
       </c>
       <c r="C3" s="1">
         <v>2048</v>
@@ -2361,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>13.05624580383301</v>
+        <v>13.03269481658936</v>
       </c>
       <c r="C4" s="1">
         <v>578</v>
@@ -2387,22 +2135,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>12.64964962005615</v>
+        <v>12.80721569061279</v>
       </c>
       <c r="C5" s="1">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D5" s="1">
-        <v>2878</v>
+        <v>1550</v>
       </c>
       <c r="E5" s="1">
-        <v>2846</v>
+        <v>1510</v>
       </c>
       <c r="F5" s="1">
         <v>32</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
         <v>560</v>
@@ -2413,16 +2161,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.65574836730957</v>
+        <v>11.63472366333008</v>
       </c>
       <c r="C6" s="1">
         <v>516</v>
       </c>
       <c r="D6" s="1">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2439,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>4.427377223968506</v>
+        <v>4.41939115524292</v>
       </c>
       <c r="C7" s="1">
         <v>196</v>
@@ -2465,16 +2213,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.168511390686035</v>
+        <v>2.164599657058716</v>
       </c>
       <c r="C8" s="1">
         <v>96</v>
       </c>
       <c r="D8" s="1">
-        <v>12855</v>
+        <v>10027</v>
       </c>
       <c r="E8" s="1">
-        <v>12304</v>
+        <v>9476</v>
       </c>
       <c r="F8" s="1">
         <v>551</v>
@@ -2491,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.168511390686035</v>
+        <v>2.164599657058716</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -2517,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.807092785835266</v>
+        <v>1.80383312702179</v>
       </c>
       <c r="C10" s="1">
         <v>80</v>
@@ -2543,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.716738224029541</v>
+        <v>1.71364152431488</v>
       </c>
       <c r="C11" s="1">
         <v>76</v>
@@ -2569,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.445674300193787</v>
+        <v>1.443066477775574</v>
       </c>
       <c r="C12" s="1">
         <v>64</v>
@@ -2595,7 +2343,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.355319619178772</v>
+        <v>1.352874875068665</v>
       </c>
       <c r="C13" s="1">
         <v>60</v>
@@ -2621,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.4969505369663239</v>
+        <v>0.4960541129112244</v>
       </c>
       <c r="C14" s="1">
         <v>22</v>
@@ -2647,7 +2395,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.2710639238357544</v>
+        <v>0.2705749571323395</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
@@ -2673,7 +2421,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1807092875242233</v>
+        <v>0.1803833097219467</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -2699,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1581206172704697</v>
+        <v>0.1578353941440582</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
@@ -2725,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.09035464376211166</v>
+        <v>0.09019165486097336</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2751,7 +2499,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.09035464376211166</v>
+        <v>0.09019165486097336</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2772,35 +2520,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C145">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D173">
+      <c r="D145">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E173">
+      <c r="E145">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F173">
+      <c r="F145">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G173">
+      <c r="G145">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H173">
+      <c r="H145">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2816,7 +2564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2832,28 +2580,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2861,16 +2609,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>20.08499526977539</v>
+        <v>18.93065452575684</v>
       </c>
       <c r="C3" s="1">
-        <v>12855</v>
+        <v>10027</v>
       </c>
       <c r="D3" s="1">
         <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>12304</v>
+        <v>9476</v>
       </c>
       <c r="F3" s="1">
         <v>551</v>
@@ -2887,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>9.499554634094238</v>
+        <v>11.47884559631348</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2913,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>6.277830600738525</v>
+        <v>7.585855484008789</v>
       </c>
       <c r="C5" s="1">
         <v>4018</v>
@@ -2939,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>6.046591758728027</v>
+        <v>7.306436061859131</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -2962,45 +2710,45 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>4.496664047241211</v>
+        <v>3.655106067657471</v>
       </c>
       <c r="C7" s="1">
-        <v>2878</v>
+        <v>1936</v>
       </c>
       <c r="D7" s="1">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2846</v>
+        <v>1936</v>
       </c>
       <c r="F7" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>3.362342357635498</v>
+        <v>3.217097520828247</v>
       </c>
       <c r="C8" s="1">
-        <v>2152</v>
+        <v>1704</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2152</v>
+        <v>1704</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3014,19 +2762,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>2.662375211715698</v>
+        <v>3.213321447372437</v>
       </c>
       <c r="C9" s="1">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3035,24 +2783,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>2.659250259399414</v>
+        <v>3.073611974716187</v>
       </c>
       <c r="C10" s="1">
-        <v>1702</v>
+        <v>1628</v>
       </c>
       <c r="D10" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1702</v>
+        <v>1628</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3061,59 +2809,59 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>2.543630838394165</v>
+        <v>2.97921347618103</v>
       </c>
       <c r="C11" s="1">
-        <v>1628</v>
+        <v>1578</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E11" s="1">
-        <v>1628</v>
+        <v>1556</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.465509414672852</v>
+        <v>2.926350355148315</v>
       </c>
       <c r="C12" s="1">
-        <v>1578</v>
+        <v>1550</v>
       </c>
       <c r="D12" s="1">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E12" s="1">
-        <v>1556</v>
+        <v>1510</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3121,19 +2869,19 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>2.378013610839844</v>
+        <v>1.989918231964111</v>
       </c>
       <c r="C13" s="1">
-        <v>1522</v>
+        <v>1054</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1506</v>
+        <v>1054</v>
       </c>
       <c r="F13" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -3147,16 +2895,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.987406849861145</v>
+        <v>1.668963670730591</v>
       </c>
       <c r="C14" s="1">
-        <v>1272</v>
+        <v>884</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1272</v>
+        <v>884</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3173,19 +2921,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.646797776222229</v>
+        <v>1.514150261878967</v>
       </c>
       <c r="C15" s="1">
-        <v>1054</v>
+        <v>802</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1054</v>
+        <v>764</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3196,25 +2944,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>1.381185293197632</v>
+        <v>1.495270609855652</v>
       </c>
       <c r="C16" s="1">
-        <v>884</v>
+        <v>792</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1">
-        <v>884</v>
+        <v>582</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -3222,25 +2970,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1.253066301345825</v>
+        <v>1.404648184776306</v>
       </c>
       <c r="C17" s="1">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1">
-        <v>802</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3248,22 +2996,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>1.253066301345825</v>
+        <v>1.397096276283264</v>
       </c>
       <c r="C18" s="1">
-        <v>802</v>
+        <v>740</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -3274,19 +3022,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.249941468238831</v>
+        <v>1.325353503227234</v>
       </c>
       <c r="C19" s="1">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3300,25 +3048,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.237442016601563</v>
+        <v>1.106349229812622</v>
       </c>
       <c r="C20" s="1">
-        <v>792</v>
+        <v>586</v>
       </c>
       <c r="D20" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F20" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3326,25 +3074,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.162445545196533</v>
+        <v>1.083693623542786</v>
       </c>
       <c r="C21" s="1">
-        <v>744</v>
+        <v>574</v>
       </c>
       <c r="D21" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3355,16 +3103,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.156195759773254</v>
+        <v>1.030830502510071</v>
       </c>
       <c r="C22" s="1">
-        <v>740</v>
+        <v>546</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>740</v>
+        <v>546</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3378,25 +3126,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>1.096823573112488</v>
+        <v>1.011950850486755</v>
       </c>
       <c r="C23" s="1">
-        <v>702</v>
+        <v>536</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
-        <v>702</v>
+        <v>524</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3404,19 +3152,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9155820608139038</v>
+        <v>0.985519289970398</v>
       </c>
       <c r="C24" s="1">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3430,25 +3178,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8968329429626465</v>
+        <v>0.9779674410820007</v>
       </c>
       <c r="C25" s="1">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3456,51 +3204,51 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8530850410461426</v>
+        <v>0.9288802742958069</v>
       </c>
       <c r="C26" s="1">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E26" s="1">
-        <v>546</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8374607563018799</v>
+        <v>0.8948968052864075</v>
       </c>
       <c r="C27" s="1">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -3508,19 +3256,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8155867457389832</v>
+        <v>0.8269299864768982</v>
       </c>
       <c r="C28" s="1">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3534,25 +3282,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.7721788883209229</v>
+      </c>
+      <c r="C29" s="1">
+        <v>409</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>392</v>
+      </c>
+      <c r="F29" s="1">
         <v>17</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.8093370795249939</v>
-      </c>
-      <c r="C29" s="1">
-        <v>518</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>514</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -3560,28 +3308,28 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7687139511108398</v>
+        <v>0.7702909111976624</v>
       </c>
       <c r="C30" s="1">
-        <v>492</v>
+        <v>408</v>
       </c>
       <c r="D30" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="F30" s="1">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3589,19 +3337,19 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7405902743339539</v>
+        <v>0.7098759412765503</v>
       </c>
       <c r="C31" s="1">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>474</v>
+        <v>228</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -3615,16 +3363,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6843429207801819</v>
+        <v>0.6268053650856018</v>
       </c>
       <c r="C32" s="1">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3641,19 +3389,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6390325427055359</v>
+        <v>0.5965979099273682</v>
       </c>
       <c r="C33" s="1">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3667,16 +3415,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6374701261520386</v>
+        <v>0.4984235465526581</v>
       </c>
       <c r="C34" s="1">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3693,19 +3441,19 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5874724388122559</v>
+        <v>0.4833197891712189</v>
       </c>
       <c r="C35" s="1">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F35" s="1">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3719,16 +3467,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5312250852584839</v>
+        <v>0.4757679402828217</v>
       </c>
       <c r="C36" s="1">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3745,16 +3493,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5187256932258606</v>
+        <v>0.4493363797664642</v>
       </c>
       <c r="C37" s="1">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3771,19 +3519,19 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4937268495559692</v>
+        <v>0.3851454555988312</v>
       </c>
       <c r="C38" s="1">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="F38" s="1">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -3797,19 +3545,19 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4812274277210236</v>
+        <v>0.3700417280197144</v>
       </c>
       <c r="C39" s="1">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -3823,19 +3571,19 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4156055152416229</v>
+        <v>0.3549379706382752</v>
       </c>
       <c r="C40" s="1">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3849,16 +3597,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4124806523323059</v>
+        <v>0.3360582888126373</v>
       </c>
       <c r="C41" s="1">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3875,16 +3623,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3937315344810486</v>
+        <v>0.3322823643684387</v>
       </c>
       <c r="C42" s="1">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3898,45 +3646,45 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3718575835227966</v>
+        <v>0.3171786069869995</v>
       </c>
       <c r="C43" s="1">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E43" s="1">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3562332987785339</v>
+        <v>0.2831951975822449</v>
       </c>
       <c r="C44" s="1">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3950,25 +3698,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3187350630760193</v>
+        <v>0.2794192731380463</v>
       </c>
       <c r="C45" s="1">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -3976,25 +3724,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3062356412410736</v>
+        <v>0.2794192731380463</v>
       </c>
       <c r="C46" s="1">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E46" s="1">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="F46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -4002,13 +3750,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2937362194061279</v>
+        <v>0.2794192731380463</v>
       </c>
       <c r="C47" s="1">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -4017,7 +3765,7 @@
         <v>148</v>
       </c>
       <c r="F47" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -4028,51 +3776,51 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2812368273735046</v>
+        <v>0.2643155157566071</v>
       </c>
       <c r="C48" s="1">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D48" s="1">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2781119644641876</v>
+        <v>0.2624275386333466</v>
       </c>
       <c r="C49" s="1">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -4080,19 +3828,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2749871015548706</v>
+        <v>0.2605395913124085</v>
       </c>
       <c r="C50" s="1">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -4106,19 +3854,19 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2562379837036133</v>
+        <v>0.2605395913124085</v>
       </c>
       <c r="C51" s="1">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -4132,19 +3880,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2437385767698288</v>
+        <v>0.2416598945856094</v>
       </c>
       <c r="C52" s="1">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4158,19 +3906,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2343640178442001</v>
+        <v>0.2416598945856094</v>
       </c>
       <c r="C53" s="1">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4184,25 +3932,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2312391549348831</v>
+        <v>0.234108030796051</v>
       </c>
       <c r="C54" s="1">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -4210,25 +3958,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2312391549348831</v>
+        <v>0.2303320914506912</v>
       </c>
       <c r="C55" s="1">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -4236,19 +3984,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2312391549348831</v>
+        <v>0.2265561521053314</v>
       </c>
       <c r="C56" s="1">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4262,19 +4010,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2187397480010986</v>
+        <v>0.2114524096250534</v>
       </c>
       <c r="C57" s="1">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4288,19 +4036,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2187397480010986</v>
+        <v>0.1963486671447754</v>
       </c>
       <c r="C58" s="1">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4314,25 +4062,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2171773165464401</v>
+        <v>0.188796803355217</v>
       </c>
       <c r="C59" s="1">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -4343,16 +4091,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2156148999929428</v>
+        <v>0.1699171215295792</v>
       </c>
       <c r="C60" s="1">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4369,16 +4117,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2156148999929428</v>
+        <v>0.1661411821842194</v>
       </c>
       <c r="C61" s="1">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4395,16 +4143,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1999906301498413</v>
+        <v>0.1623652428388596</v>
       </c>
       <c r="C62" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4421,16 +4169,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1999906301498413</v>
+        <v>0.1623652428388596</v>
       </c>
       <c r="C63" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4447,16 +4195,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1937409192323685</v>
+        <v>0.1623652428388596</v>
       </c>
       <c r="C64" s="1">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4473,16 +4221,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1906160712242127</v>
+        <v>0.1548133790493012</v>
       </c>
       <c r="C65" s="1">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4499,16 +4247,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1874912083148956</v>
+        <v>0.1472615003585815</v>
       </c>
       <c r="C66" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4525,16 +4273,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1874912083148956</v>
+        <v>0.1472615003585815</v>
       </c>
       <c r="C67" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4551,16 +4299,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1874912083148956</v>
+        <v>0.1397096365690231</v>
       </c>
       <c r="C68" s="1">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4577,16 +4325,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1749918013811112</v>
+        <v>0.1359336972236633</v>
       </c>
       <c r="C69" s="1">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4603,16 +4351,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1687420904636383</v>
+        <v>0.1359336972236633</v>
       </c>
       <c r="C70" s="1">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4629,19 +4377,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1624923795461655</v>
+        <v>0.1359336972236633</v>
       </c>
       <c r="C71" s="1">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -4655,16 +4403,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1562426835298538</v>
+        <v>0.1283818185329437</v>
       </c>
       <c r="C72" s="1">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4681,16 +4429,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1562426835298538</v>
+        <v>0.1208299472928047</v>
       </c>
       <c r="C73" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4707,16 +4455,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1531178206205368</v>
+        <v>0.1208299472928047</v>
       </c>
       <c r="C74" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4733,16 +4481,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1437432616949081</v>
+        <v>0.1170540153980255</v>
       </c>
       <c r="C75" s="1">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4759,16 +4507,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1406184136867523</v>
+        <v>0.1132780760526657</v>
       </c>
       <c r="C76" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4785,16 +4533,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1374935507774353</v>
+        <v>0.1019502729177475</v>
       </c>
       <c r="C77" s="1">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4811,16 +4559,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1343687027692795</v>
+        <v>0.0981743335723877</v>
       </c>
       <c r="C78" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4837,16 +4585,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1343687027692795</v>
+        <v>0.0981743335723877</v>
       </c>
       <c r="C79" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4863,16 +4611,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1343687027692795</v>
+        <v>0.09062246233224869</v>
       </c>
       <c r="C80" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4889,16 +4637,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1281189918518066</v>
+        <v>0.09062246233224869</v>
       </c>
       <c r="C81" s="1">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4915,16 +4663,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1218692883849144</v>
+        <v>0.09062246233224869</v>
       </c>
       <c r="C82" s="1">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4941,16 +4689,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1218692883849144</v>
+        <v>0.08307059109210968</v>
       </c>
       <c r="C83" s="1">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4967,16 +4715,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1156195774674416</v>
+        <v>0.08307059109210968</v>
       </c>
       <c r="C84" s="1">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4993,16 +4741,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1124947294592857</v>
+        <v>0.08307059109210968</v>
       </c>
       <c r="C85" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -5019,16 +4767,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1124947294592857</v>
+        <v>0.08307059109210968</v>
       </c>
       <c r="C86" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5045,19 +4793,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1124947294592857</v>
+        <v>0.07551871985197067</v>
       </c>
       <c r="C87" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F87" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -5071,16 +4819,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1062450185418129</v>
+        <v>0.07174278050661087</v>
       </c>
       <c r="C88" s="1">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -5097,16 +4845,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.09999531507492065</v>
+        <v>0.06796684861183167</v>
       </c>
       <c r="C89" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5123,16 +4871,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.09999531507492065</v>
+        <v>0.06796684861183167</v>
       </c>
       <c r="C90" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -5149,16 +4897,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.09999531507492065</v>
+        <v>0.06041497364640236</v>
       </c>
       <c r="C91" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5175,16 +4923,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09687045961618424</v>
+        <v>0.05286310240626335</v>
       </c>
       <c r="C92" s="1">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5201,16 +4949,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.09374560415744782</v>
+        <v>0.05286310240626335</v>
       </c>
       <c r="C93" s="1">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5227,16 +4975,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.08749590069055557</v>
+        <v>0.03775935992598534</v>
       </c>
       <c r="C94" s="1">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5253,16 +5001,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.08437104523181915</v>
+        <v>0.03775935992598534</v>
       </c>
       <c r="C95" s="1">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5279,16 +5027,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.08124618977308273</v>
+        <v>0.03398342430591583</v>
       </c>
       <c r="C96" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5305,16 +5053,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.08124618977308273</v>
+        <v>0.03398342430591583</v>
       </c>
       <c r="C97" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5331,16 +5079,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07499648630619049</v>
+        <v>0.03020748682320118</v>
       </c>
       <c r="C98" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5357,16 +5105,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07499648630619049</v>
+        <v>0.03020748682320118</v>
       </c>
       <c r="C99" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5383,16 +5131,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.07499648630619049</v>
+        <v>0.03020748682320118</v>
       </c>
       <c r="C100" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5409,16 +5157,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06874677538871765</v>
+        <v>0.02643155120313168</v>
       </c>
       <c r="C101" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5435,16 +5183,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06874677538871765</v>
+        <v>0.02265561558306217</v>
       </c>
       <c r="C102" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5461,16 +5209,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06874677538871765</v>
+        <v>0.02265561558306217</v>
       </c>
       <c r="C103" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5487,16 +5235,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06874677538871765</v>
+        <v>0.02265561558306217</v>
       </c>
       <c r="C104" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -5513,16 +5261,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.06249707192182541</v>
+        <v>0.02265561558306217</v>
       </c>
       <c r="C105" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5539,16 +5287,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05937221646308899</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C106" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5565,16 +5313,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05937221646308899</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C107" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5591,16 +5339,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05624736472964287</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C108" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5617,16 +5365,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05624736472964287</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C109" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5643,16 +5391,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.04999765753746033</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C110" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5669,16 +5417,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.04374795034527779</v>
+        <v>0.01887967996299267</v>
       </c>
       <c r="C111" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5695,16 +5443,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.04374795034527779</v>
+        <v>0.01510374341160059</v>
       </c>
       <c r="C112" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -5718,19 +5466,19 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B113" s="2">
-        <v>0.03749824315309525</v>
+        <v>0.01510374341160059</v>
       </c>
       <c r="C113" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E113" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5739,24 +5487,24 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03437338769435883</v>
+        <v>0.01510374341160059</v>
       </c>
       <c r="C114" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5770,19 +5518,19 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>0.0312485359609127</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C115" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -5796,19 +5544,19 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.0312485359609127</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C116" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5822,19 +5570,19 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02812368236482143</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C117" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -5848,19 +5596,19 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02812368236482143</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C118" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
       </c>
       <c r="E118" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -5874,22 +5622,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02499882876873016</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C119" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F119" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1">
         <v>0</v>
@@ -5900,19 +5648,19 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.02499882876873016</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C120" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -5926,19 +5674,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02499882876873016</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C121" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -5952,19 +5700,19 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02499882876873016</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C122" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -5978,19 +5726,19 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02499882876873016</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C123" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -6004,19 +5752,19 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02187397517263889</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C124" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -6030,19 +5778,19 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01874912157654762</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C125" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6056,19 +5804,19 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01874912157654762</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C126" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -6082,19 +5830,19 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01874912157654762</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C127" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -6108,19 +5856,19 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01874912157654762</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C128" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -6134,19 +5882,19 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C129" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -6160,19 +5908,19 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C130" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -6186,19 +5934,19 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C131" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -6212,19 +5960,19 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C132" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -6238,19 +5986,19 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C133" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -6264,19 +6012,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C134" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -6290,19 +6038,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01562426798045635</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C135" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
@@ -6316,19 +6064,19 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01249941438436508</v>
+        <v>0.01132780779153109</v>
       </c>
       <c r="C136" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
@@ -6342,19 +6090,19 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01249941438436508</v>
+        <v>0.007551871705800295</v>
       </c>
       <c r="C137" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6368,19 +6116,19 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01249941438436508</v>
+        <v>0.007551871705800295</v>
       </c>
       <c r="C138" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -6394,19 +6142,19 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01249941438436508</v>
+        <v>0.007551871705800295</v>
       </c>
       <c r="C139" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -6415,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6423,16 +6171,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01249941438436508</v>
+        <v>0.003775935852900147</v>
       </c>
       <c r="C140" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -6449,16 +6197,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.009374560788273811</v>
+        <v>0.003775935852900147</v>
       </c>
       <c r="C141" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -6475,16 +6223,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.009374560788273811</v>
+        <v>0.003775935852900147</v>
       </c>
       <c r="C142" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
       </c>
       <c r="E142" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -6501,16 +6249,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.009374560788273811</v>
+        <v>0.003775935852900147</v>
       </c>
       <c r="C143" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
       </c>
       <c r="E143" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -6527,16 +6275,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.009374560788273811</v>
+        <v>0.003775935852900147</v>
       </c>
       <c r="C144" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
       </c>
       <c r="E144" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F144" s="1">
         <v>0</v>
@@ -6549,762 +6297,34 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C145" s="1">
-        <v>6</v>
-      </c>
-      <c r="D145" s="1">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1">
-        <v>6</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C146" s="1">
-        <v>6</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1">
-        <v>6</v>
-      </c>
-      <c r="F146" s="1">
-        <v>0</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
-      <c r="H146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C147" s="1">
-        <v>6</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0</v>
-      </c>
-      <c r="E147" s="1">
-        <v>6</v>
-      </c>
-      <c r="F147" s="1">
-        <v>0</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0</v>
-      </c>
-      <c r="H147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C148" s="1">
-        <v>6</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0</v>
-      </c>
-      <c r="E148" s="1">
-        <v>6</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0</v>
-      </c>
-      <c r="H148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C149" s="1">
-        <v>6</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1">
-        <v>6</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
-      <c r="H149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C150" s="1">
-        <v>6</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0</v>
-      </c>
-      <c r="E150" s="1">
-        <v>6</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C151" s="1">
-        <v>6</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0</v>
-      </c>
-      <c r="E151" s="1">
-        <v>6</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C152" s="1">
-        <v>6</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
-      <c r="E152" s="1">
-        <v>6</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0</v>
-      </c>
-      <c r="G152" s="1">
-        <v>0</v>
-      </c>
-      <c r="H152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C153" s="1">
-        <v>6</v>
-      </c>
-      <c r="D153" s="1">
-        <v>0</v>
-      </c>
-      <c r="E153" s="1">
-        <v>6</v>
-      </c>
-      <c r="F153" s="1">
-        <v>0</v>
-      </c>
-      <c r="G153" s="1">
-        <v>0</v>
-      </c>
-      <c r="H153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C154" s="1">
-        <v>6</v>
-      </c>
-      <c r="D154" s="1">
-        <v>0</v>
-      </c>
-      <c r="E154" s="1">
-        <v>6</v>
-      </c>
-      <c r="F154" s="1">
-        <v>0</v>
-      </c>
-      <c r="G154" s="1">
-        <v>0</v>
-      </c>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C155" s="1">
-        <v>6</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
-      <c r="E155" s="1">
-        <v>6</v>
-      </c>
-      <c r="F155" s="1">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0</v>
-      </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C156" s="1">
-        <v>6</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0</v>
-      </c>
-      <c r="E156" s="1">
-        <v>6</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <v>0</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C157" s="1">
-        <v>6</v>
-      </c>
-      <c r="D157" s="1">
-        <v>0</v>
-      </c>
-      <c r="E157" s="1">
-        <v>6</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C158" s="1">
-        <v>6</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
-        <v>6</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C159" s="1">
-        <v>6</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
-      <c r="E159" s="1">
-        <v>6</v>
-      </c>
-      <c r="F159" s="1">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1">
-        <v>0</v>
-      </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C160" s="1">
-        <v>6</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1">
-        <v>6</v>
-      </c>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1">
-        <v>0</v>
-      </c>
-      <c r="H160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C161" s="1">
-        <v>6</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0</v>
-      </c>
-      <c r="E161" s="1">
-        <v>6</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C162" s="1">
-        <v>6</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0</v>
-      </c>
-      <c r="E162" s="1">
-        <v>6</v>
-      </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1">
-        <v>0</v>
-      </c>
-      <c r="H162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2">
-        <v>0.009374560788273811</v>
-      </c>
-      <c r="C163" s="1">
-        <v>6</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0</v>
-      </c>
-      <c r="E163" s="1">
-        <v>6</v>
-      </c>
-      <c r="F163" s="1">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1">
-        <v>0</v>
-      </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2">
-        <v>0.006249707192182541</v>
-      </c>
-      <c r="C164" s="1">
-        <v>4</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0</v>
-      </c>
-      <c r="E164" s="1">
-        <v>4</v>
-      </c>
-      <c r="F164" s="1">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1">
-        <v>0</v>
-      </c>
-      <c r="H164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2">
-        <v>0.006249707192182541</v>
-      </c>
-      <c r="C165" s="1">
-        <v>4</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1">
-        <v>4</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1">
-        <v>0</v>
-      </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2">
-        <v>0.006249707192182541</v>
-      </c>
-      <c r="C166" s="1">
-        <v>4</v>
-      </c>
-      <c r="D166" s="1">
-        <v>0</v>
-      </c>
-      <c r="E166" s="1">
-        <v>4</v>
-      </c>
-      <c r="F166" s="1">
-        <v>0</v>
-      </c>
-      <c r="G166" s="1">
-        <v>0</v>
-      </c>
-      <c r="H166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2">
-        <v>0.006249707192182541</v>
-      </c>
-      <c r="C167" s="1">
-        <v>4</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0</v>
-      </c>
-      <c r="E167" s="1">
-        <v>4</v>
-      </c>
-      <c r="F167" s="1">
-        <v>0</v>
-      </c>
-      <c r="G167" s="1">
-        <v>0</v>
-      </c>
-      <c r="H167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2">
-        <v>0.00312485359609127</v>
-      </c>
-      <c r="C168" s="1">
-        <v>2</v>
-      </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
-        <v>2</v>
-      </c>
-      <c r="F168" s="1">
-        <v>0</v>
-      </c>
-      <c r="G168" s="1">
-        <v>0</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
-        <v>0.00312485359609127</v>
-      </c>
-      <c r="C169" s="1">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="1">
-        <v>2</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0</v>
-      </c>
-      <c r="G169" s="1">
-        <v>0</v>
-      </c>
-      <c r="H169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2">
-        <v>0.00312485359609127</v>
-      </c>
-      <c r="C170" s="1">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0</v>
-      </c>
-      <c r="E170" s="1">
-        <v>2</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0</v>
-      </c>
-      <c r="G170" s="1">
-        <v>0</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2">
-        <v>0.00312485359609127</v>
-      </c>
-      <c r="C171" s="1">
-        <v>2</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0</v>
-      </c>
-      <c r="E171" s="1">
-        <v>2</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-      <c r="G171" s="1">
-        <v>0</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2">
-        <v>0.00312485359609127</v>
-      </c>
-      <c r="C172" s="1">
-        <v>2</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0</v>
-      </c>
-      <c r="E172" s="1">
-        <v>2</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
+      <c r="B145">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C145">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D173">
+      <c r="D145">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E173">
+      <c r="E145">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F173">
+      <c r="F145">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G173">
+      <c r="G145">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H173">
+      <c r="H145">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -764,22 +764,22 @@
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>config_manager.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>btod.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>system_function.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ebtn.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>gd25qxx.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>config_manager.o</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>_printf_fp_dec.o</c:v>
@@ -866,13 +866,13 @@
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>usart_app.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>gd32f4xx_misc.o</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>usart_app.o</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>strncmp.o</c:v>
@@ -1190,430 +1190,430 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>18.93065452575684</c:v>
+                  <c:v>18.72141075134277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.47884559631348</c:v>
+                  <c:v>11.35196685791016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.585855484008789</c:v>
+                  <c:v>7.502007007598877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.306436061859131</c:v>
+                  <c:v>7.225676536560059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.655106067657471</c:v>
+                  <c:v>3.976922750473023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.217097520828247</c:v>
+                  <c:v>3.614705324172974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.213321447372437</c:v>
+                  <c:v>3.181538105010986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.073611974716187</c:v>
+                  <c:v>3.177803993225098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.97921347618103</c:v>
+                  <c:v>3.039638519287109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.926350355148315</c:v>
+                  <c:v>2.946283578872681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.989918231964111</c:v>
+                  <c:v>1.967923283576965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.668963670730591</c:v>
+                  <c:v>1.650516271591187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.514150261878967</c:v>
+                  <c:v>1.497414112091065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.495270609855652</c:v>
+                  <c:v>1.478743076324463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.404648184776306</c:v>
+                  <c:v>1.389122247695923</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.397096276283264</c:v>
+                  <c:v>1.381653904914856</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.325353503227234</c:v>
+                  <c:v>1.310704112052918</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.106349229812622</c:v>
+                  <c:v>1.094120502471924</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.083693623542786</c:v>
+                  <c:v>1.071715354919434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.030830502510071</c:v>
+                  <c:v>1.019436478614807</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.011950850486755</c:v>
+                  <c:v>1.000765562057495</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.985519289970398</c:v>
+                  <c:v>0.9746261239051819</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9779674410820007</c:v>
+                  <c:v>0.9671577215194702</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9288802742958069</c:v>
+                  <c:v>0.9186131358146668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8948968052864075</c:v>
+                  <c:v>0.8850052952766419</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8269299864768982</c:v>
+                  <c:v>0.8177897334098816</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7721788883209229</c:v>
+                  <c:v>0.7636438608169556</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7702909111976624</c:v>
+                  <c:v>0.7617767453193665</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7098759412765503</c:v>
+                  <c:v>0.7020295262336731</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6268053650856018</c:v>
+                  <c:v>0.6198771595954895</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5965979099273682</c:v>
+                  <c:v>0.5900035500526428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4984235465526581</c:v>
+                  <c:v>0.4929143488407135</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4833197891712189</c:v>
+                  <c:v>0.4779775440692902</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4757679402828217</c:v>
+                  <c:v>0.4705091714859009</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4493363797664642</c:v>
+                  <c:v>0.44436976313591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3851454555988312</c:v>
+                  <c:v>0.3808883726596832</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3700417280197144</c:v>
+                  <c:v>0.3659515678882599</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3549379706382752</c:v>
+                  <c:v>0.3510147631168366</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3360582888126373</c:v>
+                  <c:v>0.3360779583454132</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3322823643684387</c:v>
+                  <c:v>0.3323437571525574</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3171786069869995</c:v>
+                  <c:v>0.3286095559597015</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2831951975822449</c:v>
+                  <c:v>0.2800649702548981</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2794192731380463</c:v>
+                  <c:v>0.2763307690620422</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2794192731380463</c:v>
+                  <c:v>0.2763307690620422</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2794192731380463</c:v>
+                  <c:v>0.2763307690620422</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2643155157566071</c:v>
+                  <c:v>0.2613939642906189</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2624275386333466</c:v>
+                  <c:v>0.2595268785953522</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2605395913124085</c:v>
+                  <c:v>0.2576597630977631</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2605395913124085</c:v>
+                  <c:v>0.2576597630977631</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2416598945856094</c:v>
+                  <c:v>0.2389887720346451</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2416598945856094</c:v>
+                  <c:v>0.2389887720346451</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.234108030796051</c:v>
+                  <c:v>0.2315203845500946</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2303320914506912</c:v>
+                  <c:v>0.2277861833572388</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2265561521053314</c:v>
+                  <c:v>0.2240519821643829</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2114524096250534</c:v>
+                  <c:v>0.2091151773929596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1963486671447754</c:v>
+                  <c:v>0.1941783875226975</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.188796803355217</c:v>
+                  <c:v>0.1867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1699171215295792</c:v>
+                  <c:v>0.1680389791727066</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1661411821842194</c:v>
+                  <c:v>0.1643047779798508</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1623652428388596</c:v>
+                  <c:v>0.1605705916881561</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1623652428388596</c:v>
+                  <c:v>0.1605705916881561</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1623652428388596</c:v>
+                  <c:v>0.1605705916881561</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1548133790493012</c:v>
+                  <c:v>0.1531021893024445</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1472615003585815</c:v>
+                  <c:v>0.1456337869167328</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1472615003585815</c:v>
+                  <c:v>0.1456337869167328</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1397096365690231</c:v>
+                  <c:v>0.1381653845310211</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1359336972236633</c:v>
+                  <c:v>0.1344311833381653</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1359336972236633</c:v>
+                  <c:v>0.1344311833381653</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1359336972236633</c:v>
+                  <c:v>0.1344311833381653</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1283818185329437</c:v>
+                  <c:v>0.1269627958536148</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1208299472928047</c:v>
+                  <c:v>0.1194943860173225</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1208299472928047</c:v>
+                  <c:v>0.1194943860173225</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1170540153980255</c:v>
+                  <c:v>0.1157601922750473</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1132780760526657</c:v>
+                  <c:v>0.1120259910821915</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1019502729177475</c:v>
+                  <c:v>0.100823387503624</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0981743335723877</c:v>
+                  <c:v>0.09708919376134872</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0981743335723877</c:v>
+                  <c:v>0.09708919376134872</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.09062246233224869</c:v>
+                  <c:v>0.08962079137563705</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.09062246233224869</c:v>
+                  <c:v>0.08962079137563705</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.09062246233224869</c:v>
+                  <c:v>0.08962079137563705</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08307059109210968</c:v>
+                  <c:v>0.08215238898992539</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08307059109210968</c:v>
+                  <c:v>0.08215238898992539</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08307059109210968</c:v>
+                  <c:v>0.08215238898992539</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.08307059109210968</c:v>
+                  <c:v>0.08215238898992539</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07551871985197067</c:v>
+                  <c:v>0.07468399405479431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07174278050661087</c:v>
+                  <c:v>0.07094979286193848</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06796684861183167</c:v>
+                  <c:v>0.06721559166908264</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06796684861183167</c:v>
+                  <c:v>0.06721559166908264</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.06041497364640236</c:v>
+                  <c:v>0.05974719300866127</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05286310240626335</c:v>
+                  <c:v>0.0522787943482399</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05286310240626335</c:v>
+                  <c:v>0.0522787943482399</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03775935992598534</c:v>
+                  <c:v>0.03734199702739716</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03775935992598534</c:v>
+                  <c:v>0.03734199702739716</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03398342430591583</c:v>
+                  <c:v>0.03360779583454132</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03398342430591583</c:v>
+                  <c:v>0.03360779583454132</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.03020748682320118</c:v>
+                  <c:v>0.02987359650433064</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.03020748682320118</c:v>
+                  <c:v>0.02987359650433064</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03020748682320118</c:v>
+                  <c:v>0.02987359650433064</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02643155120313168</c:v>
+                  <c:v>0.02613939717411995</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02265561558306217</c:v>
+                  <c:v>0.02240519784390926</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02265561558306217</c:v>
+                  <c:v>0.02240519784390926</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02265561558306217</c:v>
+                  <c:v>0.02240519784390926</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02265561558306217</c:v>
+                  <c:v>0.02240519784390926</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01887967996299267</c:v>
+                  <c:v>0.01867099851369858</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01510374341160059</c:v>
+                  <c:v>0.01493679825216532</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01510374341160059</c:v>
+                  <c:v>0.01493679825216532</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01510374341160059</c:v>
+                  <c:v>0.01493679825216532</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01132780779153109</c:v>
+                  <c:v>0.01120259892195463</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.007551871705800295</c:v>
+                  <c:v>0.007468399126082659</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.007551871705800295</c:v>
+                  <c:v>0.007468399126082659</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.007551871705800295</c:v>
+                  <c:v>0.007468399126082659</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.003775935852900147</c:v>
+                  <c:v>0.003734199563041329</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.003775935852900147</c:v>
+                  <c:v>0.003734199563041329</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003775935852900147</c:v>
+                  <c:v>0.003734199563041329</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003775935852900147</c:v>
+                  <c:v>0.003734199563041329</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003775935852900147</c:v>
+                  <c:v>0.003734199563041329</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>0</c:v>
@@ -2141,10 +2141,10 @@
         <v>568</v>
       </c>
       <c r="D5" s="1">
-        <v>1550</v>
+        <v>2130</v>
       </c>
       <c r="E5" s="1">
-        <v>1510</v>
+        <v>2090</v>
       </c>
       <c r="F5" s="1">
         <v>32</v>
@@ -2167,10 +2167,10 @@
         <v>516</v>
       </c>
       <c r="D6" s="1">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>18.93065452575684</v>
+        <v>18.72141075134277</v>
       </c>
       <c r="C3" s="1">
         <v>10027</v>
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>11.47884559631348</v>
+        <v>11.35196685791016</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2661,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>7.585855484008789</v>
+        <v>7.502007007598877</v>
       </c>
       <c r="C5" s="1">
         <v>4018</v>
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>7.306436061859131</v>
+        <v>7.225676536560059</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -2710,45 +2710,45 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>3.655106067657471</v>
+        <v>3.976922750473023</v>
       </c>
       <c r="C7" s="1">
-        <v>1936</v>
+        <v>2130</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="E7" s="1">
-        <v>1936</v>
+        <v>2090</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>3.217097520828247</v>
+        <v>3.614705324172974</v>
       </c>
       <c r="C8" s="1">
-        <v>1704</v>
+        <v>1936</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1704</v>
+        <v>1936</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3.213321447372437</v>
+        <v>3.181538105010986</v>
       </c>
       <c r="C9" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2783,24 +2783,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>3.073611974716187</v>
+        <v>3.177803993225098</v>
       </c>
       <c r="C10" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2809,59 +2809,59 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>2.97921347618103</v>
+        <v>3.039638519287109</v>
       </c>
       <c r="C11" s="1">
-        <v>1578</v>
+        <v>1628</v>
       </c>
       <c r="D11" s="1">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1556</v>
+        <v>1628</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.926350355148315</v>
+        <v>2.946283578872681</v>
       </c>
       <c r="C12" s="1">
-        <v>1550</v>
+        <v>1578</v>
       </c>
       <c r="D12" s="1">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="E12" s="1">
-        <v>1510</v>
+        <v>1556</v>
       </c>
       <c r="F12" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2869,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.989918231964111</v>
+        <v>1.967923283576965</v>
       </c>
       <c r="C13" s="1">
         <v>1054</v>
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.668963670730591</v>
+        <v>1.650516271591187</v>
       </c>
       <c r="C14" s="1">
         <v>884</v>
@@ -2921,7 +2921,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.514150261878967</v>
+        <v>1.497414112091065</v>
       </c>
       <c r="C15" s="1">
         <v>802</v>
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>1.495270609855652</v>
+        <v>1.478743076324463</v>
       </c>
       <c r="C16" s="1">
         <v>792</v>
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1.404648184776306</v>
+        <v>1.389122247695923</v>
       </c>
       <c r="C17" s="1">
         <v>744</v>
@@ -2999,7 +2999,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>1.397096276283264</v>
+        <v>1.381653904914856</v>
       </c>
       <c r="C18" s="1">
         <v>740</v>
@@ -3025,7 +3025,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.325353503227234</v>
+        <v>1.310704112052918</v>
       </c>
       <c r="C19" s="1">
         <v>702</v>
@@ -3051,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.106349229812622</v>
+        <v>1.094120502471924</v>
       </c>
       <c r="C20" s="1">
         <v>586</v>
@@ -3077,7 +3077,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.083693623542786</v>
+        <v>1.071715354919434</v>
       </c>
       <c r="C21" s="1">
         <v>574</v>
@@ -3103,7 +3103,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.030830502510071</v>
+        <v>1.019436478614807</v>
       </c>
       <c r="C22" s="1">
         <v>546</v>
@@ -3129,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>1.011950850486755</v>
+        <v>1.000765562057495</v>
       </c>
       <c r="C23" s="1">
         <v>536</v>
@@ -3155,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.985519289970398</v>
+        <v>0.9746261239051819</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -3181,7 +3181,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9779674410820007</v>
+        <v>0.9671577215194702</v>
       </c>
       <c r="C25" s="1">
         <v>518</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9288802742958069</v>
+        <v>0.9186131358146668</v>
       </c>
       <c r="C26" s="1">
         <v>492</v>
@@ -3233,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8948968052864075</v>
+        <v>0.8850052952766419</v>
       </c>
       <c r="C27" s="1">
         <v>474</v>
@@ -3259,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8269299864768982</v>
+        <v>0.8177897334098816</v>
       </c>
       <c r="C28" s="1">
         <v>438</v>
@@ -3285,7 +3285,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7721788883209229</v>
+        <v>0.7636438608169556</v>
       </c>
       <c r="C29" s="1">
         <v>409</v>
@@ -3311,7 +3311,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7702909111976624</v>
+        <v>0.7617767453193665</v>
       </c>
       <c r="C30" s="1">
         <v>408</v>
@@ -3337,7 +3337,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7098759412765503</v>
+        <v>0.7020295262336731</v>
       </c>
       <c r="C31" s="1">
         <v>376</v>
@@ -3363,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6268053650856018</v>
+        <v>0.6198771595954895</v>
       </c>
       <c r="C32" s="1">
         <v>332</v>
@@ -3389,7 +3389,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5965979099273682</v>
+        <v>0.5900035500526428</v>
       </c>
       <c r="C33" s="1">
         <v>316</v>
@@ -3415,7 +3415,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.4984235465526581</v>
+        <v>0.4929143488407135</v>
       </c>
       <c r="C34" s="1">
         <v>264</v>
@@ -3441,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4833197891712189</v>
+        <v>0.4779775440692902</v>
       </c>
       <c r="C35" s="1">
         <v>256</v>
@@ -3467,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4757679402828217</v>
+        <v>0.4705091714859009</v>
       </c>
       <c r="C36" s="1">
         <v>252</v>
@@ -3493,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4493363797664642</v>
+        <v>0.44436976313591</v>
       </c>
       <c r="C37" s="1">
         <v>238</v>
@@ -3519,7 +3519,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3851454555988312</v>
+        <v>0.3808883726596832</v>
       </c>
       <c r="C38" s="1">
         <v>204</v>
@@ -3545,7 +3545,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3700417280197144</v>
+        <v>0.3659515678882599</v>
       </c>
       <c r="C39" s="1">
         <v>196</v>
@@ -3571,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3549379706382752</v>
+        <v>0.3510147631168366</v>
       </c>
       <c r="C40" s="1">
         <v>188</v>
@@ -3594,45 +3594,45 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3360582888126373</v>
+        <v>0.3360779583454132</v>
       </c>
       <c r="C41" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E41" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3322823643684387</v>
+        <v>0.3323437571525574</v>
       </c>
       <c r="C42" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3646,28 +3646,28 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3171786069869995</v>
+        <v>0.3286095559597015</v>
       </c>
       <c r="C43" s="1">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3675,7 +3675,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2831951975822449</v>
+        <v>0.2800649702548981</v>
       </c>
       <c r="C44" s="1">
         <v>150</v>
@@ -3701,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2794192731380463</v>
+        <v>0.2763307690620422</v>
       </c>
       <c r="C45" s="1">
         <v>148</v>
@@ -3727,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2794192731380463</v>
+        <v>0.2763307690620422</v>
       </c>
       <c r="C46" s="1">
         <v>148</v>
@@ -3753,7 +3753,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2794192731380463</v>
+        <v>0.2763307690620422</v>
       </c>
       <c r="C47" s="1">
         <v>148</v>
@@ -3779,7 +3779,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2643155157566071</v>
+        <v>0.2613939642906189</v>
       </c>
       <c r="C48" s="1">
         <v>140</v>
@@ -3805,7 +3805,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2624275386333466</v>
+        <v>0.2595268785953522</v>
       </c>
       <c r="C49" s="1">
         <v>139</v>
@@ -3831,7 +3831,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2605395913124085</v>
+        <v>0.2576597630977631</v>
       </c>
       <c r="C50" s="1">
         <v>138</v>
@@ -3857,7 +3857,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2605395913124085</v>
+        <v>0.2576597630977631</v>
       </c>
       <c r="C51" s="1">
         <v>138</v>
@@ -3883,7 +3883,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2416598945856094</v>
+        <v>0.2389887720346451</v>
       </c>
       <c r="C52" s="1">
         <v>128</v>
@@ -3909,7 +3909,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2416598945856094</v>
+        <v>0.2389887720346451</v>
       </c>
       <c r="C53" s="1">
         <v>128</v>
@@ -3935,7 +3935,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.234108030796051</v>
+        <v>0.2315203845500946</v>
       </c>
       <c r="C54" s="1">
         <v>124</v>
@@ -3961,7 +3961,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2303320914506912</v>
+        <v>0.2277861833572388</v>
       </c>
       <c r="C55" s="1">
         <v>122</v>
@@ -3987,7 +3987,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2265561521053314</v>
+        <v>0.2240519821643829</v>
       </c>
       <c r="C56" s="1">
         <v>120</v>
@@ -4013,7 +4013,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2114524096250534</v>
+        <v>0.2091151773929596</v>
       </c>
       <c r="C57" s="1">
         <v>112</v>
@@ -4039,7 +4039,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1963486671447754</v>
+        <v>0.1941783875226975</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -4065,7 +4065,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.188796803355217</v>
+        <v>0.1867099851369858</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -4091,7 +4091,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1699171215295792</v>
+        <v>0.1680389791727066</v>
       </c>
       <c r="C60" s="1">
         <v>90</v>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1661411821842194</v>
+        <v>0.1643047779798508</v>
       </c>
       <c r="C61" s="1">
         <v>88</v>
@@ -4143,7 +4143,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1623652428388596</v>
+        <v>0.1605705916881561</v>
       </c>
       <c r="C62" s="1">
         <v>86</v>
@@ -4169,7 +4169,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1623652428388596</v>
+        <v>0.1605705916881561</v>
       </c>
       <c r="C63" s="1">
         <v>86</v>
@@ -4195,7 +4195,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1623652428388596</v>
+        <v>0.1605705916881561</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -4221,7 +4221,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1548133790493012</v>
+        <v>0.1531021893024445</v>
       </c>
       <c r="C65" s="1">
         <v>82</v>
@@ -4247,7 +4247,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1472615003585815</v>
+        <v>0.1456337869167328</v>
       </c>
       <c r="C66" s="1">
         <v>78</v>
@@ -4273,7 +4273,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1472615003585815</v>
+        <v>0.1456337869167328</v>
       </c>
       <c r="C67" s="1">
         <v>78</v>
@@ -4299,7 +4299,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1397096365690231</v>
+        <v>0.1381653845310211</v>
       </c>
       <c r="C68" s="1">
         <v>74</v>
@@ -4325,7 +4325,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1359336972236633</v>
+        <v>0.1344311833381653</v>
       </c>
       <c r="C69" s="1">
         <v>72</v>
@@ -4351,7 +4351,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1359336972236633</v>
+        <v>0.1344311833381653</v>
       </c>
       <c r="C70" s="1">
         <v>72</v>
@@ -4377,7 +4377,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1359336972236633</v>
+        <v>0.1344311833381653</v>
       </c>
       <c r="C71" s="1">
         <v>72</v>
@@ -4403,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1283818185329437</v>
+        <v>0.1269627958536148</v>
       </c>
       <c r="C72" s="1">
         <v>68</v>
@@ -4429,7 +4429,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1208299472928047</v>
+        <v>0.1194943860173225</v>
       </c>
       <c r="C73" s="1">
         <v>64</v>
@@ -4455,7 +4455,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1208299472928047</v>
+        <v>0.1194943860173225</v>
       </c>
       <c r="C74" s="1">
         <v>64</v>
@@ -4481,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1170540153980255</v>
+        <v>0.1157601922750473</v>
       </c>
       <c r="C75" s="1">
         <v>62</v>
@@ -4507,7 +4507,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1132780760526657</v>
+        <v>0.1120259910821915</v>
       </c>
       <c r="C76" s="1">
         <v>60</v>
@@ -4533,7 +4533,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1019502729177475</v>
+        <v>0.100823387503624</v>
       </c>
       <c r="C77" s="1">
         <v>54</v>
@@ -4559,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0981743335723877</v>
+        <v>0.09708919376134872</v>
       </c>
       <c r="C78" s="1">
         <v>52</v>
@@ -4585,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0981743335723877</v>
+        <v>0.09708919376134872</v>
       </c>
       <c r="C79" s="1">
         <v>52</v>
@@ -4611,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.09062246233224869</v>
+        <v>0.08962079137563705</v>
       </c>
       <c r="C80" s="1">
         <v>48</v>
@@ -4637,7 +4637,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.09062246233224869</v>
+        <v>0.08962079137563705</v>
       </c>
       <c r="C81" s="1">
         <v>48</v>
@@ -4663,7 +4663,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.09062246233224869</v>
+        <v>0.08962079137563705</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4689,7 +4689,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08307059109210968</v>
+        <v>0.08215238898992539</v>
       </c>
       <c r="C83" s="1">
         <v>44</v>
@@ -4715,7 +4715,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08307059109210968</v>
+        <v>0.08215238898992539</v>
       </c>
       <c r="C84" s="1">
         <v>44</v>
@@ -4741,7 +4741,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08307059109210968</v>
+        <v>0.08215238898992539</v>
       </c>
       <c r="C85" s="1">
         <v>44</v>
@@ -4767,7 +4767,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.08307059109210968</v>
+        <v>0.08215238898992539</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4793,7 +4793,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07551871985197067</v>
+        <v>0.07468399405479431</v>
       </c>
       <c r="C87" s="1">
         <v>40</v>
@@ -4819,7 +4819,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07174278050661087</v>
+        <v>0.07094979286193848</v>
       </c>
       <c r="C88" s="1">
         <v>38</v>
@@ -4845,7 +4845,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06796684861183167</v>
+        <v>0.06721559166908264</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4871,7 +4871,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06796684861183167</v>
+        <v>0.06721559166908264</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4897,7 +4897,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.06041497364640236</v>
+        <v>0.05974719300866127</v>
       </c>
       <c r="C91" s="1">
         <v>32</v>
@@ -4923,7 +4923,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05286310240626335</v>
+        <v>0.0522787943482399</v>
       </c>
       <c r="C92" s="1">
         <v>28</v>
@@ -4949,7 +4949,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05286310240626335</v>
+        <v>0.0522787943482399</v>
       </c>
       <c r="C93" s="1">
         <v>28</v>
@@ -4975,7 +4975,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03775935992598534</v>
+        <v>0.03734199702739716</v>
       </c>
       <c r="C94" s="1">
         <v>20</v>
@@ -5001,7 +5001,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03775935992598534</v>
+        <v>0.03734199702739716</v>
       </c>
       <c r="C95" s="1">
         <v>20</v>
@@ -5027,7 +5027,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03398342430591583</v>
+        <v>0.03360779583454132</v>
       </c>
       <c r="C96" s="1">
         <v>18</v>
@@ -5053,7 +5053,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03398342430591583</v>
+        <v>0.03360779583454132</v>
       </c>
       <c r="C97" s="1">
         <v>18</v>
@@ -5079,7 +5079,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.03020748682320118</v>
+        <v>0.02987359650433064</v>
       </c>
       <c r="C98" s="1">
         <v>16</v>
@@ -5105,7 +5105,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.03020748682320118</v>
+        <v>0.02987359650433064</v>
       </c>
       <c r="C99" s="1">
         <v>16</v>
@@ -5131,7 +5131,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.03020748682320118</v>
+        <v>0.02987359650433064</v>
       </c>
       <c r="C100" s="1">
         <v>16</v>
@@ -5157,7 +5157,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02643155120313168</v>
+        <v>0.02613939717411995</v>
       </c>
       <c r="C101" s="1">
         <v>14</v>
@@ -5183,7 +5183,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02265561558306217</v>
+        <v>0.02240519784390926</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
@@ -5209,7 +5209,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02265561558306217</v>
+        <v>0.02240519784390926</v>
       </c>
       <c r="C103" s="1">
         <v>12</v>
@@ -5235,7 +5235,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02265561558306217</v>
+        <v>0.02240519784390926</v>
       </c>
       <c r="C104" s="1">
         <v>12</v>
@@ -5261,7 +5261,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02265561558306217</v>
+        <v>0.02240519784390926</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5287,7 +5287,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C106" s="1">
         <v>10</v>
@@ -5313,7 +5313,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C107" s="1">
         <v>10</v>
@@ -5339,7 +5339,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5391,7 +5391,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
@@ -5417,7 +5417,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01887967996299267</v>
+        <v>0.01867099851369858</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5443,7 +5443,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01510374341160059</v>
+        <v>0.01493679825216532</v>
       </c>
       <c r="C112" s="1">
         <v>8</v>
@@ -5469,7 +5469,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01510374341160059</v>
+        <v>0.01493679825216532</v>
       </c>
       <c r="C113" s="1">
         <v>8</v>
@@ -5495,7 +5495,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01510374341160059</v>
+        <v>0.01493679825216532</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5521,7 +5521,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C115" s="1">
         <v>6</v>
@@ -5547,7 +5547,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C116" s="1">
         <v>6</v>
@@ -5573,7 +5573,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -5599,7 +5599,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -5651,7 +5651,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -5677,7 +5677,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -5703,7 +5703,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -5729,7 +5729,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C123" s="1">
         <v>6</v>
@@ -5755,7 +5755,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
@@ -5781,7 +5781,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C125" s="1">
         <v>6</v>
@@ -5807,7 +5807,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C126" s="1">
         <v>6</v>
@@ -5833,7 +5833,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -5859,7 +5859,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -5885,7 +5885,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -5911,7 +5911,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -5937,7 +5937,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -5963,7 +5963,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -5989,7 +5989,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6015,7 +6015,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6041,7 +6041,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6067,7 +6067,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01132780779153109</v>
+        <v>0.01120259892195463</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6093,7 +6093,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.007551871705800295</v>
+        <v>0.007468399126082659</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -6119,7 +6119,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.007551871705800295</v>
+        <v>0.007468399126082659</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -6145,7 +6145,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.007551871705800295</v>
+        <v>0.007468399126082659</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -6171,7 +6171,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.003775935852900147</v>
+        <v>0.003734199563041329</v>
       </c>
       <c r="C140" s="1">
         <v>2</v>
@@ -6197,7 +6197,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.003775935852900147</v>
+        <v>0.003734199563041329</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -6223,7 +6223,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003775935852900147</v>
+        <v>0.003734199563041329</v>
       </c>
       <c r="C142" s="1">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003775935852900147</v>
+        <v>0.003734199563041329</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6275,7 +6275,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003775935852900147</v>
+        <v>0.003734199563041329</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -809,10 +809,10 @@
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>sampling_control.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>gd32f4xx_sdio.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>sampling_control.o</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>gd32f4xx_adc.o</c:v>
@@ -1190,430 +1190,430 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>18.72141075134277</c:v>
+                  <c:v>18.71721649169922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.35196685791016</c:v>
+                  <c:v>11.34942436218262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.502007007598877</c:v>
+                  <c:v>7.500326633453369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.225676536560059</c:v>
+                  <c:v>7.224057674407959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.976922750473023</c:v>
+                  <c:v>3.97603178024292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.614705324172974</c:v>
+                  <c:v>3.613895654678345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.181538105010986</c:v>
+                  <c:v>3.180825471878052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.177803993225098</c:v>
+                  <c:v>3.1770920753479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.039638519287109</c:v>
+                  <c:v>3.038957595825195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.946283578872681</c:v>
+                  <c:v>2.945623636245728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.967923283576965</c:v>
+                  <c:v>1.967482447624207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.650516271591187</c:v>
+                  <c:v>1.650146484375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.497414112091065</c:v>
+                  <c:v>1.497078657150269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.478743076324463</c:v>
+                  <c:v>1.478411793708801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.389122247695923</c:v>
+                  <c:v>1.388811111450195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.381653904914856</c:v>
+                  <c:v>1.381344437599182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.310704112052918</c:v>
+                  <c:v>1.310410499572754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.094120502471924</c:v>
+                  <c:v>1.093875408172607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.071715354919434</c:v>
+                  <c:v>1.071475267410278</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.019436478614807</c:v>
+                  <c:v>1.022941470146179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.000765562057495</c:v>
+                  <c:v>1.019208192825317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9746261239051819</c:v>
+                  <c:v>0.9744077920913696</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9671577215194702</c:v>
+                  <c:v>0.9669410586357117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9186131358146668</c:v>
+                  <c:v>0.9184073209762573</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8850052952766419</c:v>
+                  <c:v>0.8848070502281189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8177897334098816</c:v>
+                  <c:v>0.8176065683364868</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7636438608169556</c:v>
+                  <c:v>0.7634727954864502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7617767453193665</c:v>
+                  <c:v>0.7616060972213745</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7020295262336731</c:v>
+                  <c:v>0.7018722891807556</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6198771595954895</c:v>
+                  <c:v>0.6197382807731628</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5900035500526428</c:v>
+                  <c:v>0.5898714065551758</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4929143488407135</c:v>
+                  <c:v>0.4928039312362671</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4779775440692902</c:v>
+                  <c:v>0.4778704941272736</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4705091714859009</c:v>
+                  <c:v>0.4704037606716156</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44436976313591</c:v>
+                  <c:v>0.4442702233791351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3808883726596832</c:v>
+                  <c:v>0.3808030486106873</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3659515678882599</c:v>
+                  <c:v>0.3658695816993713</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3510147631168366</c:v>
+                  <c:v>0.3509361445903778</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3360779583454132</c:v>
+                  <c:v>0.3360026776790619</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3323437571525574</c:v>
+                  <c:v>0.3322693109512329</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3286095559597015</c:v>
+                  <c:v>0.3285359740257263</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2800649702548981</c:v>
+                  <c:v>0.280002236366272</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2763307690620422</c:v>
+                  <c:v>0.276268869638443</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2763307690620422</c:v>
+                  <c:v>0.276268869638443</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2763307690620422</c:v>
+                  <c:v>0.276268869638443</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2613939642906189</c:v>
+                  <c:v>0.2613354325294495</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2595268785953522</c:v>
+                  <c:v>0.2594687342643738</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2576597630977631</c:v>
+                  <c:v>0.2576020658016205</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2576597630977631</c:v>
+                  <c:v>0.2576020658016205</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2389887720346451</c:v>
+                  <c:v>0.2389352470636368</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2389887720346451</c:v>
+                  <c:v>0.2389352470636368</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2315203845500946</c:v>
+                  <c:v>0.2314685136079788</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2277861833572388</c:v>
+                  <c:v>0.227735161781311</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2240519821643829</c:v>
+                  <c:v>0.2240017950534821</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2091151773929596</c:v>
+                  <c:v>0.2090683430433273</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1941783875226975</c:v>
+                  <c:v>0.1941348910331726</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1867099851369858</c:v>
+                  <c:v>0.1866681575775147</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1680389791727066</c:v>
+                  <c:v>0.1680013388395309</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1643047779798508</c:v>
+                  <c:v>0.1642679870128632</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1605705916881561</c:v>
+                  <c:v>0.1605346202850342</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1605705916881561</c:v>
+                  <c:v>0.1605346202850342</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1605705916881561</c:v>
+                  <c:v>0.1605346202850342</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1531021893024445</c:v>
+                  <c:v>0.1530678868293762</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1456337869167328</c:v>
+                  <c:v>0.1456011682748795</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1456337869167328</c:v>
+                  <c:v>0.1456011682748795</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1381653845310211</c:v>
+                  <c:v>0.1381344348192215</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1344311833381653</c:v>
+                  <c:v>0.1344010680913925</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1344311833381653</c:v>
+                  <c:v>0.1344010680913925</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1344311833381653</c:v>
+                  <c:v>0.1344010680913925</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1269627958536148</c:v>
+                  <c:v>0.1269343495368958</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1194943860173225</c:v>
+                  <c:v>0.1194676235318184</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1194943860173225</c:v>
+                  <c:v>0.1194676235318184</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1157601922750473</c:v>
+                  <c:v>0.1157342568039894</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1120259910821915</c:v>
+                  <c:v>0.112000897526741</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.100823387503624</c:v>
+                  <c:v>0.1008008047938347</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09708919376134872</c:v>
+                  <c:v>0.0970674455165863</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09708919376134872</c:v>
+                  <c:v>0.0970674455165863</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08962079137563705</c:v>
+                  <c:v>0.08960071951150894</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08962079137563705</c:v>
+                  <c:v>0.08960071951150894</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08962079137563705</c:v>
+                  <c:v>0.08960071951150894</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08215238898992539</c:v>
+                  <c:v>0.08213399350643158</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08215238898992539</c:v>
+                  <c:v>0.08213399350643158</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08215238898992539</c:v>
+                  <c:v>0.08213399350643158</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.08215238898992539</c:v>
+                  <c:v>0.08213399350643158</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07468399405479431</c:v>
+                  <c:v>0.07466726750135422</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07094979286193848</c:v>
+                  <c:v>0.07093390077352524</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06721559166908264</c:v>
+                  <c:v>0.06720053404569626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06721559166908264</c:v>
+                  <c:v>0.06720053404569626</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05974719300866127</c:v>
+                  <c:v>0.0597338117659092</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0522787943482399</c:v>
+                  <c:v>0.05226708576083183</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0522787943482399</c:v>
+                  <c:v>0.05226708576083183</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03734199702739716</c:v>
+                  <c:v>0.03733363375067711</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03734199702739716</c:v>
+                  <c:v>0.03733363375067711</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03360779583454132</c:v>
+                  <c:v>0.03360026702284813</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03360779583454132</c:v>
+                  <c:v>0.03360026702284813</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02987359650433064</c:v>
+                  <c:v>0.0298669058829546</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02987359650433064</c:v>
+                  <c:v>0.0298669058829546</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02987359650433064</c:v>
+                  <c:v>0.0298669058829546</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02613939717411995</c:v>
+                  <c:v>0.02613354288041592</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02240519784390926</c:v>
+                  <c:v>0.02240017987787724</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02240519784390926</c:v>
+                  <c:v>0.02240017987787724</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02240519784390926</c:v>
+                  <c:v>0.02240017987787724</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02240519784390926</c:v>
+                  <c:v>0.02240017987787724</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01867099851369858</c:v>
+                  <c:v>0.01866681687533855</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01493679825216532</c:v>
+                  <c:v>0.0149334529414773</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01493679825216532</c:v>
+                  <c:v>0.0149334529414773</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01493679825216532</c:v>
+                  <c:v>0.0149334529414773</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01120259892195463</c:v>
+                  <c:v>0.01120008993893862</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.007468399126082659</c:v>
+                  <c:v>0.007466726470738649</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.007468399126082659</c:v>
+                  <c:v>0.007466726470738649</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.007468399126082659</c:v>
+                  <c:v>0.007466726470738649</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.003734199563041329</c:v>
+                  <c:v>0.003733363235369325</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.003734199563041329</c:v>
+                  <c:v>0.003733363235369325</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003734199563041329</c:v>
+                  <c:v>0.003733363235369325</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003734199563041329</c:v>
+                  <c:v>0.003733363235369325</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003734199563041329</c:v>
+                  <c:v>0.003733363235369325</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>0</c:v>
@@ -2401,10 +2401,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="1">
+        <v>548</v>
+      </c>
+      <c r="E15" s="1">
         <v>536</v>
-      </c>
-      <c r="E15" s="1">
-        <v>524</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>18.72141075134277</v>
+        <v>18.71721649169922</v>
       </c>
       <c r="C3" s="1">
         <v>10027</v>
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>11.35196685791016</v>
+        <v>11.34942436218262</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2661,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>7.502007007598877</v>
+        <v>7.500326633453369</v>
       </c>
       <c r="C5" s="1">
         <v>4018</v>
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>7.225676536560059</v>
+        <v>7.224057674407959</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -2713,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>3.976922750473023</v>
+        <v>3.97603178024292</v>
       </c>
       <c r="C7" s="1">
         <v>2130</v>
@@ -2739,7 +2739,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>3.614705324172974</v>
+        <v>3.613895654678345</v>
       </c>
       <c r="C8" s="1">
         <v>1936</v>
@@ -2765,7 +2765,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3.181538105010986</v>
+        <v>3.180825471878052</v>
       </c>
       <c r="C9" s="1">
         <v>1704</v>
@@ -2791,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>3.177803993225098</v>
+        <v>3.1770920753479</v>
       </c>
       <c r="C10" s="1">
         <v>1702</v>
@@ -2817,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>3.039638519287109</v>
+        <v>3.038957595825195</v>
       </c>
       <c r="C11" s="1">
         <v>1628</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.946283578872681</v>
+        <v>2.945623636245728</v>
       </c>
       <c r="C12" s="1">
         <v>1578</v>
@@ -2869,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>1.967923283576965</v>
+        <v>1.967482447624207</v>
       </c>
       <c r="C13" s="1">
         <v>1054</v>
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.650516271591187</v>
+        <v>1.650146484375</v>
       </c>
       <c r="C14" s="1">
         <v>884</v>
@@ -2921,7 +2921,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.497414112091065</v>
+        <v>1.497078657150269</v>
       </c>
       <c r="C15" s="1">
         <v>802</v>
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>1.478743076324463</v>
+        <v>1.478411793708801</v>
       </c>
       <c r="C16" s="1">
         <v>792</v>
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>1.389122247695923</v>
+        <v>1.388811111450195</v>
       </c>
       <c r="C17" s="1">
         <v>744</v>
@@ -2999,7 +2999,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>1.381653904914856</v>
+        <v>1.381344437599182</v>
       </c>
       <c r="C18" s="1">
         <v>740</v>
@@ -3025,7 +3025,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.310704112052918</v>
+        <v>1.310410499572754</v>
       </c>
       <c r="C19" s="1">
         <v>702</v>
@@ -3051,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.094120502471924</v>
+        <v>1.093875408172607</v>
       </c>
       <c r="C20" s="1">
         <v>586</v>
@@ -3077,7 +3077,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.071715354919434</v>
+        <v>1.071475267410278</v>
       </c>
       <c r="C21" s="1">
         <v>574</v>
@@ -3100,25 +3100,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>1.019436478614807</v>
+        <v>1.022941470146179</v>
       </c>
       <c r="C22" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -3126,25 +3126,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.000765562057495</v>
+        <v>1.019208192825317</v>
       </c>
       <c r="C23" s="1">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9746261239051819</v>
+        <v>0.9744077920913696</v>
       </c>
       <c r="C24" s="1">
         <v>522</v>
@@ -3181,7 +3181,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9671577215194702</v>
+        <v>0.9669410586357117</v>
       </c>
       <c r="C25" s="1">
         <v>518</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9186131358146668</v>
+        <v>0.9184073209762573</v>
       </c>
       <c r="C26" s="1">
         <v>492</v>
@@ -3233,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8850052952766419</v>
+        <v>0.8848070502281189</v>
       </c>
       <c r="C27" s="1">
         <v>474</v>
@@ -3259,7 +3259,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8177897334098816</v>
+        <v>0.8176065683364868</v>
       </c>
       <c r="C28" s="1">
         <v>438</v>
@@ -3285,7 +3285,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7636438608169556</v>
+        <v>0.7634727954864502</v>
       </c>
       <c r="C29" s="1">
         <v>409</v>
@@ -3311,7 +3311,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7617767453193665</v>
+        <v>0.7616060972213745</v>
       </c>
       <c r="C30" s="1">
         <v>408</v>
@@ -3337,7 +3337,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7020295262336731</v>
+        <v>0.7018722891807556</v>
       </c>
       <c r="C31" s="1">
         <v>376</v>
@@ -3363,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6198771595954895</v>
+        <v>0.6197382807731628</v>
       </c>
       <c r="C32" s="1">
         <v>332</v>
@@ -3389,7 +3389,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5900035500526428</v>
+        <v>0.5898714065551758</v>
       </c>
       <c r="C33" s="1">
         <v>316</v>
@@ -3415,7 +3415,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.4929143488407135</v>
+        <v>0.4928039312362671</v>
       </c>
       <c r="C34" s="1">
         <v>264</v>
@@ -3441,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4779775440692902</v>
+        <v>0.4778704941272736</v>
       </c>
       <c r="C35" s="1">
         <v>256</v>
@@ -3467,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4705091714859009</v>
+        <v>0.4704037606716156</v>
       </c>
       <c r="C36" s="1">
         <v>252</v>
@@ -3493,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.44436976313591</v>
+        <v>0.4442702233791351</v>
       </c>
       <c r="C37" s="1">
         <v>238</v>
@@ -3519,7 +3519,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3808883726596832</v>
+        <v>0.3808030486106873</v>
       </c>
       <c r="C38" s="1">
         <v>204</v>
@@ -3545,7 +3545,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3659515678882599</v>
+        <v>0.3658695816993713</v>
       </c>
       <c r="C39" s="1">
         <v>196</v>
@@ -3571,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3510147631168366</v>
+        <v>0.3509361445903778</v>
       </c>
       <c r="C40" s="1">
         <v>188</v>
@@ -3597,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3360779583454132</v>
+        <v>0.3360026776790619</v>
       </c>
       <c r="C41" s="1">
         <v>180</v>
@@ -3623,7 +3623,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3323437571525574</v>
+        <v>0.3322693109512329</v>
       </c>
       <c r="C42" s="1">
         <v>178</v>
@@ -3649,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3286095559597015</v>
+        <v>0.3285359740257263</v>
       </c>
       <c r="C43" s="1">
         <v>176</v>
@@ -3675,7 +3675,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2800649702548981</v>
+        <v>0.280002236366272</v>
       </c>
       <c r="C44" s="1">
         <v>150</v>
@@ -3701,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2763307690620422</v>
+        <v>0.276268869638443</v>
       </c>
       <c r="C45" s="1">
         <v>148</v>
@@ -3727,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2763307690620422</v>
+        <v>0.276268869638443</v>
       </c>
       <c r="C46" s="1">
         <v>148</v>
@@ -3753,7 +3753,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2763307690620422</v>
+        <v>0.276268869638443</v>
       </c>
       <c r="C47" s="1">
         <v>148</v>
@@ -3779,7 +3779,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2613939642906189</v>
+        <v>0.2613354325294495</v>
       </c>
       <c r="C48" s="1">
         <v>140</v>
@@ -3805,7 +3805,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2595268785953522</v>
+        <v>0.2594687342643738</v>
       </c>
       <c r="C49" s="1">
         <v>139</v>
@@ -3831,7 +3831,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2576597630977631</v>
+        <v>0.2576020658016205</v>
       </c>
       <c r="C50" s="1">
         <v>138</v>
@@ -3857,7 +3857,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2576597630977631</v>
+        <v>0.2576020658016205</v>
       </c>
       <c r="C51" s="1">
         <v>138</v>
@@ -3883,7 +3883,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2389887720346451</v>
+        <v>0.2389352470636368</v>
       </c>
       <c r="C52" s="1">
         <v>128</v>
@@ -3909,7 +3909,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2389887720346451</v>
+        <v>0.2389352470636368</v>
       </c>
       <c r="C53" s="1">
         <v>128</v>
@@ -3935,7 +3935,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2315203845500946</v>
+        <v>0.2314685136079788</v>
       </c>
       <c r="C54" s="1">
         <v>124</v>
@@ -3961,7 +3961,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2277861833572388</v>
+        <v>0.227735161781311</v>
       </c>
       <c r="C55" s="1">
         <v>122</v>
@@ -3987,7 +3987,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2240519821643829</v>
+        <v>0.2240017950534821</v>
       </c>
       <c r="C56" s="1">
         <v>120</v>
@@ -4013,7 +4013,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2091151773929596</v>
+        <v>0.2090683430433273</v>
       </c>
       <c r="C57" s="1">
         <v>112</v>
@@ -4039,7 +4039,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1941783875226975</v>
+        <v>0.1941348910331726</v>
       </c>
       <c r="C58" s="1">
         <v>104</v>
@@ -4065,7 +4065,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1867099851369858</v>
+        <v>0.1866681575775147</v>
       </c>
       <c r="C59" s="1">
         <v>100</v>
@@ -4091,7 +4091,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1680389791727066</v>
+        <v>0.1680013388395309</v>
       </c>
       <c r="C60" s="1">
         <v>90</v>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1643047779798508</v>
+        <v>0.1642679870128632</v>
       </c>
       <c r="C61" s="1">
         <v>88</v>
@@ -4143,7 +4143,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1605705916881561</v>
+        <v>0.1605346202850342</v>
       </c>
       <c r="C62" s="1">
         <v>86</v>
@@ -4169,7 +4169,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1605705916881561</v>
+        <v>0.1605346202850342</v>
       </c>
       <c r="C63" s="1">
         <v>86</v>
@@ -4195,7 +4195,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1605705916881561</v>
+        <v>0.1605346202850342</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -4221,7 +4221,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1531021893024445</v>
+        <v>0.1530678868293762</v>
       </c>
       <c r="C65" s="1">
         <v>82</v>
@@ -4247,7 +4247,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1456337869167328</v>
+        <v>0.1456011682748795</v>
       </c>
       <c r="C66" s="1">
         <v>78</v>
@@ -4273,7 +4273,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1456337869167328</v>
+        <v>0.1456011682748795</v>
       </c>
       <c r="C67" s="1">
         <v>78</v>
@@ -4299,7 +4299,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1381653845310211</v>
+        <v>0.1381344348192215</v>
       </c>
       <c r="C68" s="1">
         <v>74</v>
@@ -4325,7 +4325,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1344311833381653</v>
+        <v>0.1344010680913925</v>
       </c>
       <c r="C69" s="1">
         <v>72</v>
@@ -4351,7 +4351,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1344311833381653</v>
+        <v>0.1344010680913925</v>
       </c>
       <c r="C70" s="1">
         <v>72</v>
@@ -4377,7 +4377,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1344311833381653</v>
+        <v>0.1344010680913925</v>
       </c>
       <c r="C71" s="1">
         <v>72</v>
@@ -4403,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1269627958536148</v>
+        <v>0.1269343495368958</v>
       </c>
       <c r="C72" s="1">
         <v>68</v>
@@ -4429,7 +4429,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1194943860173225</v>
+        <v>0.1194676235318184</v>
       </c>
       <c r="C73" s="1">
         <v>64</v>
@@ -4455,7 +4455,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1194943860173225</v>
+        <v>0.1194676235318184</v>
       </c>
       <c r="C74" s="1">
         <v>64</v>
@@ -4481,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1157601922750473</v>
+        <v>0.1157342568039894</v>
       </c>
       <c r="C75" s="1">
         <v>62</v>
@@ -4507,7 +4507,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1120259910821915</v>
+        <v>0.112000897526741</v>
       </c>
       <c r="C76" s="1">
         <v>60</v>
@@ -4533,7 +4533,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.100823387503624</v>
+        <v>0.1008008047938347</v>
       </c>
       <c r="C77" s="1">
         <v>54</v>
@@ -4559,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09708919376134872</v>
+        <v>0.0970674455165863</v>
       </c>
       <c r="C78" s="1">
         <v>52</v>
@@ -4585,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09708919376134872</v>
+        <v>0.0970674455165863</v>
       </c>
       <c r="C79" s="1">
         <v>52</v>
@@ -4611,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08962079137563705</v>
+        <v>0.08960071951150894</v>
       </c>
       <c r="C80" s="1">
         <v>48</v>
@@ -4637,7 +4637,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08962079137563705</v>
+        <v>0.08960071951150894</v>
       </c>
       <c r="C81" s="1">
         <v>48</v>
@@ -4663,7 +4663,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08962079137563705</v>
+        <v>0.08960071951150894</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4689,7 +4689,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08215238898992539</v>
+        <v>0.08213399350643158</v>
       </c>
       <c r="C83" s="1">
         <v>44</v>
@@ -4715,7 +4715,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08215238898992539</v>
+        <v>0.08213399350643158</v>
       </c>
       <c r="C84" s="1">
         <v>44</v>
@@ -4741,7 +4741,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08215238898992539</v>
+        <v>0.08213399350643158</v>
       </c>
       <c r="C85" s="1">
         <v>44</v>
@@ -4767,7 +4767,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.08215238898992539</v>
+        <v>0.08213399350643158</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4793,7 +4793,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07468399405479431</v>
+        <v>0.07466726750135422</v>
       </c>
       <c r="C87" s="1">
         <v>40</v>
@@ -4819,7 +4819,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07094979286193848</v>
+        <v>0.07093390077352524</v>
       </c>
       <c r="C88" s="1">
         <v>38</v>
@@ -4845,7 +4845,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06721559166908264</v>
+        <v>0.06720053404569626</v>
       </c>
       <c r="C89" s="1">
         <v>36</v>
@@ -4871,7 +4871,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06721559166908264</v>
+        <v>0.06720053404569626</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -4897,7 +4897,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05974719300866127</v>
+        <v>0.0597338117659092</v>
       </c>
       <c r="C91" s="1">
         <v>32</v>
@@ -4923,7 +4923,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.0522787943482399</v>
+        <v>0.05226708576083183</v>
       </c>
       <c r="C92" s="1">
         <v>28</v>
@@ -4949,7 +4949,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.0522787943482399</v>
+        <v>0.05226708576083183</v>
       </c>
       <c r="C93" s="1">
         <v>28</v>
@@ -4975,7 +4975,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03734199702739716</v>
+        <v>0.03733363375067711</v>
       </c>
       <c r="C94" s="1">
         <v>20</v>
@@ -5001,7 +5001,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03734199702739716</v>
+        <v>0.03733363375067711</v>
       </c>
       <c r="C95" s="1">
         <v>20</v>
@@ -5027,7 +5027,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03360779583454132</v>
+        <v>0.03360026702284813</v>
       </c>
       <c r="C96" s="1">
         <v>18</v>
@@ -5053,7 +5053,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03360779583454132</v>
+        <v>0.03360026702284813</v>
       </c>
       <c r="C97" s="1">
         <v>18</v>
@@ -5079,7 +5079,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02987359650433064</v>
+        <v>0.0298669058829546</v>
       </c>
       <c r="C98" s="1">
         <v>16</v>
@@ -5105,7 +5105,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02987359650433064</v>
+        <v>0.0298669058829546</v>
       </c>
       <c r="C99" s="1">
         <v>16</v>
@@ -5131,7 +5131,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02987359650433064</v>
+        <v>0.0298669058829546</v>
       </c>
       <c r="C100" s="1">
         <v>16</v>
@@ -5157,7 +5157,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02613939717411995</v>
+        <v>0.02613354288041592</v>
       </c>
       <c r="C101" s="1">
         <v>14</v>
@@ -5183,7 +5183,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02240519784390926</v>
+        <v>0.02240017987787724</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
@@ -5209,7 +5209,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02240519784390926</v>
+        <v>0.02240017987787724</v>
       </c>
       <c r="C103" s="1">
         <v>12</v>
@@ -5235,7 +5235,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02240519784390926</v>
+        <v>0.02240017987787724</v>
       </c>
       <c r="C104" s="1">
         <v>12</v>
@@ -5261,7 +5261,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02240519784390926</v>
+        <v>0.02240017987787724</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5287,7 +5287,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C106" s="1">
         <v>10</v>
@@ -5313,7 +5313,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C107" s="1">
         <v>10</v>
@@ -5339,7 +5339,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5391,7 +5391,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
@@ -5417,7 +5417,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01867099851369858</v>
+        <v>0.01866681687533855</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5443,7 +5443,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01493679825216532</v>
+        <v>0.0149334529414773</v>
       </c>
       <c r="C112" s="1">
         <v>8</v>
@@ -5469,7 +5469,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01493679825216532</v>
+        <v>0.0149334529414773</v>
       </c>
       <c r="C113" s="1">
         <v>8</v>
@@ -5495,7 +5495,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01493679825216532</v>
+        <v>0.0149334529414773</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5521,7 +5521,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C115" s="1">
         <v>6</v>
@@ -5547,7 +5547,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C116" s="1">
         <v>6</v>
@@ -5573,7 +5573,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -5599,7 +5599,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -5651,7 +5651,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -5677,7 +5677,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -5703,7 +5703,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -5729,7 +5729,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C123" s="1">
         <v>6</v>
@@ -5755,7 +5755,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
@@ -5781,7 +5781,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C125" s="1">
         <v>6</v>
@@ -5807,7 +5807,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C126" s="1">
         <v>6</v>
@@ -5833,7 +5833,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -5859,7 +5859,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -5885,7 +5885,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -5911,7 +5911,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -5937,7 +5937,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -5963,7 +5963,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -5989,7 +5989,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6015,7 +6015,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6041,7 +6041,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6067,7 +6067,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01120259892195463</v>
+        <v>0.01120008993893862</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6093,7 +6093,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.007468399126082659</v>
+        <v>0.007466726470738649</v>
       </c>
       <c r="C137" s="1">
         <v>4</v>
@@ -6119,7 +6119,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.007468399126082659</v>
+        <v>0.007466726470738649</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -6145,7 +6145,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.007468399126082659</v>
+        <v>0.007466726470738649</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -6171,7 +6171,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.003734199563041329</v>
+        <v>0.003733363235369325</v>
       </c>
       <c r="C140" s="1">
         <v>2</v>
@@ -6197,7 +6197,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.003734199563041329</v>
+        <v>0.003733363235369325</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -6223,7 +6223,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003734199563041329</v>
+        <v>0.003733363235369325</v>
       </c>
       <c r="C142" s="1">
         <v>2</v>
@@ -6249,7 +6249,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003734199563041329</v>
+        <v>0.003733363235369325</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6275,7 +6275,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003734199563041329</v>
+        <v>0.003733363235369325</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
   <si>
     <t>McuSTUDIO_F470VET6</t>
   </si>
@@ -23,6 +23,9 @@
     <t>startup_gd32f450_470.o</t>
   </si>
   <si>
+    <t>data_memory.o</t>
+  </si>
+  <si>
     <t>mcu_cmic_gd32f470vet6.o</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>data_dispose.o</t>
+  </si>
+  <si>
+    <t>unicode.o</t>
   </si>
   <si>
     <t>gd32f4xx_i2c.o</t>
@@ -563,61 +569,64 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$145</c:f>
+              <c:f>ram_percent!$A$3:$A$147</c:f>
               <c:strCache>
-                <c:ptCount val="143"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>startup_gd32f450_470.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>data_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>config_manager.o</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>usart_app.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>btn_app.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>c_w.l</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>perf_counter.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>sdio_sdcard.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>ebtn.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>oled.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>sampling_control.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>ff.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>led_app.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="144">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -625,62 +634,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$145</c:f>
+              <c:f>ram_percent!$B$3:$B$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="143"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
-                  <c:v>46.17812728881836</c:v>
+                  <c:v>33.57927703857422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.03269481658936</c:v>
+                  <c:v>27.28316116333008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.80721569061279</c:v>
+                  <c:v>9.476963043212891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.63472366333008</c:v>
+                  <c:v>9.313002586364746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.41939115524292</c:v>
+                  <c:v>8.460403442382813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.164599657058716</c:v>
+                  <c:v>3.21364164352417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.164599657058716</c:v>
+                  <c:v>1.574028491973877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.80383312702179</c:v>
+                  <c:v>1.574028491973877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.71364152431488</c:v>
+                  <c:v>1.311690449714661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.443066477775574</c:v>
+                  <c:v>1.246105909347534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.352874875068665</c:v>
+                  <c:v>1.049352407455444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4960541129112244</c:v>
+                  <c:v>0.9837678074836731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2705749571323395</c:v>
+                  <c:v>0.3607148826122284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1803833097219467</c:v>
+                  <c:v>0.1967535614967346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1578353941440582</c:v>
+                  <c:v>0.1311690509319305</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09019165486097336</c:v>
+                  <c:v>0.1147729158401489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09019165486097336</c:v>
-                </c:pt>
-                <c:pt idx="142">
+                  <c:v>0.06558452546596527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.06558452546596527</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -748,9 +760,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$145</c:f>
+              <c:f>flash_percent!$A$3:$A$147</c:f>
               <c:strCache>
-                <c:ptCount val="143"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -764,420 +776,426 @@
                   <c:v>oled.o</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>data_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>config_manager.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>btod.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>system_function.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ebtn.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>gd25qxx.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>_printf_fp_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>_printf_fp_hex.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>btn_app.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>perf_counter.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>sampling_control.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>gd32f4xx_timer.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>sampling_control.o</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>gd32f4xx_sdio.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>gd32f4xx_adc.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>startup_gd32f450_470.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>data_dispose.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>unicode.o</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>gd32f4xx_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>__printf_flags_ss_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>gd32f4xx_rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>bigflt0.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>fz_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>diskio.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>gd32f4xx_dac.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>usart_app.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>fnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>led_app.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>perfc_port_default.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>_printf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>llsdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>oled_app.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>vsnprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>m_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>init_aeabi.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>systick_wrapper_ual.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>adc_app.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>_snputc.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="99">
                   <c:v>gd32f4xx_pmu.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="100">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="101">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="102">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>rtc_app.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>sd_app.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="113">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="115">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="116">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="121">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="122">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="123">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="124">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="125">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="126">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="127">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="128">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="129">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="130">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="131">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="132">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="133">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="134">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="135">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="136">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="137">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="138">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="139">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="140">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="141">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="142">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="143">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="144">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1185,437 +1203,443 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$145</c:f>
+              <c:f>flash_percent!$B$3:$B$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="143"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
-                  <c:v>18.71721649169922</c:v>
+                  <c:v>17.11384201049805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.34942436218262</c:v>
+                  <c:v>10.377197265625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.500326633453369</c:v>
+                  <c:v>10.00341320037842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.224057674407959</c:v>
+                  <c:v>6.605222702026367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.97603178024292</c:v>
+                  <c:v>4.441030979156494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.613895654678345</c:v>
+                  <c:v>3.635432720184326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.180825471878052</c:v>
+                  <c:v>3.304318189620972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1770920753479</c:v>
+                  <c:v>2.908346176147461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.038957595825195</c:v>
+                  <c:v>2.904932498931885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.945623636245728</c:v>
+                  <c:v>2.778631210327148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.967482447624207</c:v>
+                  <c:v>2.693292379379273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.650146484375</c:v>
+                  <c:v>1.798941850662231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.497078657150269</c:v>
+                  <c:v>1.508789896965027</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.478411793708801</c:v>
+                  <c:v>1.368834257125855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.388811111450195</c:v>
+                  <c:v>1.351766467094421</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.381344437599182</c:v>
+                  <c:v>1.269841313362122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.310410499572754</c:v>
+                  <c:v>1.263014197349548</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.093875408172607</c:v>
+                  <c:v>1.198156714439392</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.071475267410278</c:v>
+                  <c:v>1.146953463554382</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.022941470146179</c:v>
+                  <c:v>1.000170707702637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.019208192825317</c:v>
+                  <c:v>0.979689359664917</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9744077920913696</c:v>
+                  <c:v>0.9318996667861939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9669410586357117</c:v>
+                  <c:v>0.8909370303153992</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9184073209762573</c:v>
+                  <c:v>0.8841099143028259</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8848070502281189</c:v>
+                  <c:v>0.8397337198257446</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8176065683364868</c:v>
+                  <c:v>0.8090117573738098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7634727954864502</c:v>
+                  <c:v>0.7680491805076599</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7616060972213745</c:v>
+                  <c:v>0.7475678324699402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7018722891807556</c:v>
+                  <c:v>0.6980713605880737</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6197382807731628</c:v>
+                  <c:v>0.6963645815849304</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5898714065551758</c:v>
+                  <c:v>0.6417477130889893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4928039312362671</c:v>
+                  <c:v>0.5666496157646179</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4778704941272736</c:v>
+                  <c:v>0.5393412113189697</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4704037606716156</c:v>
+                  <c:v>0.4505888521671295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4442702233791351</c:v>
+                  <c:v>0.436934620141983</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3808030486106873</c:v>
+                  <c:v>0.4301075339317322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3658695816993713</c:v>
+                  <c:v>0.4062126576900482</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3509361445903778</c:v>
+                  <c:v>0.3481822907924652</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3360026776790619</c:v>
+                  <c:v>0.3345280885696411</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3322693109512329</c:v>
+                  <c:v>0.3208738565444946</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3285359740257263</c:v>
+                  <c:v>0.3072196543216705</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.280002236366272</c:v>
+                  <c:v>0.3038060963153839</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.276268869638443</c:v>
+                  <c:v>0.3003925681114197</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.276268869638443</c:v>
+                  <c:v>0.2560163736343384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.276268869638443</c:v>
+                  <c:v>0.2526028454303742</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2613354325294495</c:v>
+                  <c:v>0.2526028454303742</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2594687342643738</c:v>
+                  <c:v>0.2526028454303742</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2576020658016205</c:v>
+                  <c:v>0.2389486283063889</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2576020658016205</c:v>
+                  <c:v>0.2372418493032455</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2389352470636368</c:v>
+                  <c:v>0.2355350703001022</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2389352470636368</c:v>
+                  <c:v>0.2355350703001022</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2314685136079788</c:v>
+                  <c:v>0.2184673100709915</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.227735161781311</c:v>
+                  <c:v>0.2184673100709915</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2240017950534821</c:v>
+                  <c:v>0.2116402089595795</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2090683430433273</c:v>
+                  <c:v>0.208226665854454</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1941348910331726</c:v>
+                  <c:v>0.2048131078481674</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1866681575775147</c:v>
+                  <c:v>0.1911589056253433</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1680013388395309</c:v>
+                  <c:v>0.177504688501358</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1642679870128632</c:v>
+                  <c:v>0.170677587389946</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1605346202850342</c:v>
+                  <c:v>0.1536098271608353</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1605346202850342</c:v>
+                  <c:v>0.1501962840557098</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1605346202850342</c:v>
+                  <c:v>0.1467827260494232</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1530678868293762</c:v>
+                  <c:v>0.1467827260494232</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1456011682748795</c:v>
+                  <c:v>0.1467827260494232</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1456011682748795</c:v>
+                  <c:v>0.1399556249380112</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1381344348192215</c:v>
+                  <c:v>0.1331285238265991</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1344010680913925</c:v>
+                  <c:v>0.1331285238265991</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1344010680913925</c:v>
+                  <c:v>0.1263014227151871</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1344010680913925</c:v>
+                  <c:v>0.1228878647089005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1269343495368958</c:v>
+                  <c:v>0.1228878647089005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1194676235318184</c:v>
+                  <c:v>0.1228878647089005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1194676235318184</c:v>
+                  <c:v>0.1160607635974884</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1157342568039894</c:v>
+                  <c:v>0.1092336550354958</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.112000897526741</c:v>
+                  <c:v>0.1092336550354958</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1008008047938347</c:v>
+                  <c:v>0.1058201044797897</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0970674455165863</c:v>
+                  <c:v>0.1024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0970674455165863</c:v>
+                  <c:v>0.09216590225696564</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08960071951150894</c:v>
+                  <c:v>0.08875234425067902</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08960071951150894</c:v>
+                  <c:v>0.08875234425067902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08960071951150894</c:v>
+                  <c:v>0.08192524313926697</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08213399350643158</c:v>
+                  <c:v>0.08192524313926697</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08213399350643158</c:v>
+                  <c:v>0.08192524313926697</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.08213399350643158</c:v>
+                  <c:v>0.07509814202785492</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.08213399350643158</c:v>
+                  <c:v>0.07509814202785492</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07466726750135422</c:v>
+                  <c:v>0.07509814202785492</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07093390077352524</c:v>
+                  <c:v>0.07509814202785492</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06720053404569626</c:v>
+                  <c:v>0.06827103346586227</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06720053404569626</c:v>
+                  <c:v>0.06485748291015625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0597338117659092</c:v>
+                  <c:v>0.06144393235445023</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05226708576083183</c:v>
+                  <c:v>0.06144393235445023</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05226708576083183</c:v>
+                  <c:v>0.05461682751774788</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03733363375067711</c:v>
+                  <c:v>0.04778972640633583</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03733363375067711</c:v>
+                  <c:v>0.04778972640633583</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03360026702284813</c:v>
+                  <c:v>0.03413551673293114</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03360026702284813</c:v>
+                  <c:v>0.03413551673293114</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0298669058829546</c:v>
+                  <c:v>0.03072196617722511</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0298669058829546</c:v>
+                  <c:v>0.03072196617722511</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0298669058829546</c:v>
+                  <c:v>0.02730841375887394</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02613354288041592</c:v>
+                  <c:v>0.02730841375887394</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02240017987787724</c:v>
+                  <c:v>0.02730841375887394</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02240017987787724</c:v>
+                  <c:v>0.02389486320316792</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02240017987787724</c:v>
+                  <c:v>0.02048131078481674</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02240017987787724</c:v>
+                  <c:v>0.02048131078481674</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.02048131078481674</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.02048131078481674</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01866681687533855</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.0149334529414773</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0149334529414773</c:v>
+                  <c:v>0.01706775836646557</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.0149334529414773</c:v>
+                  <c:v>0.01365420687943697</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01365420687943697</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01365420687943697</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01120008993893862</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.007466726470738649</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.007466726470738649</c:v>
+                  <c:v>0.01024065539240837</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.007466726470738649</c:v>
+                  <c:v>0.006827103439718485</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.003733363235369325</c:v>
+                  <c:v>0.006827103439718485</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.003733363235369325</c:v>
+                  <c:v>0.006827103439718485</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003733363235369325</c:v>
+                  <c:v>0.003413551719859242</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003733363235369325</c:v>
+                  <c:v>0.003413551719859242</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003733363235369325</c:v>
+                  <c:v>0.003413551719859242</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>0.003413551719859242</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.003413551719859242</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1720,8 +1744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H145" totalsRowCount="1">
-  <autoFilter ref="A2:H144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H147" totalsRowCount="1">
+  <autoFilter ref="A2:H146"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1737,8 +1761,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H145" totalsRowCount="1">
-  <autoFilter ref="A2:H144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H147" totalsRowCount="1">
+  <autoFilter ref="A2:H146"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2038,7 +2062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2054,28 +2078,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2083,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>46.17812728881836</v>
+        <v>33.57927703857422</v>
       </c>
       <c r="C3" s="1">
         <v>2048</v>
@@ -2109,25 +2133,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>13.03269481658936</v>
+        <v>27.28316116333008</v>
       </c>
       <c r="C4" s="1">
-        <v>578</v>
+        <v>1664</v>
       </c>
       <c r="D4" s="1">
-        <v>1578</v>
+        <v>2602</v>
       </c>
       <c r="E4" s="1">
-        <v>1556</v>
+        <v>2594</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
-        <v>556</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2135,25 +2159,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>12.80721569061279</v>
+        <v>9.476963043212891</v>
       </c>
       <c r="C5" s="1">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="D5" s="1">
-        <v>2130</v>
+        <v>1578</v>
       </c>
       <c r="E5" s="1">
-        <v>2090</v>
+        <v>1556</v>
       </c>
       <c r="F5" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2161,25 +2185,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.63472366333008</v>
+        <v>9.313002586364746</v>
       </c>
       <c r="C6" s="1">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="D6" s="1">
-        <v>180</v>
+        <v>2130</v>
       </c>
       <c r="E6" s="1">
-        <v>176</v>
+        <v>2090</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>512</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2187,25 +2211,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>4.41939115524292</v>
+        <v>8.460403442382813</v>
       </c>
       <c r="C7" s="1">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="D7" s="1">
-        <v>792</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1">
-        <v>582</v>
+        <v>176</v>
       </c>
       <c r="F7" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2213,25 +2237,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.164599657058716</v>
+        <v>3.21364164352417</v>
       </c>
       <c r="C8" s="1">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1">
-        <v>10027</v>
+        <v>792</v>
       </c>
       <c r="E8" s="1">
-        <v>9476</v>
+        <v>582</v>
       </c>
       <c r="F8" s="1">
-        <v>551</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H8" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2239,19 +2263,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.164599657058716</v>
+        <v>1.574028491973877</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>10027</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>9476</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2265,25 +2289,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.80383312702179</v>
+        <v>1.574028491973877</v>
       </c>
       <c r="C10" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1">
-        <v>744</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>660</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2291,22 +2315,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.71364152431488</v>
+        <v>1.311690449714661</v>
       </c>
       <c r="C11" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>148</v>
+        <v>744</v>
       </c>
       <c r="E11" s="1">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -2317,25 +2341,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.443066477775574</v>
+        <v>1.246105909347534</v>
       </c>
       <c r="C12" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
-        <v>6080</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1">
-        <v>6048</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2343,25 +2367,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.352874875068665</v>
+        <v>1.049352407455444</v>
       </c>
       <c r="C13" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
-        <v>1702</v>
+        <v>6080</v>
       </c>
       <c r="E13" s="1">
-        <v>1702</v>
+        <v>6048</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2369,25 +2393,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.4960541129112244</v>
+        <v>0.9837678074836731</v>
       </c>
       <c r="C14" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
-        <v>3870</v>
+        <v>1702</v>
       </c>
       <c r="E14" s="1">
-        <v>1136</v>
+        <v>1702</v>
       </c>
       <c r="F14" s="1">
-        <v>2712</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2395,22 +2419,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.2705749571323395</v>
+        <v>0.3607148826122284</v>
       </c>
       <c r="C15" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>548</v>
+        <v>3870</v>
       </c>
       <c r="E15" s="1">
-        <v>536</v>
+        <v>1136</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>2712</v>
       </c>
       <c r="G15" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2421,22 +2445,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1803833097219467</v>
+        <v>0.1967535614967346</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>4018</v>
+        <v>672</v>
       </c>
       <c r="E16" s="1">
-        <v>4010</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2447,22 +2471,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1578353941440582</v>
+        <v>0.1311690509319305</v>
       </c>
       <c r="C17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>139</v>
+        <v>5861</v>
       </c>
       <c r="E17" s="1">
-        <v>132</v>
+        <v>5840</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2473,22 +2497,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.09019165486097336</v>
+        <v>0.1147729158401489</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -2499,16 +2523,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.09019165486097336</v>
+        <v>0.06558452546596527</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>518</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2520,35 +2544,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.06558452546596527</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>518</v>
+      </c>
+      <c r="E20" s="1">
+        <v>514</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C145">
+      <c r="C147">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D145">
+      <c r="D147">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="E147">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F147">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G145">
+      <c r="G147">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H145">
+      <c r="H147">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2564,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2580,36 +2630,36 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>150</v>
-      </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>18.71721649169922</v>
+        <v>17.11384201049805</v>
       </c>
       <c r="C3" s="1">
         <v>10027</v>
@@ -2632,10 +2682,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>11.34942436218262</v>
+        <v>10.377197265625</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2658,22 +2708,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>7.500326633453369</v>
+        <v>10.00341320037842</v>
       </c>
       <c r="C5" s="1">
-        <v>4018</v>
+        <v>5861</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>4010</v>
+        <v>5840</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -2684,10 +2734,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>7.224057674407959</v>
+        <v>6.605222702026367</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -2710,54 +2760,54 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3.97603178024292</v>
+        <v>4.441030979156494</v>
       </c>
       <c r="C7" s="1">
-        <v>2130</v>
+        <v>2602</v>
       </c>
       <c r="D7" s="1">
-        <v>568</v>
+        <v>1664</v>
       </c>
       <c r="E7" s="1">
-        <v>2090</v>
+        <v>2594</v>
       </c>
       <c r="F7" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>560</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.613895654678345</v>
+        <v>3.635432720184326</v>
       </c>
       <c r="C8" s="1">
-        <v>1936</v>
+        <v>2130</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="E8" s="1">
-        <v>1936</v>
+        <v>2090</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2765,16 +2815,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3.180825471878052</v>
+        <v>3.304318189620972</v>
       </c>
       <c r="C9" s="1">
-        <v>1704</v>
+        <v>1936</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1704</v>
+        <v>1936</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2788,19 +2838,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>3.1770920753479</v>
+        <v>2.908346176147461</v>
       </c>
       <c r="C10" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D10" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2809,24 +2859,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>3.038957595825195</v>
+        <v>2.904932498931885</v>
       </c>
       <c r="C11" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
-        <v>1628</v>
+        <v>1702</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2835,59 +2885,59 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>2.945623636245728</v>
+        <v>2.778631210327148</v>
       </c>
       <c r="C12" s="1">
-        <v>1578</v>
+        <v>1628</v>
       </c>
       <c r="D12" s="1">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1556</v>
+        <v>1628</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>1.967482447624207</v>
+        <v>2.693292379379273</v>
       </c>
       <c r="C13" s="1">
-        <v>1054</v>
+        <v>1578</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E13" s="1">
-        <v>1054</v>
+        <v>1556</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2895,16 +2945,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.650146484375</v>
+        <v>1.798941850662231</v>
       </c>
       <c r="C14" s="1">
-        <v>884</v>
+        <v>1054</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>884</v>
+        <v>1054</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2921,19 +2971,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.497078657150269</v>
+        <v>1.508789896965027</v>
       </c>
       <c r="C15" s="1">
-        <v>802</v>
+        <v>884</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>764</v>
+        <v>884</v>
       </c>
       <c r="F15" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2944,25 +2994,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.478411793708801</v>
+        <v>1.368834257125855</v>
       </c>
       <c r="C16" s="1">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D16" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>582</v>
+        <v>764</v>
       </c>
       <c r="F16" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2970,25 +3020,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.388811111450195</v>
+        <v>1.351766467094421</v>
       </c>
       <c r="C17" s="1">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="D17" s="1">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="E17" s="1">
-        <v>660</v>
+        <v>582</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -2996,25 +3046,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>1.381344437599182</v>
+        <v>1.269841313362122</v>
       </c>
       <c r="C18" s="1">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3025,16 +3075,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.310410499572754</v>
+        <v>1.263014197349548</v>
       </c>
       <c r="C19" s="1">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3051,16 +3101,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.093875408172607</v>
+        <v>1.198156714439392</v>
       </c>
       <c r="C20" s="1">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3074,25 +3124,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>1.071475267410278</v>
+        <v>1.146953463554382</v>
       </c>
       <c r="C21" s="1">
-        <v>574</v>
+        <v>672</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3100,25 +3150,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.022941470146179</v>
+        <v>1.000170707702637</v>
       </c>
       <c r="C22" s="1">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -3129,16 +3179,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>1.019208192825317</v>
+        <v>0.979689359664917</v>
       </c>
       <c r="C23" s="1">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -3155,16 +3205,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9744077920913696</v>
+        <v>0.9318996667861939</v>
       </c>
       <c r="C24" s="1">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3178,25 +3228,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.9669410586357117</v>
+        <v>0.8909370303153992</v>
       </c>
       <c r="C25" s="1">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3204,54 +3254,54 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9184073209762573</v>
+        <v>0.8841099143028259</v>
       </c>
       <c r="C26" s="1">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="D26" s="1">
-        <v>2048</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>64</v>
+        <v>514</v>
       </c>
       <c r="F26" s="1">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8848070502281189</v>
+        <v>0.8397337198257446</v>
       </c>
       <c r="C27" s="1">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E27" s="1">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3259,16 +3309,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8176065683364868</v>
+        <v>0.8090117573738098</v>
       </c>
       <c r="C28" s="1">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3285,19 +3335,19 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7634727954864502</v>
+        <v>0.7680491805076599</v>
       </c>
       <c r="C29" s="1">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1">
-        <v>17</v>
+        <v>376</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -3311,16 +3361,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7616060972213745</v>
+        <v>0.7475678324699402</v>
       </c>
       <c r="C30" s="1">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3337,19 +3387,19 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7018722891807556</v>
+        <v>0.6980713605880737</v>
       </c>
       <c r="C31" s="1">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>228</v>
+        <v>392</v>
       </c>
       <c r="F31" s="1">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -3363,16 +3413,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6197382807731628</v>
+        <v>0.6963645815849304</v>
       </c>
       <c r="C32" s="1">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3389,19 +3439,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5898714065551758</v>
+        <v>0.6417477130889893</v>
       </c>
       <c r="C33" s="1">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3415,16 +3465,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.4928039312362671</v>
+        <v>0.5666496157646179</v>
       </c>
       <c r="C34" s="1">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3441,19 +3491,19 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4778704941272736</v>
+        <v>0.5393412113189697</v>
       </c>
       <c r="C35" s="1">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3467,16 +3517,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4704037606716156</v>
+        <v>0.4505888521671295</v>
       </c>
       <c r="C36" s="1">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3493,16 +3543,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4442702233791351</v>
+        <v>0.436934620141983</v>
       </c>
       <c r="C37" s="1">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3519,16 +3569,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.3808030486106873</v>
+        <v>0.4301075339317322</v>
       </c>
       <c r="C38" s="1">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3545,19 +3595,19 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3658695816993713</v>
+        <v>0.4062126576900482</v>
       </c>
       <c r="C39" s="1">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="F39" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -3571,19 +3621,19 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3509361445903778</v>
+        <v>0.3481822907924652</v>
       </c>
       <c r="C40" s="1">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="F40" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3594,48 +3644,48 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3360026776790619</v>
+        <v>0.3345280885696411</v>
       </c>
       <c r="C41" s="1">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3322693109512329</v>
+        <v>0.3208738565444946</v>
       </c>
       <c r="C42" s="1">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3646,16 +3696,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3285359740257263</v>
+        <v>0.3072196543216705</v>
       </c>
       <c r="C43" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E43" s="1">
         <v>176</v>
@@ -3664,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3675,16 +3725,16 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.280002236366272</v>
+        <v>0.3038060963153839</v>
       </c>
       <c r="C44" s="1">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3698,25 +3748,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.276268869638443</v>
+        <v>0.3003925681114197</v>
       </c>
       <c r="C45" s="1">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -3724,25 +3774,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>0.276268869638443</v>
+        <v>0.2560163736343384</v>
       </c>
       <c r="C46" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -3750,25 +3800,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>0.276268869638443</v>
+        <v>0.2526028454303742</v>
       </c>
       <c r="C47" s="1">
         <v>148</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3776,25 +3826,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2613354325294495</v>
+        <v>0.2526028454303742</v>
       </c>
       <c r="C48" s="1">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3802,25 +3852,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2594687342643738</v>
+        <v>0.2526028454303742</v>
       </c>
       <c r="C49" s="1">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D49" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -3828,19 +3878,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2576020658016205</v>
+        <v>0.2389486283063889</v>
       </c>
       <c r="C50" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3854,25 +3904,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2576020658016205</v>
+        <v>0.2372418493032455</v>
       </c>
       <c r="C51" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -3883,16 +3933,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2389352470636368</v>
+        <v>0.2355350703001022</v>
       </c>
       <c r="C52" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3909,16 +3959,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2389352470636368</v>
+        <v>0.2355350703001022</v>
       </c>
       <c r="C53" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3935,16 +3985,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2314685136079788</v>
+        <v>0.2184673100709915</v>
       </c>
       <c r="C54" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3961,16 +4011,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.227735161781311</v>
+        <v>0.2184673100709915</v>
       </c>
       <c r="C55" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3987,16 +4037,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2240017950534821</v>
+        <v>0.2116402089595795</v>
       </c>
       <c r="C56" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4013,16 +4063,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2090683430433273</v>
+        <v>0.208226665854454</v>
       </c>
       <c r="C57" s="1">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4039,16 +4089,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1941348910331726</v>
+        <v>0.2048131078481674</v>
       </c>
       <c r="C58" s="1">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4065,16 +4115,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1866681575775147</v>
+        <v>0.1911589056253433</v>
       </c>
       <c r="C59" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4091,16 +4141,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1680013388395309</v>
+        <v>0.177504688501358</v>
       </c>
       <c r="C60" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -4117,16 +4167,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1642679870128632</v>
+        <v>0.170677587389946</v>
       </c>
       <c r="C61" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4143,16 +4193,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1605346202850342</v>
+        <v>0.1536098271608353</v>
       </c>
       <c r="C62" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4169,16 +4219,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1605346202850342</v>
+        <v>0.1501962840557098</v>
       </c>
       <c r="C63" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4195,7 +4245,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1605346202850342</v>
+        <v>0.1467827260494232</v>
       </c>
       <c r="C64" s="1">
         <v>86</v>
@@ -4221,16 +4271,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1530678868293762</v>
+        <v>0.1467827260494232</v>
       </c>
       <c r="C65" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4247,16 +4297,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1456011682748795</v>
+        <v>0.1467827260494232</v>
       </c>
       <c r="C66" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4273,16 +4323,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1456011682748795</v>
+        <v>0.1399556249380112</v>
       </c>
       <c r="C67" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4299,16 +4349,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1381344348192215</v>
+        <v>0.1331285238265991</v>
       </c>
       <c r="C68" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4325,16 +4375,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1344010680913925</v>
+        <v>0.1331285238265991</v>
       </c>
       <c r="C69" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4351,16 +4401,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1344010680913925</v>
+        <v>0.1263014227151871</v>
       </c>
       <c r="C70" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4377,7 +4427,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1344010680913925</v>
+        <v>0.1228878647089005</v>
       </c>
       <c r="C71" s="1">
         <v>72</v>
@@ -4386,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -4403,16 +4453,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1269343495368958</v>
+        <v>0.1228878647089005</v>
       </c>
       <c r="C72" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4429,19 +4479,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1194676235318184</v>
+        <v>0.1228878647089005</v>
       </c>
       <c r="C73" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -4455,16 +4505,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1194676235318184</v>
+        <v>0.1160607635974884</v>
       </c>
       <c r="C74" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4481,16 +4531,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1157342568039894</v>
+        <v>0.1092336550354958</v>
       </c>
       <c r="C75" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4507,16 +4557,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.112000897526741</v>
+        <v>0.1092336550354958</v>
       </c>
       <c r="C76" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4533,16 +4583,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1008008047938347</v>
+        <v>0.1058201044797897</v>
       </c>
       <c r="C77" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4559,16 +4609,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0970674455165863</v>
+        <v>0.1024065539240837</v>
       </c>
       <c r="C78" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4585,16 +4635,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0970674455165863</v>
+        <v>0.09216590225696564</v>
       </c>
       <c r="C79" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4611,16 +4661,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08960071951150894</v>
+        <v>0.08875234425067902</v>
       </c>
       <c r="C80" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4637,16 +4687,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08960071951150894</v>
+        <v>0.08875234425067902</v>
       </c>
       <c r="C81" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4663,7 +4713,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08960071951150894</v>
+        <v>0.08192524313926697</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4689,16 +4739,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08213399350643158</v>
+        <v>0.08192524313926697</v>
       </c>
       <c r="C83" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4715,16 +4765,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08213399350643158</v>
+        <v>0.08192524313926697</v>
       </c>
       <c r="C84" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4741,7 +4791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.08213399350643158</v>
+        <v>0.07509814202785492</v>
       </c>
       <c r="C85" s="1">
         <v>44</v>
@@ -4767,7 +4817,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.08213399350643158</v>
+        <v>0.07509814202785492</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4793,16 +4843,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07466726750135422</v>
+        <v>0.07509814202785492</v>
       </c>
       <c r="C87" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4819,16 +4869,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07093390077352524</v>
+        <v>0.07509814202785492</v>
       </c>
       <c r="C88" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4845,16 +4895,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06720053404569626</v>
+        <v>0.06827103346586227</v>
       </c>
       <c r="C89" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4871,16 +4921,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06720053404569626</v>
+        <v>0.06485748291015625</v>
       </c>
       <c r="C90" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4897,16 +4947,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.0597338117659092</v>
+        <v>0.06144393235445023</v>
       </c>
       <c r="C91" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4923,16 +4973,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05226708576083183</v>
+        <v>0.06144393235445023</v>
       </c>
       <c r="C92" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4949,16 +4999,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05226708576083183</v>
+        <v>0.05461682751774788</v>
       </c>
       <c r="C93" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -4975,16 +5025,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03733363375067711</v>
+        <v>0.04778972640633583</v>
       </c>
       <c r="C94" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5001,16 +5051,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03733363375067711</v>
+        <v>0.04778972640633583</v>
       </c>
       <c r="C95" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5027,16 +5077,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03360026702284813</v>
+        <v>0.03413551673293114</v>
       </c>
       <c r="C96" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5053,16 +5103,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03360026702284813</v>
+        <v>0.03413551673293114</v>
       </c>
       <c r="C97" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5079,16 +5129,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.0298669058829546</v>
+        <v>0.03072196617722511</v>
       </c>
       <c r="C98" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5105,16 +5155,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.0298669058829546</v>
+        <v>0.03072196617722511</v>
       </c>
       <c r="C99" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5131,7 +5181,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.0298669058829546</v>
+        <v>0.02730841375887394</v>
       </c>
       <c r="C100" s="1">
         <v>16</v>
@@ -5157,16 +5207,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02613354288041592</v>
+        <v>0.02730841375887394</v>
       </c>
       <c r="C101" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5183,16 +5233,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02240017987787724</v>
+        <v>0.02730841375887394</v>
       </c>
       <c r="C102" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5209,16 +5259,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02240017987787724</v>
+        <v>0.02389486320316792</v>
       </c>
       <c r="C103" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5235,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02240017987787724</v>
+        <v>0.02048131078481674</v>
       </c>
       <c r="C104" s="1">
         <v>12</v>
@@ -5261,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02240017987787724</v>
+        <v>0.02048131078481674</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5287,16 +5337,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.02048131078481674</v>
       </c>
       <c r="C106" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5313,16 +5363,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.02048131078481674</v>
       </c>
       <c r="C107" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5339,7 +5389,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5365,7 +5415,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5391,7 +5441,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
@@ -5417,7 +5467,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01866681687533855</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5443,16 +5493,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.0149334529414773</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C112" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -5466,19 +5516,19 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.0149334529414773</v>
+        <v>0.01706775836646557</v>
       </c>
       <c r="C113" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5487,15 +5537,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.0149334529414773</v>
+        <v>0.01365420687943697</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5518,19 +5568,19 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01365420687943697</v>
       </c>
       <c r="C115" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E115" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -5539,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5547,16 +5597,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01365420687943697</v>
       </c>
       <c r="C116" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5573,7 +5623,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -5599,7 +5649,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -5625,7 +5675,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -5651,7 +5701,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -5677,7 +5727,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -5703,7 +5753,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -5729,7 +5779,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C123" s="1">
         <v>6</v>
@@ -5755,7 +5805,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
@@ -5781,7 +5831,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C125" s="1">
         <v>6</v>
@@ -5807,7 +5857,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C126" s="1">
         <v>6</v>
@@ -5833,7 +5883,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -5859,7 +5909,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -5885,7 +5935,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -5911,7 +5961,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -5937,7 +5987,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -5963,7 +6013,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -5989,7 +6039,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6015,7 +6065,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6041,7 +6091,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6067,7 +6117,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01120008993893862</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6093,16 +6143,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.007466726470738649</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C137" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6119,16 +6169,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.007466726470738649</v>
+        <v>0.01024065539240837</v>
       </c>
       <c r="C138" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -6145,7 +6195,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.007466726470738649</v>
+        <v>0.006827103439718485</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -6171,16 +6221,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.003733363235369325</v>
+        <v>0.006827103439718485</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -6197,16 +6247,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.003733363235369325</v>
+        <v>0.006827103439718485</v>
       </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -6223,7 +6273,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003733363235369325</v>
+        <v>0.003413551719859242</v>
       </c>
       <c r="C142" s="1">
         <v>2</v>
@@ -6249,7 +6299,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003733363235369325</v>
+        <v>0.003413551719859242</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6275,7 +6325,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003733363235369325</v>
+        <v>0.003413551719859242</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -6297,34 +6347,86 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.003413551719859242</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B146" s="2">
+        <v>0.003413551719859242</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C145">
+      <c r="C147">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D145">
+      <c r="D147">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="E147">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F147">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G145">
+      <c r="G147">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H145">
+      <c r="H147">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -20,12 +20,12 @@
     <t>McuSTUDIO_F470VET6</t>
   </si>
   <si>
+    <t>data_memory.o</t>
+  </si>
+  <si>
     <t>startup_gd32f450_470.o</t>
   </si>
   <si>
-    <t>data_memory.o</t>
-  </si>
-  <si>
     <t>mcu_cmic_gd32f470vet6.o</t>
   </si>
   <si>
@@ -203,6 +203,9 @@
     <t>__dczerorl2.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
     <t>memcmp.o</t>
   </si>
   <si>
@@ -210,9 +213,6 @@
   </si>
   <si>
     <t>strncpy.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
   </si>
   <si>
     <t>_printf_str.o</t>
@@ -573,10 +573,10 @@
               <c:strCache>
                 <c:ptCount val="145"/>
                 <c:pt idx="0">
+                  <c:v>data_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>startup_gd32f450_470.o</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>data_memory.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
@@ -639,58 +639,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="145"/>
                 <c:pt idx="0">
-                  <c:v>33.57927703857422</c:v>
+                  <c:v>33.35837554931641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.28316116333008</c:v>
+                  <c:v>30.77385330200195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.476963043212891</c:v>
+                  <c:v>8.685198783874512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.313002586364746</c:v>
+                  <c:v>8.53493595123291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.460403442382813</c:v>
+                  <c:v>7.753568649291992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.21364164352417</c:v>
+                  <c:v>2.945153951644898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.574028491973877</c:v>
+                  <c:v>1.442524433135986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.574028491973877</c:v>
+                  <c:v>1.442524433135986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.311690449714661</c:v>
+                  <c:v>1.202103734016419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.246105909347534</c:v>
+                  <c:v>1.141998529434204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.049352407455444</c:v>
+                  <c:v>0.961682915687561</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9837678074836731</c:v>
+                  <c:v>0.9015777707099915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3607148826122284</c:v>
+                  <c:v>0.3305785059928894</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1967535614967346</c:v>
+                  <c:v>0.1803155541419983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1311690509319305</c:v>
+                  <c:v>0.1202103644609451</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1147729158401489</c:v>
+                  <c:v>0.1051840707659721</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06558452546596527</c:v>
+                  <c:v>0.06010518223047257</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.06558452546596527</c:v>
+                  <c:v>0.06010518223047257</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>0</c:v>
@@ -773,10 +773,10 @@
                   <c:v>ff.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>data_memory.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>data_memory.o</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>config_manager.o</c:v>
@@ -809,16 +809,16 @@
                   <c:v>btn_app.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>sampling_control.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>perf_counter.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>gd32f4xx_dma.o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>sampling_control.o</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>gd32f4xx_timer.o</c:v>
@@ -944,16 +944,16 @@
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>strncpy.o</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>_printf_str.o</c:v>
@@ -1208,436 +1208,436 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="145"/>
                 <c:pt idx="0">
-                  <c:v>17.11384201049805</c:v>
+                  <c:v>16.64011383056641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.377197265625</c:v>
+                  <c:v>10.08994674682617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.00341320037842</c:v>
+                  <c:v>9.726509094238281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.605222702026367</c:v>
+                  <c:v>6.827309131622315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.441030979156494</c:v>
+                  <c:v>6.422383785247803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.635432720184326</c:v>
+                  <c:v>3.654286623001099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.304318189620972</c:v>
+                  <c:v>3.212851524353027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.908346176147461</c:v>
+                  <c:v>2.827840328216553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.904932498931885</c:v>
+                  <c:v>2.82452130317688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.778631210327148</c:v>
+                  <c:v>2.70171594619751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.693292379379273</c:v>
+                  <c:v>2.618739366531372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.798941850662231</c:v>
+                  <c:v>1.74914538860321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.508789896965027</c:v>
+                  <c:v>1.46702516078949</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.368834257125855</c:v>
+                  <c:v>1.330943584442139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.351766467094421</c:v>
+                  <c:v>1.314348340034485</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.269841313362122</c:v>
+                  <c:v>1.247967123985291</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.263014197349548</c:v>
+                  <c:v>1.23469078540802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.198156714439392</c:v>
+                  <c:v>1.228052735328674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.146953463554382</c:v>
+                  <c:v>1.164990544319153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.000170707702637</c:v>
+                  <c:v>0.9724850058555603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.979689359664917</c:v>
+                  <c:v>0.9525706171989441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9318996667861939</c:v>
+                  <c:v>0.9061037302017212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8909370303153992</c:v>
+                  <c:v>0.8662750124931335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8841099143028259</c:v>
+                  <c:v>0.8596369028091431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8397337198257446</c:v>
+                  <c:v>0.8164891004562378</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8090117573738098</c:v>
+                  <c:v>0.7866175174713135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7680491805076599</c:v>
+                  <c:v>0.7467887997627258</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7475678324699402</c:v>
+                  <c:v>0.7268744111061096</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6980713605880737</c:v>
+                  <c:v>0.6787480711936951</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6963645815849304</c:v>
+                  <c:v>0.6770884990692139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6417477130889893</c:v>
+                  <c:v>0.6239835619926453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5666496157646179</c:v>
+                  <c:v>0.5509641766548157</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5393412113189697</c:v>
+                  <c:v>0.524411678314209</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4505888521671295</c:v>
+                  <c:v>0.4381161034107208</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.436934620141983</c:v>
+                  <c:v>0.4248398542404175</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4301075339317322</c:v>
+                  <c:v>0.418201744556427</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4062126576900482</c:v>
+                  <c:v>0.3949683010578156</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3481822907924652</c:v>
+                  <c:v>0.3385442495346069</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3345280885696411</c:v>
+                  <c:v>0.3252680003643036</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3208738565444946</c:v>
+                  <c:v>0.3119917809963226</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3072196543216705</c:v>
+                  <c:v>0.2987155318260193</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3038060963153839</c:v>
+                  <c:v>0.2953964471817017</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3003925681114197</c:v>
+                  <c:v>0.2920773923397064</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2560163736343384</c:v>
+                  <c:v>0.2489296048879623</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2526028454303742</c:v>
+                  <c:v>0.2456105351448059</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2526028454303742</c:v>
+                  <c:v>0.2456105351448059</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2526028454303742</c:v>
+                  <c:v>0.2456105351448059</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2389486283063889</c:v>
+                  <c:v>0.2323343008756638</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2372418493032455</c:v>
+                  <c:v>0.2306747585535049</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2355350703001022</c:v>
+                  <c:v>0.2290152311325073</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2355350703001022</c:v>
+                  <c:v>0.2290152311325073</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2184673100709915</c:v>
+                  <c:v>0.2124199271202087</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2184673100709915</c:v>
+                  <c:v>0.2124199271202087</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2116402089595795</c:v>
+                  <c:v>0.2057818025350571</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.208226665854454</c:v>
+                  <c:v>0.2024627476930618</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2048131078481674</c:v>
+                  <c:v>0.1991436779499054</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1911589056253433</c:v>
+                  <c:v>0.1858674436807632</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.177504688501358</c:v>
+                  <c:v>0.1725911945104599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.170677587389946</c:v>
+                  <c:v>0.1659530699253082</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1536098271608353</c:v>
+                  <c:v>0.1493577659130096</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1501962840557098</c:v>
+                  <c:v>0.1493577659130096</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1467827260494232</c:v>
+                  <c:v>0.1460386961698532</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1467827260494232</c:v>
+                  <c:v>0.142719641327858</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1467827260494232</c:v>
+                  <c:v>0.142719641327858</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1399556249380112</c:v>
+                  <c:v>0.1360815167427063</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1331285238265991</c:v>
+                  <c:v>0.1294433921575546</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1331285238265991</c:v>
+                  <c:v>0.1294433921575546</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1263014227151871</c:v>
+                  <c:v>0.122805267572403</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1228878647089005</c:v>
+                  <c:v>0.1194862127304077</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1228878647089005</c:v>
+                  <c:v>0.1194862127304077</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1228878647089005</c:v>
+                  <c:v>0.1194862127304077</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1160607635974884</c:v>
+                  <c:v>0.112848088145256</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1092336550354958</c:v>
+                  <c:v>0.1062099635601044</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1092336550354958</c:v>
+                  <c:v>0.1062099635601044</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1058201044797897</c:v>
+                  <c:v>0.1028909012675285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1024065539240837</c:v>
+                  <c:v>0.0995718389749527</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.09216590225696564</c:v>
+                  <c:v>0.08961465954780579</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08875234425067902</c:v>
+                  <c:v>0.08629559725522995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08875234425067902</c:v>
+                  <c:v>0.08629559725522995</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08192524313926697</c:v>
+                  <c:v>0.07965747267007828</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08192524313926697</c:v>
+                  <c:v>0.07965747267007828</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08192524313926697</c:v>
+                  <c:v>0.07965747267007828</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07509814202785492</c:v>
+                  <c:v>0.07301934808492661</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07509814202785492</c:v>
+                  <c:v>0.07301934808492661</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07509814202785492</c:v>
+                  <c:v>0.07301934808492661</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07509814202785492</c:v>
+                  <c:v>0.07301934808492661</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06827103346586227</c:v>
+                  <c:v>0.06638123095035553</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06485748291015625</c:v>
+                  <c:v>0.06306216865777969</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.06144393235445023</c:v>
+                  <c:v>0.05974310636520386</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.06144393235445023</c:v>
+                  <c:v>0.05974310636520386</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05461682751774788</c:v>
+                  <c:v>0.05310498178005219</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.04778972640633583</c:v>
+                  <c:v>0.04646686092019081</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.04778972640633583</c:v>
+                  <c:v>0.04646686092019081</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03413551673293114</c:v>
+                  <c:v>0.03319061547517777</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03413551673293114</c:v>
+                  <c:v>0.03319061547517777</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.03072196617722511</c:v>
+                  <c:v>0.02987155318260193</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.03072196617722511</c:v>
+                  <c:v>0.02987155318260193</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02730841375887394</c:v>
+                  <c:v>0.02655249089002609</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02730841375887394</c:v>
+                  <c:v>0.02655249089002609</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02730841375887394</c:v>
+                  <c:v>0.02655249089002609</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02389486320316792</c:v>
+                  <c:v>0.02323343046009541</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.02048131078481674</c:v>
+                  <c:v>0.01991436816751957</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.02048131078481674</c:v>
+                  <c:v>0.01991436816751957</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.02048131078481674</c:v>
+                  <c:v>0.01991436816751957</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.02048131078481674</c:v>
+                  <c:v>0.01991436816751957</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01706775836646557</c:v>
+                  <c:v>0.01659530773758888</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01365420687943697</c:v>
+                  <c:v>0.01327624544501305</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01365420687943697</c:v>
+                  <c:v>0.01327624544501305</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01365420687943697</c:v>
+                  <c:v>0.01327624544501305</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01024065539240837</c:v>
+                  <c:v>0.009957184083759785</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.006827103439718485</c:v>
+                  <c:v>0.006638122722506523</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.006827103439718485</c:v>
+                  <c:v>0.006638122722506523</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.006827103439718485</c:v>
+                  <c:v>0.006638122722506523</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003413551719859242</c:v>
+                  <c:v>0.003319061361253262</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003413551719859242</c:v>
+                  <c:v>0.003319061361253262</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003413551719859242</c:v>
+                  <c:v>0.003319061361253262</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.003413551719859242</c:v>
+                  <c:v>0.003319061361253262</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.003413551719859242</c:v>
+                  <c:v>0.003319061361253262</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>0</c:v>
@@ -2107,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>33.57927703857422</v>
+        <v>33.35837554931641</v>
       </c>
       <c r="C3" s="1">
-        <v>2048</v>
+        <v>2220</v>
       </c>
       <c r="D3" s="1">
-        <v>492</v>
+        <v>4114</v>
       </c>
       <c r="E3" s="1">
-        <v>64</v>
+        <v>4098</v>
       </c>
       <c r="F3" s="1">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
-        <v>2048</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2133,25 +2133,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.28316116333008</v>
+        <v>30.77385330200195</v>
       </c>
       <c r="C4" s="1">
-        <v>1664</v>
+        <v>2048</v>
       </c>
       <c r="D4" s="1">
-        <v>2602</v>
+        <v>492</v>
       </c>
       <c r="E4" s="1">
-        <v>2594</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1656</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.476963043212891</v>
+        <v>8.685198783874512</v>
       </c>
       <c r="C5" s="1">
         <v>578</v>
@@ -2185,16 +2185,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>9.313002586364746</v>
+        <v>8.53493595123291</v>
       </c>
       <c r="C6" s="1">
         <v>568</v>
       </c>
       <c r="D6" s="1">
-        <v>2130</v>
+        <v>2202</v>
       </c>
       <c r="E6" s="1">
-        <v>2090</v>
+        <v>2162</v>
       </c>
       <c r="F6" s="1">
         <v>32</v>
@@ -2211,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>8.460403442382813</v>
+        <v>7.753568649291992</v>
       </c>
       <c r="C7" s="1">
         <v>516</v>
@@ -2237,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>3.21364164352417</v>
+        <v>2.945153951644898</v>
       </c>
       <c r="C8" s="1">
         <v>196</v>
@@ -2263,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.574028491973877</v>
+        <v>1.442524433135986</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.574028491973877</v>
+        <v>1.442524433135986</v>
       </c>
       <c r="C10" s="1">
         <v>96</v>
@@ -2315,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.311690449714661</v>
+        <v>1.202103734016419</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
@@ -2341,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.246105909347534</v>
+        <v>1.141998529434204</v>
       </c>
       <c r="C12" s="1">
         <v>76</v>
@@ -2367,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1.049352407455444</v>
+        <v>0.961682915687561</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
@@ -2393,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.9837678074836731</v>
+        <v>0.9015777707099915</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -2419,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3607148826122284</v>
+        <v>0.3305785059928894</v>
       </c>
       <c r="C15" s="1">
         <v>22</v>
@@ -2445,16 +2445,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1967535614967346</v>
+        <v>0.1803155541419983</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="E16" s="1">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1311690509319305</v>
+        <v>0.1202103644609451</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2497,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1147729158401489</v>
+        <v>0.1051840707659721</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -2523,7 +2523,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06558452546596527</v>
+        <v>0.06010518223047257</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.06558452546596527</v>
+        <v>0.06010518223047257</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2659,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>17.11384201049805</v>
+        <v>16.64011383056641</v>
       </c>
       <c r="C3" s="1">
         <v>10027</v>
@@ -2685,7 +2685,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10.377197265625</v>
+        <v>10.08994674682617</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>10.00341320037842</v>
+        <v>9.726509094238281</v>
       </c>
       <c r="C5" s="1">
         <v>5861</v>
@@ -2734,54 +2734,54 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>6.605222702026367</v>
+        <v>6.827309131622315</v>
       </c>
       <c r="C6" s="1">
-        <v>3870</v>
+        <v>4114</v>
       </c>
       <c r="D6" s="1">
-        <v>22</v>
+        <v>2220</v>
       </c>
       <c r="E6" s="1">
-        <v>1136</v>
+        <v>4098</v>
       </c>
       <c r="F6" s="1">
-        <v>2712</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>4.441030979156494</v>
+        <v>6.422383785247803</v>
       </c>
       <c r="C7" s="1">
-        <v>2602</v>
+        <v>3870</v>
       </c>
       <c r="D7" s="1">
-        <v>1664</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>2594</v>
+        <v>1136</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2712</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
-        <v>1656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2789,16 +2789,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.635432720184326</v>
+        <v>3.654286623001099</v>
       </c>
       <c r="C8" s="1">
-        <v>2130</v>
+        <v>2202</v>
       </c>
       <c r="D8" s="1">
         <v>568</v>
       </c>
       <c r="E8" s="1">
-        <v>2090</v>
+        <v>2162</v>
       </c>
       <c r="F8" s="1">
         <v>32</v>
@@ -2815,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3.304318189620972</v>
+        <v>3.212851524353027</v>
       </c>
       <c r="C9" s="1">
         <v>1936</v>
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>2.908346176147461</v>
+        <v>2.827840328216553</v>
       </c>
       <c r="C10" s="1">
         <v>1704</v>
@@ -2867,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>2.904932498931885</v>
+        <v>2.82452130317688</v>
       </c>
       <c r="C11" s="1">
         <v>1702</v>
@@ -2893,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>2.778631210327148</v>
+        <v>2.70171594619751</v>
       </c>
       <c r="C12" s="1">
         <v>1628</v>
@@ -2919,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.693292379379273</v>
+        <v>2.618739366531372</v>
       </c>
       <c r="C13" s="1">
         <v>1578</v>
@@ -2945,7 +2945,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.798941850662231</v>
+        <v>1.74914538860321</v>
       </c>
       <c r="C14" s="1">
         <v>1054</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>1.508789896965027</v>
+        <v>1.46702516078949</v>
       </c>
       <c r="C15" s="1">
         <v>884</v>
@@ -2997,7 +2997,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>1.368834257125855</v>
+        <v>1.330943584442139</v>
       </c>
       <c r="C16" s="1">
         <v>802</v>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.351766467094421</v>
+        <v>1.314348340034485</v>
       </c>
       <c r="C17" s="1">
         <v>792</v>
@@ -3046,25 +3046,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>1.269841313362122</v>
+        <v>1.247967123985291</v>
       </c>
       <c r="C18" s="1">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D18" s="1">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3072,25 +3072,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>1.263014197349548</v>
+        <v>1.23469078540802</v>
       </c>
       <c r="C19" s="1">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3098,19 +3098,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>1.198156714439392</v>
+        <v>1.228052735328674</v>
       </c>
       <c r="C20" s="1">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3124,25 +3124,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.146953463554382</v>
+        <v>1.164990544319153</v>
       </c>
       <c r="C21" s="1">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="D21" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>1.000170707702637</v>
+        <v>0.9724850058555603</v>
       </c>
       <c r="C22" s="1">
         <v>586</v>
@@ -3179,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>0.979689359664917</v>
+        <v>0.9525706171989441</v>
       </c>
       <c r="C23" s="1">
         <v>574</v>
@@ -3205,7 +3205,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9318996667861939</v>
+        <v>0.9061037302017212</v>
       </c>
       <c r="C24" s="1">
         <v>546</v>
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8909370303153992</v>
+        <v>0.8662750124931335</v>
       </c>
       <c r="C25" s="1">
         <v>522</v>
@@ -3257,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8841099143028259</v>
+        <v>0.8596369028091431</v>
       </c>
       <c r="C26" s="1">
         <v>518</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8397337198257446</v>
+        <v>0.8164891004562378</v>
       </c>
       <c r="C27" s="1">
         <v>492</v>
@@ -3309,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8090117573738098</v>
+        <v>0.7866175174713135</v>
       </c>
       <c r="C28" s="1">
         <v>474</v>
@@ -3335,7 +3335,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7680491805076599</v>
+        <v>0.7467887997627258</v>
       </c>
       <c r="C29" s="1">
         <v>450</v>
@@ -3361,7 +3361,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7475678324699402</v>
+        <v>0.7268744111061096</v>
       </c>
       <c r="C30" s="1">
         <v>438</v>
@@ -3387,7 +3387,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6980713605880737</v>
+        <v>0.6787480711936951</v>
       </c>
       <c r="C31" s="1">
         <v>409</v>
@@ -3413,7 +3413,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6963645815849304</v>
+        <v>0.6770884990692139</v>
       </c>
       <c r="C32" s="1">
         <v>408</v>
@@ -3439,7 +3439,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6417477130889893</v>
+        <v>0.6239835619926453</v>
       </c>
       <c r="C33" s="1">
         <v>376</v>
@@ -3465,7 +3465,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5666496157646179</v>
+        <v>0.5509641766548157</v>
       </c>
       <c r="C34" s="1">
         <v>332</v>
@@ -3491,7 +3491,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5393412113189697</v>
+        <v>0.524411678314209</v>
       </c>
       <c r="C35" s="1">
         <v>316</v>
@@ -3517,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4505888521671295</v>
+        <v>0.4381161034107208</v>
       </c>
       <c r="C36" s="1">
         <v>264</v>
@@ -3543,7 +3543,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.436934620141983</v>
+        <v>0.4248398542404175</v>
       </c>
       <c r="C37" s="1">
         <v>256</v>
@@ -3569,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4301075339317322</v>
+        <v>0.418201744556427</v>
       </c>
       <c r="C38" s="1">
         <v>252</v>
@@ -3595,7 +3595,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4062126576900482</v>
+        <v>0.3949683010578156</v>
       </c>
       <c r="C39" s="1">
         <v>238</v>
@@ -3621,7 +3621,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3481822907924652</v>
+        <v>0.3385442495346069</v>
       </c>
       <c r="C40" s="1">
         <v>204</v>
@@ -3647,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3345280885696411</v>
+        <v>0.3252680003643036</v>
       </c>
       <c r="C41" s="1">
         <v>196</v>
@@ -3673,7 +3673,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3208738565444946</v>
+        <v>0.3119917809963226</v>
       </c>
       <c r="C42" s="1">
         <v>188</v>
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3072196543216705</v>
+        <v>0.2987155318260193</v>
       </c>
       <c r="C43" s="1">
         <v>180</v>
@@ -3725,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3038060963153839</v>
+        <v>0.2953964471817017</v>
       </c>
       <c r="C44" s="1">
         <v>178</v>
@@ -3751,7 +3751,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3003925681114197</v>
+        <v>0.2920773923397064</v>
       </c>
       <c r="C45" s="1">
         <v>176</v>
@@ -3777,7 +3777,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2560163736343384</v>
+        <v>0.2489296048879623</v>
       </c>
       <c r="C46" s="1">
         <v>150</v>
@@ -3803,7 +3803,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2526028454303742</v>
+        <v>0.2456105351448059</v>
       </c>
       <c r="C47" s="1">
         <v>148</v>
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2526028454303742</v>
+        <v>0.2456105351448059</v>
       </c>
       <c r="C48" s="1">
         <v>148</v>
@@ -3855,7 +3855,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2526028454303742</v>
+        <v>0.2456105351448059</v>
       </c>
       <c r="C49" s="1">
         <v>148</v>
@@ -3881,7 +3881,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2389486283063889</v>
+        <v>0.2323343008756638</v>
       </c>
       <c r="C50" s="1">
         <v>140</v>
@@ -3907,7 +3907,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2372418493032455</v>
+        <v>0.2306747585535049</v>
       </c>
       <c r="C51" s="1">
         <v>139</v>
@@ -3933,7 +3933,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2355350703001022</v>
+        <v>0.2290152311325073</v>
       </c>
       <c r="C52" s="1">
         <v>138</v>
@@ -3959,7 +3959,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2355350703001022</v>
+        <v>0.2290152311325073</v>
       </c>
       <c r="C53" s="1">
         <v>138</v>
@@ -3985,7 +3985,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2184673100709915</v>
+        <v>0.2124199271202087</v>
       </c>
       <c r="C54" s="1">
         <v>128</v>
@@ -4011,7 +4011,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2184673100709915</v>
+        <v>0.2124199271202087</v>
       </c>
       <c r="C55" s="1">
         <v>128</v>
@@ -4037,7 +4037,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2116402089595795</v>
+        <v>0.2057818025350571</v>
       </c>
       <c r="C56" s="1">
         <v>124</v>
@@ -4063,7 +4063,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.208226665854454</v>
+        <v>0.2024627476930618</v>
       </c>
       <c r="C57" s="1">
         <v>122</v>
@@ -4089,7 +4089,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2048131078481674</v>
+        <v>0.1991436779499054</v>
       </c>
       <c r="C58" s="1">
         <v>120</v>
@@ -4115,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1911589056253433</v>
+        <v>0.1858674436807632</v>
       </c>
       <c r="C59" s="1">
         <v>112</v>
@@ -4141,7 +4141,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.177504688501358</v>
+        <v>0.1725911945104599</v>
       </c>
       <c r="C60" s="1">
         <v>104</v>
@@ -4167,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.170677587389946</v>
+        <v>0.1659530699253082</v>
       </c>
       <c r="C61" s="1">
         <v>100</v>
@@ -4193,7 +4193,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1536098271608353</v>
+        <v>0.1493577659130096</v>
       </c>
       <c r="C62" s="1">
         <v>90</v>
@@ -4219,16 +4219,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1501962840557098</v>
+        <v>0.1493577659130096</v>
       </c>
       <c r="C63" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4245,16 +4245,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1467827260494232</v>
+        <v>0.1460386961698532</v>
       </c>
       <c r="C64" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1467827260494232</v>
+        <v>0.142719641327858</v>
       </c>
       <c r="C65" s="1">
         <v>86</v>
@@ -4297,7 +4297,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1467827260494232</v>
+        <v>0.142719641327858</v>
       </c>
       <c r="C66" s="1">
         <v>86</v>
@@ -4323,7 +4323,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1399556249380112</v>
+        <v>0.1360815167427063</v>
       </c>
       <c r="C67" s="1">
         <v>82</v>
@@ -4349,7 +4349,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1331285238265991</v>
+        <v>0.1294433921575546</v>
       </c>
       <c r="C68" s="1">
         <v>78</v>
@@ -4375,7 +4375,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1331285238265991</v>
+        <v>0.1294433921575546</v>
       </c>
       <c r="C69" s="1">
         <v>78</v>
@@ -4401,7 +4401,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1263014227151871</v>
+        <v>0.122805267572403</v>
       </c>
       <c r="C70" s="1">
         <v>74</v>
@@ -4427,7 +4427,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1228878647089005</v>
+        <v>0.1194862127304077</v>
       </c>
       <c r="C71" s="1">
         <v>72</v>
@@ -4453,7 +4453,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1228878647089005</v>
+        <v>0.1194862127304077</v>
       </c>
       <c r="C72" s="1">
         <v>72</v>
@@ -4479,7 +4479,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1228878647089005</v>
+        <v>0.1194862127304077</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -4505,7 +4505,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1160607635974884</v>
+        <v>0.112848088145256</v>
       </c>
       <c r="C74" s="1">
         <v>68</v>
@@ -4531,7 +4531,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1092336550354958</v>
+        <v>0.1062099635601044</v>
       </c>
       <c r="C75" s="1">
         <v>64</v>
@@ -4557,7 +4557,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1092336550354958</v>
+        <v>0.1062099635601044</v>
       </c>
       <c r="C76" s="1">
         <v>64</v>
@@ -4583,7 +4583,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1058201044797897</v>
+        <v>0.1028909012675285</v>
       </c>
       <c r="C77" s="1">
         <v>62</v>
@@ -4609,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1024065539240837</v>
+        <v>0.0995718389749527</v>
       </c>
       <c r="C78" s="1">
         <v>60</v>
@@ -4635,7 +4635,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.09216590225696564</v>
+        <v>0.08961465954780579</v>
       </c>
       <c r="C79" s="1">
         <v>54</v>
@@ -4661,7 +4661,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08875234425067902</v>
+        <v>0.08629559725522995</v>
       </c>
       <c r="C80" s="1">
         <v>52</v>
@@ -4687,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08875234425067902</v>
+        <v>0.08629559725522995</v>
       </c>
       <c r="C81" s="1">
         <v>52</v>
@@ -4713,7 +4713,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08192524313926697</v>
+        <v>0.07965747267007828</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4739,7 +4739,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08192524313926697</v>
+        <v>0.07965747267007828</v>
       </c>
       <c r="C83" s="1">
         <v>48</v>
@@ -4765,7 +4765,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.08192524313926697</v>
+        <v>0.07965747267007828</v>
       </c>
       <c r="C84" s="1">
         <v>48</v>
@@ -4791,7 +4791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07509814202785492</v>
+        <v>0.07301934808492661</v>
       </c>
       <c r="C85" s="1">
         <v>44</v>
@@ -4817,7 +4817,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07509814202785492</v>
+        <v>0.07301934808492661</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4843,7 +4843,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07509814202785492</v>
+        <v>0.07301934808492661</v>
       </c>
       <c r="C87" s="1">
         <v>44</v>
@@ -4869,7 +4869,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07509814202785492</v>
+        <v>0.07301934808492661</v>
       </c>
       <c r="C88" s="1">
         <v>44</v>
@@ -4895,7 +4895,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06827103346586227</v>
+        <v>0.06638123095035553</v>
       </c>
       <c r="C89" s="1">
         <v>40</v>
@@ -4921,7 +4921,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06485748291015625</v>
+        <v>0.06306216865777969</v>
       </c>
       <c r="C90" s="1">
         <v>38</v>
@@ -4947,7 +4947,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.06144393235445023</v>
+        <v>0.05974310636520386</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4973,7 +4973,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.06144393235445023</v>
+        <v>0.05974310636520386</v>
       </c>
       <c r="C92" s="1">
         <v>36</v>
@@ -4999,7 +4999,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05461682751774788</v>
+        <v>0.05310498178005219</v>
       </c>
       <c r="C93" s="1">
         <v>32</v>
@@ -5025,7 +5025,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.04778972640633583</v>
+        <v>0.04646686092019081</v>
       </c>
       <c r="C94" s="1">
         <v>28</v>
@@ -5051,7 +5051,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.04778972640633583</v>
+        <v>0.04646686092019081</v>
       </c>
       <c r="C95" s="1">
         <v>28</v>
@@ -5077,7 +5077,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03413551673293114</v>
+        <v>0.03319061547517777</v>
       </c>
       <c r="C96" s="1">
         <v>20</v>
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03413551673293114</v>
+        <v>0.03319061547517777</v>
       </c>
       <c r="C97" s="1">
         <v>20</v>
@@ -5129,7 +5129,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.03072196617722511</v>
+        <v>0.02987155318260193</v>
       </c>
       <c r="C98" s="1">
         <v>18</v>
@@ -5155,7 +5155,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.03072196617722511</v>
+        <v>0.02987155318260193</v>
       </c>
       <c r="C99" s="1">
         <v>18</v>
@@ -5181,7 +5181,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02730841375887394</v>
+        <v>0.02655249089002609</v>
       </c>
       <c r="C100" s="1">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02730841375887394</v>
+        <v>0.02655249089002609</v>
       </c>
       <c r="C101" s="1">
         <v>16</v>
@@ -5233,7 +5233,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02730841375887394</v>
+        <v>0.02655249089002609</v>
       </c>
       <c r="C102" s="1">
         <v>16</v>
@@ -5259,7 +5259,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02389486320316792</v>
+        <v>0.02323343046009541</v>
       </c>
       <c r="C103" s="1">
         <v>14</v>
@@ -5285,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.02048131078481674</v>
+        <v>0.01991436816751957</v>
       </c>
       <c r="C104" s="1">
         <v>12</v>
@@ -5311,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.02048131078481674</v>
+        <v>0.01991436816751957</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5337,7 +5337,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.02048131078481674</v>
+        <v>0.01991436816751957</v>
       </c>
       <c r="C106" s="1">
         <v>12</v>
@@ -5363,7 +5363,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.02048131078481674</v>
+        <v>0.01991436816751957</v>
       </c>
       <c r="C107" s="1">
         <v>12</v>
@@ -5389,7 +5389,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5415,7 +5415,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5441,7 +5441,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
@@ -5467,7 +5467,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5493,7 +5493,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -5519,7 +5519,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01706775836646557</v>
+        <v>0.01659530773758888</v>
       </c>
       <c r="C113" s="1">
         <v>10</v>
@@ -5545,7 +5545,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01365420687943697</v>
+        <v>0.01327624544501305</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5571,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01365420687943697</v>
+        <v>0.01327624544501305</v>
       </c>
       <c r="C115" s="1">
         <v>8</v>
@@ -5597,7 +5597,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01365420687943697</v>
+        <v>0.01327624544501305</v>
       </c>
       <c r="C116" s="1">
         <v>8</v>
@@ -5623,7 +5623,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -5675,7 +5675,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -5701,7 +5701,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -5727,7 +5727,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -5753,7 +5753,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -5779,7 +5779,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C123" s="1">
         <v>6</v>
@@ -5805,7 +5805,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
@@ -5831,7 +5831,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C125" s="1">
         <v>6</v>
@@ -5857,7 +5857,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C126" s="1">
         <v>6</v>
@@ -5883,7 +5883,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -5909,7 +5909,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -5935,7 +5935,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -5961,7 +5961,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -5987,7 +5987,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -6013,7 +6013,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -6039,7 +6039,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6065,7 +6065,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6091,7 +6091,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6117,7 +6117,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6143,7 +6143,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C137" s="1">
         <v>6</v>
@@ -6169,7 +6169,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01024065539240837</v>
+        <v>0.009957184083759785</v>
       </c>
       <c r="C138" s="1">
         <v>6</v>
@@ -6195,7 +6195,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.006827103439718485</v>
+        <v>0.006638122722506523</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -6221,7 +6221,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.006827103439718485</v>
+        <v>0.006638122722506523</v>
       </c>
       <c r="C140" s="1">
         <v>4</v>
@@ -6247,7 +6247,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.006827103439718485</v>
+        <v>0.006638122722506523</v>
       </c>
       <c r="C141" s="1">
         <v>4</v>
@@ -6273,7 +6273,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003413551719859242</v>
+        <v>0.003319061361253262</v>
       </c>
       <c r="C142" s="1">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003413551719859242</v>
+        <v>0.003319061361253262</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6325,7 +6325,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003413551719859242</v>
+        <v>0.003319061361253262</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -6351,7 +6351,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.003413551719859242</v>
+        <v>0.003319061361253262</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -6377,7 +6377,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.003413551719859242</v>
+        <v>0.003319061361253262</v>
       </c>
       <c r="C146" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -800,22 +800,22 @@
                   <c:v>_printf_fp_dec.o</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>btn_app.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>_printf_fp_hex.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>btn_app.o</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>perf_counter.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>gd32f4xx_rcu.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>sampling_control.o</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>perf_counter.o</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>gd32f4xx_dma.o</c:v>
@@ -836,10 +836,10 @@
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>data_dispose.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>startup_gd32f450_470.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>data_dispose.o</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>unicode.o</c:v>
@@ -1208,436 +1208,436 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="145"/>
                 <c:pt idx="0">
-                  <c:v>16.64011383056641</c:v>
+                  <c:v>16.56752967834473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.08994674682617</c:v>
+                  <c:v>10.04593372344971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.726509094238281</c:v>
+                  <c:v>9.68408203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.827309131622315</c:v>
+                  <c:v>6.757873058319092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.422383785247803</c:v>
+                  <c:v>6.394369125366211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.654286623001099</c:v>
+                  <c:v>3.717656373977661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.212851524353027</c:v>
+                  <c:v>3.198836803436279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.827840328216553</c:v>
+                  <c:v>2.927860975265503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.82452130317688</c:v>
+                  <c:v>2.812200546264648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.70171594619751</c:v>
+                  <c:v>2.68993091583252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.618739366531372</c:v>
+                  <c:v>2.607316255569458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.74914538860321</c:v>
+                  <c:v>1.741515517234802</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.46702516078949</c:v>
+                  <c:v>1.612636685371399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.330943584442139</c:v>
+                  <c:v>1.460625886917114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.314348340034485</c:v>
+                  <c:v>1.325137972831726</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.247967123985291</c:v>
+                  <c:v>1.229305028915405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.23469078540802</c:v>
+                  <c:v>1.222695827484131</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.228052735328674</c:v>
+                  <c:v>1.183040857315064</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.164990544319153</c:v>
+                  <c:v>1.159908771514893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9724850058555603</c:v>
+                  <c:v>0.9682429432868958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9525706171989441</c:v>
+                  <c:v>0.9484154582023621</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9061037302017212</c:v>
+                  <c:v>0.9021512866020203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8662750124931335</c:v>
+                  <c:v>0.8624962568283081</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8596369028091431</c:v>
+                  <c:v>0.8558871150016785</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8164891004562378</c:v>
+                  <c:v>0.8228412866592407</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7866175174713135</c:v>
+                  <c:v>0.8129275441169739</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7467887997627258</c:v>
+                  <c:v>0.7435312867164612</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7268744111061096</c:v>
+                  <c:v>0.7237038016319275</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6787480711936951</c:v>
+                  <c:v>0.6757873296737671</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6770884990692139</c:v>
+                  <c:v>0.6741350293159485</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6239835619926453</c:v>
+                  <c:v>0.6212617158889771</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5509641766548157</c:v>
+                  <c:v>0.5485608577728272</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.524411678314209</c:v>
+                  <c:v>0.522124171257019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4381161034107208</c:v>
+                  <c:v>0.4362050294876099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4248398542404175</c:v>
+                  <c:v>0.4229866862297058</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.418201744556427</c:v>
+                  <c:v>0.4163775146007538</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3949683010578156</c:v>
+                  <c:v>0.3932454288005829</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3385442495346069</c:v>
+                  <c:v>0.3370675146579742</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3252680003643036</c:v>
+                  <c:v>0.3238491714000702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3119917809963226</c:v>
+                  <c:v>0.3106308579444885</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2987155318260193</c:v>
+                  <c:v>0.2974125146865845</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2953964471817017</c:v>
+                  <c:v>0.2941079139709473</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2920773923397064</c:v>
+                  <c:v>0.2908033430576325</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2489296048879623</c:v>
+                  <c:v>0.2478437572717667</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2456105351448059</c:v>
+                  <c:v>0.2445391714572907</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2456105351448059</c:v>
+                  <c:v>0.2445391714572907</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2456105351448059</c:v>
+                  <c:v>0.2445391714572907</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2323343008756638</c:v>
+                  <c:v>0.2313208431005478</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2306747585535049</c:v>
+                  <c:v>0.2296685576438904</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2290152311325073</c:v>
+                  <c:v>0.2280162572860718</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2290152311325073</c:v>
+                  <c:v>0.2280162572860718</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2124199271202087</c:v>
+                  <c:v>0.2114933431148529</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2124199271202087</c:v>
+                  <c:v>0.2114933431148529</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2057818025350571</c:v>
+                  <c:v>0.2048841714859009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2024627476930618</c:v>
+                  <c:v>0.2015795856714249</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1991436779499054</c:v>
+                  <c:v>0.1982750147581101</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1858674436807632</c:v>
+                  <c:v>0.185056671500206</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1725911945104599</c:v>
+                  <c:v>0.1718383431434631</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1659530699253082</c:v>
+                  <c:v>0.1652291715145111</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1493577659130096</c:v>
+                  <c:v>0.1487062573432922</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1493577659130096</c:v>
+                  <c:v>0.1487062573432922</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1460386961698532</c:v>
+                  <c:v>0.1454016715288162</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.142719641327858</c:v>
+                  <c:v>0.1420970857143402</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.142719641327858</c:v>
+                  <c:v>0.1420970857143402</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1360815167427063</c:v>
+                  <c:v>0.1354879289865494</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1294433921575546</c:v>
+                  <c:v>0.1288787573575974</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1294433921575546</c:v>
+                  <c:v>0.1288787573575974</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.122805267572403</c:v>
+                  <c:v>0.1222695857286453</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1194862127304077</c:v>
+                  <c:v>0.1189650073647499</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1194862127304077</c:v>
+                  <c:v>0.1189650073647499</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1194862127304077</c:v>
+                  <c:v>0.1189650073647499</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.112848088145256</c:v>
+                  <c:v>0.1123558357357979</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1062099635601044</c:v>
+                  <c:v>0.1057466715574265</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1062099635601044</c:v>
+                  <c:v>0.1057466715574265</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1028909012675285</c:v>
+                  <c:v>0.1024420857429504</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0995718389749527</c:v>
+                  <c:v>0.09913750737905502</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08961465954780579</c:v>
+                  <c:v>0.08922374993562698</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08629559725522995</c:v>
+                  <c:v>0.08591917157173157</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08629559725522995</c:v>
+                  <c:v>0.08591917157173157</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07965747267007828</c:v>
+                  <c:v>0.07930999994277954</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07965747267007828</c:v>
+                  <c:v>0.07930999994277954</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07965747267007828</c:v>
+                  <c:v>0.07930999994277954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07301934808492661</c:v>
+                  <c:v>0.07270083576440811</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07301934808492661</c:v>
+                  <c:v>0.07270083576440811</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07301934808492661</c:v>
+                  <c:v>0.07270083576440811</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07301934808492661</c:v>
+                  <c:v>0.07270083576440811</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06638123095035553</c:v>
+                  <c:v>0.06609167158603668</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06306216865777969</c:v>
+                  <c:v>0.06278708577156067</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05974310636520386</c:v>
+                  <c:v>0.05948250368237495</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05974310636520386</c:v>
+                  <c:v>0.05948250368237495</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05310498178005219</c:v>
+                  <c:v>0.05287333577871323</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.04646686092019081</c:v>
+                  <c:v>0.0462641678750515</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.04646686092019081</c:v>
+                  <c:v>0.0462641678750515</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03319061547517777</c:v>
+                  <c:v>0.03304583579301834</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03319061547517777</c:v>
+                  <c:v>0.03304583579301834</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02987155318260193</c:v>
+                  <c:v>0.02974125184118748</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02987155318260193</c:v>
+                  <c:v>0.02974125184118748</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02655249089002609</c:v>
+                  <c:v>0.02643666788935661</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02655249089002609</c:v>
+                  <c:v>0.02643666788935661</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02655249089002609</c:v>
+                  <c:v>0.02643666788935661</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02323343046009541</c:v>
+                  <c:v>0.02313208393752575</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.01991436816751957</c:v>
+                  <c:v>0.01982749998569489</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.01991436816751957</c:v>
+                  <c:v>0.01982749998569489</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01991436816751957</c:v>
+                  <c:v>0.01982749998569489</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01991436816751957</c:v>
+                  <c:v>0.01982749998569489</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01659530773758888</c:v>
+                  <c:v>0.01652291789650917</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01327624544501305</c:v>
+                  <c:v>0.01321833394467831</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01327624544501305</c:v>
+                  <c:v>0.01321833394467831</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01327624544501305</c:v>
+                  <c:v>0.01321833394467831</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.009957184083759785</c:v>
+                  <c:v>0.009913749992847443</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.006638122722506523</c:v>
+                  <c:v>0.006609166972339153</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.006638122722506523</c:v>
+                  <c:v>0.006609166972339153</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.006638122722506523</c:v>
+                  <c:v>0.006609166972339153</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003319061361253262</c:v>
+                  <c:v>0.003304583486169577</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003319061361253262</c:v>
+                  <c:v>0.003304583486169577</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003319061361253262</c:v>
+                  <c:v>0.003304583486169577</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.003319061361253262</c:v>
+                  <c:v>0.003304583486169577</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.003319061361253262</c:v>
+                  <c:v>0.003304583486169577</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>0</c:v>
@@ -2113,10 +2113,10 @@
         <v>2220</v>
       </c>
       <c r="D3" s="1">
-        <v>4114</v>
+        <v>4090</v>
       </c>
       <c r="E3" s="1">
-        <v>4098</v>
+        <v>4074</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2191,10 +2191,10 @@
         <v>568</v>
       </c>
       <c r="D6" s="1">
-        <v>2202</v>
+        <v>2250</v>
       </c>
       <c r="E6" s="1">
-        <v>2162</v>
+        <v>2210</v>
       </c>
       <c r="F6" s="1">
         <v>32</v>
@@ -2243,10 +2243,10 @@
         <v>196</v>
       </c>
       <c r="D8" s="1">
-        <v>792</v>
+        <v>976</v>
       </c>
       <c r="E8" s="1">
-        <v>582</v>
+        <v>766</v>
       </c>
       <c r="F8" s="1">
         <v>14</v>
@@ -2451,10 +2451,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="E16" s="1">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>16.64011383056641</v>
+        <v>16.56752967834473</v>
       </c>
       <c r="C3" s="1">
         <v>10027</v>
@@ -2685,7 +2685,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10.08994674682617</v>
+        <v>10.04593372344971</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>9.726509094238281</v>
+        <v>9.68408203125</v>
       </c>
       <c r="C5" s="1">
         <v>5861</v>
@@ -2737,16 +2737,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>6.827309131622315</v>
+        <v>6.757873058319092</v>
       </c>
       <c r="C6" s="1">
-        <v>4114</v>
+        <v>4090</v>
       </c>
       <c r="D6" s="1">
         <v>2220</v>
       </c>
       <c r="E6" s="1">
-        <v>4098</v>
+        <v>4074</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>6.422383785247803</v>
+        <v>6.394369125366211</v>
       </c>
       <c r="C7" s="1">
         <v>3870</v>
@@ -2789,16 +2789,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.654286623001099</v>
+        <v>3.717656373977661</v>
       </c>
       <c r="C8" s="1">
-        <v>2202</v>
+        <v>2250</v>
       </c>
       <c r="D8" s="1">
         <v>568</v>
       </c>
       <c r="E8" s="1">
-        <v>2162</v>
+        <v>2210</v>
       </c>
       <c r="F8" s="1">
         <v>32</v>
@@ -2815,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3.212851524353027</v>
+        <v>3.198836803436279</v>
       </c>
       <c r="C9" s="1">
         <v>1936</v>
@@ -2841,16 +2841,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>2.827840328216553</v>
+        <v>2.927860975265503</v>
       </c>
       <c r="C10" s="1">
-        <v>1704</v>
+        <v>1772</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1704</v>
+        <v>1772</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>2.82452130317688</v>
+        <v>2.812200546264648</v>
       </c>
       <c r="C11" s="1">
         <v>1702</v>
@@ -2893,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>2.70171594619751</v>
+        <v>2.68993091583252</v>
       </c>
       <c r="C12" s="1">
         <v>1628</v>
@@ -2919,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.618739366531372</v>
+        <v>2.607316255569458</v>
       </c>
       <c r="C13" s="1">
         <v>1578</v>
@@ -2945,7 +2945,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1.74914538860321</v>
+        <v>1.741515517234802</v>
       </c>
       <c r="C14" s="1">
         <v>1054</v>
@@ -2968,25 +2968,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>1.46702516078949</v>
+        <v>1.612636685371399</v>
       </c>
       <c r="C15" s="1">
-        <v>884</v>
+        <v>976</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E15" s="1">
-        <v>884</v>
+        <v>766</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2994,22 +2994,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>1.330943584442139</v>
+        <v>1.460625886917114</v>
       </c>
       <c r="C16" s="1">
-        <v>802</v>
+        <v>884</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>764</v>
+        <v>884</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -3020,25 +3020,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>1.314348340034485</v>
+        <v>1.325137972831726</v>
       </c>
       <c r="C17" s="1">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D17" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>582</v>
+        <v>764</v>
       </c>
       <c r="F17" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3046,25 +3046,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>1.247967123985291</v>
+        <v>1.229305028915405</v>
       </c>
       <c r="C18" s="1">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3072,25 +3072,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.23469078540802</v>
+        <v>1.222695827484131</v>
       </c>
       <c r="C19" s="1">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D19" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -3098,25 +3098,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
-        <v>1.228052735328674</v>
+        <v>1.183040857315064</v>
       </c>
       <c r="C20" s="1">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>1.164990544319153</v>
+        <v>1.159908771514893</v>
       </c>
       <c r="C21" s="1">
         <v>702</v>
@@ -3153,7 +3153,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="2">
-        <v>0.9724850058555603</v>
+        <v>0.9682429432868958</v>
       </c>
       <c r="C22" s="1">
         <v>586</v>
@@ -3179,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9525706171989441</v>
+        <v>0.9484154582023621</v>
       </c>
       <c r="C23" s="1">
         <v>574</v>
@@ -3205,7 +3205,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9061037302017212</v>
+        <v>0.9021512866020203</v>
       </c>
       <c r="C24" s="1">
         <v>546</v>
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8662750124931335</v>
+        <v>0.8624962568283081</v>
       </c>
       <c r="C25" s="1">
         <v>522</v>
@@ -3257,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8596369028091431</v>
+        <v>0.8558871150016785</v>
       </c>
       <c r="C26" s="1">
         <v>518</v>
@@ -3280,54 +3280,54 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8164891004562378</v>
+        <v>0.8228412866592407</v>
       </c>
       <c r="C27" s="1">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D27" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>64</v>
+        <v>498</v>
       </c>
       <c r="F27" s="1">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7866175174713135</v>
+        <v>0.8129275441169739</v>
       </c>
       <c r="C28" s="1">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E28" s="1">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3335,7 +3335,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7467887997627258</v>
+        <v>0.7435312867164612</v>
       </c>
       <c r="C29" s="1">
         <v>450</v>
@@ -3361,7 +3361,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7268744111061096</v>
+        <v>0.7237038016319275</v>
       </c>
       <c r="C30" s="1">
         <v>438</v>
@@ -3387,7 +3387,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6787480711936951</v>
+        <v>0.6757873296737671</v>
       </c>
       <c r="C31" s="1">
         <v>409</v>
@@ -3413,7 +3413,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6770884990692139</v>
+        <v>0.6741350293159485</v>
       </c>
       <c r="C32" s="1">
         <v>408</v>
@@ -3439,7 +3439,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6239835619926453</v>
+        <v>0.6212617158889771</v>
       </c>
       <c r="C33" s="1">
         <v>376</v>
@@ -3465,7 +3465,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5509641766548157</v>
+        <v>0.5485608577728272</v>
       </c>
       <c r="C34" s="1">
         <v>332</v>
@@ -3491,7 +3491,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.524411678314209</v>
+        <v>0.522124171257019</v>
       </c>
       <c r="C35" s="1">
         <v>316</v>
@@ -3517,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4381161034107208</v>
+        <v>0.4362050294876099</v>
       </c>
       <c r="C36" s="1">
         <v>264</v>
@@ -3543,7 +3543,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4248398542404175</v>
+        <v>0.4229866862297058</v>
       </c>
       <c r="C37" s="1">
         <v>256</v>
@@ -3569,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.418201744556427</v>
+        <v>0.4163775146007538</v>
       </c>
       <c r="C38" s="1">
         <v>252</v>
@@ -3595,7 +3595,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3949683010578156</v>
+        <v>0.3932454288005829</v>
       </c>
       <c r="C39" s="1">
         <v>238</v>
@@ -3621,7 +3621,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3385442495346069</v>
+        <v>0.3370675146579742</v>
       </c>
       <c r="C40" s="1">
         <v>204</v>
@@ -3647,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3252680003643036</v>
+        <v>0.3238491714000702</v>
       </c>
       <c r="C41" s="1">
         <v>196</v>
@@ -3673,7 +3673,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3119917809963226</v>
+        <v>0.3106308579444885</v>
       </c>
       <c r="C42" s="1">
         <v>188</v>
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2987155318260193</v>
+        <v>0.2974125146865845</v>
       </c>
       <c r="C43" s="1">
         <v>180</v>
@@ -3725,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2953964471817017</v>
+        <v>0.2941079139709473</v>
       </c>
       <c r="C44" s="1">
         <v>178</v>
@@ -3751,7 +3751,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2920773923397064</v>
+        <v>0.2908033430576325</v>
       </c>
       <c r="C45" s="1">
         <v>176</v>
@@ -3777,7 +3777,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2489296048879623</v>
+        <v>0.2478437572717667</v>
       </c>
       <c r="C46" s="1">
         <v>150</v>
@@ -3803,7 +3803,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2456105351448059</v>
+        <v>0.2445391714572907</v>
       </c>
       <c r="C47" s="1">
         <v>148</v>
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2456105351448059</v>
+        <v>0.2445391714572907</v>
       </c>
       <c r="C48" s="1">
         <v>148</v>
@@ -3855,7 +3855,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2456105351448059</v>
+        <v>0.2445391714572907</v>
       </c>
       <c r="C49" s="1">
         <v>148</v>
@@ -3881,7 +3881,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2323343008756638</v>
+        <v>0.2313208431005478</v>
       </c>
       <c r="C50" s="1">
         <v>140</v>
@@ -3907,7 +3907,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2306747585535049</v>
+        <v>0.2296685576438904</v>
       </c>
       <c r="C51" s="1">
         <v>139</v>
@@ -3933,7 +3933,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2290152311325073</v>
+        <v>0.2280162572860718</v>
       </c>
       <c r="C52" s="1">
         <v>138</v>
@@ -3959,7 +3959,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2290152311325073</v>
+        <v>0.2280162572860718</v>
       </c>
       <c r="C53" s="1">
         <v>138</v>
@@ -3985,7 +3985,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2124199271202087</v>
+        <v>0.2114933431148529</v>
       </c>
       <c r="C54" s="1">
         <v>128</v>
@@ -4011,7 +4011,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2124199271202087</v>
+        <v>0.2114933431148529</v>
       </c>
       <c r="C55" s="1">
         <v>128</v>
@@ -4037,7 +4037,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2057818025350571</v>
+        <v>0.2048841714859009</v>
       </c>
       <c r="C56" s="1">
         <v>124</v>
@@ -4063,7 +4063,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2024627476930618</v>
+        <v>0.2015795856714249</v>
       </c>
       <c r="C57" s="1">
         <v>122</v>
@@ -4089,7 +4089,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1991436779499054</v>
+        <v>0.1982750147581101</v>
       </c>
       <c r="C58" s="1">
         <v>120</v>
@@ -4115,7 +4115,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1858674436807632</v>
+        <v>0.185056671500206</v>
       </c>
       <c r="C59" s="1">
         <v>112</v>
@@ -4141,7 +4141,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1725911945104599</v>
+        <v>0.1718383431434631</v>
       </c>
       <c r="C60" s="1">
         <v>104</v>
@@ -4167,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1659530699253082</v>
+        <v>0.1652291715145111</v>
       </c>
       <c r="C61" s="1">
         <v>100</v>
@@ -4193,7 +4193,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1493577659130096</v>
+        <v>0.1487062573432922</v>
       </c>
       <c r="C62" s="1">
         <v>90</v>
@@ -4219,7 +4219,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1493577659130096</v>
+        <v>0.1487062573432922</v>
       </c>
       <c r="C63" s="1">
         <v>90</v>
@@ -4245,7 +4245,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1460386961698532</v>
+        <v>0.1454016715288162</v>
       </c>
       <c r="C64" s="1">
         <v>88</v>
@@ -4271,7 +4271,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.142719641327858</v>
+        <v>0.1420970857143402</v>
       </c>
       <c r="C65" s="1">
         <v>86</v>
@@ -4297,7 +4297,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.142719641327858</v>
+        <v>0.1420970857143402</v>
       </c>
       <c r="C66" s="1">
         <v>86</v>
@@ -4323,7 +4323,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1360815167427063</v>
+        <v>0.1354879289865494</v>
       </c>
       <c r="C67" s="1">
         <v>82</v>
@@ -4349,7 +4349,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1294433921575546</v>
+        <v>0.1288787573575974</v>
       </c>
       <c r="C68" s="1">
         <v>78</v>
@@ -4375,7 +4375,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1294433921575546</v>
+        <v>0.1288787573575974</v>
       </c>
       <c r="C69" s="1">
         <v>78</v>
@@ -4401,7 +4401,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.122805267572403</v>
+        <v>0.1222695857286453</v>
       </c>
       <c r="C70" s="1">
         <v>74</v>
@@ -4427,7 +4427,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1194862127304077</v>
+        <v>0.1189650073647499</v>
       </c>
       <c r="C71" s="1">
         <v>72</v>
@@ -4453,7 +4453,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1194862127304077</v>
+        <v>0.1189650073647499</v>
       </c>
       <c r="C72" s="1">
         <v>72</v>
@@ -4479,7 +4479,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1194862127304077</v>
+        <v>0.1189650073647499</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -4505,7 +4505,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.112848088145256</v>
+        <v>0.1123558357357979</v>
       </c>
       <c r="C74" s="1">
         <v>68</v>
@@ -4531,7 +4531,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1062099635601044</v>
+        <v>0.1057466715574265</v>
       </c>
       <c r="C75" s="1">
         <v>64</v>
@@ -4557,7 +4557,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1062099635601044</v>
+        <v>0.1057466715574265</v>
       </c>
       <c r="C76" s="1">
         <v>64</v>
@@ -4583,7 +4583,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1028909012675285</v>
+        <v>0.1024420857429504</v>
       </c>
       <c r="C77" s="1">
         <v>62</v>
@@ -4609,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0995718389749527</v>
+        <v>0.09913750737905502</v>
       </c>
       <c r="C78" s="1">
         <v>60</v>
@@ -4635,7 +4635,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08961465954780579</v>
+        <v>0.08922374993562698</v>
       </c>
       <c r="C79" s="1">
         <v>54</v>
@@ -4661,7 +4661,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08629559725522995</v>
+        <v>0.08591917157173157</v>
       </c>
       <c r="C80" s="1">
         <v>52</v>
@@ -4687,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08629559725522995</v>
+        <v>0.08591917157173157</v>
       </c>
       <c r="C81" s="1">
         <v>52</v>
@@ -4713,7 +4713,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.07965747267007828</v>
+        <v>0.07930999994277954</v>
       </c>
       <c r="C82" s="1">
         <v>48</v>
@@ -4739,7 +4739,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07965747267007828</v>
+        <v>0.07930999994277954</v>
       </c>
       <c r="C83" s="1">
         <v>48</v>
@@ -4765,7 +4765,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07965747267007828</v>
+        <v>0.07930999994277954</v>
       </c>
       <c r="C84" s="1">
         <v>48</v>
@@ -4791,7 +4791,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07301934808492661</v>
+        <v>0.07270083576440811</v>
       </c>
       <c r="C85" s="1">
         <v>44</v>
@@ -4817,7 +4817,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07301934808492661</v>
+        <v>0.07270083576440811</v>
       </c>
       <c r="C86" s="1">
         <v>44</v>
@@ -4843,7 +4843,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07301934808492661</v>
+        <v>0.07270083576440811</v>
       </c>
       <c r="C87" s="1">
         <v>44</v>
@@ -4869,7 +4869,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07301934808492661</v>
+        <v>0.07270083576440811</v>
       </c>
       <c r="C88" s="1">
         <v>44</v>
@@ -4895,7 +4895,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06638123095035553</v>
+        <v>0.06609167158603668</v>
       </c>
       <c r="C89" s="1">
         <v>40</v>
@@ -4921,7 +4921,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06306216865777969</v>
+        <v>0.06278708577156067</v>
       </c>
       <c r="C90" s="1">
         <v>38</v>
@@ -4947,7 +4947,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05974310636520386</v>
+        <v>0.05948250368237495</v>
       </c>
       <c r="C91" s="1">
         <v>36</v>
@@ -4973,7 +4973,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05974310636520386</v>
+        <v>0.05948250368237495</v>
       </c>
       <c r="C92" s="1">
         <v>36</v>
@@ -4999,7 +4999,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05310498178005219</v>
+        <v>0.05287333577871323</v>
       </c>
       <c r="C93" s="1">
         <v>32</v>
@@ -5025,7 +5025,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.04646686092019081</v>
+        <v>0.0462641678750515</v>
       </c>
       <c r="C94" s="1">
         <v>28</v>
@@ -5051,7 +5051,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.04646686092019081</v>
+        <v>0.0462641678750515</v>
       </c>
       <c r="C95" s="1">
         <v>28</v>
@@ -5077,7 +5077,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03319061547517777</v>
+        <v>0.03304583579301834</v>
       </c>
       <c r="C96" s="1">
         <v>20</v>
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03319061547517777</v>
+        <v>0.03304583579301834</v>
       </c>
       <c r="C97" s="1">
         <v>20</v>
@@ -5129,7 +5129,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02987155318260193</v>
+        <v>0.02974125184118748</v>
       </c>
       <c r="C98" s="1">
         <v>18</v>
@@ -5155,7 +5155,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02987155318260193</v>
+        <v>0.02974125184118748</v>
       </c>
       <c r="C99" s="1">
         <v>18</v>
@@ -5181,7 +5181,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02655249089002609</v>
+        <v>0.02643666788935661</v>
       </c>
       <c r="C100" s="1">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02655249089002609</v>
+        <v>0.02643666788935661</v>
       </c>
       <c r="C101" s="1">
         <v>16</v>
@@ -5233,7 +5233,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02655249089002609</v>
+        <v>0.02643666788935661</v>
       </c>
       <c r="C102" s="1">
         <v>16</v>
@@ -5259,7 +5259,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02323343046009541</v>
+        <v>0.02313208393752575</v>
       </c>
       <c r="C103" s="1">
         <v>14</v>
@@ -5285,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.01991436816751957</v>
+        <v>0.01982749998569489</v>
       </c>
       <c r="C104" s="1">
         <v>12</v>
@@ -5311,7 +5311,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.01991436816751957</v>
+        <v>0.01982749998569489</v>
       </c>
       <c r="C105" s="1">
         <v>12</v>
@@ -5337,7 +5337,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01991436816751957</v>
+        <v>0.01982749998569489</v>
       </c>
       <c r="C106" s="1">
         <v>12</v>
@@ -5363,7 +5363,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01991436816751957</v>
+        <v>0.01982749998569489</v>
       </c>
       <c r="C107" s="1">
         <v>12</v>
@@ -5389,7 +5389,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
@@ -5415,7 +5415,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
@@ -5441,7 +5441,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
@@ -5467,7 +5467,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
@@ -5493,7 +5493,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -5519,7 +5519,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01659530773758888</v>
+        <v>0.01652291789650917</v>
       </c>
       <c r="C113" s="1">
         <v>10</v>
@@ -5545,7 +5545,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01327624544501305</v>
+        <v>0.01321833394467831</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5571,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01327624544501305</v>
+        <v>0.01321833394467831</v>
       </c>
       <c r="C115" s="1">
         <v>8</v>
@@ -5597,7 +5597,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01327624544501305</v>
+        <v>0.01321833394467831</v>
       </c>
       <c r="C116" s="1">
         <v>8</v>
@@ -5623,7 +5623,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C117" s="1">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -5675,7 +5675,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -5701,7 +5701,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -5727,7 +5727,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -5753,7 +5753,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C122" s="1">
         <v>6</v>
@@ -5779,7 +5779,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C123" s="1">
         <v>6</v>
@@ -5805,7 +5805,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C124" s="1">
         <v>6</v>
@@ -5831,7 +5831,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C125" s="1">
         <v>6</v>
@@ -5857,7 +5857,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C126" s="1">
         <v>6</v>
@@ -5883,7 +5883,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -5909,7 +5909,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C128" s="1">
         <v>6</v>
@@ -5935,7 +5935,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -5961,7 +5961,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -5987,7 +5987,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -6013,7 +6013,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -6039,7 +6039,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C133" s="1">
         <v>6</v>
@@ -6065,7 +6065,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C134" s="1">
         <v>6</v>
@@ -6091,7 +6091,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -6117,7 +6117,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C136" s="1">
         <v>6</v>
@@ -6143,7 +6143,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C137" s="1">
         <v>6</v>
@@ -6169,7 +6169,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>0.009957184083759785</v>
+        <v>0.009913749992847443</v>
       </c>
       <c r="C138" s="1">
         <v>6</v>
@@ -6195,7 +6195,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>0.006638122722506523</v>
+        <v>0.006609166972339153</v>
       </c>
       <c r="C139" s="1">
         <v>4</v>
@@ -6221,7 +6221,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>0.006638122722506523</v>
+        <v>0.006609166972339153</v>
       </c>
       <c r="C140" s="1">
         <v>4</v>
@@ -6247,7 +6247,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.006638122722506523</v>
+        <v>0.006609166972339153</v>
       </c>
       <c r="C141" s="1">
         <v>4</v>
@@ -6273,7 +6273,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003319061361253262</v>
+        <v>0.003304583486169577</v>
       </c>
       <c r="C142" s="1">
         <v>2</v>
@@ -6299,7 +6299,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003319061361253262</v>
+        <v>0.003304583486169577</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -6325,7 +6325,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003319061361253262</v>
+        <v>0.003304583486169577</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -6351,7 +6351,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.003319061361253262</v>
+        <v>0.003304583486169577</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -6377,7 +6377,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.003319061361253262</v>
+        <v>0.003304583486169577</v>
       </c>
       <c r="C146" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="182">
   <si>
     <t>McuSTUDIO_F470VET6</t>
   </si>
@@ -74,6 +74,9 @@
     <t>system_gd32f4xx.o</t>
   </si>
   <si>
+    <t>data_dispose.o</t>
+  </si>
+  <si>
     <t>btod.o</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
     <t>gd25qxx.o</t>
   </si>
   <si>
+    <t>fz_wm.l</t>
+  </si>
+  <si>
+    <t>scanf_fp.o</t>
+  </si>
+  <si>
     <t>_printf_fp_dec.o</t>
   </si>
   <si>
@@ -92,6 +101,12 @@
     <t>_printf_fp_hex.o</t>
   </si>
   <si>
+    <t>scanf_hexfp.o</t>
+  </si>
+  <si>
+    <t>m_wm.l</t>
+  </si>
+  <si>
     <t>gd32f4xx_rcu.o</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>gd32f4xx_adc.o</t>
   </si>
   <si>
-    <t>data_dispose.o</t>
-  </si>
-  <si>
     <t>unicode.o</t>
   </si>
   <si>
@@ -128,24 +140,33 @@
     <t>bigflt0.o</t>
   </si>
   <si>
+    <t>dmul.o</t>
+  </si>
+  <si>
     <t>_scanf_int.o</t>
   </si>
   <si>
     <t>lc_ctype_c.o</t>
   </si>
   <si>
+    <t>scanf_infnan.o</t>
+  </si>
+  <si>
+    <t>narrow.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_gpio.o</t>
   </si>
   <si>
-    <t>fz_wm.l</t>
-  </si>
-  <si>
     <t>diskio.o</t>
   </si>
   <si>
     <t>lludivv7m.o</t>
   </si>
   <si>
+    <t>ldexp.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_dac.o</t>
   </si>
   <si>
@@ -161,12 +182,18 @@
     <t>gd32f4xx_misc.o</t>
   </si>
   <si>
+    <t>dnaninf.o</t>
+  </si>
+  <si>
     <t>strncmp.o</t>
   </si>
   <si>
     <t>gd32f4xx_it.o</t>
   </si>
   <si>
+    <t>frexp.o</t>
+  </si>
+  <si>
     <t>fnaninf.o</t>
   </si>
   <si>
@@ -188,18 +215,36 @@
     <t>perfc_port_default.o</t>
   </si>
   <si>
+    <t>dleqf.o</t>
+  </si>
+  <si>
+    <t>deqf.o</t>
+  </si>
+  <si>
     <t>_printf_dec.o</t>
   </si>
   <si>
     <t>_printf_oct_int_ll.o</t>
   </si>
   <si>
+    <t>drleqf.o</t>
+  </si>
+  <si>
     <t>gd32f4xx_spi.o</t>
   </si>
   <si>
+    <t>retnan.o</t>
+  </si>
+  <si>
     <t>rt_memcpy_w.o</t>
   </si>
   <si>
+    <t>d2f.o</t>
+  </si>
+  <si>
+    <t>scalbn.o</t>
+  </si>
+  <si>
     <t>__dczerorl2.o</t>
   </si>
   <si>
@@ -239,6 +284,9 @@
     <t>rt_memclr.o</t>
   </si>
   <si>
+    <t>dunder.o</t>
+  </si>
+  <si>
     <t>_wcrtomb.o</t>
   </si>
   <si>
@@ -260,12 +308,12 @@
     <t>__scatter.o</t>
   </si>
   <si>
-    <t>m_wm.l</t>
-  </si>
-  <si>
     <t>fpclassify.o</t>
   </si>
   <si>
+    <t>trapv.o</t>
+  </si>
+  <si>
     <t>_printf_char_common.o</t>
   </si>
   <si>
@@ -284,6 +332,9 @@
     <t>_printf_charcount.o</t>
   </si>
   <si>
+    <t>llshl.o</t>
+  </si>
+  <si>
     <t>libinit2.o</t>
   </si>
   <si>
@@ -302,6 +353,15 @@
     <t>__scatter_zi.o</t>
   </si>
   <si>
+    <t>dcmpi.o</t>
+  </si>
+  <si>
+    <t>strcat.o</t>
+  </si>
+  <si>
+    <t>_rserrno.o</t>
+  </si>
+  <si>
     <t>strchr.o</t>
   </si>
   <si>
@@ -314,6 +374,12 @@
     <t>exit.o</t>
   </si>
   <si>
+    <t>fpconst.o</t>
+  </si>
+  <si>
+    <t>dcheck1.o</t>
+  </si>
+  <si>
     <t>rt_ctype_table.o</t>
   </si>
   <si>
@@ -338,6 +404,9 @@
     <t>rtc_app.o</t>
   </si>
   <si>
+    <t>fretinf.o</t>
+  </si>
+  <si>
     <t>fpinit.o</t>
   </si>
   <si>
@@ -356,12 +425,21 @@
     <t>sd_app.o</t>
   </si>
   <si>
+    <t>scanf2.o</t>
+  </si>
+  <si>
     <t>rt_locale_intlibspace.o</t>
   </si>
   <si>
+    <t>rt_errno_addr_intlibspace.o</t>
+  </si>
+  <si>
     <t>__main.o</t>
   </si>
   <si>
+    <t>istatus.o</t>
+  </si>
+  <si>
     <t>heapauxi.o</t>
   </si>
   <si>
@@ -426,6 +504,9 @@
   </si>
   <si>
     <t>__rtentry4.o</t>
+  </si>
+  <si>
+    <t>scanf1.o</t>
   </si>
   <si>
     <t>printf2.o</t>
@@ -569,9 +650,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$147</c:f>
+              <c:f>ram_percent!$A$3:$A$174</c:f>
               <c:strCache>
-                <c:ptCount val="145"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>data_memory.o</c:v>
                 </c:pt>
@@ -626,7 +707,10 @@
                 <c:pt idx="17">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="18">
+                  <c:v>data_dispose.o</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -634,65 +718,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$147</c:f>
+              <c:f>ram_percent!$B$3:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>33.35837554931641</c:v>
+                  <c:v>38.45727157592773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.77385330200195</c:v>
+                  <c:v>28.41287422180176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.685198783874512</c:v>
+                  <c:v>8.018867492675781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.53493595123291</c:v>
+                  <c:v>7.880133152008057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.753568649291992</c:v>
+                  <c:v>7.158712387084961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.945153951644898</c:v>
+                  <c:v>2.719200849533081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.442524433135986</c:v>
+                  <c:v>1.33185350894928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.442524433135986</c:v>
+                  <c:v>1.33185350894928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.202103734016419</c:v>
+                  <c:v>1.109877943992615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.141998529434204</c:v>
+                  <c:v>1.054383993148804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.961682915687561</c:v>
+                  <c:v>0.8879023194313049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9015777707099915</c:v>
+                  <c:v>0.8324084281921387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3305785059928894</c:v>
+                  <c:v>0.3052164316177368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1803155541419983</c:v>
+                  <c:v>0.16648168861866</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1202103644609451</c:v>
+                  <c:v>0.1109877899289131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1051840707659721</c:v>
+                  <c:v>0.09711431711912155</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.06010518223047257</c:v>
+                  <c:v>0.05549389496445656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.06010518223047257</c:v>
-                </c:pt>
-                <c:pt idx="144">
+                  <c:v>0.05549389496445656</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.01387347374111414</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -760,9 +847,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$147</c:f>
+              <c:f>flash_percent!$A$3:$A$174</c:f>
               <c:strCache>
-                <c:ptCount val="145"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>c_w.l</c:v>
                 </c:pt>
@@ -797,405 +884,486 @@
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>scanf_fp.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>_printf_fp_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>btn_app.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>_scanf.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>_printf_fp_hex.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>scanf_hexfp.o</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>data_dispose.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>m_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>perf_counter.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>sampling_control.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>gd32f4xx_timer.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>gd32f4xx_usart.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>gd32f4xx_sdio.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>gd32f4xx_adc.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>system_gd32f4xx.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>data_dispose.o</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>startup_gd32f450_470.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>unicode.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>gd32f4xx_i2c.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>__printf_flags_ss_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>gd32f4xx_rtc.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>bigflt0.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
+                  <c:v>dmul.o</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>lc_ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
+                  <c:v>scanf_infnan.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>narrow.o</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>gd32f4xx_gpio.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>diskio.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>lludivv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
+                  <c:v>ldexp.o</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>gd32f4xx_dac.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>_printf_wctomb.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>_printf_hex_int_ll_ptr.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>usart_app.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
                   <c:v>_printf_intcommon.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="49">
                   <c:v>gd32f4xx_misc.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="50">
+                  <c:v>dnaninf.o</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>strncmp.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>scheduler.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>gd32f4xx_it.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
+                  <c:v>frexp.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>fnaninf.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>led_app.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>rt_memcpy_v6.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>lludiv10.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>strcmpv7m.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
                   <c:v>_printf_fp_infnan.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>_printf_longlong_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>perfc_port_default.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
+                  <c:v>dleqf.o</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>deqf.o</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>_printf_dec.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="67">
                   <c:v>_printf_oct_int_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="68">
+                  <c:v>drleqf.o</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>gd32f4xx_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="70">
+                  <c:v>retnan.o</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="72">
+                  <c:v>d2f.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>scalbn.o</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="75">
                   <c:v>main.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="76">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="77">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="78">
                   <c:v>strncpy.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="79">
                   <c:v>_printf_str.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="80">
                   <c:v>rt_memclr_w.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="81">
                   <c:v>_printf_pad.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="82">
                   <c:v>sys_stackheap_outer.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="83">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="84">
                   <c:v>llsdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="85">
                   <c:v>lc_numeric_c.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="86">
                   <c:v>rt_memclr.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="87">
+                  <c:v>dunder.o</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>_wcrtomb.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="89">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="90">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="91">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="92">
                   <c:v>oled_app.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="93">
                   <c:v>vsnprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="94">
                   <c:v>__scatter.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>m_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="95">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="96">
+                  <c:v>trapv.o</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>_printf_char_common.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="98">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="99">
                   <c:v>_printf_wchar.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="100">
                   <c:v>_printf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="101">
                   <c:v>__2sprintf.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="102">
                   <c:v>_printf_charcount.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="103">
+                  <c:v>llshl.o</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>libinit2.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="105">
                   <c:v>init_aeabi.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="106">
                   <c:v>_printf_truncate.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="107">
                   <c:v>systick_wrapper_ual.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="108">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="109">
                   <c:v>__scatter_zi.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="110">
+                  <c:v>dcmpi.o</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>strcat.o</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>_rserrno.o</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>strchr.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="114">
                   <c:v>adc_app.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="115">
                   <c:v>isspace.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="116">
                   <c:v>exit.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="117">
+                  <c:v>fpconst.o</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>dcheck1.o</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>rt_ctype_table.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="120">
                   <c:v>_snputc.o</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="121">
                   <c:v>gd32f4xx_pmu.o</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="122">
                   <c:v>__printf_wp.o</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="123">
                   <c:v>dretinf.o</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="124">
                   <c:v>sys_exit.o</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="125">
                   <c:v>__rtentry2.o</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="126">
                   <c:v>rtc_app.o</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="127">
+                  <c:v>fretinf.o</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>fpinit.o</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="129">
                   <c:v>rtexit2.o</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="130">
                   <c:v>_sputc.o</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="131">
                   <c:v>_printf_ll.o</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="132">
                   <c:v>_printf_l.o</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="133">
                   <c:v>sd_app.o</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="134">
+                  <c:v>scanf2.o</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>rt_locale_intlibspace.o</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="136">
+                  <c:v>rt_errno_addr_intlibspace.o</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>libspace.o</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="138">
                   <c:v>__main.o</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="139">
+                  <c:v>istatus.o</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>heapauxi.o</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="141">
                   <c:v>_printf_x.o</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="142">
                   <c:v>_printf_u.o</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="143">
                   <c:v>_printf_s.o</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="144">
                   <c:v>_printf_p.o</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="145">
                   <c:v>_printf_o.o</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="146">
                   <c:v>_printf_n.o</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="147">
                   <c:v>_printf_ls.o</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="148">
                   <c:v>_printf_llx.o</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="149">
                   <c:v>_printf_llu.o</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="150">
                   <c:v>_printf_llo.o</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="151">
                   <c:v>_printf_lli.o</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="152">
                   <c:v>_printf_lld.o</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="153">
                   <c:v>_printf_lc.o</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="154">
                   <c:v>_printf_i.o</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="155">
                   <c:v>_printf_g.o</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="156">
                   <c:v>_printf_f.o</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="157">
                   <c:v>_printf_e.o</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="158">
                   <c:v>_printf_d.o</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="159">
                   <c:v>_printf_c.o</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="160">
                   <c:v>_printf_a.o</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="161">
                   <c:v>__rtentry4.o</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="162">
+                  <c:v>scanf1.o</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>printf2.o</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="164">
                   <c:v>printf1.o</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="165">
                   <c:v>_printf_percent_end.o</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="166">
                   <c:v>use_no_semi.o</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="167">
                   <c:v>rtexit.o</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="168">
                   <c:v>libshutdown2.o</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="169">
                   <c:v>libshutdown.o</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="170">
                   <c:v>libinit.o</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="171">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -1203,443 +1371,524 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$147</c:f>
+              <c:f>flash_percent!$B$3:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>16.56752967834473</c:v>
+                  <c:v>17.83134841918945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.04593372344971</c:v>
+                  <c:v>8.526512145996094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.68408203125</c:v>
+                  <c:v>8.219388961791992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.757873058319092</c:v>
+                  <c:v>7.379359722137451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.394369125366211</c:v>
+                  <c:v>5.427237033843994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.717656373977661</c:v>
+                  <c:v>3.155370473861694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.198836803436279</c:v>
+                  <c:v>3.01793646812439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.927860975265503</c:v>
+                  <c:v>2.485029458999634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.812200546264648</c:v>
+                  <c:v>2.386862516403198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.68993091583252</c:v>
+                  <c:v>2.283085823059082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.607316255569458</c:v>
+                  <c:v>2.212966442108154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.741515517234802</c:v>
+                  <c:v>2.134432792663574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.612636685371399</c:v>
+                  <c:v>1.783836126327515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.460625886917114</c:v>
+                  <c:v>1.478115797042847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.325137972831726</c:v>
+                  <c:v>1.368729591369629</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.229305028915405</c:v>
+                  <c:v>1.239709973335266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.222695827484131</c:v>
+                  <c:v>1.124714255332947</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.183040857315064</c:v>
+                  <c:v>1.121909499168396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.159908771514893</c:v>
+                  <c:v>1.103678464889526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9682429432868958</c:v>
+                  <c:v>1.046180605888367</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9484154582023621</c:v>
+                  <c:v>1.043375849723816</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9021512866020203</c:v>
+                  <c:v>1.037766337394714</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8624962568283081</c:v>
+                  <c:v>1.032156705856323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8558871150016785</c:v>
+                  <c:v>0.9844755530357361</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8228412866592407</c:v>
+                  <c:v>0.8217986822128296</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8129275441169739</c:v>
+                  <c:v>0.8049700856208801</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7435312867164612</c:v>
+                  <c:v>0.7657032012939453</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7237038016319275</c:v>
+                  <c:v>0.7320459485054016</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6757873296737671</c:v>
+                  <c:v>0.7264363765716553</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6741350293159485</c:v>
+                  <c:v>0.689974308013916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6212617158889771</c:v>
+                  <c:v>0.631074070930481</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5485608577728272</c:v>
+                  <c:v>0.6142454743385315</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.522124171257019</c:v>
+                  <c:v>0.5735762119293213</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4362050294876099</c:v>
+                  <c:v>0.5721738338470459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4229866862297058</c:v>
+                  <c:v>0.5272974371910095</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4163775146007538</c:v>
+                  <c:v>0.4768115282058716</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3932454288005829</c:v>
+                  <c:v>0.4655924439430237</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3370675146579742</c:v>
+                  <c:v>0.4431542456150055</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3238491714000702</c:v>
+                  <c:v>0.4319351613521576</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3106308579444885</c:v>
+                  <c:v>0.3730348944664002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2974125146865845</c:v>
+                  <c:v>0.3702301383018494</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2941079139709473</c:v>
+                  <c:v>0.3534014821052551</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2908033430576325</c:v>
+                  <c:v>0.3337680697441101</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2478437572717667</c:v>
+                  <c:v>0.319744199514389</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2445391714572907</c:v>
+                  <c:v>0.286086916923523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2445391714572907</c:v>
+                  <c:v>0.2748678326606751</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2445391714572907</c:v>
+                  <c:v>0.2636487185955048</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2313208431005478</c:v>
+                  <c:v>0.2524296343326569</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2296685576438904</c:v>
+                  <c:v>0.2496248632669449</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2280162572860718</c:v>
+                  <c:v>0.2468200922012329</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2280162572860718</c:v>
+                  <c:v>0.2187723517417908</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2114933431148529</c:v>
+                  <c:v>0.2103580236434937</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2114933431148529</c:v>
+                  <c:v>0.2075532525777817</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2048841714859009</c:v>
+                  <c:v>0.2075532525777817</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2015795856714249</c:v>
+                  <c:v>0.2075532525777817</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1982750147581101</c:v>
+                  <c:v>0.1963341534137726</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.185056671500206</c:v>
+                  <c:v>0.1963341534137726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1718383431434631</c:v>
+                  <c:v>0.1949317753314972</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1652291715145111</c:v>
+                  <c:v>0.1935293823480606</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1487062573432922</c:v>
+                  <c:v>0.1935293823480606</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1487062573432922</c:v>
+                  <c:v>0.1795055121183395</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1454016715288162</c:v>
+                  <c:v>0.1795055121183395</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1420970857143402</c:v>
+                  <c:v>0.1738959699869156</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1420970857143402</c:v>
+                  <c:v>0.1710911989212036</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1354879289865494</c:v>
+                  <c:v>0.1682864278554916</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1288787573575974</c:v>
+                  <c:v>0.1682864278554916</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1288787573575974</c:v>
+                  <c:v>0.1682864278554916</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1222695857286453</c:v>
+                  <c:v>0.1570673286914825</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1189650073647499</c:v>
+                  <c:v>0.1514577865600586</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1189650073647499</c:v>
+                  <c:v>0.1458482295274735</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1189650073647499</c:v>
+                  <c:v>0.1402386873960495</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1123558357357979</c:v>
+                  <c:v>0.1402386873960495</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1057466715574265</c:v>
+                  <c:v>0.1374339163303375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1057466715574265</c:v>
+                  <c:v>0.1290195882320404</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1024420857429504</c:v>
+                  <c:v>0.1262148171663284</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09913750737905502</c:v>
+                  <c:v>0.1262148171663284</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08922374993562698</c:v>
+                  <c:v>0.1234100461006165</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08591917157173157</c:v>
+                  <c:v>0.1206052675843239</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08591917157173157</c:v>
+                  <c:v>0.1206052675843239</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07930999994277954</c:v>
+                  <c:v>0.1149957254528999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07930999994277954</c:v>
+                  <c:v>0.1093861758708954</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07930999994277954</c:v>
+                  <c:v>0.1093861758708954</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07270083576440811</c:v>
+                  <c:v>0.1037766262888908</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07270083576440811</c:v>
+                  <c:v>0.1009718552231789</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.07270083576440811</c:v>
+                  <c:v>0.1009718552231789</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.07270083576440811</c:v>
+                  <c:v>0.1009718552231789</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.06609167158603668</c:v>
+                  <c:v>0.09536230564117432</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.06278708577156067</c:v>
+                  <c:v>0.08975275605916977</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05948250368237495</c:v>
+                  <c:v>0.08975275605916977</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05948250368237495</c:v>
+                  <c:v>0.08975275605916977</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.05287333577871323</c:v>
+                  <c:v>0.08694798499345779</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0462641678750515</c:v>
+                  <c:v>0.08414321392774582</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0462641678750515</c:v>
+                  <c:v>0.0757288932800293</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03304583579301834</c:v>
+                  <c:v>0.07292411476373673</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03304583579301834</c:v>
+                  <c:v>0.07292411476373673</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02974125184118748</c:v>
+                  <c:v>0.06731457263231278</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02974125184118748</c:v>
+                  <c:v>0.06731457263231278</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02643666788935661</c:v>
+                  <c:v>0.06731457263231278</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02643666788935661</c:v>
+                  <c:v>0.06170502305030823</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02643666788935661</c:v>
+                  <c:v>0.06170502305030823</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.02313208393752575</c:v>
+                  <c:v>0.06170502305030823</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.01982749998569489</c:v>
+                  <c:v>0.06170502305030823</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.01982749998569489</c:v>
+                  <c:v>0.05609547346830368</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.01982749998569489</c:v>
+                  <c:v>0.05329070240259171</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.01982749998569489</c:v>
+                  <c:v>0.05329070240259171</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.05048592761158943</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.05048592761158943</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.04487637802958489</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.03926683217287064</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.03926683217287064</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.01652291789650917</c:v>
+                  <c:v>0.03365728631615639</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.01321833394467831</c:v>
+                  <c:v>0.03365728631615639</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.01321833394467831</c:v>
+                  <c:v>0.03085251152515411</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.01321833394467831</c:v>
+                  <c:v>0.02804773673415184</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02804773673415184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02524296380579472</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02524296380579472</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02243818901479244</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02243818901479244</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02243818901479244</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02243818901479244</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.02243818901479244</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01963341608643532</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01682864315807819</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01682864315807819</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01682864315807819</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01682864315807819</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01402386836707592</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01121909450739622</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.009913749992847443</c:v>
+                  <c:v>0.01121909450739622</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.006609166972339153</c:v>
+                  <c:v>0.01121909450739622</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.006609166972339153</c:v>
+                  <c:v>0.01121909450739622</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.006609166972339153</c:v>
+                  <c:v>0.01121909450739622</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.003304583486169577</c:v>
+                  <c:v>0.008414321579039097</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.003304583486169577</c:v>
+                  <c:v>0.008414321579039097</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.003304583486169577</c:v>
+                  <c:v>0.008414321579039097</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.003304583486169577</c:v>
+                  <c:v>0.008414321579039097</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.003304583486169577</c:v>
+                  <c:v>0.008414321579039097</c:v>
                 </c:pt>
                 <c:pt idx="144">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.008414321579039097</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.005609547253698111</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.005609547253698111</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.005609547253698111</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.005609547253698111</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.002804773626849055</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.002804773626849055</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.002804773626849055</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.002804773626849055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.002804773626849055</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1744,8 +1993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H147" totalsRowCount="1">
-  <autoFilter ref="A2:H146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H174" totalsRowCount="1">
+  <autoFilter ref="A2:H173"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1761,8 +2010,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H147" totalsRowCount="1">
-  <autoFilter ref="A2:H146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H174" totalsRowCount="1">
+  <autoFilter ref="A2:H173"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -2062,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2078,28 +2327,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2107,25 +2356,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>33.35837554931641</v>
+        <v>38.45727157592773</v>
       </c>
       <c r="C3" s="1">
-        <v>2220</v>
+        <v>2772</v>
       </c>
       <c r="D3" s="1">
-        <v>4090</v>
+        <v>5262</v>
       </c>
       <c r="E3" s="1">
-        <v>4074</v>
+        <v>5242</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
-        <v>2204</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2133,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>30.77385330200195</v>
+        <v>28.41287422180176</v>
       </c>
       <c r="C4" s="1">
         <v>2048</v>
@@ -2159,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8.685198783874512</v>
+        <v>8.018867492675781</v>
       </c>
       <c r="C5" s="1">
         <v>578</v>
@@ -2185,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>8.53493595123291</v>
+        <v>7.880133152008057</v>
       </c>
       <c r="C6" s="1">
         <v>568</v>
@@ -2211,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.753568649291992</v>
+        <v>7.158712387084961</v>
       </c>
       <c r="C7" s="1">
         <v>516</v>
@@ -2237,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.945153951644898</v>
+        <v>2.719200849533081</v>
       </c>
       <c r="C8" s="1">
         <v>196</v>
@@ -2263,16 +2512,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.442524433135986</v>
+        <v>1.33185350894928</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
       </c>
       <c r="D9" s="1">
-        <v>10027</v>
+        <v>12715</v>
       </c>
       <c r="E9" s="1">
-        <v>9476</v>
+        <v>12164</v>
       </c>
       <c r="F9" s="1">
         <v>551</v>
@@ -2289,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.442524433135986</v>
+        <v>1.33185350894928</v>
       </c>
       <c r="C10" s="1">
         <v>96</v>
@@ -2315,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.202103734016419</v>
+        <v>1.109877943992615</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
@@ -2341,7 +2590,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.141998529434204</v>
+        <v>1.054383993148804</v>
       </c>
       <c r="C12" s="1">
         <v>76</v>
@@ -2367,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.961682915687561</v>
+        <v>0.8879023194313049</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
@@ -2393,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.9015777707099915</v>
+        <v>0.8324084281921387</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -2419,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3305785059928894</v>
+        <v>0.3052164316177368</v>
       </c>
       <c r="C15" s="1">
         <v>22</v>
@@ -2445,16 +2694,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1803155541419983</v>
+        <v>0.16648168861866</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="E16" s="1">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2471,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1202103644609451</v>
+        <v>0.1109877899289131</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2497,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1051840707659721</v>
+        <v>0.09711431711912155</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -2523,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.06010518223047257</v>
+        <v>0.05549389496445656</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2549,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.06010518223047257</v>
+        <v>0.05549389496445656</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2570,35 +2819,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.01387347374111414</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>787</v>
+      </c>
+      <c r="E21" s="1">
+        <v>786</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C147">
+      <c r="C174">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D147">
+      <c r="D174">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E147">
+      <c r="E174">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F174">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G147">
+      <c r="G174">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H147">
+      <c r="H174">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2614,7 +2889,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2630,28 +2905,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2659,16 +2934,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>16.56752967834473</v>
+        <v>17.83134841918945</v>
       </c>
       <c r="C3" s="1">
-        <v>10027</v>
+        <v>12715</v>
       </c>
       <c r="D3" s="1">
         <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>9476</v>
+        <v>12164</v>
       </c>
       <c r="F3" s="1">
         <v>551</v>
@@ -2685,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>10.04593372344971</v>
+        <v>8.526512145996094</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2711,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>9.68408203125</v>
+        <v>8.219388961791992</v>
       </c>
       <c r="C5" s="1">
         <v>5861</v>
@@ -2737,25 +3012,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>6.757873058319092</v>
+        <v>7.379359722137451</v>
       </c>
       <c r="C6" s="1">
-        <v>4090</v>
+        <v>5262</v>
       </c>
       <c r="D6" s="1">
-        <v>2220</v>
+        <v>2772</v>
       </c>
       <c r="E6" s="1">
-        <v>4074</v>
+        <v>5242</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>2204</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2763,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>6.394369125366211</v>
+        <v>5.427237033843994</v>
       </c>
       <c r="C7" s="1">
         <v>3870</v>
@@ -2789,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.717656373977661</v>
+        <v>3.155370473861694</v>
       </c>
       <c r="C8" s="1">
         <v>2250</v>
@@ -2812,19 +3087,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>3.198836803436279</v>
+        <v>3.01793646812439</v>
       </c>
       <c r="C9" s="1">
-        <v>1936</v>
+        <v>2152</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1936</v>
+        <v>2152</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2838,10 +3113,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>2.927860975265503</v>
+        <v>2.485029458999634</v>
       </c>
       <c r="C10" s="1">
         <v>1772</v>
@@ -2867,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>2.812200546264648</v>
+        <v>2.386862516403198</v>
       </c>
       <c r="C11" s="1">
         <v>1702</v>
@@ -2890,10 +3165,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>2.68993091583252</v>
+        <v>2.283085823059082</v>
       </c>
       <c r="C12" s="1">
         <v>1628</v>
@@ -2919,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>2.607316255569458</v>
+        <v>2.212966442108154</v>
       </c>
       <c r="C13" s="1">
         <v>1578</v>
@@ -2942,22 +3217,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>1.741515517234802</v>
+        <v>2.134432792663574</v>
       </c>
       <c r="C14" s="1">
-        <v>1054</v>
+        <v>1522</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1054</v>
+        <v>1506</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2968,25 +3243,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1.612636685371399</v>
+        <v>1.783836126327515</v>
       </c>
       <c r="C15" s="1">
-        <v>976</v>
+        <v>1272</v>
       </c>
       <c r="D15" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>766</v>
+        <v>1272</v>
       </c>
       <c r="F15" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2994,19 +3269,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>1.460625886917114</v>
+        <v>1.478115797042847</v>
       </c>
       <c r="C16" s="1">
-        <v>884</v>
+        <v>1054</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>884</v>
+        <v>1054</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3020,25 +3295,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>1.325137972831726</v>
+        <v>1.368729591369629</v>
       </c>
       <c r="C17" s="1">
-        <v>802</v>
+        <v>976</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E17" s="1">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F17" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3046,25 +3321,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.229305028915405</v>
+        <v>1.239709973335266</v>
       </c>
       <c r="C18" s="1">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="D18" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>660</v>
+        <v>884</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -3072,22 +3347,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.222695827484131</v>
+        <v>1.124714255332947</v>
       </c>
       <c r="C19" s="1">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3098,25 +3373,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>1.183040857315064</v>
+        <v>1.121909499168396</v>
       </c>
       <c r="C20" s="1">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="D20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -3124,25 +3399,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.159908771514893</v>
+        <v>1.103678464889526</v>
       </c>
       <c r="C21" s="1">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -3150,19 +3425,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>0.9682429432868958</v>
+        <v>1.046180605888367</v>
       </c>
       <c r="C22" s="1">
-        <v>586</v>
+        <v>746</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>586</v>
+        <v>746</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -3176,25 +3451,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9484154582023621</v>
+        <v>1.043375849723816</v>
       </c>
       <c r="C23" s="1">
-        <v>574</v>
+        <v>744</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3202,19 +3477,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>0.9021512866020203</v>
+        <v>1.037766337394714</v>
       </c>
       <c r="C24" s="1">
-        <v>546</v>
+        <v>740</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>546</v>
+        <v>740</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -3228,25 +3503,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2">
-        <v>0.8624962568283081</v>
+        <v>1.032156705856323</v>
       </c>
       <c r="C25" s="1">
-        <v>522</v>
+        <v>736</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
-        <v>522</v>
+        <v>724</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3254,25 +3529,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>0.8558871150016785</v>
+        <v>0.9844755530357361</v>
       </c>
       <c r="C26" s="1">
-        <v>518</v>
+        <v>702</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>514</v>
+        <v>702</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -3280,19 +3555,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8228412866592407</v>
+        <v>0.8217986822128296</v>
       </c>
       <c r="C27" s="1">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3306,48 +3581,48 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8129275441169739</v>
+        <v>0.8049700856208801</v>
       </c>
       <c r="C28" s="1">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="D28" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>64</v>
+        <v>574</v>
       </c>
       <c r="F28" s="1">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>2048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7435312867164612</v>
+        <v>0.7657032012939453</v>
       </c>
       <c r="C29" s="1">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="F29" s="1">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -3358,19 +3633,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7237038016319275</v>
+        <v>0.7320459485054016</v>
       </c>
       <c r="C30" s="1">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3384,25 +3659,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>0.6757873296737671</v>
+        <v>0.7264363765716553</v>
       </c>
       <c r="C31" s="1">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>392</v>
+        <v>514</v>
       </c>
       <c r="F31" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -3410,28 +3685,28 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6741350293159485</v>
+        <v>0.689974308013916</v>
       </c>
       <c r="C32" s="1">
-        <v>408</v>
+        <v>492</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E32" s="1">
-        <v>408</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3439,19 +3714,19 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6212617158889771</v>
+        <v>0.631074070930481</v>
       </c>
       <c r="C33" s="1">
+        <v>450</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1">
         <v>376</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>228</v>
-      </c>
-      <c r="F33" s="1">
-        <v>148</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -3465,16 +3740,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.5485608577728272</v>
+        <v>0.6142454743385315</v>
       </c>
       <c r="C34" s="1">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3491,19 +3766,19 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.522124171257019</v>
+        <v>0.5735762119293213</v>
       </c>
       <c r="C35" s="1">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="F35" s="1">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -3517,16 +3792,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4362050294876099</v>
+        <v>0.5721738338470459</v>
       </c>
       <c r="C36" s="1">
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3543,19 +3818,19 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4229866862297058</v>
+        <v>0.5272974371910095</v>
       </c>
       <c r="C37" s="1">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -3569,16 +3844,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4163775146007538</v>
+        <v>0.4768115282058716</v>
       </c>
       <c r="C38" s="1">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3595,16 +3870,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.3932454288005829</v>
+        <v>0.4655924439430237</v>
       </c>
       <c r="C39" s="1">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3621,19 +3896,19 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3370675146579742</v>
+        <v>0.4431542456150055</v>
       </c>
       <c r="C40" s="1">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3647,19 +3922,19 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3238491714000702</v>
+        <v>0.4319351613521576</v>
       </c>
       <c r="C41" s="1">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="F41" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -3673,19 +3948,19 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3106308579444885</v>
+        <v>0.3730348944664002</v>
       </c>
       <c r="C42" s="1">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="F42" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -3696,45 +3971,45 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.2974125146865845</v>
+        <v>0.3702301383018494</v>
       </c>
       <c r="C43" s="1">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="D43" s="1">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2941079139709473</v>
+        <v>0.3534014821052551</v>
       </c>
       <c r="C44" s="1">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3748,19 +4023,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2908033430576325</v>
+        <v>0.3337680697441101</v>
       </c>
       <c r="C45" s="1">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3774,19 +4049,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2478437572717667</v>
+        <v>0.319744199514389</v>
       </c>
       <c r="C46" s="1">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3800,25 +4075,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2445391714572907</v>
+        <v>0.286086916923523</v>
       </c>
       <c r="C47" s="1">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3826,25 +4101,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2445391714572907</v>
+        <v>0.2748678326606751</v>
       </c>
       <c r="C48" s="1">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3852,13 +4127,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2445391714572907</v>
+        <v>0.2636487185955048</v>
       </c>
       <c r="C49" s="1">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -3867,7 +4142,7 @@
         <v>148</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -3878,51 +4153,51 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2313208431005478</v>
+        <v>0.2524296343326569</v>
       </c>
       <c r="C50" s="1">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E50" s="1">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2296685576438904</v>
+        <v>0.2496248632669449</v>
       </c>
       <c r="C51" s="1">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D51" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -3930,19 +4205,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2280162572860718</v>
+        <v>0.2468200922012329</v>
       </c>
       <c r="C52" s="1">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3956,19 +4231,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2280162572860718</v>
+        <v>0.2187723517417908</v>
       </c>
       <c r="C53" s="1">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3982,19 +4257,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2114933431148529</v>
+        <v>0.2103580236434937</v>
       </c>
       <c r="C54" s="1">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4008,25 +4283,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2114933431148529</v>
+        <v>0.2075532525777817</v>
       </c>
       <c r="C55" s="1">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -4034,25 +4309,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2048841714859009</v>
+        <v>0.2075532525777817</v>
       </c>
       <c r="C56" s="1">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -4060,19 +4335,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2015795856714249</v>
+        <v>0.2075532525777817</v>
       </c>
       <c r="C57" s="1">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4086,19 +4361,19 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1982750147581101</v>
+        <v>0.1963341534137726</v>
       </c>
       <c r="C58" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4112,19 +4387,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.185056671500206</v>
+        <v>0.1963341534137726</v>
       </c>
       <c r="C59" s="1">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4138,25 +4413,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1718383431434631</v>
+        <v>0.1949317753314972</v>
       </c>
       <c r="C60" s="1">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4167,16 +4442,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1652291715145111</v>
+        <v>0.1935293823480606</v>
       </c>
       <c r="C61" s="1">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -4193,16 +4468,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1487062573432922</v>
+        <v>0.1935293823480606</v>
       </c>
       <c r="C62" s="1">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -4219,16 +4494,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1487062573432922</v>
+        <v>0.1795055121183395</v>
       </c>
       <c r="C63" s="1">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -4245,16 +4520,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1454016715288162</v>
+        <v>0.1795055121183395</v>
       </c>
       <c r="C64" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -4271,16 +4546,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1420970857143402</v>
+        <v>0.1738959699869156</v>
       </c>
       <c r="C65" s="1">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -4297,16 +4572,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1420970857143402</v>
+        <v>0.1710911989212036</v>
       </c>
       <c r="C66" s="1">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -4323,16 +4598,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1354879289865494</v>
+        <v>0.1682864278554916</v>
       </c>
       <c r="C67" s="1">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -4349,16 +4624,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1288787573575974</v>
+        <v>0.1682864278554916</v>
       </c>
       <c r="C68" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -4375,16 +4650,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1288787573575974</v>
+        <v>0.1682864278554916</v>
       </c>
       <c r="C69" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -4401,16 +4676,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1222695857286453</v>
+        <v>0.1570673286914825</v>
       </c>
       <c r="C70" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4427,16 +4702,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1189650073647499</v>
+        <v>0.1514577865600586</v>
       </c>
       <c r="C71" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4453,16 +4728,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1189650073647499</v>
+        <v>0.1458482295274735</v>
       </c>
       <c r="C72" s="1">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4479,19 +4754,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1189650073647499</v>
+        <v>0.1402386873960495</v>
       </c>
       <c r="C73" s="1">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -4505,16 +4780,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1123558357357979</v>
+        <v>0.1402386873960495</v>
       </c>
       <c r="C74" s="1">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -4531,16 +4806,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1057466715574265</v>
+        <v>0.1374339163303375</v>
       </c>
       <c r="C75" s="1">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4557,16 +4832,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1057466715574265</v>
+        <v>0.1290195882320404</v>
       </c>
       <c r="C76" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4583,16 +4858,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1024420857429504</v>
+        <v>0.1262148171663284</v>
       </c>
       <c r="C77" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4609,16 +4884,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.09913750737905502</v>
+        <v>0.1262148171663284</v>
       </c>
       <c r="C78" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4635,16 +4910,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08922374993562698</v>
+        <v>0.1234100461006165</v>
       </c>
       <c r="C79" s="1">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4661,16 +4936,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08591917157173157</v>
+        <v>0.1206052675843239</v>
       </c>
       <c r="C80" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -4687,16 +4962,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08591917157173157</v>
+        <v>0.1206052675843239</v>
       </c>
       <c r="C81" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4713,16 +4988,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.07930999994277954</v>
+        <v>0.1149957254528999</v>
       </c>
       <c r="C82" s="1">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -4739,16 +5014,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07930999994277954</v>
+        <v>0.1093861758708954</v>
       </c>
       <c r="C83" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4765,16 +5040,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07930999994277954</v>
+        <v>0.1093861758708954</v>
       </c>
       <c r="C84" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4791,16 +5066,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07270083576440811</v>
+        <v>0.1037766262888908</v>
       </c>
       <c r="C85" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -4817,16 +5092,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07270083576440811</v>
+        <v>0.1009718552231789</v>
       </c>
       <c r="C86" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4843,16 +5118,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.07270083576440811</v>
+        <v>0.1009718552231789</v>
       </c>
       <c r="C87" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4869,10 +5144,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.07270083576440811</v>
+        <v>0.1009718552231789</v>
       </c>
       <c r="C88" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -4881,7 +5156,7 @@
         <v>44</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
@@ -4895,16 +5170,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.06609167158603668</v>
+        <v>0.09536230564117432</v>
       </c>
       <c r="C89" s="1">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4921,16 +5196,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.06278708577156067</v>
+        <v>0.08975275605916977</v>
       </c>
       <c r="C90" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -4947,16 +5222,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.05948250368237495</v>
+        <v>0.08975275605916977</v>
       </c>
       <c r="C91" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4973,16 +5248,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.05948250368237495</v>
+        <v>0.08975275605916977</v>
       </c>
       <c r="C92" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -4999,16 +5274,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.05287333577871323</v>
+        <v>0.08694798499345779</v>
       </c>
       <c r="C93" s="1">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -5025,16 +5300,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0462641678750515</v>
+        <v>0.08414321392774582</v>
       </c>
       <c r="C94" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5051,16 +5326,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.0462641678750515</v>
+        <v>0.0757288932800293</v>
       </c>
       <c r="C95" s="1">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5077,16 +5352,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.03304583579301834</v>
+        <v>0.07292411476373673</v>
       </c>
       <c r="C96" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5103,16 +5378,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.03304583579301834</v>
+        <v>0.07292411476373673</v>
       </c>
       <c r="C97" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -5129,16 +5404,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.02974125184118748</v>
+        <v>0.06731457263231278</v>
       </c>
       <c r="C98" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5155,16 +5430,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.02974125184118748</v>
+        <v>0.06731457263231278</v>
       </c>
       <c r="C99" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5181,16 +5456,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.02643666788935661</v>
+        <v>0.06731457263231278</v>
       </c>
       <c r="C100" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5207,16 +5482,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.02643666788935661</v>
+        <v>0.06170502305030823</v>
       </c>
       <c r="C101" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5233,16 +5508,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.02643666788935661</v>
+        <v>0.06170502305030823</v>
       </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -5259,16 +5534,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.02313208393752575</v>
+        <v>0.06170502305030823</v>
       </c>
       <c r="C103" s="1">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5285,16 +5560,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.01982749998569489</v>
+        <v>0.06170502305030823</v>
       </c>
       <c r="C104" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -5311,16 +5586,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.01982749998569489</v>
+        <v>0.05609547346830368</v>
       </c>
       <c r="C105" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5337,16 +5612,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.01982749998569489</v>
+        <v>0.05329070240259171</v>
       </c>
       <c r="C106" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -5363,16 +5638,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.01982749998569489</v>
+        <v>0.05329070240259171</v>
       </c>
       <c r="C107" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -5389,16 +5664,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.05048592761158943</v>
       </c>
       <c r="C108" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -5415,16 +5690,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.05048592761158943</v>
       </c>
       <c r="C109" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5441,16 +5716,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.04487637802958489</v>
       </c>
       <c r="C110" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -5467,16 +5742,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.03926683217287064</v>
       </c>
       <c r="C111" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -5493,16 +5768,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.03926683217287064</v>
       </c>
       <c r="C112" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -5519,16 +5794,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.01652291789650917</v>
+        <v>0.03365728631615639</v>
       </c>
       <c r="C113" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -5545,16 +5820,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.01321833394467831</v>
+        <v>0.03365728631615639</v>
       </c>
       <c r="C114" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -5568,19 +5843,19 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.01321833394467831</v>
+        <v>0.03085251152515411</v>
       </c>
       <c r="C115" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D115" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -5589,24 +5864,24 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.01321833394467831</v>
+        <v>0.02804773673415184</v>
       </c>
       <c r="C116" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -5620,19 +5895,19 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02804773673415184</v>
       </c>
       <c r="C117" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -5646,19 +5921,19 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02524296380579472</v>
       </c>
       <c r="C118" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
       </c>
       <c r="E118" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -5672,19 +5947,19 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02524296380579472</v>
       </c>
       <c r="C119" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -5698,22 +5973,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02243818901479244</v>
       </c>
       <c r="C120" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F120" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
@@ -5724,19 +5999,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02243818901479244</v>
       </c>
       <c r="C121" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -5750,19 +6025,19 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02243818901479244</v>
       </c>
       <c r="C122" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -5776,19 +6051,19 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02243818901479244</v>
       </c>
       <c r="C123" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -5802,19 +6077,19 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.02243818901479244</v>
       </c>
       <c r="C124" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -5828,19 +6103,19 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01963341608643532</v>
       </c>
       <c r="C125" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -5854,19 +6129,19 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01682864315807819</v>
       </c>
       <c r="C126" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -5880,19 +6155,19 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01682864315807819</v>
       </c>
       <c r="C127" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -5906,19 +6181,19 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01682864315807819</v>
       </c>
       <c r="C128" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -5932,19 +6207,19 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01682864315807819</v>
       </c>
       <c r="C129" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -5958,19 +6233,19 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C130" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -5984,19 +6259,19 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C131" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -6010,19 +6285,19 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C132" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -6036,19 +6311,19 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C133" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -6062,19 +6337,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C134" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -6088,19 +6363,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C135" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
@@ -6114,19 +6389,19 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01402386836707592</v>
       </c>
       <c r="C136" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
@@ -6140,19 +6415,19 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01121909450739622</v>
       </c>
       <c r="C137" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -6166,19 +6441,19 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.009913749992847443</v>
+        <v>0.01121909450739622</v>
       </c>
       <c r="C138" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -6192,19 +6467,19 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.006609166972339153</v>
+        <v>0.01121909450739622</v>
       </c>
       <c r="C139" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -6218,19 +6493,19 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2">
-        <v>0.006609166972339153</v>
+        <v>0.01121909450739622</v>
       </c>
       <c r="C140" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D140" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E140" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -6239,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6247,16 +6522,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.006609166972339153</v>
+        <v>0.01121909450739622</v>
       </c>
       <c r="C141" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -6273,16 +6548,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.003304583486169577</v>
+        <v>0.008414321579039097</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
       </c>
       <c r="E142" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -6299,16 +6574,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.003304583486169577</v>
+        <v>0.008414321579039097</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
       </c>
       <c r="E143" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -6325,16 +6600,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.003304583486169577</v>
+        <v>0.008414321579039097</v>
       </c>
       <c r="C144" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
       </c>
       <c r="E144" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F144" s="1">
         <v>0</v>
@@ -6351,16 +6626,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.003304583486169577</v>
+        <v>0.008414321579039097</v>
       </c>
       <c r="C145" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
       </c>
       <c r="E145" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F145" s="1">
         <v>0</v>
@@ -6377,56 +6652,758 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.003304583486169577</v>
+        <v>0.008414321579039097</v>
       </c>
       <c r="C146" s="1">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>6</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C147" s="1">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C148" s="1">
+        <v>6</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>6</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C150" s="1">
+        <v>6</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>6</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C151" s="1">
+        <v>6</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>6</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C152" s="1">
+        <v>6</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>6</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C153" s="1">
+        <v>6</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>6</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>6</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C155" s="1">
+        <v>6</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>6</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C156" s="1">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>6</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>6</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C159" s="1">
+        <v>6</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>6</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C160" s="1">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>6</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C161" s="1">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>6</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C162" s="1">
+        <v>6</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>6</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C163" s="1">
+        <v>6</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>6</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.008414321579039097</v>
+      </c>
+      <c r="C164" s="1">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>6</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.005609547253698111</v>
+      </c>
+      <c r="C165" s="1">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>4</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.005609547253698111</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.005609547253698111</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.005609547253698111</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>4</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.002804773626849055</v>
+      </c>
+      <c r="C169" s="1">
         <v>2</v>
       </c>
-      <c r="D146" s="1">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1">
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
         <v>2</v>
       </c>
-      <c r="F146" s="1">
-        <v>0</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
-      <c r="H146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.002804773626849055</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>2</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.002804773626849055</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.002804773626849055</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.002804773626849055</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C147">
+      <c r="C174">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D147">
+      <c r="D174">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E147">
+      <c r="E174">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F174">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G147">
+      <c r="G174">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H147">
+      <c r="H174">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -47,12 +47,12 @@
     <t>perf_counter.o</t>
   </si>
   <si>
+    <t>sdio_sdcard.o</t>
+  </si>
+  <si>
     <t>scheduler.o</t>
   </si>
   <si>
-    <t>sdio_sdcard.o</t>
-  </si>
-  <si>
     <t>ebtn.o</t>
   </si>
   <si>
@@ -83,18 +83,18 @@
     <t>system_function.o</t>
   </si>
   <si>
+    <t>fz_wm.l</t>
+  </si>
+  <si>
+    <t>scanf_fp.o</t>
+  </si>
+  <si>
+    <t>_printf_fp_dec.o</t>
+  </si>
+  <si>
     <t>gd25qxx.o</t>
   </si>
   <si>
-    <t>fz_wm.l</t>
-  </si>
-  <si>
-    <t>scanf_fp.o</t>
-  </si>
-  <si>
-    <t>_printf_fp_dec.o</t>
-  </si>
-  <si>
     <t>_scanf.o</t>
   </si>
   <si>
@@ -248,18 +248,18 @@
     <t>__dczerorl2.o</t>
   </si>
   <si>
+    <t>memcmp.o</t>
+  </si>
+  <si>
+    <t>f2d.o</t>
+  </si>
+  <si>
+    <t>strncpy.o</t>
+  </si>
+  <si>
     <t>main.o</t>
   </si>
   <si>
-    <t>memcmp.o</t>
-  </si>
-  <si>
-    <t>f2d.o</t>
-  </si>
-  <si>
-    <t>strncpy.o</t>
-  </si>
-  <si>
     <t>_printf_str.o</t>
   </si>
   <si>
@@ -299,13 +299,13 @@
     <t>__0sscanf.o</t>
   </si>
   <si>
+    <t>vsnprintf.o</t>
+  </si>
+  <si>
+    <t>__scatter.o</t>
+  </si>
+  <si>
     <t>oled_app.o</t>
-  </si>
-  <si>
-    <t>vsnprintf.o</t>
-  </si>
-  <si>
-    <t>__scatter.o</t>
   </si>
   <si>
     <t>fpclassify.o</t>
@@ -681,10 +681,10 @@
                   <c:v>perf_counter.o</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>sdio_sdcard.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>scheduler.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>sdio_sdcard.o</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ebtn.o</c:v>
@@ -723,61 +723,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>38.45727157592773</c:v>
+                  <c:v>38.52140045166016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.41287422180176</c:v>
+                  <c:v>28.46025657653809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.018867492675781</c:v>
+                  <c:v>8.03223991394043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.880133152008057</c:v>
+                  <c:v>7.893273830413818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.158712387084961</c:v>
+                  <c:v>7.170650482177734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.719200849533081</c:v>
+                  <c:v>2.723735332489014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.33185350894928</c:v>
+                  <c:v>1.3340744972229</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.33185350894928</c:v>
+                  <c:v>1.3340744972229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.109877943992615</c:v>
+                  <c:v>1.11172878742218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.054383993148804</c:v>
+                  <c:v>0.8893830180168152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8879023194313049</c:v>
+                  <c:v>0.8893830180168152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8324084281921387</c:v>
+                  <c:v>0.8337965607643127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3052164316177368</c:v>
+                  <c:v>0.3057253956794739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16648168861866</c:v>
+                  <c:v>0.1667593121528626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1109877899289131</c:v>
+                  <c:v>0.1111728772521019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09711431711912155</c:v>
+                  <c:v>0.09727626293897629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05549389496445656</c:v>
+                  <c:v>0.05558643862605095</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05549389496445656</c:v>
+                  <c:v>0.05558643862605095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.01387347374111414</c:v>
+                  <c:v>0.01389660965651274</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -872,28 +872,28 @@
                   <c:v>btod.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ebtn.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>system_function.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>ebtn.o</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>mcu_cmic_gd32f470vet6.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>fz_wm.l</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>scanf_fp.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>_printf_fp_dec.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>btn_app.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>gd25qxx.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>mcu_cmic_gd32f470vet6.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fz_wm.l</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>scanf_fp.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>_printf_fp_dec.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>btn_app.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>_scanf.o</c:v>
@@ -917,10 +917,10 @@
                   <c:v>gd32f4xx_rcu.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>gd32f4xx_dma.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>sampling_control.o</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>gd32f4xx_dma.o</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>gd32f4xx_timer.o</c:v>
@@ -1010,25 +1010,25 @@
                   <c:v>systick.o</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>gd32f4xx_it.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>frexp.o</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>fnaninf.o</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>led_app.o</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>rt_memcpy_v6.o</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>lludiv10.o</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>scheduler.o</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>gd32f4xx_it.o</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>frexp.o</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>fnaninf.o</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>led_app.o</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>rt_memcpy_v6.o</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>lludiv10.o</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>strcmpv7m.o</c:v>
@@ -1076,16 +1076,16 @@
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>memcmp.o</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>f2d.o</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>strncpy.o</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>main.o</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>memcmp.o</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>f2d.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>strncpy.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>_printf_str.o</c:v>
@@ -1127,13 +1127,13 @@
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>vsnprintf.o</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>__scatter.o</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>oled_app.o</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>vsnprintf.o</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>__scatter.o</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>fpclassify.o</c:v>
@@ -1376,517 +1376,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>17.83134841918945</c:v>
+                  <c:v>18.31578254699707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.526512145996094</c:v>
+                  <c:v>8.758156776428223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.219388961791992</c:v>
+                  <c:v>8.442689895629883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.379359722137451</c:v>
+                  <c:v>6.306448936462402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.427237033843994</c:v>
+                  <c:v>5.574682235717773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.155370473861694</c:v>
+                  <c:v>3.24109411239624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.01793646812439</c:v>
+                  <c:v>3.099926471710205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.485029458999634</c:v>
+                  <c:v>2.451707601547241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.386862516403198</c:v>
+                  <c:v>2.299016237258911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.283085823059082</c:v>
+                  <c:v>2.273087501525879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.212966442108154</c:v>
+                  <c:v>2.192420244216919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.134432792663574</c:v>
+                  <c:v>1.832298636436462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.783836126327515</c:v>
+                  <c:v>1.518272519111633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.478115797042847</c:v>
+                  <c:v>1.405914664268494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.368729591369629</c:v>
+                  <c:v>1.284913778305054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.239709973335266</c:v>
+                  <c:v>1.273389935493469</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.124714255332947</c:v>
+                  <c:v>1.155269980430603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.121909499168396</c:v>
+                  <c:v>1.152389049530029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.103678464889526</c:v>
+                  <c:v>1.133662700653076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.046180605888367</c:v>
+                  <c:v>1.074602842330933</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.043375849723816</c:v>
+                  <c:v>1.071721792221069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.037766337394714</c:v>
+                  <c:v>1.065959811210632</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.032156705856323</c:v>
+                  <c:v>1.011221408843994</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9844755530357361</c:v>
+                  <c:v>0.9564828872680664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8217986822128296</c:v>
+                  <c:v>0.844124972820282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8049700856208801</c:v>
+                  <c:v>0.8268391489982605</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7657032012939453</c:v>
+                  <c:v>0.7865055203437805</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7320459485054016</c:v>
+                  <c:v>0.7519338726997376</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7264363765716553</c:v>
+                  <c:v>0.7461718916893005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.689974308013916</c:v>
+                  <c:v>0.7087192535400391</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.631074070930481</c:v>
+                  <c:v>0.6482188105583191</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6142454743385315</c:v>
+                  <c:v>0.6309329867362976</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5735762119293213</c:v>
+                  <c:v>0.5891588926315308</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5721738338470459</c:v>
+                  <c:v>0.5877184271812439</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5272974371910095</c:v>
+                  <c:v>0.5416228771209717</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4768115282058716</c:v>
+                  <c:v>0.4897653460502625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4655924439430237</c:v>
+                  <c:v>0.4782414436340332</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4431542456150055</c:v>
+                  <c:v>0.4551936686038971</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4319351613521576</c:v>
+                  <c:v>0.4436697959899902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3730348944664002</c:v>
+                  <c:v>0.3831693530082703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3702301383018494</c:v>
+                  <c:v>0.3802883923053742</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3534014821052551</c:v>
+                  <c:v>0.3630025386810303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3337680697441101</c:v>
+                  <c:v>0.3428357541561127</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.319744199514389</c:v>
+                  <c:v>0.3284308910369873</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.286086916923523</c:v>
+                  <c:v>0.293859213590622</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2748678326606751</c:v>
+                  <c:v>0.2823353111743927</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2636487185955048</c:v>
+                  <c:v>0.2708114385604858</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2524296343326569</c:v>
+                  <c:v>0.2592875361442566</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2496248632669449</c:v>
+                  <c:v>0.2564065754413605</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2468200922012329</c:v>
+                  <c:v>0.253525584936142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2187723517417908</c:v>
+                  <c:v>0.2247158586978912</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2103580236434937</c:v>
+                  <c:v>0.2160729467868805</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2075532525777817</c:v>
+                  <c:v>0.2131919711828232</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2075532525777817</c:v>
+                  <c:v>0.2131919711828232</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2075532525777817</c:v>
+                  <c:v>0.2016680836677551</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1963341534137726</c:v>
+                  <c:v>0.2016680836677551</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1963341534137726</c:v>
+                  <c:v>0.2002276033163071</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1949317753314972</c:v>
+                  <c:v>0.1987871080636978</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1935293823480606</c:v>
+                  <c:v>0.1987871080636978</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1935293823480606</c:v>
+                  <c:v>0.1959061324596405</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1795055121183395</c:v>
+                  <c:v>0.1843822449445725</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1795055121183395</c:v>
+                  <c:v>0.1843822449445725</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1738959699869156</c:v>
+                  <c:v>0.178620308637619</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1710911989212036</c:v>
+                  <c:v>0.1757393330335617</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1682864278554916</c:v>
+                  <c:v>0.1728583574295044</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1682864278554916</c:v>
+                  <c:v>0.1728583574295044</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1682864278554916</c:v>
+                  <c:v>0.1728583574295044</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1570673286914825</c:v>
+                  <c:v>0.1613344699144363</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1514577865600586</c:v>
+                  <c:v>0.1555725187063217</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1458482295274735</c:v>
+                  <c:v>0.1498105823993683</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1402386873960495</c:v>
+                  <c:v>0.1440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1402386873960495</c:v>
+                  <c:v>0.1440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1374339163303375</c:v>
+                  <c:v>0.1411676555871964</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1290195882320404</c:v>
+                  <c:v>0.1325247436761856</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1262148171663284</c:v>
+                  <c:v>0.1296437680721283</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1262148171663284</c:v>
+                  <c:v>0.126762792468071</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1234100461006165</c:v>
+                  <c:v>0.1238818243145943</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1206052675843239</c:v>
+                  <c:v>0.1238818243145943</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1206052675843239</c:v>
+                  <c:v>0.1238818243145943</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1149957254528999</c:v>
+                  <c:v>0.1181198805570602</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1093861758708954</c:v>
+                  <c:v>0.1123579293489456</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1093861758708954</c:v>
+                  <c:v>0.1123579293489456</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1037766262888908</c:v>
+                  <c:v>0.1065959855914116</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1009718552231789</c:v>
+                  <c:v>0.1037150174379349</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1009718552231789</c:v>
+                  <c:v>0.1037150174379349</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1009718552231789</c:v>
+                  <c:v>0.1037150174379349</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09536230564117432</c:v>
+                  <c:v>0.09795306622982025</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.08975275605916977</c:v>
+                  <c:v>0.09219112247228622</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.08975275605916977</c:v>
+                  <c:v>0.09219112247228622</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.08975275605916977</c:v>
+                  <c:v>0.09219112247228622</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.08694798499345779</c:v>
+                  <c:v>0.08931015431880951</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.08414321392774582</c:v>
+                  <c:v>0.0864291787147522</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0757288932800293</c:v>
+                  <c:v>0.07490529119968414</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07292411476373673</c:v>
+                  <c:v>0.07490529119968414</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.07292411476373673</c:v>
+                  <c:v>0.07490529119968414</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.06731457263231278</c:v>
+                  <c:v>0.06914333999156952</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06731457263231278</c:v>
+                  <c:v>0.06914333999156952</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06731457263231278</c:v>
+                  <c:v>0.06914333999156952</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06170502305030823</c:v>
+                  <c:v>0.06338139623403549</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06170502305030823</c:v>
+                  <c:v>0.06338139623403549</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06170502305030823</c:v>
+                  <c:v>0.06338139623403549</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06170502305030823</c:v>
+                  <c:v>0.06338139623403549</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05609547346830368</c:v>
+                  <c:v>0.05761945247650147</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05329070240259171</c:v>
+                  <c:v>0.05473848059773445</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05329070240259171</c:v>
+                  <c:v>0.05473848059773445</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05048592761158943</c:v>
+                  <c:v>0.05185750871896744</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05048592761158943</c:v>
+                  <c:v>0.05185750871896744</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04487637802958489</c:v>
+                  <c:v>0.04609556123614311</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.03926683217287064</c:v>
+                  <c:v>0.04033361747860909</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.03926683217287064</c:v>
+                  <c:v>0.04033361747860909</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.03365728631615639</c:v>
+                  <c:v>0.03457166999578476</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03365728631615639</c:v>
+                  <c:v>0.03457166999578476</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.03085251152515411</c:v>
+                  <c:v>0.03169069811701775</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02804773673415184</c:v>
+                  <c:v>0.02880972623825073</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02804773673415184</c:v>
+                  <c:v>0.02880972623825073</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02524296380579472</c:v>
+                  <c:v>0.02592875435948372</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02524296380579472</c:v>
+                  <c:v>0.02592875435948372</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.02243818901479244</c:v>
+                  <c:v>0.02304778061807156</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02243818901479244</c:v>
+                  <c:v>0.02304778061807156</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02243818901479244</c:v>
+                  <c:v>0.02304778061807156</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02243818901479244</c:v>
+                  <c:v>0.02304778061807156</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02243818901479244</c:v>
+                  <c:v>0.02304778061807156</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.01963341608643532</c:v>
+                  <c:v>0.02016680873930454</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01682864315807819</c:v>
+                  <c:v>0.01728583499789238</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01682864315807819</c:v>
+                  <c:v>0.01728583499789238</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01682864315807819</c:v>
+                  <c:v>0.01728583499789238</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01682864315807819</c:v>
+                  <c:v>0.01728583499789238</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01402386836707592</c:v>
+                  <c:v>0.01440486311912537</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01121909450739622</c:v>
+                  <c:v>0.01152389030903578</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01121909450739622</c:v>
+                  <c:v>0.01152389030903578</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01121909450739622</c:v>
+                  <c:v>0.01152389030903578</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01121909450739622</c:v>
+                  <c:v>0.01152389030903578</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01121909450739622</c:v>
+                  <c:v>0.01152389030903578</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.008414321579039097</c:v>
+                  <c:v>0.00864291749894619</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.005609547253698111</c:v>
+                  <c:v>0.005761945154517889</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.005609547253698111</c:v>
+                  <c:v>0.005761945154517889</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.005609547253698111</c:v>
+                  <c:v>0.005761945154517889</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.005609547253698111</c:v>
+                  <c:v>0.005761945154517889</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.002804773626849055</c:v>
+                  <c:v>0.002880972577258945</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.002804773626849055</c:v>
+                  <c:v>0.002880972577258945</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.002804773626849055</c:v>
+                  <c:v>0.002880972577258945</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.002804773626849055</c:v>
+                  <c:v>0.002880972577258945</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.002804773626849055</c:v>
+                  <c:v>0.002880972577258945</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -2356,16 +2356,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>38.45727157592773</v>
+        <v>38.52140045166016</v>
       </c>
       <c r="C3" s="1">
         <v>2772</v>
       </c>
       <c r="D3" s="1">
-        <v>5262</v>
+        <v>4378</v>
       </c>
       <c r="E3" s="1">
-        <v>5242</v>
+        <v>4358</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>28.41287422180176</v>
+        <v>28.46025657653809</v>
       </c>
       <c r="C4" s="1">
         <v>2048</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8.018867492675781</v>
+        <v>8.03223991394043</v>
       </c>
       <c r="C5" s="1">
         <v>578</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7.880133152008057</v>
+        <v>7.893273830413818</v>
       </c>
       <c r="C6" s="1">
         <v>568</v>
@@ -2460,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.158712387084961</v>
+        <v>7.170650482177734</v>
       </c>
       <c r="C7" s="1">
         <v>516</v>
@@ -2486,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.719200849533081</v>
+        <v>2.723735332489014</v>
       </c>
       <c r="C8" s="1">
         <v>196</v>
@@ -2512,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.33185350894928</v>
+        <v>1.3340744972229</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -2538,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.33185350894928</v>
+        <v>1.3340744972229</v>
       </c>
       <c r="C10" s="1">
         <v>96</v>
@@ -2564,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.109877943992615</v>
+        <v>1.11172878742218</v>
       </c>
       <c r="C11" s="1">
         <v>80</v>
@@ -2590,25 +2590,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1.054383993148804</v>
+        <v>0.8893830180168152</v>
       </c>
       <c r="C12" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>148</v>
+        <v>6080</v>
       </c>
       <c r="E12" s="1">
-        <v>72</v>
+        <v>6048</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.8879023194313049</v>
+        <v>0.8893830180168152</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
       </c>
       <c r="D13" s="1">
-        <v>6080</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1">
-        <v>6048</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2642,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.8324084281921387</v>
+        <v>0.8337965607643127</v>
       </c>
       <c r="C14" s="1">
         <v>60</v>
@@ -2668,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3052164316177368</v>
+        <v>0.3057253956794739</v>
       </c>
       <c r="C15" s="1">
         <v>22</v>
@@ -2694,16 +2694,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.16648168861866</v>
+        <v>0.1667593121528626</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>736</v>
+        <v>664</v>
       </c>
       <c r="E16" s="1">
-        <v>724</v>
+        <v>652</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1109877899289131</v>
+        <v>0.1111728772521019</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2746,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.09711431711912155</v>
+        <v>0.09727626293897629</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.05549389496445656</v>
+        <v>0.05558643862605095</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2798,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05549389496445656</v>
+        <v>0.05558643862605095</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2824,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.01387347374111414</v>
+        <v>0.01389660965651274</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>17.83134841918945</v>
+        <v>18.31578254699707</v>
       </c>
       <c r="C3" s="1">
         <v>12715</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>8.526512145996094</v>
+        <v>8.758156776428223</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2986,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>8.219388961791992</v>
+        <v>8.442689895629883</v>
       </c>
       <c r="C5" s="1">
         <v>5861</v>
@@ -3012,16 +3012,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>7.379359722137451</v>
+        <v>6.306448936462402</v>
       </c>
       <c r="C6" s="1">
-        <v>5262</v>
+        <v>4378</v>
       </c>
       <c r="D6" s="1">
         <v>2772</v>
       </c>
       <c r="E6" s="1">
-        <v>5242</v>
+        <v>4358</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>5.427237033843994</v>
+        <v>5.574682235717773</v>
       </c>
       <c r="C7" s="1">
         <v>3870</v>
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.155370473861694</v>
+        <v>3.24109411239624</v>
       </c>
       <c r="C8" s="1">
         <v>2250</v>
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>3.01793646812439</v>
+        <v>3.099926471710205</v>
       </c>
       <c r="C9" s="1">
         <v>2152</v>
@@ -3113,19 +3113,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.485029458999634</v>
+        <v>2.451707601547241</v>
       </c>
       <c r="C10" s="1">
-        <v>1772</v>
+        <v>1702</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>1772</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3134,24 +3134,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2.386862516403198</v>
+        <v>2.299016237258911</v>
       </c>
       <c r="C11" s="1">
-        <v>1702</v>
+        <v>1596</v>
       </c>
       <c r="D11" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1702</v>
+        <v>1596</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3160,59 +3160,59 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.273087501525879</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1578</v>
+      </c>
+      <c r="D12" s="1">
+        <v>578</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1556</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
-        <v>2.283085823059082</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1628</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1628</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.212966442108154</v>
+        <v>2.192420244216919</v>
       </c>
       <c r="C13" s="1">
-        <v>1578</v>
+        <v>1522</v>
       </c>
       <c r="D13" s="1">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1556</v>
+        <v>1506</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3220,19 +3220,19 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>2.134432792663574</v>
+        <v>1.832298636436462</v>
       </c>
       <c r="C14" s="1">
-        <v>1522</v>
+        <v>1272</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1506</v>
+        <v>1272</v>
       </c>
       <c r="F14" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1.783836126327515</v>
+        <v>1.518272519111633</v>
       </c>
       <c r="C15" s="1">
-        <v>1272</v>
+        <v>1054</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1272</v>
+        <v>1054</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3269,25 +3269,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.478115797042847</v>
+        <v>1.405914664268494</v>
       </c>
       <c r="C16" s="1">
-        <v>1054</v>
+        <v>976</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1">
-        <v>1054</v>
+        <v>766</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -3295,25 +3295,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.368729591369629</v>
+        <v>1.284913778305054</v>
       </c>
       <c r="C17" s="1">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="D17" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>766</v>
+        <v>892</v>
       </c>
       <c r="F17" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.239709973335266</v>
+        <v>1.273389935493469</v>
       </c>
       <c r="C18" s="1">
         <v>884</v>
@@ -3350,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.124714255332947</v>
+        <v>1.155269980430603</v>
       </c>
       <c r="C19" s="1">
         <v>802</v>
@@ -3376,7 +3376,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>1.121909499168396</v>
+        <v>1.152389049530029</v>
       </c>
       <c r="C20" s="1">
         <v>800</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.103678464889526</v>
+        <v>1.133662700653076</v>
       </c>
       <c r="C21" s="1">
         <v>787</v>
@@ -3428,7 +3428,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.046180605888367</v>
+        <v>1.074602842330933</v>
       </c>
       <c r="C22" s="1">
         <v>746</v>
@@ -3454,7 +3454,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>1.043375849723816</v>
+        <v>1.071721792221069</v>
       </c>
       <c r="C23" s="1">
         <v>744</v>
@@ -3480,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.037766337394714</v>
+        <v>1.065959811210632</v>
       </c>
       <c r="C24" s="1">
         <v>740</v>
@@ -3503,25 +3503,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.032156705856323</v>
+        <v>1.011221408843994</v>
       </c>
       <c r="C25" s="1">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="D25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -3529,25 +3529,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9844755530357361</v>
+        <v>0.9564828872680664</v>
       </c>
       <c r="C26" s="1">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8217986822128296</v>
+        <v>0.844124972820282</v>
       </c>
       <c r="C27" s="1">
         <v>586</v>
@@ -3584,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8049700856208801</v>
+        <v>0.8268391489982605</v>
       </c>
       <c r="C28" s="1">
         <v>574</v>
@@ -3610,7 +3610,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7657032012939453</v>
+        <v>0.7865055203437805</v>
       </c>
       <c r="C29" s="1">
         <v>546</v>
@@ -3636,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7320459485054016</v>
+        <v>0.7519338726997376</v>
       </c>
       <c r="C30" s="1">
         <v>522</v>
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7264363765716553</v>
+        <v>0.7461718916893005</v>
       </c>
       <c r="C31" s="1">
         <v>518</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>0.689974308013916</v>
+        <v>0.7087192535400391</v>
       </c>
       <c r="C32" s="1">
         <v>492</v>
@@ -3714,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.631074070930481</v>
+        <v>0.6482188105583191</v>
       </c>
       <c r="C33" s="1">
         <v>450</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6142454743385315</v>
+        <v>0.6309329867362976</v>
       </c>
       <c r="C34" s="1">
         <v>438</v>
@@ -3766,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5735762119293213</v>
+        <v>0.5891588926315308</v>
       </c>
       <c r="C35" s="1">
         <v>409</v>
@@ -3792,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5721738338470459</v>
+        <v>0.5877184271812439</v>
       </c>
       <c r="C36" s="1">
         <v>408</v>
@@ -3818,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5272974371910095</v>
+        <v>0.5416228771209717</v>
       </c>
       <c r="C37" s="1">
         <v>376</v>
@@ -3844,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4768115282058716</v>
+        <v>0.4897653460502625</v>
       </c>
       <c r="C38" s="1">
         <v>340</v>
@@ -3870,7 +3870,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4655924439430237</v>
+        <v>0.4782414436340332</v>
       </c>
       <c r="C39" s="1">
         <v>332</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4431542456150055</v>
+        <v>0.4551936686038971</v>
       </c>
       <c r="C40" s="1">
         <v>316</v>
@@ -3922,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4319351613521576</v>
+        <v>0.4436697959899902</v>
       </c>
       <c r="C41" s="1">
         <v>308</v>
@@ -3948,7 +3948,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3730348944664002</v>
+        <v>0.3831693530082703</v>
       </c>
       <c r="C42" s="1">
         <v>266</v>
@@ -3974,7 +3974,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3702301383018494</v>
+        <v>0.3802883923053742</v>
       </c>
       <c r="C43" s="1">
         <v>264</v>
@@ -4000,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3534014821052551</v>
+        <v>0.3630025386810303</v>
       </c>
       <c r="C44" s="1">
         <v>252</v>
@@ -4026,7 +4026,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3337680697441101</v>
+        <v>0.3428357541561127</v>
       </c>
       <c r="C45" s="1">
         <v>238</v>
@@ -4052,7 +4052,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.319744199514389</v>
+        <v>0.3284308910369873</v>
       </c>
       <c r="C46" s="1">
         <v>228</v>
@@ -4078,7 +4078,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.286086916923523</v>
+        <v>0.293859213590622</v>
       </c>
       <c r="C47" s="1">
         <v>204</v>
@@ -4104,7 +4104,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2748678326606751</v>
+        <v>0.2823353111743927</v>
       </c>
       <c r="C48" s="1">
         <v>196</v>
@@ -4130,7 +4130,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2636487185955048</v>
+        <v>0.2708114385604858</v>
       </c>
       <c r="C49" s="1">
         <v>188</v>
@@ -4156,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2524296343326569</v>
+        <v>0.2592875361442566</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -4182,7 +4182,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2496248632669449</v>
+        <v>0.2564065754413605</v>
       </c>
       <c r="C51" s="1">
         <v>178</v>
@@ -4208,7 +4208,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2468200922012329</v>
+        <v>0.253525584936142</v>
       </c>
       <c r="C52" s="1">
         <v>176</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2187723517417908</v>
+        <v>0.2247158586978912</v>
       </c>
       <c r="C53" s="1">
         <v>156</v>
@@ -4260,7 +4260,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2103580236434937</v>
+        <v>0.2160729467868805</v>
       </c>
       <c r="C54" s="1">
         <v>150</v>
@@ -4286,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2075532525777817</v>
+        <v>0.2131919711828232</v>
       </c>
       <c r="C55" s="1">
         <v>148</v>
@@ -4309,25 +4309,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2075532525777817</v>
+        <v>0.2131919711828232</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
       </c>
       <c r="D56" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -4335,19 +4335,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2075532525777817</v>
+        <v>0.2016680836677551</v>
       </c>
       <c r="C57" s="1">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1963341534137726</v>
+        <v>0.2016680836677551</v>
       </c>
       <c r="C58" s="1">
         <v>140</v>
@@ -4387,25 +4387,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1963341534137726</v>
+        <v>0.2002276033163071</v>
       </c>
       <c r="C59" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -4413,25 +4413,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1949317753314972</v>
+        <v>0.1987871080636978</v>
       </c>
       <c r="C60" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1935293823480606</v>
+        <v>0.1987871080636978</v>
       </c>
       <c r="C61" s="1">
         <v>138</v>
@@ -4465,25 +4465,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1935293823480606</v>
+        <v>0.1959061324596405</v>
       </c>
       <c r="C62" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1795055121183395</v>
+        <v>0.1843822449445725</v>
       </c>
       <c r="C63" s="1">
         <v>128</v>
@@ -4520,7 +4520,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1795055121183395</v>
+        <v>0.1843822449445725</v>
       </c>
       <c r="C64" s="1">
         <v>128</v>
@@ -4546,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1738959699869156</v>
+        <v>0.178620308637619</v>
       </c>
       <c r="C65" s="1">
         <v>124</v>
@@ -4572,7 +4572,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1710911989212036</v>
+        <v>0.1757393330335617</v>
       </c>
       <c r="C66" s="1">
         <v>122</v>
@@ -4598,7 +4598,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1682864278554916</v>
+        <v>0.1728583574295044</v>
       </c>
       <c r="C67" s="1">
         <v>120</v>
@@ -4624,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1682864278554916</v>
+        <v>0.1728583574295044</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -4650,7 +4650,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1682864278554916</v>
+        <v>0.1728583574295044</v>
       </c>
       <c r="C69" s="1">
         <v>120</v>
@@ -4676,7 +4676,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1570673286914825</v>
+        <v>0.1613344699144363</v>
       </c>
       <c r="C70" s="1">
         <v>112</v>
@@ -4702,7 +4702,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1514577865600586</v>
+        <v>0.1555725187063217</v>
       </c>
       <c r="C71" s="1">
         <v>108</v>
@@ -4728,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1458482295274735</v>
+        <v>0.1498105823993683</v>
       </c>
       <c r="C72" s="1">
         <v>104</v>
@@ -4754,7 +4754,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1402386873960495</v>
+        <v>0.1440486311912537</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1402386873960495</v>
+        <v>0.1440486311912537</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -4806,7 +4806,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1374339163303375</v>
+        <v>0.1411676555871964</v>
       </c>
       <c r="C75" s="1">
         <v>98</v>
@@ -4832,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1290195882320404</v>
+        <v>0.1325247436761856</v>
       </c>
       <c r="C76" s="1">
         <v>92</v>
@@ -4858,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1262148171663284</v>
+        <v>0.1296437680721283</v>
       </c>
       <c r="C77" s="1">
         <v>90</v>
@@ -4884,16 +4884,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1262148171663284</v>
+        <v>0.126762792468071</v>
       </c>
       <c r="C78" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4910,16 +4910,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1234100461006165</v>
+        <v>0.1238818243145943</v>
       </c>
       <c r="C79" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1206052675843239</v>
+        <v>0.1238818243145943</v>
       </c>
       <c r="C80" s="1">
         <v>86</v>
@@ -4962,7 +4962,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1206052675843239</v>
+        <v>0.1238818243145943</v>
       </c>
       <c r="C81" s="1">
         <v>86</v>
@@ -4988,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1149957254528999</v>
+        <v>0.1181198805570602</v>
       </c>
       <c r="C82" s="1">
         <v>82</v>
@@ -5014,7 +5014,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1093861758708954</v>
+        <v>0.1123579293489456</v>
       </c>
       <c r="C83" s="1">
         <v>78</v>
@@ -5040,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1093861758708954</v>
+        <v>0.1123579293489456</v>
       </c>
       <c r="C84" s="1">
         <v>78</v>
@@ -5066,7 +5066,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1037766262888908</v>
+        <v>0.1065959855914116</v>
       </c>
       <c r="C85" s="1">
         <v>74</v>
@@ -5092,7 +5092,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1009718552231789</v>
+        <v>0.1037150174379349</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5118,7 +5118,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1009718552231789</v>
+        <v>0.1037150174379349</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5144,7 +5144,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1009718552231789</v>
+        <v>0.1037150174379349</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
@@ -5170,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.09536230564117432</v>
+        <v>0.09795306622982025</v>
       </c>
       <c r="C89" s="1">
         <v>68</v>
@@ -5196,7 +5196,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.08975275605916977</v>
+        <v>0.09219112247228622</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5222,7 +5222,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.08975275605916977</v>
+        <v>0.09219112247228622</v>
       </c>
       <c r="C91" s="1">
         <v>64</v>
@@ -5248,7 +5248,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.08975275605916977</v>
+        <v>0.09219112247228622</v>
       </c>
       <c r="C92" s="1">
         <v>64</v>
@@ -5274,7 +5274,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.08694798499345779</v>
+        <v>0.08931015431880951</v>
       </c>
       <c r="C93" s="1">
         <v>62</v>
@@ -5300,7 +5300,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.08414321392774582</v>
+        <v>0.0864291787147522</v>
       </c>
       <c r="C94" s="1">
         <v>60</v>
@@ -5326,16 +5326,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.0757288932800293</v>
+        <v>0.07490529119968414</v>
       </c>
       <c r="C95" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07292411476373673</v>
+        <v>0.07490529119968414</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5378,7 +5378,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.07292411476373673</v>
+        <v>0.07490529119968414</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.06731457263231278</v>
+        <v>0.06914333999156952</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5430,7 +5430,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.06731457263231278</v>
+        <v>0.06914333999156952</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5456,7 +5456,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.06731457263231278</v>
+        <v>0.06914333999156952</v>
       </c>
       <c r="C100" s="1">
         <v>48</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06170502305030823</v>
+        <v>0.06338139623403549</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5508,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06170502305030823</v>
+        <v>0.06338139623403549</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5534,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06170502305030823</v>
+        <v>0.06338139623403549</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5560,7 +5560,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06170502305030823</v>
+        <v>0.06338139623403549</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5586,7 +5586,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05609547346830368</v>
+        <v>0.05761945247650147</v>
       </c>
       <c r="C105" s="1">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05329070240259171</v>
+        <v>0.05473848059773445</v>
       </c>
       <c r="C106" s="1">
         <v>38</v>
@@ -5638,7 +5638,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05329070240259171</v>
+        <v>0.05473848059773445</v>
       </c>
       <c r="C107" s="1">
         <v>38</v>
@@ -5664,7 +5664,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05048592761158943</v>
+        <v>0.05185750871896744</v>
       </c>
       <c r="C108" s="1">
         <v>36</v>
@@ -5690,7 +5690,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05048592761158943</v>
+        <v>0.05185750871896744</v>
       </c>
       <c r="C109" s="1">
         <v>36</v>
@@ -5716,7 +5716,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.04487637802958489</v>
+        <v>0.04609556123614311</v>
       </c>
       <c r="C110" s="1">
         <v>32</v>
@@ -5742,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.03926683217287064</v>
+        <v>0.04033361747860909</v>
       </c>
       <c r="C111" s="1">
         <v>28</v>
@@ -5768,7 +5768,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.03926683217287064</v>
+        <v>0.04033361747860909</v>
       </c>
       <c r="C112" s="1">
         <v>28</v>
@@ -5794,7 +5794,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.03365728631615639</v>
+        <v>0.03457166999578476</v>
       </c>
       <c r="C113" s="1">
         <v>24</v>
@@ -5820,7 +5820,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03365728631615639</v>
+        <v>0.03457166999578476</v>
       </c>
       <c r="C114" s="1">
         <v>24</v>
@@ -5846,7 +5846,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.03085251152515411</v>
+        <v>0.03169069811701775</v>
       </c>
       <c r="C115" s="1">
         <v>22</v>
@@ -5872,7 +5872,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02804773673415184</v>
+        <v>0.02880972623825073</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -5898,7 +5898,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02804773673415184</v>
+        <v>0.02880972623825073</v>
       </c>
       <c r="C117" s="1">
         <v>20</v>
@@ -5924,7 +5924,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02524296380579472</v>
+        <v>0.02592875435948372</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5950,7 +5950,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02524296380579472</v>
+        <v>0.02592875435948372</v>
       </c>
       <c r="C119" s="1">
         <v>18</v>
@@ -5976,7 +5976,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.02243818901479244</v>
+        <v>0.02304778061807156</v>
       </c>
       <c r="C120" s="1">
         <v>16</v>
@@ -6002,7 +6002,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02243818901479244</v>
+        <v>0.02304778061807156</v>
       </c>
       <c r="C121" s="1">
         <v>16</v>
@@ -6028,7 +6028,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02243818901479244</v>
+        <v>0.02304778061807156</v>
       </c>
       <c r="C122" s="1">
         <v>16</v>
@@ -6054,7 +6054,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02243818901479244</v>
+        <v>0.02304778061807156</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6080,7 +6080,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02243818901479244</v>
+        <v>0.02304778061807156</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.01963341608643532</v>
+        <v>0.02016680873930454</v>
       </c>
       <c r="C125" s="1">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01682864315807819</v>
+        <v>0.01728583499789238</v>
       </c>
       <c r="C126" s="1">
         <v>12</v>
@@ -6158,7 +6158,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01682864315807819</v>
+        <v>0.01728583499789238</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6184,7 +6184,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01682864315807819</v>
+        <v>0.01728583499789238</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6210,7 +6210,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01682864315807819</v>
+        <v>0.01728583499789238</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
@@ -6262,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6314,7 +6314,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6340,7 +6340,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6366,7 +6366,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6392,7 +6392,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01402386836707592</v>
+        <v>0.01440486311912537</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6418,7 +6418,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01121909450739622</v>
+        <v>0.01152389030903578</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01121909450739622</v>
+        <v>0.01152389030903578</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6470,7 +6470,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01121909450739622</v>
+        <v>0.01152389030903578</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
@@ -6496,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01121909450739622</v>
+        <v>0.01152389030903578</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6522,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01121909450739622</v>
+        <v>0.01152389030903578</v>
       </c>
       <c r="C141" s="1">
         <v>8</v>
@@ -6548,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6574,7 +6574,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6600,7 +6600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6626,7 +6626,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6652,7 +6652,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6678,7 +6678,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6704,7 +6704,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6730,7 +6730,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6756,7 +6756,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6782,7 +6782,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6808,7 +6808,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6834,7 +6834,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -6860,7 +6860,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -6886,7 +6886,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -6912,7 +6912,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -6938,7 +6938,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -6964,7 +6964,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -6990,7 +6990,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7016,7 +7016,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7042,7 +7042,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7068,7 +7068,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7094,7 +7094,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7120,7 +7120,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.008414321579039097</v>
+        <v>0.00864291749894619</v>
       </c>
       <c r="C164" s="1">
         <v>6</v>
@@ -7146,7 +7146,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.005609547253698111</v>
+        <v>0.005761945154517889</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7172,7 +7172,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.005609547253698111</v>
+        <v>0.005761945154517889</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.005609547253698111</v>
+        <v>0.005761945154517889</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7224,7 +7224,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.005609547253698111</v>
+        <v>0.005761945154517889</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
@@ -7250,7 +7250,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.002804773626849055</v>
+        <v>0.002880972577258945</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.002804773626849055</v>
+        <v>0.002880972577258945</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.002804773626849055</v>
+        <v>0.002880972577258945</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.002804773626849055</v>
+        <v>0.002880972577258945</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0.002804773626849055</v>
+        <v>0.002880972577258945</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -239,6 +239,9 @@
     <t>rt_memcpy_w.o</t>
   </si>
   <si>
+    <t>main.o</t>
+  </si>
+  <si>
     <t>d2f.o</t>
   </si>
   <si>
@@ -255,9 +258,6 @@
   </si>
   <si>
     <t>strncpy.o</t>
-  </si>
-  <si>
-    <t>main.o</t>
   </si>
   <si>
     <t>_printf_str.o</t>
@@ -1067,25 +1067,25 @@
                   <c:v>rt_memcpy_w.o</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>scalbn.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>memcmp.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>strncpy.o</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>main.o</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>_printf_str.o</c:v>
@@ -1376,517 +1376,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>18.31578254699707</c:v>
+                  <c:v>18.38623428344727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.758156776428223</c:v>
+                  <c:v>8.791844367980957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.442689895629883</c:v>
+                  <c:v>8.475164413452148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.306448936462402</c:v>
+                  <c:v>5.914250373840332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.574682235717773</c:v>
+                  <c:v>5.596124649047852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.24109411239624</c:v>
+                  <c:v>3.253560781478882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.099926471710205</c:v>
+                  <c:v>3.111850261688232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.451707601547241</c:v>
+                  <c:v>2.461138010025024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.299016237258911</c:v>
+                  <c:v>2.307859182357788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.273087501525879</c:v>
+                  <c:v>2.281830787658691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.192420244216919</c:v>
+                  <c:v>2.200853109359741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.832298636436462</c:v>
+                  <c:v>1.839346408843994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.518272519111633</c:v>
+                  <c:v>1.524112462997437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.405914664268494</c:v>
+                  <c:v>1.411322355270386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.284913778305054</c:v>
+                  <c:v>1.28985607624054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.273389935493469</c:v>
+                  <c:v>1.278287887573242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.155269980430603</c:v>
+                  <c:v>1.159713745117188</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.152389049530029</c:v>
+                  <c:v>1.156821608543396</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.133662700653076</c:v>
+                  <c:v>1.138023257255554</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.074602842330933</c:v>
+                  <c:v>1.078736186027527</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.071721792221069</c:v>
+                  <c:v>1.075844168663025</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.065959811210632</c:v>
+                  <c:v>1.070060014724731</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.011221408843994</c:v>
+                  <c:v>1.015110969543457</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9564828872680664</c:v>
+                  <c:v>0.9717301726341248</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.844124972820282</c:v>
+                  <c:v>0.8473718166351318</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8268391489982605</c:v>
+                  <c:v>0.8300195336341858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7865055203437805</c:v>
+                  <c:v>0.7895307540893555</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7519338726997376</c:v>
+                  <c:v>0.7548261284828186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7461718916893005</c:v>
+                  <c:v>0.7490420341491699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7087192535400391</c:v>
+                  <c:v>0.7114453315734863</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6482188105583191</c:v>
+                  <c:v>0.6507121920585632</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6309329867362976</c:v>
+                  <c:v>0.6333598494529724</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5891588926315308</c:v>
+                  <c:v>0.5914250612258911</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5877184271812439</c:v>
+                  <c:v>0.5899790525436401</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5416228771209717</c:v>
+                  <c:v>0.5437061786651611</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4897653460502625</c:v>
+                  <c:v>0.4916491806507111</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4782414436340332</c:v>
+                  <c:v>0.4800809919834137</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4551936686038971</c:v>
+                  <c:v>0.4569445550441742</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4436697959899902</c:v>
+                  <c:v>0.4453763365745544</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3831693530082703</c:v>
+                  <c:v>0.3846431970596314</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3802883923053742</c:v>
+                  <c:v>0.381751149892807</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3630025386810303</c:v>
+                  <c:v>0.3643988072872162</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3428357541561127</c:v>
+                  <c:v>0.3441544473171234</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3284308910369873</c:v>
+                  <c:v>0.3296941518783569</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.293859213590622</c:v>
+                  <c:v>0.2949895262718201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2823353111743927</c:v>
+                  <c:v>0.2834213078022003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2708114385604858</c:v>
+                  <c:v>0.2718530893325806</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2592875361442566</c:v>
+                  <c:v>0.2602848708629608</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2564065754413605</c:v>
+                  <c:v>0.2573928236961365</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.253525584936142</c:v>
+                  <c:v>0.2545007467269898</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2247158586978912</c:v>
+                  <c:v>0.2255802154541016</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2160729467868805</c:v>
+                  <c:v>0.2169040590524674</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2131919711828232</c:v>
+                  <c:v>0.2140119969844818</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2131919711828232</c:v>
+                  <c:v>0.2140119969844818</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2016680836677551</c:v>
+                  <c:v>0.2024437785148621</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2016680836677551</c:v>
+                  <c:v>0.2024437785148621</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2002276033163071</c:v>
+                  <c:v>0.2009977549314499</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1987871080636978</c:v>
+                  <c:v>0.1995517313480377</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1987871080636978</c:v>
+                  <c:v>0.1995517313480377</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1959061324596405</c:v>
+                  <c:v>0.1966596841812134</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1843822449445725</c:v>
+                  <c:v>0.1850914657115936</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1843822449445725</c:v>
+                  <c:v>0.1850914657115936</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.178620308637619</c:v>
+                  <c:v>0.1793073564767838</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1757393330335617</c:v>
+                  <c:v>0.1764152944087982</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1728583574295044</c:v>
+                  <c:v>0.1735232472419739</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1728583574295044</c:v>
+                  <c:v>0.1735232472419739</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1728583574295044</c:v>
+                  <c:v>0.1735232472419739</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1613344699144363</c:v>
+                  <c:v>0.1619550287723541</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1555725187063217</c:v>
+                  <c:v>0.1561709195375443</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1498105823993683</c:v>
+                  <c:v>0.1503868103027344</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1440486311912537</c:v>
+                  <c:v>0.1446027010679245</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1440486311912537</c:v>
+                  <c:v>0.1446027010679245</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1411676555871964</c:v>
+                  <c:v>0.1446027010679245</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1325247436761856</c:v>
+                  <c:v>0.1417106539011002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1296437680721283</c:v>
+                  <c:v>0.1330344825983048</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.126762792468071</c:v>
+                  <c:v>0.1301424354314804</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1238818243145943</c:v>
+                  <c:v>0.1272503733634949</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1238818243145943</c:v>
+                  <c:v>0.1243583261966705</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1238818243145943</c:v>
+                  <c:v>0.1243583261966705</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1181198805570602</c:v>
+                  <c:v>0.1185742169618607</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1123579293489456</c:v>
+                  <c:v>0.1127901077270508</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1123579293489456</c:v>
+                  <c:v>0.1127901077270508</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1065959855914116</c:v>
+                  <c:v>0.1070059984922409</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1037150174379349</c:v>
+                  <c:v>0.104113943874836</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1037150174379349</c:v>
+                  <c:v>0.104113943874836</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1037150174379349</c:v>
+                  <c:v>0.104113943874836</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09795306622982025</c:v>
+                  <c:v>0.09832984209060669</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.09219112247228622</c:v>
+                  <c:v>0.09254573285579681</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.09219112247228622</c:v>
+                  <c:v>0.09254573285579681</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09219112247228622</c:v>
+                  <c:v>0.09254573285579681</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.08931015431880951</c:v>
+                  <c:v>0.08965367823839188</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0864291787147522</c:v>
+                  <c:v>0.08676162362098694</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.07490529119968414</c:v>
+                  <c:v>0.07519340515136719</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07490529119968414</c:v>
+                  <c:v>0.07519340515136719</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.07490529119968414</c:v>
+                  <c:v>0.07519340515136719</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.06914333999156952</c:v>
+                  <c:v>0.06940929591655731</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06914333999156952</c:v>
+                  <c:v>0.06940929591655731</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06914333999156952</c:v>
+                  <c:v>0.06940929591655731</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06338139623403549</c:v>
+                  <c:v>0.06362518668174744</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06338139623403549</c:v>
+                  <c:v>0.06362518668174744</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06338139623403549</c:v>
+                  <c:v>0.06362518668174744</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06338139623403549</c:v>
+                  <c:v>0.06362518668174744</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05761945247650147</c:v>
+                  <c:v>0.05784108117222786</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05473848059773445</c:v>
+                  <c:v>0.05494902655482292</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05473848059773445</c:v>
+                  <c:v>0.05494902655482292</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05185750871896744</c:v>
+                  <c:v>0.05205697193741798</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05185750871896744</c:v>
+                  <c:v>0.05205697193741798</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04609556123614311</c:v>
+                  <c:v>0.04627286642789841</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.04033361747860909</c:v>
+                  <c:v>0.04048875719308853</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.04033361747860909</c:v>
+                  <c:v>0.04048875719308853</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.03457166999578476</c:v>
+                  <c:v>0.03470464795827866</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03457166999578476</c:v>
+                  <c:v>0.03470464795827866</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.03169069811701775</c:v>
+                  <c:v>0.03181259334087372</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02880972623825073</c:v>
+                  <c:v>0.02892054058611393</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02880972623825073</c:v>
+                  <c:v>0.02892054058611393</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02592875435948372</c:v>
+                  <c:v>0.02602848596870899</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02592875435948372</c:v>
+                  <c:v>0.02602848596870899</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.02304778061807156</c:v>
+                  <c:v>0.0231364332139492</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02304778061807156</c:v>
+                  <c:v>0.0231364332139492</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02304778061807156</c:v>
+                  <c:v>0.0231364332139492</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02304778061807156</c:v>
+                  <c:v>0.0231364332139492</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02304778061807156</c:v>
+                  <c:v>0.0231364332139492</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02016680873930454</c:v>
+                  <c:v>0.02024437859654427</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01728583499789238</c:v>
+                  <c:v>0.01735232397913933</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01728583499789238</c:v>
+                  <c:v>0.01735232397913933</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01728583499789238</c:v>
+                  <c:v>0.01735232397913933</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01728583499789238</c:v>
+                  <c:v>0.01735232397913933</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01440486311912537</c:v>
+                  <c:v>0.01446027029305697</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01152389030903578</c:v>
+                  <c:v>0.0115682166069746</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01152389030903578</c:v>
+                  <c:v>0.0115682166069746</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01152389030903578</c:v>
+                  <c:v>0.0115682166069746</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01152389030903578</c:v>
+                  <c:v>0.0115682166069746</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01152389030903578</c:v>
+                  <c:v>0.0115682166069746</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.00864291749894619</c:v>
+                  <c:v>0.008676161989569664</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.005761945154517889</c:v>
+                  <c:v>0.005784108303487301</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.005761945154517889</c:v>
+                  <c:v>0.005784108303487301</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.005761945154517889</c:v>
+                  <c:v>0.005784108303487301</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.005761945154517889</c:v>
+                  <c:v>0.005784108303487301</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.002880972577258945</c:v>
+                  <c:v>0.00289205415174365</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.002880972577258945</c:v>
+                  <c:v>0.00289205415174365</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.002880972577258945</c:v>
+                  <c:v>0.00289205415174365</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.002880972577258945</c:v>
+                  <c:v>0.00289205415174365</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.002880972577258945</c:v>
+                  <c:v>0.00289205415174365</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -2362,10 +2362,10 @@
         <v>2772</v>
       </c>
       <c r="D3" s="1">
-        <v>4378</v>
+        <v>4090</v>
       </c>
       <c r="E3" s="1">
-        <v>4358</v>
+        <v>4070</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="E16" s="1">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>18.31578254699707</v>
+        <v>18.38623428344727</v>
       </c>
       <c r="C3" s="1">
         <v>12715</v>
@@ -2960,7 +2960,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>8.758156776428223</v>
+        <v>8.791844367980957</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2986,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>8.442689895629883</v>
+        <v>8.475164413452148</v>
       </c>
       <c r="C5" s="1">
         <v>5861</v>
@@ -3012,16 +3012,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>6.306448936462402</v>
+        <v>5.914250373840332</v>
       </c>
       <c r="C6" s="1">
-        <v>4378</v>
+        <v>4090</v>
       </c>
       <c r="D6" s="1">
         <v>2772</v>
       </c>
       <c r="E6" s="1">
-        <v>4358</v>
+        <v>4070</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>5.574682235717773</v>
+        <v>5.596124649047852</v>
       </c>
       <c r="C7" s="1">
         <v>3870</v>
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>3.24109411239624</v>
+        <v>3.253560781478882</v>
       </c>
       <c r="C8" s="1">
         <v>2250</v>
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>3.099926471710205</v>
+        <v>3.111850261688232</v>
       </c>
       <c r="C9" s="1">
         <v>2152</v>
@@ -3116,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>2.451707601547241</v>
+        <v>2.461138010025024</v>
       </c>
       <c r="C10" s="1">
         <v>1702</v>
@@ -3142,7 +3142,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2.299016237258911</v>
+        <v>2.307859182357788</v>
       </c>
       <c r="C11" s="1">
         <v>1596</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.273087501525879</v>
+        <v>2.281830787658691</v>
       </c>
       <c r="C12" s="1">
         <v>1578</v>
@@ -3194,7 +3194,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.192420244216919</v>
+        <v>2.200853109359741</v>
       </c>
       <c r="C13" s="1">
         <v>1522</v>
@@ -3220,7 +3220,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>1.832298636436462</v>
+        <v>1.839346408843994</v>
       </c>
       <c r="C14" s="1">
         <v>1272</v>
@@ -3246,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1.518272519111633</v>
+        <v>1.524112462997437</v>
       </c>
       <c r="C15" s="1">
         <v>1054</v>
@@ -3272,7 +3272,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>1.405914664268494</v>
+        <v>1.411322355270386</v>
       </c>
       <c r="C16" s="1">
         <v>976</v>
@@ -3298,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.284913778305054</v>
+        <v>1.28985607624054</v>
       </c>
       <c r="C17" s="1">
         <v>892</v>
@@ -3324,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.273389935493469</v>
+        <v>1.278287887573242</v>
       </c>
       <c r="C18" s="1">
         <v>884</v>
@@ -3350,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.155269980430603</v>
+        <v>1.159713745117188</v>
       </c>
       <c r="C19" s="1">
         <v>802</v>
@@ -3376,7 +3376,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>1.152389049530029</v>
+        <v>1.156821608543396</v>
       </c>
       <c r="C20" s="1">
         <v>800</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.133662700653076</v>
+        <v>1.138023257255554</v>
       </c>
       <c r="C21" s="1">
         <v>787</v>
@@ -3428,7 +3428,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.074602842330933</v>
+        <v>1.078736186027527</v>
       </c>
       <c r="C22" s="1">
         <v>746</v>
@@ -3454,7 +3454,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>1.071721792221069</v>
+        <v>1.075844168663025</v>
       </c>
       <c r="C23" s="1">
         <v>744</v>
@@ -3480,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.065959811210632</v>
+        <v>1.070060014724731</v>
       </c>
       <c r="C24" s="1">
         <v>740</v>
@@ -3506,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.011221408843994</v>
+        <v>1.015110969543457</v>
       </c>
       <c r="C25" s="1">
         <v>702</v>
@@ -3532,16 +3532,16 @@
         <v>14</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9564828872680664</v>
+        <v>0.9717301726341248</v>
       </c>
       <c r="C26" s="1">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D26" s="1">
         <v>12</v>
       </c>
       <c r="E26" s="1">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.844124972820282</v>
+        <v>0.8473718166351318</v>
       </c>
       <c r="C27" s="1">
         <v>586</v>
@@ -3584,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8268391489982605</v>
+        <v>0.8300195336341858</v>
       </c>
       <c r="C28" s="1">
         <v>574</v>
@@ -3610,7 +3610,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7865055203437805</v>
+        <v>0.7895307540893555</v>
       </c>
       <c r="C29" s="1">
         <v>546</v>
@@ -3636,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7519338726997376</v>
+        <v>0.7548261284828186</v>
       </c>
       <c r="C30" s="1">
         <v>522</v>
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7461718916893005</v>
+        <v>0.7490420341491699</v>
       </c>
       <c r="C31" s="1">
         <v>518</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7087192535400391</v>
+        <v>0.7114453315734863</v>
       </c>
       <c r="C32" s="1">
         <v>492</v>
@@ -3714,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6482188105583191</v>
+        <v>0.6507121920585632</v>
       </c>
       <c r="C33" s="1">
         <v>450</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6309329867362976</v>
+        <v>0.6333598494529724</v>
       </c>
       <c r="C34" s="1">
         <v>438</v>
@@ -3766,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5891588926315308</v>
+        <v>0.5914250612258911</v>
       </c>
       <c r="C35" s="1">
         <v>409</v>
@@ -3792,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5877184271812439</v>
+        <v>0.5899790525436401</v>
       </c>
       <c r="C36" s="1">
         <v>408</v>
@@ -3818,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5416228771209717</v>
+        <v>0.5437061786651611</v>
       </c>
       <c r="C37" s="1">
         <v>376</v>
@@ -3844,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4897653460502625</v>
+        <v>0.4916491806507111</v>
       </c>
       <c r="C38" s="1">
         <v>340</v>
@@ -3870,7 +3870,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4782414436340332</v>
+        <v>0.4800809919834137</v>
       </c>
       <c r="C39" s="1">
         <v>332</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4551936686038971</v>
+        <v>0.4569445550441742</v>
       </c>
       <c r="C40" s="1">
         <v>316</v>
@@ -3922,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4436697959899902</v>
+        <v>0.4453763365745544</v>
       </c>
       <c r="C41" s="1">
         <v>308</v>
@@ -3948,7 +3948,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3831693530082703</v>
+        <v>0.3846431970596314</v>
       </c>
       <c r="C42" s="1">
         <v>266</v>
@@ -3974,7 +3974,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3802883923053742</v>
+        <v>0.381751149892807</v>
       </c>
       <c r="C43" s="1">
         <v>264</v>
@@ -4000,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3630025386810303</v>
+        <v>0.3643988072872162</v>
       </c>
       <c r="C44" s="1">
         <v>252</v>
@@ -4026,7 +4026,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3428357541561127</v>
+        <v>0.3441544473171234</v>
       </c>
       <c r="C45" s="1">
         <v>238</v>
@@ -4052,7 +4052,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3284308910369873</v>
+        <v>0.3296941518783569</v>
       </c>
       <c r="C46" s="1">
         <v>228</v>
@@ -4078,7 +4078,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.293859213590622</v>
+        <v>0.2949895262718201</v>
       </c>
       <c r="C47" s="1">
         <v>204</v>
@@ -4104,7 +4104,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2823353111743927</v>
+        <v>0.2834213078022003</v>
       </c>
       <c r="C48" s="1">
         <v>196</v>
@@ -4130,7 +4130,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2708114385604858</v>
+        <v>0.2718530893325806</v>
       </c>
       <c r="C49" s="1">
         <v>188</v>
@@ -4156,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2592875361442566</v>
+        <v>0.2602848708629608</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -4182,7 +4182,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2564065754413605</v>
+        <v>0.2573928236961365</v>
       </c>
       <c r="C51" s="1">
         <v>178</v>
@@ -4208,7 +4208,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.253525584936142</v>
+        <v>0.2545007467269898</v>
       </c>
       <c r="C52" s="1">
         <v>176</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2247158586978912</v>
+        <v>0.2255802154541016</v>
       </c>
       <c r="C53" s="1">
         <v>156</v>
@@ -4260,7 +4260,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2160729467868805</v>
+        <v>0.2169040590524674</v>
       </c>
       <c r="C54" s="1">
         <v>150</v>
@@ -4286,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2131919711828232</v>
+        <v>0.2140119969844818</v>
       </c>
       <c r="C55" s="1">
         <v>148</v>
@@ -4312,7 +4312,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2131919711828232</v>
+        <v>0.2140119969844818</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
@@ -4338,7 +4338,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2016680836677551</v>
+        <v>0.2024437785148621</v>
       </c>
       <c r="C57" s="1">
         <v>140</v>
@@ -4364,7 +4364,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2016680836677551</v>
+        <v>0.2024437785148621</v>
       </c>
       <c r="C58" s="1">
         <v>140</v>
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2002276033163071</v>
+        <v>0.2009977549314499</v>
       </c>
       <c r="C59" s="1">
         <v>139</v>
@@ -4416,7 +4416,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1987871080636978</v>
+        <v>0.1995517313480377</v>
       </c>
       <c r="C60" s="1">
         <v>138</v>
@@ -4442,7 +4442,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1987871080636978</v>
+        <v>0.1995517313480377</v>
       </c>
       <c r="C61" s="1">
         <v>138</v>
@@ -4468,7 +4468,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1959061324596405</v>
+        <v>0.1966596841812134</v>
       </c>
       <c r="C62" s="1">
         <v>136</v>
@@ -4494,7 +4494,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1843822449445725</v>
+        <v>0.1850914657115936</v>
       </c>
       <c r="C63" s="1">
         <v>128</v>
@@ -4520,7 +4520,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1843822449445725</v>
+        <v>0.1850914657115936</v>
       </c>
       <c r="C64" s="1">
         <v>128</v>
@@ -4546,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.178620308637619</v>
+        <v>0.1793073564767838</v>
       </c>
       <c r="C65" s="1">
         <v>124</v>
@@ -4572,7 +4572,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1757393330335617</v>
+        <v>0.1764152944087982</v>
       </c>
       <c r="C66" s="1">
         <v>122</v>
@@ -4598,7 +4598,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1728583574295044</v>
+        <v>0.1735232472419739</v>
       </c>
       <c r="C67" s="1">
         <v>120</v>
@@ -4624,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1728583574295044</v>
+        <v>0.1735232472419739</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -4650,7 +4650,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1728583574295044</v>
+        <v>0.1735232472419739</v>
       </c>
       <c r="C69" s="1">
         <v>120</v>
@@ -4676,7 +4676,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1613344699144363</v>
+        <v>0.1619550287723541</v>
       </c>
       <c r="C70" s="1">
         <v>112</v>
@@ -4702,7 +4702,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1555725187063217</v>
+        <v>0.1561709195375443</v>
       </c>
       <c r="C71" s="1">
         <v>108</v>
@@ -4728,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1498105823993683</v>
+        <v>0.1503868103027344</v>
       </c>
       <c r="C72" s="1">
         <v>104</v>
@@ -4754,7 +4754,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1440486311912537</v>
+        <v>0.1446027010679245</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1440486311912537</v>
+        <v>0.1446027010679245</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -4806,16 +4806,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1411676555871964</v>
+        <v>0.1446027010679245</v>
       </c>
       <c r="C75" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -4832,16 +4832,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1325247436761856</v>
+        <v>0.1417106539011002</v>
       </c>
       <c r="C76" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4858,16 +4858,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1296437680721283</v>
+        <v>0.1330344825983048</v>
       </c>
       <c r="C77" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4884,16 +4884,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.126762792468071</v>
+        <v>0.1301424354314804</v>
       </c>
       <c r="C78" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -4910,16 +4910,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1238818243145943</v>
+        <v>0.1272503733634949</v>
       </c>
       <c r="C79" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1238818243145943</v>
+        <v>0.1243583261966705</v>
       </c>
       <c r="C80" s="1">
         <v>86</v>
@@ -4962,7 +4962,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1238818243145943</v>
+        <v>0.1243583261966705</v>
       </c>
       <c r="C81" s="1">
         <v>86</v>
@@ -4988,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1181198805570602</v>
+        <v>0.1185742169618607</v>
       </c>
       <c r="C82" s="1">
         <v>82</v>
@@ -5014,7 +5014,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1123579293489456</v>
+        <v>0.1127901077270508</v>
       </c>
       <c r="C83" s="1">
         <v>78</v>
@@ -5040,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1123579293489456</v>
+        <v>0.1127901077270508</v>
       </c>
       <c r="C84" s="1">
         <v>78</v>
@@ -5066,7 +5066,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1065959855914116</v>
+        <v>0.1070059984922409</v>
       </c>
       <c r="C85" s="1">
         <v>74</v>
@@ -5092,7 +5092,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1037150174379349</v>
+        <v>0.104113943874836</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5118,7 +5118,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1037150174379349</v>
+        <v>0.104113943874836</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5144,7 +5144,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1037150174379349</v>
+        <v>0.104113943874836</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
@@ -5170,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.09795306622982025</v>
+        <v>0.09832984209060669</v>
       </c>
       <c r="C89" s="1">
         <v>68</v>
@@ -5196,7 +5196,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.09219112247228622</v>
+        <v>0.09254573285579681</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5222,7 +5222,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.09219112247228622</v>
+        <v>0.09254573285579681</v>
       </c>
       <c r="C91" s="1">
         <v>64</v>
@@ -5248,7 +5248,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09219112247228622</v>
+        <v>0.09254573285579681</v>
       </c>
       <c r="C92" s="1">
         <v>64</v>
@@ -5274,7 +5274,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.08931015431880951</v>
+        <v>0.08965367823839188</v>
       </c>
       <c r="C93" s="1">
         <v>62</v>
@@ -5300,7 +5300,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0864291787147522</v>
+        <v>0.08676162362098694</v>
       </c>
       <c r="C94" s="1">
         <v>60</v>
@@ -5326,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.07490529119968414</v>
+        <v>0.07519340515136719</v>
       </c>
       <c r="C95" s="1">
         <v>52</v>
@@ -5352,7 +5352,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07490529119968414</v>
+        <v>0.07519340515136719</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5378,7 +5378,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.07490529119968414</v>
+        <v>0.07519340515136719</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.06914333999156952</v>
+        <v>0.06940929591655731</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5430,7 +5430,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.06914333999156952</v>
+        <v>0.06940929591655731</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5456,7 +5456,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.06914333999156952</v>
+        <v>0.06940929591655731</v>
       </c>
       <c r="C100" s="1">
         <v>48</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06338139623403549</v>
+        <v>0.06362518668174744</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5508,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06338139623403549</v>
+        <v>0.06362518668174744</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5534,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06338139623403549</v>
+        <v>0.06362518668174744</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5560,7 +5560,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06338139623403549</v>
+        <v>0.06362518668174744</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5586,7 +5586,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05761945247650147</v>
+        <v>0.05784108117222786</v>
       </c>
       <c r="C105" s="1">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05473848059773445</v>
+        <v>0.05494902655482292</v>
       </c>
       <c r="C106" s="1">
         <v>38</v>
@@ -5638,7 +5638,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05473848059773445</v>
+        <v>0.05494902655482292</v>
       </c>
       <c r="C107" s="1">
         <v>38</v>
@@ -5664,7 +5664,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05185750871896744</v>
+        <v>0.05205697193741798</v>
       </c>
       <c r="C108" s="1">
         <v>36</v>
@@ -5690,7 +5690,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05185750871896744</v>
+        <v>0.05205697193741798</v>
       </c>
       <c r="C109" s="1">
         <v>36</v>
@@ -5716,7 +5716,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.04609556123614311</v>
+        <v>0.04627286642789841</v>
       </c>
       <c r="C110" s="1">
         <v>32</v>
@@ -5742,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.04033361747860909</v>
+        <v>0.04048875719308853</v>
       </c>
       <c r="C111" s="1">
         <v>28</v>
@@ -5768,7 +5768,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.04033361747860909</v>
+        <v>0.04048875719308853</v>
       </c>
       <c r="C112" s="1">
         <v>28</v>
@@ -5794,7 +5794,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.03457166999578476</v>
+        <v>0.03470464795827866</v>
       </c>
       <c r="C113" s="1">
         <v>24</v>
@@ -5820,7 +5820,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03457166999578476</v>
+        <v>0.03470464795827866</v>
       </c>
       <c r="C114" s="1">
         <v>24</v>
@@ -5846,7 +5846,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.03169069811701775</v>
+        <v>0.03181259334087372</v>
       </c>
       <c r="C115" s="1">
         <v>22</v>
@@ -5872,7 +5872,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02880972623825073</v>
+        <v>0.02892054058611393</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -5898,7 +5898,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02880972623825073</v>
+        <v>0.02892054058611393</v>
       </c>
       <c r="C117" s="1">
         <v>20</v>
@@ -5924,7 +5924,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02592875435948372</v>
+        <v>0.02602848596870899</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5950,7 +5950,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02592875435948372</v>
+        <v>0.02602848596870899</v>
       </c>
       <c r="C119" s="1">
         <v>18</v>
@@ -5976,7 +5976,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.02304778061807156</v>
+        <v>0.0231364332139492</v>
       </c>
       <c r="C120" s="1">
         <v>16</v>
@@ -6002,7 +6002,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02304778061807156</v>
+        <v>0.0231364332139492</v>
       </c>
       <c r="C121" s="1">
         <v>16</v>
@@ -6028,7 +6028,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02304778061807156</v>
+        <v>0.0231364332139492</v>
       </c>
       <c r="C122" s="1">
         <v>16</v>
@@ -6054,7 +6054,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02304778061807156</v>
+        <v>0.0231364332139492</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6080,7 +6080,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02304778061807156</v>
+        <v>0.0231364332139492</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02016680873930454</v>
+        <v>0.02024437859654427</v>
       </c>
       <c r="C125" s="1">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01728583499789238</v>
+        <v>0.01735232397913933</v>
       </c>
       <c r="C126" s="1">
         <v>12</v>
@@ -6158,7 +6158,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01728583499789238</v>
+        <v>0.01735232397913933</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6184,7 +6184,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01728583499789238</v>
+        <v>0.01735232397913933</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6210,7 +6210,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01728583499789238</v>
+        <v>0.01735232397913933</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
@@ -6262,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6314,7 +6314,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6340,7 +6340,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6366,7 +6366,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6392,7 +6392,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01440486311912537</v>
+        <v>0.01446027029305697</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6418,7 +6418,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01152389030903578</v>
+        <v>0.0115682166069746</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01152389030903578</v>
+        <v>0.0115682166069746</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6470,7 +6470,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01152389030903578</v>
+        <v>0.0115682166069746</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
@@ -6496,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01152389030903578</v>
+        <v>0.0115682166069746</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6522,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01152389030903578</v>
+        <v>0.0115682166069746</v>
       </c>
       <c r="C141" s="1">
         <v>8</v>
@@ -6548,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6574,7 +6574,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6600,7 +6600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6626,7 +6626,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6652,7 +6652,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6678,7 +6678,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6704,7 +6704,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6730,7 +6730,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6756,7 +6756,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6782,7 +6782,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6808,7 +6808,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6834,7 +6834,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -6860,7 +6860,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -6886,7 +6886,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -6912,7 +6912,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -6938,7 +6938,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -6964,7 +6964,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -6990,7 +6990,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7016,7 +7016,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7042,7 +7042,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7068,7 +7068,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7094,7 +7094,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7120,7 +7120,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.00864291749894619</v>
+        <v>0.008676161989569664</v>
       </c>
       <c r="C164" s="1">
         <v>6</v>
@@ -7146,7 +7146,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.005761945154517889</v>
+        <v>0.005784108303487301</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7172,7 +7172,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.005761945154517889</v>
+        <v>0.005784108303487301</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.005761945154517889</v>
+        <v>0.005784108303487301</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7224,7 +7224,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.005761945154517889</v>
+        <v>0.005784108303487301</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
@@ -7250,7 +7250,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.002880972577258945</v>
+        <v>0.00289205415174365</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.002880972577258945</v>
+        <v>0.00289205415174365</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.002880972577258945</v>
+        <v>0.00289205415174365</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.002880972577258945</v>
+        <v>0.00289205415174365</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0.002880972577258945</v>
+        <v>0.00289205415174365</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -29,40 +29,40 @@
     <t>mcu_cmic_gd32f470vet6.o</t>
   </si>
   <si>
+    <t>usart_app.o</t>
+  </si>
+  <si>
+    <t>btn_app.o</t>
+  </si>
+  <si>
+    <t>c_w.l</t>
+  </si>
+  <si>
+    <t>libspace.o</t>
+  </si>
+  <si>
+    <t>perf_counter.o</t>
+  </si>
+  <si>
+    <t>sdio_sdcard.o</t>
+  </si>
+  <si>
+    <t>scheduler.o</t>
+  </si>
+  <si>
+    <t>ebtn.o</t>
+  </si>
+  <si>
+    <t>oled.o</t>
+  </si>
+  <si>
+    <t>sampling_control.o</t>
+  </si>
+  <si>
+    <t>ff.o</t>
+  </si>
+  <si>
     <t>config_manager.o</t>
-  </si>
-  <si>
-    <t>usart_app.o</t>
-  </si>
-  <si>
-    <t>btn_app.o</t>
-  </si>
-  <si>
-    <t>c_w.l</t>
-  </si>
-  <si>
-    <t>libspace.o</t>
-  </si>
-  <si>
-    <t>perf_counter.o</t>
-  </si>
-  <si>
-    <t>sdio_sdcard.o</t>
-  </si>
-  <si>
-    <t>scheduler.o</t>
-  </si>
-  <si>
-    <t>ebtn.o</t>
-  </si>
-  <si>
-    <t>oled.o</t>
-  </si>
-  <si>
-    <t>sampling_control.o</t>
-  </si>
-  <si>
-    <t>ff.o</t>
   </si>
   <si>
     <t>led_app.o</t>
@@ -663,40 +663,40 @@
                   <c:v>mcu_cmic_gd32f470vet6.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>usart_app.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>btn_app.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c_w.l</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>libspace.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>perf_counter.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdio_sdcard.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scheduler.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ebtn.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sampling_control.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ff.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>config_manager.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>usart_app.o</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>btn_app.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>c_w.l</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>libspace.o</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>perf_counter.o</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>sdio_sdcard.o</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>scheduler.o</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ebtn.o</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>oled.o</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>sampling_control.o</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>ff.o</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>led_app.o</c:v>
@@ -723,61 +723,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>38.52140045166016</c:v>
+                  <c:v>41.73703384399414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.46025657653809</c:v>
+                  <c:v>30.88057899475098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.03223991394043</c:v>
+                  <c:v>8.715319633483887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.893273830413818</c:v>
+                  <c:v>7.780458450317383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.170650482177734</c:v>
+                  <c:v>2.955367803573608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.723735332489014</c:v>
+                  <c:v>1.447527170181274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3340744972229</c:v>
+                  <c:v>1.447527170181274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3340744972229</c:v>
+                  <c:v>1.206272602081299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.11172878742218</c:v>
+                  <c:v>0.965018093585968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8893830180168152</c:v>
+                  <c:v>0.965018093585968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8893830180168152</c:v>
+                  <c:v>0.9047044515609741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8337965607643127</c:v>
+                  <c:v>0.3317249715328217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3057253956794739</c:v>
+                  <c:v>0.1809408962726593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1667593121528626</c:v>
+                  <c:v>0.120627261698246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1111728772521019</c:v>
+                  <c:v>0.120627261698246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.09727626293897629</c:v>
+                  <c:v>0.1055488511919975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05558643862605095</c:v>
+                  <c:v>0.060313630849123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05558643862605095</c:v>
+                  <c:v>0.060313630849123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.01389660965651274</c:v>
+                  <c:v>0.01507840771228075</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -860,16 +860,16 @@
                   <c:v>ff.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>oled.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>data_memory.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>oled.o</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>btod.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>config_manager.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>btod.o</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ebtn.o</c:v>
@@ -1376,517 +1376,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>18.38623428344727</c:v>
+                  <c:v>18.97562980651856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.791844367980957</c:v>
+                  <c:v>9.073678970336914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.475164413452148</c:v>
+                  <c:v>8.167803764343262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.914250373840332</c:v>
+                  <c:v>5.775516033172607</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.596124649047852</c:v>
+                  <c:v>3.757816314697266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.253560781478882</c:v>
+                  <c:v>3.211604833602905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.111850261688232</c:v>
+                  <c:v>3.077290534973145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.461138010025024</c:v>
+                  <c:v>2.540033102035523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.307859182357788</c:v>
+                  <c:v>2.381840705871582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.281830787658691</c:v>
+                  <c:v>2.35497784614563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.200853109359741</c:v>
+                  <c:v>2.271404504776001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.839346408843994</c:v>
+                  <c:v>1.898309111595154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.524112462997437</c:v>
+                  <c:v>1.572970032691956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.411322355270386</c:v>
+                  <c:v>1.45656418800354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.28985607624054</c:v>
+                  <c:v>1.331204175949097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.278287887573242</c:v>
+                  <c:v>1.319265127182007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.159713745117188</c:v>
+                  <c:v>1.196889877319336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.156821608543396</c:v>
+                  <c:v>1.193905115127564</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.138023257255554</c:v>
+                  <c:v>1.174504160881043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.078736186027527</c:v>
+                  <c:v>1.113316535949707</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.075844168663025</c:v>
+                  <c:v>1.110331773757935</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.070060014724731</c:v>
+                  <c:v>1.10436224937439</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.015110969543457</c:v>
+                  <c:v>1.047651767730713</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9717301726341248</c:v>
+                  <c:v>1.002880334854126</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8473718166351318</c:v>
+                  <c:v>0.8745355010032654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8300195336341858</c:v>
+                  <c:v>0.8566269278526306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7895307540893555</c:v>
+                  <c:v>0.8148402571678162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7548261284828186</c:v>
+                  <c:v>0.7790231108665466</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7490420341491699</c:v>
+                  <c:v>0.7730535864830017</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7114453315734863</c:v>
+                  <c:v>0.7342516183853149</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6507121920585632</c:v>
+                  <c:v>0.6715716123580933</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6333598494529724</c:v>
+                  <c:v>0.6536630392074585</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5914250612258911</c:v>
+                  <c:v>0.6103839874267578</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5899790525436401</c:v>
+                  <c:v>0.6088916063308716</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5437061786651611</c:v>
+                  <c:v>0.5611354112625122</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4916491806507111</c:v>
+                  <c:v>0.5074096918106079</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4800809919834137</c:v>
+                  <c:v>0.4954706132411957</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4569445550441742</c:v>
+                  <c:v>0.471592515707016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4453763365745544</c:v>
+                  <c:v>0.4596534669399262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3846431970596314</c:v>
+                  <c:v>0.3969734609127045</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.381751149892807</c:v>
+                  <c:v>0.393988698720932</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3643988072872162</c:v>
+                  <c:v>0.3760801255702972</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3441544473171234</c:v>
+                  <c:v>0.3551867604255676</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3296941518783569</c:v>
+                  <c:v>0.3402629494667053</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2949895262718201</c:v>
+                  <c:v>0.3044458031654358</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2834213078022003</c:v>
+                  <c:v>0.292506754398346</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2718530893325806</c:v>
+                  <c:v>0.2805677056312561</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2602848708629608</c:v>
+                  <c:v>0.2686286568641663</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2573928236961365</c:v>
+                  <c:v>0.2656438946723938</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2545007467269898</c:v>
+                  <c:v>0.2626591324806213</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2255802154541016</c:v>
+                  <c:v>0.2328114956617355</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2169040590524674</c:v>
+                  <c:v>0.2238572090864182</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2140119969844818</c:v>
+                  <c:v>0.2208724468946457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2140119969844818</c:v>
+                  <c:v>0.2208724468946457</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2024437785148621</c:v>
+                  <c:v>0.2089333981275559</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2024437785148621</c:v>
+                  <c:v>0.2089333981275559</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2009977549314499</c:v>
+                  <c:v>0.2074410170316696</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1995517313480377</c:v>
+                  <c:v>0.2059486359357834</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1995517313480377</c:v>
+                  <c:v>0.2059486359357834</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1966596841812134</c:v>
+                  <c:v>0.2029638737440109</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1850914657115936</c:v>
+                  <c:v>0.1910248249769211</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1850914657115936</c:v>
+                  <c:v>0.1910248249769211</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1793073564767838</c:v>
+                  <c:v>0.185055285692215</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1764152944087982</c:v>
+                  <c:v>0.1820705235004425</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1735232472419739</c:v>
+                  <c:v>0.17908576130867</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1735232472419739</c:v>
+                  <c:v>0.17908576130867</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1735232472419739</c:v>
+                  <c:v>0.17908576130867</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1619550287723541</c:v>
+                  <c:v>0.1671467125415802</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1561709195375443</c:v>
+                  <c:v>0.1611771881580353</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1503868103027344</c:v>
+                  <c:v>0.1552076637744904</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1446027010679245</c:v>
+                  <c:v>0.1492381393909454</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1446027010679245</c:v>
+                  <c:v>0.1492381393909454</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1446027010679245</c:v>
+                  <c:v>0.1492381393909454</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1417106539011002</c:v>
+                  <c:v>0.146253377199173</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1330344825983048</c:v>
+                  <c:v>0.1372990906238556</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1301424354314804</c:v>
+                  <c:v>0.1343143284320831</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1272503733634949</c:v>
+                  <c:v>0.1313295662403107</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1243583261966705</c:v>
+                  <c:v>0.1283448040485382</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1243583261966705</c:v>
+                  <c:v>0.1283448040485382</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1185742169618607</c:v>
+                  <c:v>0.1223752722144127</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1127901077270508</c:v>
+                  <c:v>0.1164057478308678</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1127901077270508</c:v>
+                  <c:v>0.1164057478308678</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1070059984922409</c:v>
+                  <c:v>0.1104362234473229</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.104113943874836</c:v>
+                  <c:v>0.1074514612555504</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.104113943874836</c:v>
+                  <c:v>0.1074514612555504</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.104113943874836</c:v>
+                  <c:v>0.1074514612555504</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.09832984209060669</c:v>
+                  <c:v>0.1014819368720055</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.09254573285579681</c:v>
+                  <c:v>0.09551241248846054</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.09254573285579681</c:v>
+                  <c:v>0.09551241248846054</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09254573285579681</c:v>
+                  <c:v>0.09551241248846054</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.08965367823839188</c:v>
+                  <c:v>0.09252764284610748</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.08676162362098694</c:v>
+                  <c:v>0.08954288065433502</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.07519340515136719</c:v>
+                  <c:v>0.07760383188724518</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07519340515136719</c:v>
+                  <c:v>0.07760383188724518</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.07519340515136719</c:v>
+                  <c:v>0.07760383188724518</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.06940929591655731</c:v>
+                  <c:v>0.07163430750370026</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.06940929591655731</c:v>
+                  <c:v>0.07163430750370026</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.06940929591655731</c:v>
+                  <c:v>0.07163430750370026</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06362518668174744</c:v>
+                  <c:v>0.06566478312015533</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06362518668174744</c:v>
+                  <c:v>0.06566478312015533</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06362518668174744</c:v>
+                  <c:v>0.06566478312015533</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06362518668174744</c:v>
+                  <c:v>0.06566478312015533</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05784108117222786</c:v>
+                  <c:v>0.05969525501132011</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05494902655482292</c:v>
+                  <c:v>0.05671049281954765</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05494902655482292</c:v>
+                  <c:v>0.05671049281954765</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05205697193741798</c:v>
+                  <c:v>0.05372573062777519</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05205697193741798</c:v>
+                  <c:v>0.05372573062777519</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04627286642789841</c:v>
+                  <c:v>0.04775620624423027</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.04048875719308853</c:v>
+                  <c:v>0.04178667813539505</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.04048875719308853</c:v>
+                  <c:v>0.04178667813539505</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.03470464795827866</c:v>
+                  <c:v>0.03581715375185013</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03470464795827866</c:v>
+                  <c:v>0.03581715375185013</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.03181259334087372</c:v>
+                  <c:v>0.03283239156007767</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02892054058611393</c:v>
+                  <c:v>0.02984762750566006</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02892054058611393</c:v>
+                  <c:v>0.02984762750566006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.02602848596870899</c:v>
+                  <c:v>0.0268628653138876</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.02602848596870899</c:v>
+                  <c:v>0.0268628653138876</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0231364332139492</c:v>
+                  <c:v>0.02387810312211514</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0231364332139492</c:v>
+                  <c:v>0.02387810312211514</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0231364332139492</c:v>
+                  <c:v>0.02387810312211514</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0231364332139492</c:v>
+                  <c:v>0.02387810312211514</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0231364332139492</c:v>
+                  <c:v>0.02387810312211514</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02024437859654427</c:v>
+                  <c:v>0.02089333906769753</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01735232397913933</c:v>
+                  <c:v>0.01790857687592506</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01735232397913933</c:v>
+                  <c:v>0.01790857687592506</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01735232397913933</c:v>
+                  <c:v>0.01790857687592506</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01735232397913933</c:v>
+                  <c:v>0.01790857687592506</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01446027029305697</c:v>
+                  <c:v>0.01492381375283003</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0115682166069746</c:v>
+                  <c:v>0.01193905156105757</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0115682166069746</c:v>
+                  <c:v>0.01193905156105757</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0115682166069746</c:v>
+                  <c:v>0.01193905156105757</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0115682166069746</c:v>
+                  <c:v>0.01193905156105757</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0115682166069746</c:v>
+                  <c:v>0.01193905156105757</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.008676161989569664</c:v>
+                  <c:v>0.008954288437962532</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.005784108303487301</c:v>
+                  <c:v>0.005969525780528784</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.005784108303487301</c:v>
+                  <c:v>0.005969525780528784</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.005784108303487301</c:v>
+                  <c:v>0.005969525780528784</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.005784108303487301</c:v>
+                  <c:v>0.005969525780528784</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.00289205415174365</c:v>
+                  <c:v>0.002984762890264392</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.00289205415174365</c:v>
+                  <c:v>0.002984762890264392</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.00289205415174365</c:v>
+                  <c:v>0.002984762890264392</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.00289205415174365</c:v>
+                  <c:v>0.002984762890264392</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.00289205415174365</c:v>
+                  <c:v>0.002984762890264392</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -2356,22 +2356,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>38.52140045166016</v>
+        <v>41.73703384399414</v>
       </c>
       <c r="C3" s="1">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="D3" s="1">
-        <v>4090</v>
+        <v>2518</v>
       </c>
       <c r="E3" s="1">
-        <v>4070</v>
+        <v>2502</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>2752</v>
@@ -2382,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>28.46025657653809</v>
+        <v>30.88057899475098</v>
       </c>
       <c r="C4" s="1">
         <v>2048</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8.03223991394043</v>
+        <v>8.715319633483887</v>
       </c>
       <c r="C5" s="1">
         <v>578</v>
@@ -2434,25 +2434,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7.893273830413818</v>
+        <v>7.780458450317383</v>
       </c>
       <c r="C6" s="1">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="D6" s="1">
-        <v>2250</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1">
-        <v>2210</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>560</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>7.170650482177734</v>
+        <v>2.955367803573608</v>
       </c>
       <c r="C7" s="1">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1">
-        <v>180</v>
+        <v>976</v>
       </c>
       <c r="E7" s="1">
-        <v>176</v>
+        <v>766</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="H7" s="1">
-        <v>512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.723735332489014</v>
+        <v>1.447527170181274</v>
       </c>
       <c r="C8" s="1">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
-        <v>976</v>
+        <v>12715</v>
       </c>
       <c r="E8" s="1">
-        <v>766</v>
+        <v>12164</v>
       </c>
       <c r="F8" s="1">
-        <v>14</v>
+        <v>551</v>
       </c>
       <c r="G8" s="1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2512,19 +2512,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.3340744972229</v>
+        <v>1.447527170181274</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
       </c>
       <c r="D9" s="1">
-        <v>12715</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>12164</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2538,25 +2538,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.3340744972229</v>
+        <v>1.206272602081299</v>
       </c>
       <c r="C10" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>744</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.11172878742218</v>
+        <v>0.965018093585968</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1">
-        <v>744</v>
+        <v>6080</v>
       </c>
       <c r="E11" s="1">
-        <v>660</v>
+        <v>6048</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.8893830180168152</v>
+        <v>0.965018093585968</v>
       </c>
       <c r="C12" s="1">
         <v>64</v>
       </c>
       <c r="D12" s="1">
-        <v>6080</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1">
-        <v>6048</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.8893830180168152</v>
+        <v>0.9047044515609741</v>
       </c>
       <c r="C13" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
-        <v>136</v>
+        <v>1702</v>
       </c>
       <c r="E13" s="1">
-        <v>72</v>
+        <v>1702</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.8337965607643127</v>
+        <v>0.3317249715328217</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>1702</v>
+        <v>3870</v>
       </c>
       <c r="E14" s="1">
-        <v>1702</v>
+        <v>1136</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>2712</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2668,22 +2668,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.3057253956794739</v>
+        <v>0.1809408962726593</v>
       </c>
       <c r="C15" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>3870</v>
+        <v>672</v>
       </c>
       <c r="E15" s="1">
-        <v>1136</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1">
-        <v>2712</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -2694,22 +2694,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1667593121528626</v>
+        <v>0.120627261698246</v>
       </c>
       <c r="C16" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>672</v>
+        <v>5473</v>
       </c>
       <c r="E16" s="1">
-        <v>660</v>
+        <v>5452</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1111728772521019</v>
+        <v>0.120627261698246</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>5861</v>
+        <v>2062</v>
       </c>
       <c r="E17" s="1">
-        <v>5840</v>
+        <v>2022</v>
       </c>
       <c r="F17" s="1">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
         <v>8</v>
@@ -2746,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.09727626293897629</v>
+        <v>0.1055488511919975</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.05558643862605095</v>
+        <v>0.060313630849123</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2798,7 +2798,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.05558643862605095</v>
+        <v>0.060313630849123</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -2824,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>0.01389660965651274</v>
+        <v>0.01507840771228075</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>18.38623428344727</v>
+        <v>18.97562980651856</v>
       </c>
       <c r="C3" s="1">
         <v>12715</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>8.791844367980957</v>
+        <v>9.073678970336914</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2983,19 +2983,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>8.475164413452148</v>
+        <v>8.167803764343262</v>
       </c>
       <c r="C5" s="1">
-        <v>5861</v>
+        <v>5473</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>5840</v>
+        <v>5452</v>
       </c>
       <c r="F5" s="1">
         <v>13</v>
@@ -3009,103 +3009,103 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>5.914250373840332</v>
+        <v>5.775516033172607</v>
       </c>
       <c r="C6" s="1">
-        <v>4090</v>
+        <v>3870</v>
       </c>
       <c r="D6" s="1">
-        <v>2772</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
-        <v>4070</v>
+        <v>1136</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2712</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>2752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5.596124649047852</v>
+        <v>3.757816314697266</v>
       </c>
       <c r="C7" s="1">
-        <v>3870</v>
+        <v>2518</v>
       </c>
       <c r="D7" s="1">
-        <v>22</v>
+        <v>2768</v>
       </c>
       <c r="E7" s="1">
-        <v>1136</v>
+        <v>2502</v>
       </c>
       <c r="F7" s="1">
-        <v>2712</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>3.253560781478882</v>
+        <v>3.211604833602905</v>
       </c>
       <c r="C8" s="1">
-        <v>2250</v>
+        <v>2152</v>
       </c>
       <c r="D8" s="1">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2210</v>
+        <v>2152</v>
       </c>
       <c r="F8" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>3.111850261688232</v>
+        <v>3.077290534973145</v>
       </c>
       <c r="C9" s="1">
-        <v>2152</v>
+        <v>2062</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>2152</v>
+        <v>2022</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>2.461138010025024</v>
+        <v>2.540033102035523</v>
       </c>
       <c r="C10" s="1">
         <v>1702</v>
@@ -3142,7 +3142,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2.307859182357788</v>
+        <v>2.381840705871582</v>
       </c>
       <c r="C11" s="1">
         <v>1596</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.281830787658691</v>
+        <v>2.35497784614563</v>
       </c>
       <c r="C12" s="1">
         <v>1578</v>
@@ -3194,7 +3194,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.200853109359741</v>
+        <v>2.271404504776001</v>
       </c>
       <c r="C13" s="1">
         <v>1522</v>
@@ -3220,7 +3220,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>1.839346408843994</v>
+        <v>1.898309111595154</v>
       </c>
       <c r="C14" s="1">
         <v>1272</v>
@@ -3246,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1.524112462997437</v>
+        <v>1.572970032691956</v>
       </c>
       <c r="C15" s="1">
         <v>1054</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>1.411322355270386</v>
+        <v>1.45656418800354</v>
       </c>
       <c r="C16" s="1">
         <v>976</v>
@@ -3298,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.28985607624054</v>
+        <v>1.331204175949097</v>
       </c>
       <c r="C17" s="1">
         <v>892</v>
@@ -3324,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.278287887573242</v>
+        <v>1.319265127182007</v>
       </c>
       <c r="C18" s="1">
         <v>884</v>
@@ -3350,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.159713745117188</v>
+        <v>1.196889877319336</v>
       </c>
       <c r="C19" s="1">
         <v>802</v>
@@ -3376,7 +3376,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>1.156821608543396</v>
+        <v>1.193905115127564</v>
       </c>
       <c r="C20" s="1">
         <v>800</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.138023257255554</v>
+        <v>1.174504160881043</v>
       </c>
       <c r="C21" s="1">
         <v>787</v>
@@ -3428,7 +3428,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.078736186027527</v>
+        <v>1.113316535949707</v>
       </c>
       <c r="C22" s="1">
         <v>746</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1.075844168663025</v>
+        <v>1.110331773757935</v>
       </c>
       <c r="C23" s="1">
         <v>744</v>
@@ -3480,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.070060014724731</v>
+        <v>1.10436224937439</v>
       </c>
       <c r="C24" s="1">
         <v>740</v>
@@ -3506,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.015110969543457</v>
+        <v>1.047651767730713</v>
       </c>
       <c r="C25" s="1">
         <v>702</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>0.9717301726341248</v>
+        <v>1.002880334854126</v>
       </c>
       <c r="C26" s="1">
         <v>672</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8473718166351318</v>
+        <v>0.8745355010032654</v>
       </c>
       <c r="C27" s="1">
         <v>586</v>
@@ -3584,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8300195336341858</v>
+        <v>0.8566269278526306</v>
       </c>
       <c r="C28" s="1">
         <v>574</v>
@@ -3610,7 +3610,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7895307540893555</v>
+        <v>0.8148402571678162</v>
       </c>
       <c r="C29" s="1">
         <v>546</v>
@@ -3636,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7548261284828186</v>
+        <v>0.7790231108665466</v>
       </c>
       <c r="C30" s="1">
         <v>522</v>
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7490420341491699</v>
+        <v>0.7730535864830017</v>
       </c>
       <c r="C31" s="1">
         <v>518</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7114453315734863</v>
+        <v>0.7342516183853149</v>
       </c>
       <c r="C32" s="1">
         <v>492</v>
@@ -3714,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6507121920585632</v>
+        <v>0.6715716123580933</v>
       </c>
       <c r="C33" s="1">
         <v>450</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6333598494529724</v>
+        <v>0.6536630392074585</v>
       </c>
       <c r="C34" s="1">
         <v>438</v>
@@ -3766,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5914250612258911</v>
+        <v>0.6103839874267578</v>
       </c>
       <c r="C35" s="1">
         <v>409</v>
@@ -3792,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5899790525436401</v>
+        <v>0.6088916063308716</v>
       </c>
       <c r="C36" s="1">
         <v>408</v>
@@ -3818,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5437061786651611</v>
+        <v>0.5611354112625122</v>
       </c>
       <c r="C37" s="1">
         <v>376</v>
@@ -3844,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4916491806507111</v>
+        <v>0.5074096918106079</v>
       </c>
       <c r="C38" s="1">
         <v>340</v>
@@ -3870,7 +3870,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4800809919834137</v>
+        <v>0.4954706132411957</v>
       </c>
       <c r="C39" s="1">
         <v>332</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4569445550441742</v>
+        <v>0.471592515707016</v>
       </c>
       <c r="C40" s="1">
         <v>316</v>
@@ -3922,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4453763365745544</v>
+        <v>0.4596534669399262</v>
       </c>
       <c r="C41" s="1">
         <v>308</v>
@@ -3948,7 +3948,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3846431970596314</v>
+        <v>0.3969734609127045</v>
       </c>
       <c r="C42" s="1">
         <v>266</v>
@@ -3974,7 +3974,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.381751149892807</v>
+        <v>0.393988698720932</v>
       </c>
       <c r="C43" s="1">
         <v>264</v>
@@ -4000,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3643988072872162</v>
+        <v>0.3760801255702972</v>
       </c>
       <c r="C44" s="1">
         <v>252</v>
@@ -4026,7 +4026,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3441544473171234</v>
+        <v>0.3551867604255676</v>
       </c>
       <c r="C45" s="1">
         <v>238</v>
@@ -4052,7 +4052,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3296941518783569</v>
+        <v>0.3402629494667053</v>
       </c>
       <c r="C46" s="1">
         <v>228</v>
@@ -4078,7 +4078,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2949895262718201</v>
+        <v>0.3044458031654358</v>
       </c>
       <c r="C47" s="1">
         <v>204</v>
@@ -4104,7 +4104,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2834213078022003</v>
+        <v>0.292506754398346</v>
       </c>
       <c r="C48" s="1">
         <v>196</v>
@@ -4130,7 +4130,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2718530893325806</v>
+        <v>0.2805677056312561</v>
       </c>
       <c r="C49" s="1">
         <v>188</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2602848708629608</v>
+        <v>0.2686286568641663</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -4182,7 +4182,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2573928236961365</v>
+        <v>0.2656438946723938</v>
       </c>
       <c r="C51" s="1">
         <v>178</v>
@@ -4208,7 +4208,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2545007467269898</v>
+        <v>0.2626591324806213</v>
       </c>
       <c r="C52" s="1">
         <v>176</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2255802154541016</v>
+        <v>0.2328114956617355</v>
       </c>
       <c r="C53" s="1">
         <v>156</v>
@@ -4260,7 +4260,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2169040590524674</v>
+        <v>0.2238572090864182</v>
       </c>
       <c r="C54" s="1">
         <v>150</v>
@@ -4286,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2140119969844818</v>
+        <v>0.2208724468946457</v>
       </c>
       <c r="C55" s="1">
         <v>148</v>
@@ -4312,7 +4312,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2140119969844818</v>
+        <v>0.2208724468946457</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
@@ -4338,7 +4338,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2024437785148621</v>
+        <v>0.2089333981275559</v>
       </c>
       <c r="C57" s="1">
         <v>140</v>
@@ -4364,7 +4364,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2024437785148621</v>
+        <v>0.2089333981275559</v>
       </c>
       <c r="C58" s="1">
         <v>140</v>
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2009977549314499</v>
+        <v>0.2074410170316696</v>
       </c>
       <c r="C59" s="1">
         <v>139</v>
@@ -4416,7 +4416,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1995517313480377</v>
+        <v>0.2059486359357834</v>
       </c>
       <c r="C60" s="1">
         <v>138</v>
@@ -4442,7 +4442,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1995517313480377</v>
+        <v>0.2059486359357834</v>
       </c>
       <c r="C61" s="1">
         <v>138</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1966596841812134</v>
+        <v>0.2029638737440109</v>
       </c>
       <c r="C62" s="1">
         <v>136</v>
@@ -4494,7 +4494,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1850914657115936</v>
+        <v>0.1910248249769211</v>
       </c>
       <c r="C63" s="1">
         <v>128</v>
@@ -4520,7 +4520,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1850914657115936</v>
+        <v>0.1910248249769211</v>
       </c>
       <c r="C64" s="1">
         <v>128</v>
@@ -4546,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1793073564767838</v>
+        <v>0.185055285692215</v>
       </c>
       <c r="C65" s="1">
         <v>124</v>
@@ -4572,7 +4572,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1764152944087982</v>
+        <v>0.1820705235004425</v>
       </c>
       <c r="C66" s="1">
         <v>122</v>
@@ -4598,7 +4598,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1735232472419739</v>
+        <v>0.17908576130867</v>
       </c>
       <c r="C67" s="1">
         <v>120</v>
@@ -4624,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1735232472419739</v>
+        <v>0.17908576130867</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -4650,7 +4650,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1735232472419739</v>
+        <v>0.17908576130867</v>
       </c>
       <c r="C69" s="1">
         <v>120</v>
@@ -4676,7 +4676,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1619550287723541</v>
+        <v>0.1671467125415802</v>
       </c>
       <c r="C70" s="1">
         <v>112</v>
@@ -4702,7 +4702,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1561709195375443</v>
+        <v>0.1611771881580353</v>
       </c>
       <c r="C71" s="1">
         <v>108</v>
@@ -4728,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1503868103027344</v>
+        <v>0.1552076637744904</v>
       </c>
       <c r="C72" s="1">
         <v>104</v>
@@ -4754,7 +4754,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1446027010679245</v>
+        <v>0.1492381393909454</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1446027010679245</v>
+        <v>0.1492381393909454</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -4806,7 +4806,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1446027010679245</v>
+        <v>0.1492381393909454</v>
       </c>
       <c r="C75" s="1">
         <v>100</v>
@@ -4832,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1417106539011002</v>
+        <v>0.146253377199173</v>
       </c>
       <c r="C76" s="1">
         <v>98</v>
@@ -4858,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1330344825983048</v>
+        <v>0.1372990906238556</v>
       </c>
       <c r="C77" s="1">
         <v>92</v>
@@ -4884,7 +4884,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1301424354314804</v>
+        <v>0.1343143284320831</v>
       </c>
       <c r="C78" s="1">
         <v>90</v>
@@ -4910,7 +4910,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1272503733634949</v>
+        <v>0.1313295662403107</v>
       </c>
       <c r="C79" s="1">
         <v>88</v>
@@ -4936,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1243583261966705</v>
+        <v>0.1283448040485382</v>
       </c>
       <c r="C80" s="1">
         <v>86</v>
@@ -4962,7 +4962,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1243583261966705</v>
+        <v>0.1283448040485382</v>
       </c>
       <c r="C81" s="1">
         <v>86</v>
@@ -4988,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1185742169618607</v>
+        <v>0.1223752722144127</v>
       </c>
       <c r="C82" s="1">
         <v>82</v>
@@ -5014,7 +5014,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1127901077270508</v>
+        <v>0.1164057478308678</v>
       </c>
       <c r="C83" s="1">
         <v>78</v>
@@ -5040,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1127901077270508</v>
+        <v>0.1164057478308678</v>
       </c>
       <c r="C84" s="1">
         <v>78</v>
@@ -5066,7 +5066,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1070059984922409</v>
+        <v>0.1104362234473229</v>
       </c>
       <c r="C85" s="1">
         <v>74</v>
@@ -5092,7 +5092,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.104113943874836</v>
+        <v>0.1074514612555504</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5118,7 +5118,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.104113943874836</v>
+        <v>0.1074514612555504</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5144,7 +5144,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.104113943874836</v>
+        <v>0.1074514612555504</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
@@ -5170,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.09832984209060669</v>
+        <v>0.1014819368720055</v>
       </c>
       <c r="C89" s="1">
         <v>68</v>
@@ -5196,7 +5196,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.09254573285579681</v>
+        <v>0.09551241248846054</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5222,7 +5222,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.09254573285579681</v>
+        <v>0.09551241248846054</v>
       </c>
       <c r="C91" s="1">
         <v>64</v>
@@ -5248,7 +5248,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09254573285579681</v>
+        <v>0.09551241248846054</v>
       </c>
       <c r="C92" s="1">
         <v>64</v>
@@ -5274,7 +5274,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.08965367823839188</v>
+        <v>0.09252764284610748</v>
       </c>
       <c r="C93" s="1">
         <v>62</v>
@@ -5300,7 +5300,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.08676162362098694</v>
+        <v>0.08954288065433502</v>
       </c>
       <c r="C94" s="1">
         <v>60</v>
@@ -5326,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.07519340515136719</v>
+        <v>0.07760383188724518</v>
       </c>
       <c r="C95" s="1">
         <v>52</v>
@@ -5352,7 +5352,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07519340515136719</v>
+        <v>0.07760383188724518</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5378,7 +5378,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.07519340515136719</v>
+        <v>0.07760383188724518</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.06940929591655731</v>
+        <v>0.07163430750370026</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5430,7 +5430,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.06940929591655731</v>
+        <v>0.07163430750370026</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5456,7 +5456,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.06940929591655731</v>
+        <v>0.07163430750370026</v>
       </c>
       <c r="C100" s="1">
         <v>48</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06362518668174744</v>
+        <v>0.06566478312015533</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5508,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06362518668174744</v>
+        <v>0.06566478312015533</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5534,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06362518668174744</v>
+        <v>0.06566478312015533</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5560,7 +5560,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06362518668174744</v>
+        <v>0.06566478312015533</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5586,7 +5586,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05784108117222786</v>
+        <v>0.05969525501132011</v>
       </c>
       <c r="C105" s="1">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05494902655482292</v>
+        <v>0.05671049281954765</v>
       </c>
       <c r="C106" s="1">
         <v>38</v>
@@ -5638,7 +5638,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05494902655482292</v>
+        <v>0.05671049281954765</v>
       </c>
       <c r="C107" s="1">
         <v>38</v>
@@ -5664,7 +5664,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05205697193741798</v>
+        <v>0.05372573062777519</v>
       </c>
       <c r="C108" s="1">
         <v>36</v>
@@ -5690,7 +5690,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05205697193741798</v>
+        <v>0.05372573062777519</v>
       </c>
       <c r="C109" s="1">
         <v>36</v>
@@ -5716,7 +5716,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.04627286642789841</v>
+        <v>0.04775620624423027</v>
       </c>
       <c r="C110" s="1">
         <v>32</v>
@@ -5742,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.04048875719308853</v>
+        <v>0.04178667813539505</v>
       </c>
       <c r="C111" s="1">
         <v>28</v>
@@ -5768,7 +5768,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.04048875719308853</v>
+        <v>0.04178667813539505</v>
       </c>
       <c r="C112" s="1">
         <v>28</v>
@@ -5794,7 +5794,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.03470464795827866</v>
+        <v>0.03581715375185013</v>
       </c>
       <c r="C113" s="1">
         <v>24</v>
@@ -5820,7 +5820,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03470464795827866</v>
+        <v>0.03581715375185013</v>
       </c>
       <c r="C114" s="1">
         <v>24</v>
@@ -5846,7 +5846,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.03181259334087372</v>
+        <v>0.03283239156007767</v>
       </c>
       <c r="C115" s="1">
         <v>22</v>
@@ -5872,7 +5872,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02892054058611393</v>
+        <v>0.02984762750566006</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -5898,7 +5898,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02892054058611393</v>
+        <v>0.02984762750566006</v>
       </c>
       <c r="C117" s="1">
         <v>20</v>
@@ -5924,7 +5924,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.02602848596870899</v>
+        <v>0.0268628653138876</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5950,7 +5950,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.02602848596870899</v>
+        <v>0.0268628653138876</v>
       </c>
       <c r="C119" s="1">
         <v>18</v>
@@ -5976,7 +5976,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.0231364332139492</v>
+        <v>0.02387810312211514</v>
       </c>
       <c r="C120" s="1">
         <v>16</v>
@@ -6002,7 +6002,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.0231364332139492</v>
+        <v>0.02387810312211514</v>
       </c>
       <c r="C121" s="1">
         <v>16</v>
@@ -6028,7 +6028,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.0231364332139492</v>
+        <v>0.02387810312211514</v>
       </c>
       <c r="C122" s="1">
         <v>16</v>
@@ -6054,7 +6054,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.0231364332139492</v>
+        <v>0.02387810312211514</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6080,7 +6080,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.0231364332139492</v>
+        <v>0.02387810312211514</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02024437859654427</v>
+        <v>0.02089333906769753</v>
       </c>
       <c r="C125" s="1">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01735232397913933</v>
+        <v>0.01790857687592506</v>
       </c>
       <c r="C126" s="1">
         <v>12</v>
@@ -6158,7 +6158,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01735232397913933</v>
+        <v>0.01790857687592506</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6184,7 +6184,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01735232397913933</v>
+        <v>0.01790857687592506</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6210,7 +6210,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01735232397913933</v>
+        <v>0.01790857687592506</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
@@ -6262,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6314,7 +6314,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6340,7 +6340,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6366,7 +6366,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6392,7 +6392,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01446027029305697</v>
+        <v>0.01492381375283003</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6418,7 +6418,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.0115682166069746</v>
+        <v>0.01193905156105757</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.0115682166069746</v>
+        <v>0.01193905156105757</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6470,7 +6470,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.0115682166069746</v>
+        <v>0.01193905156105757</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
@@ -6493,10 +6493,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" s="2">
-        <v>0.0115682166069746</v>
+        <v>0.01193905156105757</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6522,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.0115682166069746</v>
+        <v>0.01193905156105757</v>
       </c>
       <c r="C141" s="1">
         <v>8</v>
@@ -6548,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6574,7 +6574,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6600,7 +6600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6626,7 +6626,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6652,7 +6652,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6678,7 +6678,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6704,7 +6704,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6730,7 +6730,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6756,7 +6756,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6782,7 +6782,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6808,7 +6808,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6834,7 +6834,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -6860,7 +6860,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -6886,7 +6886,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -6912,7 +6912,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -6938,7 +6938,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -6964,7 +6964,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -6990,7 +6990,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7016,7 +7016,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7042,7 +7042,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7068,7 +7068,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7094,7 +7094,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7120,7 +7120,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.008676161989569664</v>
+        <v>0.008954288437962532</v>
       </c>
       <c r="C164" s="1">
         <v>6</v>
@@ -7146,7 +7146,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.005784108303487301</v>
+        <v>0.005969525780528784</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7172,7 +7172,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.005784108303487301</v>
+        <v>0.005969525780528784</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.005784108303487301</v>
+        <v>0.005969525780528784</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7224,7 +7224,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.005784108303487301</v>
+        <v>0.005969525780528784</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
@@ -7250,7 +7250,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.00289205415174365</v>
+        <v>0.002984762890264392</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.00289205415174365</v>
+        <v>0.002984762890264392</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.00289205415174365</v>
+        <v>0.002984762890264392</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.00289205415174365</v>
+        <v>0.002984762890264392</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0.00289205415174365</v>
+        <v>0.002984762890264392</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>

--- a/MDK/McuSTUDIO_F470VET6_analysis.xlsx
+++ b/MDK/McuSTUDIO_F470VET6_analysis.xlsx
@@ -1376,517 +1376,517 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="172"/>
                 <c:pt idx="0">
-                  <c:v>18.97562980651856</c:v>
+                  <c:v>18.97336387634277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.073678970336914</c:v>
+                  <c:v>9.072595596313477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.167803764343262</c:v>
+                  <c:v>8.166828155517578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.775516033172607</c:v>
+                  <c:v>5.774826526641846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.757816314697266</c:v>
+                  <c:v>3.769305467605591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.211604833602905</c:v>
+                  <c:v>3.21122145652771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.077290534973145</c:v>
+                  <c:v>3.076923131942749</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.540033102035523</c:v>
+                  <c:v>2.539729833602905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.381840705871582</c:v>
+                  <c:v>2.381556272506714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.35497784614563</c:v>
+                  <c:v>2.354696750640869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.271404504776001</c:v>
+                  <c:v>2.271133422851563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.898309111595154</c:v>
+                  <c:v>1.898082494735718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.572970032691956</c:v>
+                  <c:v>1.572782158851624</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.45656418800354</c:v>
+                  <c:v>1.456390380859375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.331204175949097</c:v>
+                  <c:v>1.331045269966126</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.319265127182007</c:v>
+                  <c:v>1.31910765171051</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.196889877319336</c:v>
+                  <c:v>1.196746945381165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.193905115127564</c:v>
+                  <c:v>1.193762540817261</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.174504160881043</c:v>
+                  <c:v>1.174363970756531</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.113316535949707</c:v>
+                  <c:v>1.113183617591858</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.110331773757935</c:v>
+                  <c:v>1.110199213027954</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.10436224937439</c:v>
+                  <c:v>1.104230403900147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.047651767730713</c:v>
+                  <c:v>1.047526717185974</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.002880334854126</c:v>
+                  <c:v>1.002760529518127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8745355010032654</c:v>
+                  <c:v>0.8744310736656189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8566269278526306</c:v>
+                  <c:v>0.856524646282196</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8148402571678162</c:v>
+                  <c:v>0.8147429823875427</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7790231108665466</c:v>
+                  <c:v>0.7789300680160523</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7730535864830017</c:v>
+                  <c:v>0.7729612588882446</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7342516183853149</c:v>
+                  <c:v>0.7341639995574951</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6715716123580933</c:v>
+                  <c:v>0.6714914441108704</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6536630392074585</c:v>
+                  <c:v>0.6535850167274475</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6103839874267578</c:v>
+                  <c:v>0.6103111505508423</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6088916063308716</c:v>
+                  <c:v>0.6088189482688904</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5611354112625122</c:v>
+                  <c:v>0.5610684156417847</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5074096918106079</c:v>
+                  <c:v>0.5073490738868713</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4954706132411957</c:v>
+                  <c:v>0.4954114854335785</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.471592515707016</c:v>
+                  <c:v>0.4715362191200256</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4596534669399262</c:v>
+                  <c:v>0.4595986008644104</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3969734609127045</c:v>
+                  <c:v>0.396926075220108</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.393988698720932</c:v>
+                  <c:v>0.3939416408538818</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3760801255702972</c:v>
+                  <c:v>0.376035213470459</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3551867604255676</c:v>
+                  <c:v>0.3551443815231323</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3402629494667053</c:v>
+                  <c:v>0.3402223289012909</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3044458031654358</c:v>
+                  <c:v>0.3044094741344452</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.292506754398346</c:v>
+                  <c:v>0.2924718260765076</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2805677056312561</c:v>
+                  <c:v>0.2805342078208923</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2686286568641663</c:v>
+                  <c:v>0.2685965895652771</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2656438946723938</c:v>
+                  <c:v>0.2656121850013733</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2626591324806213</c:v>
+                  <c:v>0.2626277804374695</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2328114956617355</c:v>
+                  <c:v>0.232783704996109</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2238572090864182</c:v>
+                  <c:v>0.2238304913043976</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2208724468946457</c:v>
+                  <c:v>0.2208460718393326</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2208724468946457</c:v>
+                  <c:v>0.2208460718393326</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2089333981275559</c:v>
+                  <c:v>0.2089084535837174</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2089333981275559</c:v>
+                  <c:v>0.2089084535837174</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2074410170316696</c:v>
+                  <c:v>0.2074162513017654</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2059486359357834</c:v>
+                  <c:v>0.2059240490198135</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2059486359357834</c:v>
+                  <c:v>0.2059240490198135</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2029638737440109</c:v>
+                  <c:v>0.2029396444559097</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1910248249769211</c:v>
+                  <c:v>0.1910020112991333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1910248249769211</c:v>
+                  <c:v>0.1910020112991333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.185055285692215</c:v>
+                  <c:v>0.1850332021713257</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1820705235004425</c:v>
+                  <c:v>0.1820487976074219</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.17908576130867</c:v>
+                  <c:v>0.1790643930435181</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.17908576130867</c:v>
+                  <c:v>0.1790643930435181</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17908576130867</c:v>
+                  <c:v>0.1790643930435181</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1671467125415802</c:v>
+                  <c:v>0.1671267598867416</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1611771881580353</c:v>
+                  <c:v>0.161157950758934</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1552076637744904</c:v>
+                  <c:v>0.1551891416311264</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1492381393909454</c:v>
+                  <c:v>0.1492203176021576</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1492381393909454</c:v>
+                  <c:v>0.1492203176021576</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1492381393909454</c:v>
+                  <c:v>0.1492203176021576</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.146253377199173</c:v>
+                  <c:v>0.1462359130382538</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1372990906238556</c:v>
+                  <c:v>0.1372826993465424</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1343143284320831</c:v>
+                  <c:v>0.1342982947826386</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1313295662403107</c:v>
+                  <c:v>0.1313138902187347</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1283448040485382</c:v>
+                  <c:v>0.1283294856548309</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1283448040485382</c:v>
+                  <c:v>0.1283294856548309</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1223752722144127</c:v>
+                  <c:v>0.1223606690764427</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1164057478308678</c:v>
+                  <c:v>0.1163918524980545</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1164057478308678</c:v>
+                  <c:v>0.1163918524980545</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1104362234473229</c:v>
+                  <c:v>0.1104230359196663</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1074514612555504</c:v>
+                  <c:v>0.1074386313557625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1074514612555504</c:v>
+                  <c:v>0.1074386313557625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1074514612555504</c:v>
+                  <c:v>0.1074386313557625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1014819368720055</c:v>
+                  <c:v>0.1014698222279549</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.09551241248846054</c:v>
+                  <c:v>0.09550100564956665</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.09551241248846054</c:v>
+                  <c:v>0.09550100564956665</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.09551241248846054</c:v>
+                  <c:v>0.09550100564956665</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.09252764284610748</c:v>
+                  <c:v>0.09251660108566284</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.08954288065433502</c:v>
+                  <c:v>0.08953219652175903</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.07760383188724518</c:v>
+                  <c:v>0.0775945708155632</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.07760383188724518</c:v>
+                  <c:v>0.0775945708155632</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.07760383188724518</c:v>
+                  <c:v>0.0775945708155632</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.07163430750370026</c:v>
+                  <c:v>0.07162575423717499</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.07163430750370026</c:v>
+                  <c:v>0.07162575423717499</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.07163430750370026</c:v>
+                  <c:v>0.07162575423717499</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06566478312015533</c:v>
+                  <c:v>0.06565694510936737</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.06566478312015533</c:v>
+                  <c:v>0.06565694510936737</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.06566478312015533</c:v>
+                  <c:v>0.06565694510936737</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.06566478312015533</c:v>
+                  <c:v>0.06565694510936737</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.05969525501132011</c:v>
+                  <c:v>0.05968812853097916</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.05671049281954765</c:v>
+                  <c:v>0.05670372396707535</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.05671049281954765</c:v>
+                  <c:v>0.05670372396707535</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05372573062777519</c:v>
+                  <c:v>0.05371931567788124</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.05372573062777519</c:v>
+                  <c:v>0.05371931567788124</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04775620624423027</c:v>
+                  <c:v>0.04775050282478333</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.04178667813539505</c:v>
+                  <c:v>0.04178168997168541</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.04178667813539505</c:v>
+                  <c:v>0.04178168997168541</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.03581715375185013</c:v>
+                  <c:v>0.03581287711858749</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03581715375185013</c:v>
+                  <c:v>0.03581287711858749</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.03283239156007767</c:v>
+                  <c:v>0.03282847255468369</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.02984762750566006</c:v>
+                  <c:v>0.02984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.02984762750566006</c:v>
+                  <c:v>0.02984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.0268628653138876</c:v>
+                  <c:v>0.02685965783894062</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.0268628653138876</c:v>
+                  <c:v>0.02685965783894062</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.02387810312211514</c:v>
+                  <c:v>0.02387525141239166</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.02387810312211514</c:v>
+                  <c:v>0.02387525141239166</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.02387810312211514</c:v>
+                  <c:v>0.02387525141239166</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.02387810312211514</c:v>
+                  <c:v>0.02387525141239166</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.02387810312211514</c:v>
+                  <c:v>0.02387525141239166</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.02089333906769753</c:v>
+                  <c:v>0.02089084498584271</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.01790857687592506</c:v>
+                  <c:v>0.01790643855929375</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.01790857687592506</c:v>
+                  <c:v>0.01790643855929375</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.01790857687592506</c:v>
+                  <c:v>0.01790643855929375</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.01790857687592506</c:v>
+                  <c:v>0.01790643855929375</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.01492381375283003</c:v>
+                  <c:v>0.01492203213274479</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.01193905156105757</c:v>
+                  <c:v>0.01193762570619583</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.01193905156105757</c:v>
+                  <c:v>0.01193762570619583</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.01193905156105757</c:v>
+                  <c:v>0.01193762570619583</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.01193905156105757</c:v>
+                  <c:v>0.01193762570619583</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.01193905156105757</c:v>
+                  <c:v>0.01193762570619583</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.008954288437962532</c:v>
+                  <c:v>0.008953219279646874</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.005969525780528784</c:v>
+                  <c:v>0.005968812853097916</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.005969525780528784</c:v>
+                  <c:v>0.005968812853097916</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.005969525780528784</c:v>
+                  <c:v>0.005968812853097916</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.005969525780528784</c:v>
+                  <c:v>0.005968812853097916</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.002984762890264392</c:v>
+                  <c:v>0.002984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.002984762890264392</c:v>
+                  <c:v>0.002984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.002984762890264392</c:v>
+                  <c:v>0.002984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.002984762890264392</c:v>
+                  <c:v>0.002984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.002984762890264392</c:v>
+                  <c:v>0.002984406426548958</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0</c:v>
@@ -2362,10 +2362,10 @@
         <v>2768</v>
       </c>
       <c r="D3" s="1">
-        <v>2518</v>
+        <v>2526</v>
       </c>
       <c r="E3" s="1">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>18.97562980651856</v>
+        <v>18.97336387634277</v>
       </c>
       <c r="C3" s="1">
         <v>12715</v>
@@ -2960,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>9.073678970336914</v>
+        <v>9.072595596313477</v>
       </c>
       <c r="C4" s="1">
         <v>6080</v>
@@ -2986,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>8.167803764343262</v>
+        <v>8.166828155517578</v>
       </c>
       <c r="C5" s="1">
         <v>5473</v>
@@ -3012,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>5.775516033172607</v>
+        <v>5.774826526641846</v>
       </c>
       <c r="C6" s="1">
         <v>3870</v>
@@ -3038,16 +3038,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>3.757816314697266</v>
+        <v>3.769305467605591</v>
       </c>
       <c r="C7" s="1">
-        <v>2518</v>
+        <v>2526</v>
       </c>
       <c r="D7" s="1">
         <v>2768</v>
       </c>
       <c r="E7" s="1">
-        <v>2502</v>
+        <v>2510</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>3.211604833602905</v>
+        <v>3.21122145652771</v>
       </c>
       <c r="C8" s="1">
         <v>2152</v>
@@ -3090,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>3.077290534973145</v>
+        <v>3.076923131942749</v>
       </c>
       <c r="C9" s="1">
         <v>2062</v>
@@ -3116,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>2.540033102035523</v>
+        <v>2.539729833602905</v>
       </c>
       <c r="C10" s="1">
         <v>1702</v>
@@ -3142,7 +3142,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>2.381840705871582</v>
+        <v>2.381556272506714</v>
       </c>
       <c r="C11" s="1">
         <v>1596</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2.35497784614563</v>
+        <v>2.354696750640869</v>
       </c>
       <c r="C12" s="1">
         <v>1578</v>
@@ -3194,7 +3194,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>2.271404504776001</v>
+        <v>2.271133422851563</v>
       </c>
       <c r="C13" s="1">
         <v>1522</v>
@@ -3220,7 +3220,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>1.898309111595154</v>
+        <v>1.898082494735718</v>
       </c>
       <c r="C14" s="1">
         <v>1272</v>
@@ -3246,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1.572970032691956</v>
+        <v>1.572782158851624</v>
       </c>
       <c r="C15" s="1">
         <v>1054</v>
@@ -3272,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>1.45656418800354</v>
+        <v>1.456390380859375</v>
       </c>
       <c r="C16" s="1">
         <v>976</v>
@@ -3298,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>1.331204175949097</v>
+        <v>1.331045269966126</v>
       </c>
       <c r="C17" s="1">
         <v>892</v>
@@ -3324,7 +3324,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>1.319265127182007</v>
+        <v>1.31910765171051</v>
       </c>
       <c r="C18" s="1">
         <v>884</v>
@@ -3350,7 +3350,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>1.196889877319336</v>
+        <v>1.196746945381165</v>
       </c>
       <c r="C19" s="1">
         <v>802</v>
@@ -3376,7 +3376,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>1.193905115127564</v>
+        <v>1.193762540817261</v>
       </c>
       <c r="C20" s="1">
         <v>800</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1.174504160881043</v>
+        <v>1.174363970756531</v>
       </c>
       <c r="C21" s="1">
         <v>787</v>
@@ -3428,7 +3428,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1.113316535949707</v>
+        <v>1.113183617591858</v>
       </c>
       <c r="C22" s="1">
         <v>746</v>
@@ -3454,7 +3454,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>1.110331773757935</v>
+        <v>1.110199213027954</v>
       </c>
       <c r="C23" s="1">
         <v>744</v>
@@ -3480,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.10436224937439</v>
+        <v>1.104230403900147</v>
       </c>
       <c r="C24" s="1">
         <v>740</v>
@@ -3506,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.047651767730713</v>
+        <v>1.047526717185974</v>
       </c>
       <c r="C25" s="1">
         <v>702</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>1.002880334854126</v>
+        <v>1.002760529518127</v>
       </c>
       <c r="C26" s="1">
         <v>672</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>0.8745355010032654</v>
+        <v>0.8744310736656189</v>
       </c>
       <c r="C27" s="1">
         <v>586</v>
@@ -3584,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8566269278526306</v>
+        <v>0.856524646282196</v>
       </c>
       <c r="C28" s="1">
         <v>574</v>
@@ -3610,7 +3610,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8148402571678162</v>
+        <v>0.8147429823875427</v>
       </c>
       <c r="C29" s="1">
         <v>546</v>
@@ -3636,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7790231108665466</v>
+        <v>0.7789300680160523</v>
       </c>
       <c r="C30" s="1">
         <v>522</v>
@@ -3662,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7730535864830017</v>
+        <v>0.7729612588882446</v>
       </c>
       <c r="C31" s="1">
         <v>518</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7342516183853149</v>
+        <v>0.7341639995574951</v>
       </c>
       <c r="C32" s="1">
         <v>492</v>
@@ -3714,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6715716123580933</v>
+        <v>0.6714914441108704</v>
       </c>
       <c r="C33" s="1">
         <v>450</v>
@@ -3740,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6536630392074585</v>
+        <v>0.6535850167274475</v>
       </c>
       <c r="C34" s="1">
         <v>438</v>
@@ -3766,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6103839874267578</v>
+        <v>0.6103111505508423</v>
       </c>
       <c r="C35" s="1">
         <v>409</v>
@@ -3792,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>0.6088916063308716</v>
+        <v>0.6088189482688904</v>
       </c>
       <c r="C36" s="1">
         <v>408</v>
@@ -3818,7 +3818,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5611354112625122</v>
+        <v>0.5610684156417847</v>
       </c>
       <c r="C37" s="1">
         <v>376</v>
@@ -3844,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5074096918106079</v>
+        <v>0.5073490738868713</v>
       </c>
       <c r="C38" s="1">
         <v>340</v>
@@ -3870,7 +3870,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4954706132411957</v>
+        <v>0.4954114854335785</v>
       </c>
       <c r="C39" s="1">
         <v>332</v>
@@ -3896,7 +3896,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.471592515707016</v>
+        <v>0.4715362191200256</v>
       </c>
       <c r="C40" s="1">
         <v>316</v>
@@ -3922,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4596534669399262</v>
+        <v>0.4595986008644104</v>
       </c>
       <c r="C41" s="1">
         <v>308</v>
@@ -3948,7 +3948,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3969734609127045</v>
+        <v>0.396926075220108</v>
       </c>
       <c r="C42" s="1">
         <v>266</v>
@@ -3974,7 +3974,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>0.393988698720932</v>
+        <v>0.3939416408538818</v>
       </c>
       <c r="C43" s="1">
         <v>264</v>
@@ -4000,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3760801255702972</v>
+        <v>0.376035213470459</v>
       </c>
       <c r="C44" s="1">
         <v>252</v>
@@ -4026,7 +4026,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3551867604255676</v>
+        <v>0.3551443815231323</v>
       </c>
       <c r="C45" s="1">
         <v>238</v>
@@ -4052,7 +4052,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>0.3402629494667053</v>
+        <v>0.3402223289012909</v>
       </c>
       <c r="C46" s="1">
         <v>228</v>
@@ -4078,7 +4078,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>0.3044458031654358</v>
+        <v>0.3044094741344452</v>
       </c>
       <c r="C47" s="1">
         <v>204</v>
@@ -4104,7 +4104,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>0.292506754398346</v>
+        <v>0.2924718260765076</v>
       </c>
       <c r="C48" s="1">
         <v>196</v>
@@ -4130,7 +4130,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2805677056312561</v>
+        <v>0.2805342078208923</v>
       </c>
       <c r="C49" s="1">
         <v>188</v>
@@ -4156,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2686286568641663</v>
+        <v>0.2685965895652771</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -4182,7 +4182,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2656438946723938</v>
+        <v>0.2656121850013733</v>
       </c>
       <c r="C51" s="1">
         <v>178</v>
@@ -4208,7 +4208,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2626591324806213</v>
+        <v>0.2626277804374695</v>
       </c>
       <c r="C52" s="1">
         <v>176</v>
@@ -4234,7 +4234,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2328114956617355</v>
+        <v>0.232783704996109</v>
       </c>
       <c r="C53" s="1">
         <v>156</v>
@@ -4260,7 +4260,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2238572090864182</v>
+        <v>0.2238304913043976</v>
       </c>
       <c r="C54" s="1">
         <v>150</v>
@@ -4286,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2208724468946457</v>
+        <v>0.2208460718393326</v>
       </c>
       <c r="C55" s="1">
         <v>148</v>
@@ -4312,7 +4312,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2208724468946457</v>
+        <v>0.2208460718393326</v>
       </c>
       <c r="C56" s="1">
         <v>148</v>
@@ -4338,7 +4338,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2089333981275559</v>
+        <v>0.2089084535837174</v>
       </c>
       <c r="C57" s="1">
         <v>140</v>
@@ -4364,7 +4364,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>0.2089333981275559</v>
+        <v>0.2089084535837174</v>
       </c>
       <c r="C58" s="1">
         <v>140</v>
@@ -4390,7 +4390,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="2">
-        <v>0.2074410170316696</v>
+        <v>0.2074162513017654</v>
       </c>
       <c r="C59" s="1">
         <v>139</v>
@@ -4416,7 +4416,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.2059486359357834</v>
+        <v>0.2059240490198135</v>
       </c>
       <c r="C60" s="1">
         <v>138</v>
@@ -4442,7 +4442,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.2059486359357834</v>
+        <v>0.2059240490198135</v>
       </c>
       <c r="C61" s="1">
         <v>138</v>
@@ -4468,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="2">
-        <v>0.2029638737440109</v>
+        <v>0.2029396444559097</v>
       </c>
       <c r="C62" s="1">
         <v>136</v>
@@ -4494,7 +4494,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1910248249769211</v>
+        <v>0.1910020112991333</v>
       </c>
       <c r="C63" s="1">
         <v>128</v>
@@ -4520,7 +4520,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1910248249769211</v>
+        <v>0.1910020112991333</v>
       </c>
       <c r="C64" s="1">
         <v>128</v>
@@ -4546,7 +4546,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>0.185055285692215</v>
+        <v>0.1850332021713257</v>
       </c>
       <c r="C65" s="1">
         <v>124</v>
@@ -4572,7 +4572,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1820705235004425</v>
+        <v>0.1820487976074219</v>
       </c>
       <c r="C66" s="1">
         <v>122</v>
@@ -4598,7 +4598,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>0.17908576130867</v>
+        <v>0.1790643930435181</v>
       </c>
       <c r="C67" s="1">
         <v>120</v>
@@ -4624,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>0.17908576130867</v>
+        <v>0.1790643930435181</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -4650,7 +4650,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>0.17908576130867</v>
+        <v>0.1790643930435181</v>
       </c>
       <c r="C69" s="1">
         <v>120</v>
@@ -4676,7 +4676,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1671467125415802</v>
+        <v>0.1671267598867416</v>
       </c>
       <c r="C70" s="1">
         <v>112</v>
@@ -4702,7 +4702,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1611771881580353</v>
+        <v>0.161157950758934</v>
       </c>
       <c r="C71" s="1">
         <v>108</v>
@@ -4728,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1552076637744904</v>
+        <v>0.1551891416311264</v>
       </c>
       <c r="C72" s="1">
         <v>104</v>
@@ -4754,7 +4754,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1492381393909454</v>
+        <v>0.1492203176021576</v>
       </c>
       <c r="C73" s="1">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1492381393909454</v>
+        <v>0.1492203176021576</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -4806,7 +4806,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>0.1492381393909454</v>
+        <v>0.1492203176021576</v>
       </c>
       <c r="C75" s="1">
         <v>100</v>
@@ -4832,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>0.146253377199173</v>
+        <v>0.1462359130382538</v>
       </c>
       <c r="C76" s="1">
         <v>98</v>
@@ -4858,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1372990906238556</v>
+        <v>0.1372826993465424</v>
       </c>
       <c r="C77" s="1">
         <v>92</v>
@@ -4884,7 +4884,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>0.1343143284320831</v>
+        <v>0.1342982947826386</v>
       </c>
       <c r="C78" s="1">
         <v>90</v>
@@ -4910,7 +4910,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1313295662403107</v>
+        <v>0.1313138902187347</v>
       </c>
       <c r="C79" s="1">
         <v>88</v>
@@ -4936,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>0.1283448040485382</v>
+        <v>0.1283294856548309</v>
       </c>
       <c r="C80" s="1">
         <v>86</v>
@@ -4962,7 +4962,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>0.1283448040485382</v>
+        <v>0.1283294856548309</v>
       </c>
       <c r="C81" s="1">
         <v>86</v>
@@ -4988,7 +4988,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>0.1223752722144127</v>
+        <v>0.1223606690764427</v>
       </c>
       <c r="C82" s="1">
         <v>82</v>
@@ -5014,7 +5014,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>0.1164057478308678</v>
+        <v>0.1163918524980545</v>
       </c>
       <c r="C83" s="1">
         <v>78</v>
@@ -5040,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1164057478308678</v>
+        <v>0.1163918524980545</v>
       </c>
       <c r="C84" s="1">
         <v>78</v>
@@ -5066,7 +5066,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>0.1104362234473229</v>
+        <v>0.1104230359196663</v>
       </c>
       <c r="C85" s="1">
         <v>74</v>
@@ -5092,7 +5092,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>0.1074514612555504</v>
+        <v>0.1074386313557625</v>
       </c>
       <c r="C86" s="1">
         <v>72</v>
@@ -5118,7 +5118,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>0.1074514612555504</v>
+        <v>0.1074386313557625</v>
       </c>
       <c r="C87" s="1">
         <v>72</v>
@@ -5144,7 +5144,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>0.1074514612555504</v>
+        <v>0.1074386313557625</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
@@ -5170,7 +5170,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>0.1014819368720055</v>
+        <v>0.1014698222279549</v>
       </c>
       <c r="C89" s="1">
         <v>68</v>
@@ -5196,7 +5196,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>0.09551241248846054</v>
+        <v>0.09550100564956665</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -5222,7 +5222,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>0.09551241248846054</v>
+        <v>0.09550100564956665</v>
       </c>
       <c r="C91" s="1">
         <v>64</v>
@@ -5248,7 +5248,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>0.09551241248846054</v>
+        <v>0.09550100564956665</v>
       </c>
       <c r="C92" s="1">
         <v>64</v>
@@ -5274,7 +5274,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>0.09252764284610748</v>
+        <v>0.09251660108566284</v>
       </c>
       <c r="C93" s="1">
         <v>62</v>
@@ -5300,7 +5300,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>0.08954288065433502</v>
+        <v>0.08953219652175903</v>
       </c>
       <c r="C94" s="1">
         <v>60</v>
@@ -5326,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.07760383188724518</v>
+        <v>0.0775945708155632</v>
       </c>
       <c r="C95" s="1">
         <v>52</v>
@@ -5352,7 +5352,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.07760383188724518</v>
+        <v>0.0775945708155632</v>
       </c>
       <c r="C96" s="1">
         <v>52</v>
@@ -5378,7 +5378,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.07760383188724518</v>
+        <v>0.0775945708155632</v>
       </c>
       <c r="C97" s="1">
         <v>52</v>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.07163430750370026</v>
+        <v>0.07162575423717499</v>
       </c>
       <c r="C98" s="1">
         <v>48</v>
@@ -5430,7 +5430,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.07163430750370026</v>
+        <v>0.07162575423717499</v>
       </c>
       <c r="C99" s="1">
         <v>48</v>
@@ -5456,7 +5456,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>0.07163430750370026</v>
+        <v>0.07162575423717499</v>
       </c>
       <c r="C100" s="1">
         <v>48</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>0.06566478312015533</v>
+        <v>0.06565694510936737</v>
       </c>
       <c r="C101" s="1">
         <v>44</v>
@@ -5508,7 +5508,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>0.06566478312015533</v>
+        <v>0.06565694510936737</v>
       </c>
       <c r="C102" s="1">
         <v>44</v>
@@ -5534,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>0.06566478312015533</v>
+        <v>0.06565694510936737</v>
       </c>
       <c r="C103" s="1">
         <v>44</v>
@@ -5560,7 +5560,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>0.06566478312015533</v>
+        <v>0.06565694510936737</v>
       </c>
       <c r="C104" s="1">
         <v>44</v>
@@ -5586,7 +5586,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0.05969525501132011</v>
+        <v>0.05968812853097916</v>
       </c>
       <c r="C105" s="1">
         <v>40</v>
@@ -5612,7 +5612,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>0.05671049281954765</v>
+        <v>0.05670372396707535</v>
       </c>
       <c r="C106" s="1">
         <v>38</v>
@@ -5638,7 +5638,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>0.05671049281954765</v>
+        <v>0.05670372396707535</v>
       </c>
       <c r="C107" s="1">
         <v>38</v>
@@ -5664,7 +5664,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>0.05372573062777519</v>
+        <v>0.05371931567788124</v>
       </c>
       <c r="C108" s="1">
         <v>36</v>
@@ -5690,7 +5690,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>0.05372573062777519</v>
+        <v>0.05371931567788124</v>
       </c>
       <c r="C109" s="1">
         <v>36</v>
@@ -5716,7 +5716,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>0.04775620624423027</v>
+        <v>0.04775050282478333</v>
       </c>
       <c r="C110" s="1">
         <v>32</v>
@@ -5742,7 +5742,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>0.04178667813539505</v>
+        <v>0.04178168997168541</v>
       </c>
       <c r="C111" s="1">
         <v>28</v>
@@ -5768,7 +5768,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>0.04178667813539505</v>
+        <v>0.04178168997168541</v>
       </c>
       <c r="C112" s="1">
         <v>28</v>
@@ -5794,7 +5794,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>0.03581715375185013</v>
+        <v>0.03581287711858749</v>
       </c>
       <c r="C113" s="1">
         <v>24</v>
@@ -5820,7 +5820,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>0.03581715375185013</v>
+        <v>0.03581287711858749</v>
       </c>
       <c r="C114" s="1">
         <v>24</v>
@@ -5846,7 +5846,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>0.03283239156007767</v>
+        <v>0.03282847255468369</v>
       </c>
       <c r="C115" s="1">
         <v>22</v>
@@ -5872,7 +5872,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>0.02984762750566006</v>
+        <v>0.02984406426548958</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -5898,7 +5898,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>0.02984762750566006</v>
+        <v>0.02984406426548958</v>
       </c>
       <c r="C117" s="1">
         <v>20</v>
@@ -5924,7 +5924,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0.0268628653138876</v>
+        <v>0.02685965783894062</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5950,7 +5950,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>0.0268628653138876</v>
+        <v>0.02685965783894062</v>
       </c>
       <c r="C119" s="1">
         <v>18</v>
@@ -5976,7 +5976,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>0.02387810312211514</v>
+        <v>0.02387525141239166</v>
       </c>
       <c r="C120" s="1">
         <v>16</v>
@@ -6002,7 +6002,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>0.02387810312211514</v>
+        <v>0.02387525141239166</v>
       </c>
       <c r="C121" s="1">
         <v>16</v>
@@ -6028,7 +6028,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>0.02387810312211514</v>
+        <v>0.02387525141239166</v>
       </c>
       <c r="C122" s="1">
         <v>16</v>
@@ -6054,7 +6054,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>0.02387810312211514</v>
+        <v>0.02387525141239166</v>
       </c>
       <c r="C123" s="1">
         <v>16</v>
@@ -6080,7 +6080,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>0.02387810312211514</v>
+        <v>0.02387525141239166</v>
       </c>
       <c r="C124" s="1">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>0.02089333906769753</v>
+        <v>0.02089084498584271</v>
       </c>
       <c r="C125" s="1">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>0.01790857687592506</v>
+        <v>0.01790643855929375</v>
       </c>
       <c r="C126" s="1">
         <v>12</v>
@@ -6158,7 +6158,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>0.01790857687592506</v>
+        <v>0.01790643855929375</v>
       </c>
       <c r="C127" s="1">
         <v>12</v>
@@ -6184,7 +6184,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>0.01790857687592506</v>
+        <v>0.01790643855929375</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -6210,7 +6210,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>0.01790857687592506</v>
+        <v>0.01790643855929375</v>
       </c>
       <c r="C129" s="1">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
@@ -6262,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
@@ -6314,7 +6314,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
@@ -6340,7 +6340,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
@@ -6366,7 +6366,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
@@ -6392,7 +6392,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>0.01492381375283003</v>
+        <v>0.01492203213274479</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
@@ -6418,7 +6418,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>0.01193905156105757</v>
+        <v>0.01193762570619583</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>0.01193905156105757</v>
+        <v>0.01193762570619583</v>
       </c>
       <c r="C138" s="1">
         <v>8</v>
@@ -6470,7 +6470,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>0.01193905156105757</v>
+        <v>0.01193762570619583</v>
       </c>
       <c r="C139" s="1">
         <v>8</v>
@@ -6496,7 +6496,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="2">
-        <v>0.01193905156105757</v>
+        <v>0.01193762570619583</v>
       </c>
       <c r="C140" s="1">
         <v>8</v>
@@ -6522,7 +6522,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>0.01193905156105757</v>
+        <v>0.01193762570619583</v>
       </c>
       <c r="C141" s="1">
         <v>8</v>
@@ -6548,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -6574,7 +6574,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -6600,7 +6600,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C144" s="1">
         <v>6</v>
@@ -6626,7 +6626,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C145" s="1">
         <v>6</v>
@@ -6652,7 +6652,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C146" s="1">
         <v>6</v>
@@ -6678,7 +6678,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C147" s="1">
         <v>6</v>
@@ -6704,7 +6704,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -6730,7 +6730,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -6756,7 +6756,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -6782,7 +6782,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -6808,7 +6808,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6834,7 +6834,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C153" s="1">
         <v>6</v>
@@ -6860,7 +6860,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C154" s="1">
         <v>6</v>
@@ -6886,7 +6886,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C155" s="1">
         <v>6</v>
@@ -6912,7 +6912,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C156" s="1">
         <v>6</v>
@@ -6938,7 +6938,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C157" s="1">
         <v>6</v>
@@ -6964,7 +6964,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C158" s="1">
         <v>6</v>
@@ -6990,7 +6990,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C159" s="1">
         <v>6</v>
@@ -7016,7 +7016,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -7042,7 +7042,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -7068,7 +7068,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -7094,7 +7094,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -7120,7 +7120,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>0.008954288437962532</v>
+        <v>0.008953219279646874</v>
       </c>
       <c r="C164" s="1">
         <v>6</v>
@@ -7146,7 +7146,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>0.005969525780528784</v>
+        <v>0.005968812853097916</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
@@ -7172,7 +7172,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>0.005969525780528784</v>
+        <v>0.005968812853097916</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>0.005969525780528784</v>
+        <v>0.005968812853097916</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7224,7 +7224,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>0.005969525780528784</v>
+        <v>0.005968812853097916</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
@@ -7250,7 +7250,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>0.002984762890264392</v>
+        <v>0.002984406426548958</v>
       </c>
       <c r="C169" s="1">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>0.002984762890264392</v>
+        <v>0.002984406426548958</v>
       </c>
       <c r="C170" s="1">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>0.002984762890264392</v>
+        <v>0.002984406426548958</v>
       </c>
       <c r="C171" s="1">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>0.002984762890264392</v>
+        <v>0.002984406426548958</v>
       </c>
       <c r="C172" s="1">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>0.002984762890264392</v>
+        <v>0.002984406426548958</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>
